--- a/data/compras-coronavirus.xlsx
+++ b/data/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="559">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -1308,6 +1308,24 @@
   </si>
   <si>
     <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
+  </si>
+  <si>
+    <t>2012015 000071/2020</t>
+  </si>
+  <si>
+    <t>Reagentes, Calibradores e Controles para realização de determinação qualitativa de anticorpos tipo IgG para SARS-COV-2 (coronavírus)</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163567</t>
+  </si>
+  <si>
+    <t>56.998.701/0032-12</t>
+  </si>
+  <si>
+    <t>ABBOTT LABORATORIOS DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>TESTE PARA IMUNODIAGNOSTICO SARS-COV-2 - APLICACAO: DETECCAO QUALITATIVA ANTICORPOS IGG P/ SARS-COV-2; METODO: QUIMIOLUMINESCENCIA; AMOSTRAS: SORO E PLASMA HUMANO;</t>
   </si>
   <si>
     <t>2121022 000013/2020</t>
@@ -1863,7 +1881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF212"/>
+  <dimension ref="A1:AF213"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -16830,7 +16848,7 @@
         <v>33</v>
       </c>
       <c r="C165" s="14">
-        <v>43907</v>
+        <v>43987</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>434</v>
@@ -16839,32 +16857,44 @@
         <v>33</v>
       </c>
       <c r="F165" s="16">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G165" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I165" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J165" s="17">
+        <v>9.251266e6</v>
+      </c>
+      <c r="K165" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="H165" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I165" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J165" s="17">
-        <v>0</v>
-      </c>
-      <c r="K165" s="15"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="15"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="18"/>
+      <c r="L165" s="17">
+        <v>2010</v>
+      </c>
+      <c r="M165" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="N165" s="18">
+        <v>44013</v>
+      </c>
+      <c r="O165" s="18">
+        <v>44013</v>
+      </c>
       <c r="P165" s="19"/>
-      <c r="Q165" s="18"/>
+      <c r="Q165" s="18">
+        <v>44192</v>
+      </c>
       <c r="R165" s="15" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="S165" s="15" t="s">
-        <v>227</v>
+        <v>437</v>
       </c>
       <c r="T165" s="13" t="s">
         <v>33</v>
@@ -16873,42 +16903,42 @@
         <v>33</v>
       </c>
       <c r="V165" s="17">
-        <v>1.669486e6</v>
+        <v>1.758276e6</v>
       </c>
       <c r="W165" s="15" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="X165" s="17">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y165" s="15" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="Z165" s="15" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="AA165" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB165" s="21">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="AC165" s="22">
-        <v>7.5</v>
+        <v>40.27</v>
       </c>
       <c r="AD165" s="22">
-        <v>7.5</v>
+        <v>40.27</v>
       </c>
       <c r="AE165" s="23">
-        <v>2250</v>
+        <v>120810</v>
       </c>
       <c r="AF165" s="23">
-        <v>2250</v>
+        <v>120810</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>33</v>
@@ -16917,7 +16947,7 @@
         <v>43907</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>33</v>
@@ -16926,7 +16956,7 @@
         <v>2120</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>36</v>
@@ -16957,51 +16987,51 @@
         <v>33</v>
       </c>
       <c r="V166" s="7">
-        <v>1.696041e6</v>
+        <v>1.669486e6</v>
       </c>
       <c r="W166" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="X166" s="7">
         <v>2121</v>
       </c>
       <c r="Y166" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z166" s="5" t="s">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="AA166" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB166" s="10">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC166" s="11">
-        <v>144</v>
+        <v>7.5</v>
       </c>
       <c r="AD166" s="11">
-        <v>80</v>
+        <v>7.5</v>
       </c>
       <c r="AE166" s="12">
-        <v>14400</v>
+        <v>2250</v>
       </c>
       <c r="AF166" s="12">
-        <v>8000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A167" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="14">
+        <v>43907</v>
+      </c>
+      <c r="D167" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C167" s="14">
-        <v>43908</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>441</v>
       </c>
       <c r="E167" s="15" t="s">
         <v>33</v>
@@ -17010,85 +17040,73 @@
         <v>2120</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H167" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>442</v>
+        <v>138</v>
       </c>
       <c r="J167" s="17">
-        <v>9.246044e6</v>
-      </c>
-      <c r="K167" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="L167" s="17">
-        <v>2120</v>
-      </c>
-      <c r="M167" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="N167" s="18">
-        <v>43976</v>
-      </c>
-      <c r="O167" s="18">
-        <v>43946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K167" s="15"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="18"/>
+      <c r="O167" s="18"/>
       <c r="P167" s="19"/>
-      <c r="Q167" s="18">
-        <v>44196</v>
-      </c>
+      <c r="Q167" s="18"/>
       <c r="R167" s="15" t="s">
-        <v>444</v>
+        <v>226</v>
       </c>
       <c r="S167" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="T167" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U167" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V167" s="17">
+        <v>1.696041e6</v>
+      </c>
+      <c r="W167" s="15" t="s">
         <v>445</v>
-      </c>
-      <c r="T167" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U167" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V167" s="17">
-        <v>1.66937e6</v>
-      </c>
-      <c r="W167" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="X167" s="17">
         <v>2121</v>
       </c>
       <c r="Y167" s="15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z167" s="15" t="s">
         <v>135</v>
       </c>
       <c r="AA167" s="13" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AB167" s="21">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="AC167" s="22">
-        <v>6.58</v>
+        <v>144</v>
       </c>
       <c r="AD167" s="22">
-        <v>6.58</v>
+        <v>80</v>
       </c>
       <c r="AE167" s="23">
-        <v>4606</v>
+        <v>14400</v>
       </c>
       <c r="AF167" s="23">
-        <v>4606</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>33</v>
@@ -17097,7 +17115,7 @@
         <v>43908</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>33</v>
@@ -17106,25 +17124,25 @@
         <v>2120</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="J168" s="7">
         <v>9.246044e6</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L168" s="7">
         <v>2120</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N168" s="8">
         <v>43976</v>
@@ -17137,10 +17155,10 @@
         <v>44196</v>
       </c>
       <c r="R168" s="5" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="S168" s="5" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="T168" s="3" t="s">
         <v>33</v>
@@ -17149,16 +17167,16 @@
         <v>33</v>
       </c>
       <c r="V168" s="7">
-        <v>1.669397e6</v>
+        <v>1.66937e6</v>
       </c>
       <c r="W168" s="5" t="s">
-        <v>446</v>
+        <v>193</v>
       </c>
       <c r="X168" s="7">
         <v>2121</v>
       </c>
       <c r="Y168" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z168" s="5" t="s">
         <v>135</v>
@@ -17167,24 +17185,24 @@
         <v>123</v>
       </c>
       <c r="AB168" s="10">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AC168" s="11">
-        <v>6.8</v>
+        <v>6.58</v>
       </c>
       <c r="AD168" s="11">
-        <v>6.8</v>
+        <v>6.58</v>
       </c>
       <c r="AE168" s="12">
-        <v>1360</v>
+        <v>4606</v>
       </c>
       <c r="AF168" s="12">
-        <v>1360</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A169" s="13" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>33</v>
@@ -17193,7 +17211,7 @@
         <v>43908</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E169" s="15" t="s">
         <v>33</v>
@@ -17202,25 +17220,25 @@
         <v>2120</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H169" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="J169" s="17">
         <v>9.246044e6</v>
       </c>
       <c r="K169" s="15" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L169" s="17">
         <v>2120</v>
       </c>
       <c r="M169" s="15" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N169" s="18">
         <v>43976</v>
@@ -17233,10 +17251,10 @@
         <v>44196</v>
       </c>
       <c r="R169" s="15" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="S169" s="15" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="T169" s="13" t="s">
         <v>33</v>
@@ -17245,51 +17263,51 @@
         <v>33</v>
       </c>
       <c r="V169" s="17">
-        <v>1.669486e6</v>
+        <v>1.669397e6</v>
       </c>
       <c r="W169" s="15" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="X169" s="17">
         <v>2121</v>
       </c>
       <c r="Y169" s="15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z169" s="15" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="AA169" s="13" t="s">
         <v>123</v>
       </c>
       <c r="AB169" s="21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC169" s="22">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="AD169" s="22">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="AE169" s="23">
-        <v>400</v>
+        <v>1360</v>
       </c>
       <c r="AF169" s="23">
-        <v>400</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A170" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="4">
+        <v>43908</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C170" s="4">
-        <v>43909</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>33</v>
@@ -17298,29 +17316,41 @@
         <v>2120</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>138</v>
+        <v>448</v>
       </c>
       <c r="J170" s="7">
-        <v>0</v>
-      </c>
-      <c r="K170" s="5"/>
-      <c r="L170" s="7"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="8"/>
-      <c r="O170" s="8"/>
+        <v>9.246044e6</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L170" s="7">
+        <v>2120</v>
+      </c>
+      <c r="M170" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="N170" s="8">
+        <v>43976</v>
+      </c>
+      <c r="O170" s="8">
+        <v>43946</v>
+      </c>
       <c r="P170" s="9"/>
-      <c r="Q170" s="8"/>
+      <c r="Q170" s="8">
+        <v>44196</v>
+      </c>
       <c r="R170" s="5" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="S170" s="5" t="s">
-        <v>227</v>
+        <v>451</v>
       </c>
       <c r="T170" s="3" t="s">
         <v>33</v>
@@ -17329,51 +17359,51 @@
         <v>33</v>
       </c>
       <c r="V170" s="7">
-        <v>513830</v>
+        <v>1.669486e6</v>
       </c>
       <c r="W170" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="X170" s="7">
         <v>2121</v>
       </c>
       <c r="Y170" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z170" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AA170" s="3" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AB170" s="10">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="AC170" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD170" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE170" s="12">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="AF170" s="12">
-        <v>1050</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A171" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B171" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C171" s="14">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E171" s="15" t="s">
         <v>33</v>
@@ -17382,7 +17412,7 @@
         <v>2120</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H171" s="13" t="s">
         <v>36</v>
@@ -17413,51 +17443,51 @@
         <v>33</v>
       </c>
       <c r="V171" s="17">
-        <v>1.69216e6</v>
+        <v>513830</v>
       </c>
       <c r="W171" s="15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="X171" s="17">
         <v>2121</v>
       </c>
       <c r="Y171" s="15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z171" s="15" t="s">
-        <v>135</v>
+        <v>456</v>
       </c>
       <c r="AA171" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB171" s="21">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC171" s="22">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AD171" s="22">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AE171" s="23">
-        <v>1600</v>
+        <v>1050</v>
       </c>
       <c r="AF171" s="23">
-        <v>1600</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C172" s="4">
-        <v>43938</v>
+        <v>43915</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>33</v>
@@ -17466,41 +17496,29 @@
         <v>2120</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="J172" s="7">
-        <v>9.246007e6</v>
-      </c>
-      <c r="K172" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="L172" s="7">
-        <v>2120</v>
-      </c>
-      <c r="M172" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="N172" s="8">
-        <v>43944</v>
-      </c>
-      <c r="O172" s="8">
-        <v>43944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K172" s="5"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="8"/>
+      <c r="O172" s="8"/>
       <c r="P172" s="9"/>
-      <c r="Q172" s="8">
-        <v>44126</v>
-      </c>
+      <c r="Q172" s="8"/>
       <c r="R172" s="5" t="s">
-        <v>457</v>
+        <v>226</v>
       </c>
       <c r="S172" s="5" t="s">
-        <v>458</v>
+        <v>227</v>
       </c>
       <c r="T172" s="3" t="s">
         <v>33</v>
@@ -17509,7 +17527,7 @@
         <v>33</v>
       </c>
       <c r="V172" s="7">
-        <v>1.71894e6</v>
+        <v>1.69216e6</v>
       </c>
       <c r="W172" s="5" t="s">
         <v>459</v>
@@ -17518,28 +17536,28 @@
         <v>2121</v>
       </c>
       <c r="Y172" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z172" s="5" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="AA172" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB172" s="10">
-        <v>84000</v>
+        <v>40</v>
       </c>
       <c r="AC172" s="11">
-        <v>2.2</v>
+        <v>40</v>
       </c>
       <c r="AD172" s="11">
-        <v>1.71</v>
+        <v>40</v>
       </c>
       <c r="AE172" s="12">
-        <v>184800</v>
+        <v>1600</v>
       </c>
       <c r="AF172" s="12">
-        <v>143640</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -17550,7 +17568,7 @@
         <v>33</v>
       </c>
       <c r="C173" s="14">
-        <v>43986</v>
+        <v>43938</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>461</v>
@@ -17562,29 +17580,41 @@
         <v>2120</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H173" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="J173" s="17">
-        <v>0</v>
-      </c>
-      <c r="K173" s="15"/>
-      <c r="L173" s="17"/>
-      <c r="M173" s="15"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="18"/>
+        <v>9.246007e6</v>
+      </c>
+      <c r="K173" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="L173" s="17">
+        <v>2120</v>
+      </c>
+      <c r="M173" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="N173" s="18">
+        <v>43944</v>
+      </c>
+      <c r="O173" s="18">
+        <v>43944</v>
+      </c>
       <c r="P173" s="19"/>
-      <c r="Q173" s="18"/>
+      <c r="Q173" s="18">
+        <v>44126</v>
+      </c>
       <c r="R173" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S173" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T173" s="13" t="s">
         <v>33</v>
@@ -17593,42 +17623,42 @@
         <v>33</v>
       </c>
       <c r="V173" s="17">
-        <v>50245</v>
+        <v>1.71894e6</v>
       </c>
       <c r="W173" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="X173" s="17">
         <v>2121</v>
       </c>
       <c r="Y173" s="15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z173" s="15" t="s">
-        <v>438</v>
+        <v>122</v>
       </c>
       <c r="AA173" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB173" s="21">
-        <v>200</v>
+        <v>84000</v>
       </c>
       <c r="AC173" s="22">
-        <v>1.9131</v>
+        <v>2.2</v>
       </c>
       <c r="AD173" s="22">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="AE173" s="23">
-        <v>382.62</v>
+        <v>184800</v>
       </c>
       <c r="AF173" s="23">
-        <v>368</v>
+        <v>143640</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>33</v>
@@ -17637,7 +17667,7 @@
         <v>43986</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>33</v>
@@ -17646,7 +17676,7 @@
         <v>2120</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>36</v>
@@ -17665,10 +17695,10 @@
       <c r="P174" s="9"/>
       <c r="Q174" s="8"/>
       <c r="R174" s="5" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="S174" s="5" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="T174" s="3" t="s">
         <v>33</v>
@@ -17677,37 +17707,37 @@
         <v>33</v>
       </c>
       <c r="V174" s="7">
-        <v>835889</v>
+        <v>50245</v>
       </c>
       <c r="W174" s="5" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X174" s="7">
         <v>2121</v>
       </c>
       <c r="Y174" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z174" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA174" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB174" s="10">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AC174" s="11">
-        <v>24</v>
+        <v>1.9131</v>
       </c>
       <c r="AD174" s="11">
-        <v>32.87</v>
+        <v>1.84</v>
       </c>
       <c r="AE174" s="12">
-        <v>720</v>
+        <v>382.62</v>
       </c>
       <c r="AF174" s="12">
-        <v>986.1</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -17718,7 +17748,7 @@
         <v>33</v>
       </c>
       <c r="C175" s="14">
-        <v>43920</v>
+        <v>43986</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>467</v>
@@ -17727,16 +17757,16 @@
         <v>33</v>
       </c>
       <c r="F175" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="H175" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="J175" s="17">
         <v>0</v>
@@ -17749,11 +17779,11 @@
       <c r="P175" s="19"/>
       <c r="Q175" s="18"/>
       <c r="R175" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="S175" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="S175" s="15" t="s">
-        <v>470</v>
-      </c>
       <c r="T175" s="13" t="s">
         <v>33</v>
       </c>
@@ -17761,42 +17791,42 @@
         <v>33</v>
       </c>
       <c r="V175" s="17">
-        <v>82414</v>
+        <v>835889</v>
       </c>
       <c r="W175" s="15" t="s">
         <v>471</v>
       </c>
       <c r="X175" s="17">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y175" s="15" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="Z175" s="15" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="AA175" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB175" s="21">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="AC175" s="22">
-        <v>676000e-6</v>
+        <v>24</v>
       </c>
       <c r="AD175" s="22">
-        <v>676000e-6</v>
+        <v>32.87</v>
       </c>
       <c r="AE175" s="23">
-        <v>6760</v>
+        <v>720</v>
       </c>
       <c r="AF175" s="23">
-        <v>6760</v>
+        <v>986.1</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>33</v>
@@ -17805,7 +17835,7 @@
         <v>43920</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>33</v>
@@ -17814,7 +17844,7 @@
         <v>2260</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>36</v>
@@ -17833,10 +17863,10 @@
       <c r="P176" s="9"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="5" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="S176" s="5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="T176" s="3" t="s">
         <v>33</v>
@@ -17845,42 +17875,42 @@
         <v>33</v>
       </c>
       <c r="V176" s="7">
-        <v>1.670891e6</v>
+        <v>82414</v>
       </c>
       <c r="W176" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="X176" s="7">
         <v>2261</v>
       </c>
       <c r="Y176" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z176" s="5" t="s">
-        <v>122</v>
+        <v>387</v>
       </c>
       <c r="AA176" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB176" s="10">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="AC176" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD176" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE176" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
       <c r="AF176" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A177" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B177" s="13" t="s">
         <v>33</v>
@@ -17889,7 +17919,7 @@
         <v>43920</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E177" s="15" t="s">
         <v>33</v>
@@ -17898,7 +17928,7 @@
         <v>2260</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H177" s="13" t="s">
         <v>36</v>
@@ -17917,10 +17947,10 @@
       <c r="P177" s="19"/>
       <c r="Q177" s="18"/>
       <c r="R177" s="15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="S177" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T177" s="13" t="s">
         <v>33</v>
@@ -17929,42 +17959,42 @@
         <v>33</v>
       </c>
       <c r="V177" s="17">
-        <v>1.69773e6</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W177" s="15" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="X177" s="17">
         <v>2261</v>
       </c>
       <c r="Y177" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z177" s="15" t="s">
-        <v>387</v>
+        <v>122</v>
       </c>
       <c r="AA177" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB177" s="21">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="AC177" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AD177" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AE177" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
       <c r="AF177" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>33</v>
@@ -17973,7 +18003,7 @@
         <v>43920</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>33</v>
@@ -17982,7 +18012,7 @@
         <v>2260</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>36</v>
@@ -18001,10 +18031,10 @@
       <c r="P178" s="9"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="5" t="s">
-        <v>384</v>
+        <v>479</v>
       </c>
       <c r="S178" s="5" t="s">
-        <v>385</v>
+        <v>480</v>
       </c>
       <c r="T178" s="3" t="s">
         <v>33</v>
@@ -18013,16 +18043,16 @@
         <v>33</v>
       </c>
       <c r="V178" s="7">
-        <v>394890</v>
+        <v>1.69773e6</v>
       </c>
       <c r="W178" s="5" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="X178" s="7">
         <v>2261</v>
       </c>
       <c r="Y178" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z178" s="5" t="s">
         <v>387</v>
@@ -18031,24 +18061,24 @@
         <v>44</v>
       </c>
       <c r="AB178" s="10">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="AC178" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AD178" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AE178" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
       <c r="AF178" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A179" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>33</v>
@@ -18057,7 +18087,7 @@
         <v>43920</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E179" s="15" t="s">
         <v>33</v>
@@ -18066,7 +18096,7 @@
         <v>2260</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H179" s="13" t="s">
         <v>36</v>
@@ -18097,16 +18127,16 @@
         <v>33</v>
       </c>
       <c r="V179" s="17">
-        <v>1.368818e6</v>
+        <v>394890</v>
       </c>
       <c r="W179" s="15" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="X179" s="17">
         <v>2261</v>
       </c>
       <c r="Y179" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z179" s="15" t="s">
         <v>387</v>
@@ -18115,24 +18145,24 @@
         <v>44</v>
       </c>
       <c r="AB179" s="21">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="AC179" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AD179" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AE179" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
       <c r="AF179" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>33</v>
@@ -18141,7 +18171,7 @@
         <v>43920</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>33</v>
@@ -18150,7 +18180,7 @@
         <v>2260</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>36</v>
@@ -18181,16 +18211,16 @@
         <v>33</v>
       </c>
       <c r="V180" s="7">
-        <v>1.497391e6</v>
+        <v>1.368818e6</v>
       </c>
       <c r="W180" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="X180" s="7">
         <v>2261</v>
       </c>
       <c r="Y180" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z180" s="5" t="s">
         <v>387</v>
@@ -18199,24 +18229,24 @@
         <v>44</v>
       </c>
       <c r="AB180" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC180" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AD180" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AE180" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
       <c r="AF180" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A181" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>33</v>
@@ -18225,7 +18255,7 @@
         <v>43920</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E181" s="15" t="s">
         <v>33</v>
@@ -18234,7 +18264,7 @@
         <v>2260</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H181" s="13" t="s">
         <v>36</v>
@@ -18253,10 +18283,10 @@
       <c r="P181" s="19"/>
       <c r="Q181" s="18"/>
       <c r="R181" s="15" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="S181" s="15" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="T181" s="13" t="s">
         <v>33</v>
@@ -18265,16 +18295,16 @@
         <v>33</v>
       </c>
       <c r="V181" s="17">
-        <v>1.669613e6</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W181" s="15" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X181" s="17">
         <v>2261</v>
       </c>
       <c r="Y181" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z181" s="15" t="s">
         <v>387</v>
@@ -18283,24 +18313,24 @@
         <v>44</v>
       </c>
       <c r="AB181" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC181" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AD181" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AE181" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
       <c r="AF181" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>33</v>
@@ -18309,7 +18339,7 @@
         <v>43920</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>33</v>
@@ -18318,7 +18348,7 @@
         <v>2260</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>36</v>
@@ -18337,10 +18367,10 @@
       <c r="P182" s="9"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="5" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="S182" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="T182" s="3" t="s">
         <v>33</v>
@@ -18349,16 +18379,16 @@
         <v>33</v>
       </c>
       <c r="V182" s="7">
-        <v>857025</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W182" s="5" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="X182" s="7">
         <v>2261</v>
       </c>
       <c r="Y182" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z182" s="5" t="s">
         <v>387</v>
@@ -18367,24 +18397,24 @@
         <v>44</v>
       </c>
       <c r="AB182" s="10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC182" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AD182" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AE182" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
       <c r="AF182" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A183" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B183" s="13" t="s">
         <v>33</v>
@@ -18393,7 +18423,7 @@
         <v>43920</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E183" s="15" t="s">
         <v>33</v>
@@ -18402,7 +18432,7 @@
         <v>2260</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H183" s="13" t="s">
         <v>36</v>
@@ -18421,10 +18451,10 @@
       <c r="P183" s="19"/>
       <c r="Q183" s="18"/>
       <c r="R183" s="15" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="S183" s="15" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T183" s="13" t="s">
         <v>33</v>
@@ -18433,16 +18463,16 @@
         <v>33</v>
       </c>
       <c r="V183" s="17">
-        <v>1.151746e6</v>
+        <v>857025</v>
       </c>
       <c r="W183" s="15" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="X183" s="17">
         <v>2261</v>
       </c>
       <c r="Y183" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z183" s="15" t="s">
         <v>387</v>
@@ -18451,24 +18481,24 @@
         <v>44</v>
       </c>
       <c r="AB183" s="21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AC183" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AD183" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AE183" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
       <c r="AF183" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>33</v>
@@ -18477,7 +18507,7 @@
         <v>43920</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>33</v>
@@ -18486,7 +18516,7 @@
         <v>2260</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>36</v>
@@ -18495,32 +18525,20 @@
         <v>37</v>
       </c>
       <c r="J184" s="7">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K184" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="L184" s="7">
-        <v>2260</v>
-      </c>
-      <c r="M184" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="N184" s="8">
-        <v>43936</v>
-      </c>
-      <c r="O184" s="8">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K184" s="5"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="8"/>
+      <c r="O184" s="8"/>
       <c r="P184" s="9"/>
-      <c r="Q184" s="8">
-        <v>44115</v>
-      </c>
+      <c r="Q184" s="8"/>
       <c r="R184" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="S184" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="T184" s="3" t="s">
         <v>33</v>
@@ -18529,42 +18547,42 @@
         <v>33</v>
       </c>
       <c r="V184" s="7">
-        <v>781673</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W184" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="X184" s="7">
         <v>2261</v>
       </c>
       <c r="Y184" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z184" s="5" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
       <c r="AA184" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB184" s="10">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="AC184" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AD184" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AE184" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
       <c r="AF184" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A185" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>33</v>
@@ -18573,7 +18591,7 @@
         <v>43920</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E185" s="15" t="s">
         <v>33</v>
@@ -18582,7 +18600,7 @@
         <v>2260</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H185" s="13" t="s">
         <v>36</v>
@@ -18591,16 +18609,16 @@
         <v>37</v>
       </c>
       <c r="J185" s="17">
-        <v>9.245763e6</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K185" s="15" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L185" s="17">
         <v>2260</v>
       </c>
       <c r="M185" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="N185" s="18">
         <v>43936</v>
@@ -18613,10 +18631,10 @@
         <v>44115</v>
       </c>
       <c r="R185" s="15" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="S185" s="15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="T185" s="13" t="s">
         <v>33</v>
@@ -18625,16 +18643,16 @@
         <v>33</v>
       </c>
       <c r="V185" s="17">
-        <v>538957</v>
+        <v>781673</v>
       </c>
       <c r="W185" s="15" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="X185" s="17">
         <v>2261</v>
       </c>
       <c r="Y185" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z185" s="15" t="s">
         <v>115</v>
@@ -18646,21 +18664,21 @@
         <v>30000</v>
       </c>
       <c r="AC185" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD185" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE185" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="AF185" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>33</v>
@@ -18669,7 +18687,7 @@
         <v>43920</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>33</v>
@@ -18678,7 +18696,7 @@
         <v>2260</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>36</v>
@@ -18690,13 +18708,13 @@
         <v>9.245763e6</v>
       </c>
       <c r="K186" s="5" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L186" s="7">
         <v>2260</v>
       </c>
       <c r="M186" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="N186" s="8">
         <v>43936</v>
@@ -18709,10 +18727,10 @@
         <v>44115</v>
       </c>
       <c r="R186" s="5" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="T186" s="3" t="s">
         <v>33</v>
@@ -18721,16 +18739,16 @@
         <v>33</v>
       </c>
       <c r="V186" s="7">
-        <v>1.651595e6</v>
+        <v>538957</v>
       </c>
       <c r="W186" s="5" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="X186" s="7">
         <v>2261</v>
       </c>
       <c r="Y186" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z186" s="5" t="s">
         <v>115</v>
@@ -18742,39 +18760,39 @@
         <v>30000</v>
       </c>
       <c r="AC186" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD186" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE186" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
       <c r="AF186" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A187" s="13" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C187" s="14">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="E187" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F187" s="16">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="H187" s="13" t="s">
         <v>36</v>
@@ -18783,87 +18801,85 @@
         <v>37</v>
       </c>
       <c r="J187" s="17">
-        <v>9.245674e6</v>
+        <v>9.245763e6</v>
       </c>
       <c r="K187" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="L187" s="17">
+        <v>2260</v>
+      </c>
+      <c r="M187" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="N187" s="18">
+        <v>43936</v>
+      </c>
+      <c r="O187" s="18">
+        <v>43936</v>
+      </c>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="18">
+        <v>44115</v>
+      </c>
+      <c r="R187" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="S187" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="L187" s="17">
-        <v>2300</v>
-      </c>
-      <c r="M187" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="N187" s="18">
-        <v>43922</v>
-      </c>
-      <c r="O187" s="18">
-        <v>43922</v>
-      </c>
-      <c r="P187" s="19">
-        <v>44105</v>
-      </c>
-      <c r="Q187" s="18">
-        <v>44131</v>
-      </c>
-      <c r="R187" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="S187" s="15" t="s">
+      <c r="T187" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U187" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V187" s="17">
+        <v>1.651595e6</v>
+      </c>
+      <c r="W187" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="T187" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U187" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V187" s="17">
-        <v>1155</v>
-      </c>
-      <c r="W187" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="X187" s="17">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y187" s="15" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="Z187" s="15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AA187" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB187" s="21">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC187" s="22">
-        <v>4.35942886e6</v>
+        <v>1.08</v>
       </c>
       <c r="AD187" s="22">
-        <v>4.35942886e6</v>
+        <v>1.08</v>
       </c>
       <c r="AE187" s="23">
-        <v>4.35942886e6</v>
+        <v>32400</v>
       </c>
       <c r="AF187" s="23">
-        <v>4.35942886e6</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A188" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="4">
+        <v>43921</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C188" s="4">
-        <v>43935</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>33</v>
@@ -18872,7 +18888,7 @@
         <v>2300</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>36</v>
@@ -18881,7 +18897,7 @@
         <v>37</v>
       </c>
       <c r="J188" s="7">
-        <v>9.24595e6</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K188" s="5" t="s">
         <v>506</v>
@@ -18890,19 +18906,19 @@
         <v>2300</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="N188" s="8">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="O188" s="8">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="P188" s="9">
-        <v>44119</v>
+        <v>44105</v>
       </c>
       <c r="Q188" s="8">
-        <v>44119</v>
+        <v>44131</v>
       </c>
       <c r="R188" s="5" t="s">
         <v>507</v>
@@ -18926,7 +18942,7 @@
         <v>2301</v>
       </c>
       <c r="Y188" s="5" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="Z188" s="5" t="s">
         <v>108</v>
@@ -18938,30 +18954,30 @@
         <v>0</v>
       </c>
       <c r="AC188" s="11">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD188" s="11">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE188" s="12">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF188" s="12">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A189" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B189" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C189" s="14">
-        <v>43963</v>
+        <v>43935</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E189" s="15" t="s">
         <v>33</v>
@@ -18970,7 +18986,7 @@
         <v>2300</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H189" s="13" t="s">
         <v>36</v>
@@ -18979,34 +18995,34 @@
         <v>37</v>
       </c>
       <c r="J189" s="17">
-        <v>9.247198e6</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K189" s="15" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L189" s="17">
         <v>2300</v>
       </c>
       <c r="M189" s="15" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="N189" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O189" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="P189" s="19">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="Q189" s="18">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="R189" s="15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S189" s="15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T189" s="13" t="s">
         <v>33</v>
@@ -19024,7 +19040,7 @@
         <v>2301</v>
       </c>
       <c r="Y189" s="15" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="Z189" s="15" t="s">
         <v>108</v>
@@ -19036,39 +19052,39 @@
         <v>0</v>
       </c>
       <c r="AC189" s="22">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD189" s="22">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE189" s="23">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF189" s="23">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C190" s="4">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F190" s="6">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>36</v>
@@ -19077,34 +19093,34 @@
         <v>37</v>
       </c>
       <c r="J190" s="7">
-        <v>9.245982e6</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K190" s="5" t="s">
         <v>517</v>
       </c>
       <c r="L190" s="7">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M190" s="5" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="N190" s="8">
-        <v>43943</v>
+        <v>43963</v>
       </c>
       <c r="O190" s="8">
-        <v>43939</v>
+        <v>43963</v>
       </c>
       <c r="P190" s="9">
-        <v>44304</v>
+        <v>44195</v>
       </c>
       <c r="Q190" s="8">
-        <v>44121</v>
+        <v>44195</v>
       </c>
       <c r="R190" s="5" t="s">
-        <v>425</v>
+        <v>518</v>
       </c>
       <c r="S190" s="5" t="s">
-        <v>426</v>
+        <v>519</v>
       </c>
       <c r="T190" s="3" t="s">
         <v>33</v>
@@ -19113,42 +19129,42 @@
         <v>33</v>
       </c>
       <c r="V190" s="7">
-        <v>18228</v>
-      </c>
-      <c r="W190" s="24" t="s">
-        <v>518</v>
+        <v>1155</v>
+      </c>
+      <c r="W190" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="X190" s="7">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y190" s="5" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Z190" s="5" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="AA190" s="3" t="s">
-        <v>519</v>
+        <v>44</v>
       </c>
       <c r="AB190" s="10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC190" s="11">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD190" s="11">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE190" s="12">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF190" s="12">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A191" s="13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>33</v>
@@ -19157,7 +19173,7 @@
         <v>43928</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E191" s="15" t="s">
         <v>33</v>
@@ -19166,7 +19182,7 @@
         <v>2310</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H191" s="13" t="s">
         <v>36</v>
@@ -19178,13 +19194,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K191" s="15" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L191" s="17">
         <v>2310</v>
       </c>
       <c r="M191" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N191" s="18">
         <v>43943</v>
@@ -19211,42 +19227,42 @@
         <v>33</v>
       </c>
       <c r="V191" s="17">
-        <v>236268</v>
-      </c>
-      <c r="W191" s="15" t="s">
-        <v>520</v>
+        <v>18228</v>
+      </c>
+      <c r="W191" s="20" t="s">
+        <v>524</v>
       </c>
       <c r="X191" s="17">
         <v>2311</v>
       </c>
       <c r="Y191" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z191" s="15" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="AA191" s="13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB191" s="21">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AC191" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD191" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE191" s="23">
-        <v>2250</v>
+        <v>7200</v>
       </c>
       <c r="AF191" s="23">
-        <v>2250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>33</v>
@@ -19255,7 +19271,7 @@
         <v>43928</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>33</v>
@@ -19264,7 +19280,7 @@
         <v>2310</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>36</v>
@@ -19276,13 +19292,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L192" s="7">
         <v>2310</v>
       </c>
       <c r="M192" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N192" s="8">
         <v>43943</v>
@@ -19309,42 +19325,42 @@
         <v>33</v>
       </c>
       <c r="V192" s="7">
-        <v>461920</v>
+        <v>236268</v>
       </c>
       <c r="W192" s="5" t="s">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="X192" s="7">
         <v>2311</v>
       </c>
       <c r="Y192" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z192" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA192" s="3" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB192" s="10">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AC192" s="11">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AD192" s="11">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AE192" s="12">
-        <v>4800</v>
+        <v>2250</v>
       </c>
       <c r="AF192" s="12">
-        <v>4800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A193" s="13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B193" s="13" t="s">
         <v>33</v>
@@ -19353,7 +19369,7 @@
         <v>43928</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E193" s="15" t="s">
         <v>33</v>
@@ -19362,7 +19378,7 @@
         <v>2310</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H193" s="13" t="s">
         <v>36</v>
@@ -19374,13 +19390,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K193" s="15" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L193" s="17">
         <v>2310</v>
       </c>
       <c r="M193" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N193" s="18">
         <v>43943</v>
@@ -19407,42 +19423,42 @@
         <v>33</v>
       </c>
       <c r="V193" s="17">
-        <v>804495</v>
+        <v>461920</v>
       </c>
       <c r="W193" s="15" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="X193" s="17">
         <v>2311</v>
       </c>
       <c r="Y193" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z193" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AA193" s="13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB193" s="21">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AC193" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD193" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE193" s="23">
-        <v>7650</v>
+        <v>4800</v>
       </c>
       <c r="AF193" s="23">
-        <v>7650</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>33</v>
@@ -19451,7 +19467,7 @@
         <v>43928</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>33</v>
@@ -19460,7 +19476,7 @@
         <v>2310</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>36</v>
@@ -19472,13 +19488,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L194" s="7">
         <v>2310</v>
       </c>
       <c r="M194" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N194" s="8">
         <v>43943</v>
@@ -19505,25 +19521,25 @@
         <v>33</v>
       </c>
       <c r="V194" s="7">
-        <v>1.129139e6</v>
+        <v>804495</v>
       </c>
       <c r="W194" s="5" t="s">
-        <v>521</v>
+        <v>427</v>
       </c>
       <c r="X194" s="7">
         <v>2311</v>
       </c>
       <c r="Y194" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z194" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA194" s="3" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB194" s="10">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AC194" s="11">
         <v>45</v>
@@ -19532,15 +19548,15 @@
         <v>45</v>
       </c>
       <c r="AE194" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
       <c r="AF194" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A195" s="13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B195" s="13" t="s">
         <v>33</v>
@@ -19549,7 +19565,7 @@
         <v>43928</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E195" s="15" t="s">
         <v>33</v>
@@ -19558,7 +19574,7 @@
         <v>2310</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H195" s="13" t="s">
         <v>36</v>
@@ -19570,13 +19586,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K195" s="15" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L195" s="17">
         <v>2310</v>
       </c>
       <c r="M195" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N195" s="18">
         <v>43943</v>
@@ -19603,22 +19619,22 @@
         <v>33</v>
       </c>
       <c r="V195" s="17">
-        <v>1.152823e6</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W195" s="15" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="X195" s="17">
         <v>2311</v>
       </c>
       <c r="Y195" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z195" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AA195" s="13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB195" s="21">
         <v>30</v>
@@ -19638,7 +19654,7 @@
     </row>
     <row r="196" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>33</v>
@@ -19647,7 +19663,7 @@
         <v>43928</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>33</v>
@@ -19656,7 +19672,7 @@
         <v>2310</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>36</v>
@@ -19668,13 +19684,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L196" s="7">
         <v>2310</v>
       </c>
       <c r="M196" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N196" s="8">
         <v>43943</v>
@@ -19701,22 +19717,22 @@
         <v>33</v>
       </c>
       <c r="V196" s="7">
-        <v>1.152831e6</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W196" s="5" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="X196" s="7">
         <v>2311</v>
       </c>
       <c r="Y196" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z196" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA196" s="3" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB196" s="10">
         <v>30</v>
@@ -19736,25 +19752,25 @@
     </row>
     <row r="197" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A197" s="13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B197" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C197" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D197" s="25" t="s">
-        <v>525</v>
+        <v>43928</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="E197" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F197" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H197" s="13" t="s">
         <v>36</v>
@@ -19763,20 +19779,34 @@
         <v>37</v>
       </c>
       <c r="J197" s="17">
-        <v>0</v>
-      </c>
-      <c r="K197" s="15"/>
-      <c r="L197" s="17"/>
-      <c r="M197" s="15"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="18"/>
-      <c r="P197" s="19"/>
-      <c r="Q197" s="18"/>
+        <v>9.245982e6</v>
+      </c>
+      <c r="K197" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="L197" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M197" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="N197" s="18">
+        <v>43943</v>
+      </c>
+      <c r="O197" s="18">
+        <v>43939</v>
+      </c>
+      <c r="P197" s="19">
+        <v>44304</v>
+      </c>
+      <c r="Q197" s="18">
+        <v>44121</v>
+      </c>
       <c r="R197" s="15" t="s">
-        <v>527</v>
+        <v>425</v>
       </c>
       <c r="S197" s="15" t="s">
-        <v>528</v>
+        <v>426</v>
       </c>
       <c r="T197" s="13" t="s">
         <v>33</v>
@@ -19785,42 +19815,42 @@
         <v>33</v>
       </c>
       <c r="V197" s="17">
-        <v>1.692143e6</v>
+        <v>1.152831e6</v>
       </c>
       <c r="W197" s="15" t="s">
         <v>529</v>
       </c>
       <c r="X197" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y197" s="15" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Z197" s="15" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AA197" s="13" t="s">
-        <v>327</v>
+        <v>525</v>
       </c>
       <c r="AB197" s="21">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="AC197" s="22">
-        <v>8.2</v>
+        <v>45</v>
       </c>
       <c r="AD197" s="22">
-        <v>8.2</v>
+        <v>45</v>
       </c>
       <c r="AE197" s="23">
-        <v>24600</v>
+        <v>1350</v>
       </c>
       <c r="AF197" s="23">
-        <v>24600</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>33</v>
@@ -19829,7 +19859,7 @@
         <v>43944</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>33</v>
@@ -19838,7 +19868,7 @@
         <v>2320</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>36</v>
@@ -19857,10 +19887,10 @@
       <c r="P198" s="9"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="S198" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="T198" s="3" t="s">
         <v>33</v>
@@ -19869,42 +19899,42 @@
         <v>33</v>
       </c>
       <c r="V198" s="7">
-        <v>1.143883e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W198" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="X198" s="7">
         <v>2321</v>
       </c>
       <c r="Y198" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z198" s="5" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="AA198" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB198" s="10">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="AC198" s="11">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AD198" s="11">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AE198" s="12">
-        <v>120000</v>
+        <v>24600</v>
       </c>
       <c r="AF198" s="12">
-        <v>120000</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A199" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>33</v>
@@ -19913,7 +19943,7 @@
         <v>43944</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E199" s="15" t="s">
         <v>33</v>
@@ -19922,7 +19952,7 @@
         <v>2320</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>36</v>
@@ -19941,10 +19971,10 @@
       <c r="P199" s="19"/>
       <c r="Q199" s="18"/>
       <c r="R199" s="15" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="S199" s="15" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="T199" s="13" t="s">
         <v>33</v>
@@ -19953,42 +19983,42 @@
         <v>33</v>
       </c>
       <c r="V199" s="17">
-        <v>1.244515e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W199" s="15" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="X199" s="17">
         <v>2321</v>
       </c>
       <c r="Y199" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z199" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA199" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB199" s="21">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC199" s="22">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD199" s="22">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE199" s="23">
-        <v>1005</v>
+        <v>120000</v>
       </c>
       <c r="AF199" s="23">
-        <v>1005</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>33</v>
@@ -19997,7 +20027,7 @@
         <v>43944</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>33</v>
@@ -20006,7 +20036,7 @@
         <v>2320</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>36</v>
@@ -20025,10 +20055,10 @@
       <c r="P200" s="9"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="S200" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="T200" s="3" t="s">
         <v>33</v>
@@ -20037,42 +20067,42 @@
         <v>33</v>
       </c>
       <c r="V200" s="7">
-        <v>1.244108e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W200" s="5" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="X200" s="7">
         <v>2321</v>
       </c>
       <c r="Y200" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z200" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA200" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB200" s="10">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC200" s="11">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AD200" s="11">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AE200" s="12">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
       <c r="AF200" s="12">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A201" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B201" s="13" t="s">
         <v>33</v>
@@ -20081,7 +20111,7 @@
         <v>43944</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E201" s="15" t="s">
         <v>33</v>
@@ -20090,7 +20120,7 @@
         <v>2320</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>36</v>
@@ -20109,10 +20139,10 @@
       <c r="P201" s="19"/>
       <c r="Q201" s="18"/>
       <c r="R201" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S201" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T201" s="13" t="s">
         <v>33</v>
@@ -20121,42 +20151,42 @@
         <v>33</v>
       </c>
       <c r="V201" s="17">
-        <v>1.244507e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W201" s="15" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="X201" s="17">
         <v>2321</v>
       </c>
       <c r="Y201" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z201" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA201" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB201" s="21">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC201" s="22">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AD201" s="22">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AE201" s="23">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
       <c r="AF201" s="23">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>33</v>
@@ -20165,7 +20195,7 @@
         <v>43944</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>33</v>
@@ -20174,7 +20204,7 @@
         <v>2320</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>36</v>
@@ -20193,10 +20223,10 @@
       <c r="P202" s="9"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S202" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T202" s="3" t="s">
         <v>33</v>
@@ -20205,42 +20235,42 @@
         <v>33</v>
       </c>
       <c r="V202" s="7">
-        <v>1.257587e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W202" s="5" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="X202" s="7">
         <v>2321</v>
       </c>
       <c r="Y202" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z202" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA202" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB202" s="10">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC202" s="11">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD202" s="11">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE202" s="12">
-        <v>31200</v>
+        <v>1745</v>
       </c>
       <c r="AF202" s="12">
-        <v>31200</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A203" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>33</v>
@@ -20249,7 +20279,7 @@
         <v>43944</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E203" s="15" t="s">
         <v>33</v>
@@ -20258,7 +20288,7 @@
         <v>2320</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>36</v>
@@ -20277,10 +20307,10 @@
       <c r="P203" s="19"/>
       <c r="Q203" s="18"/>
       <c r="R203" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S203" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T203" s="13" t="s">
         <v>33</v>
@@ -20289,42 +20319,42 @@
         <v>33</v>
       </c>
       <c r="V203" s="17">
-        <v>1.257625e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W203" s="15" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="X203" s="17">
         <v>2321</v>
       </c>
       <c r="Y203" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z203" s="15" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="AA203" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB203" s="21">
-        <v>90</v>
+        <v>80000</v>
       </c>
       <c r="AC203" s="22">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD203" s="22">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE203" s="23">
-        <v>31590</v>
+        <v>31200</v>
       </c>
       <c r="AF203" s="23">
-        <v>31590</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>33</v>
@@ -20333,7 +20363,7 @@
         <v>43944</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>33</v>
@@ -20342,7 +20372,7 @@
         <v>2320</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>36</v>
@@ -20361,10 +20391,10 @@
       <c r="P204" s="9"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T204" s="3" t="s">
         <v>33</v>
@@ -20373,42 +20403,42 @@
         <v>33</v>
       </c>
       <c r="V204" s="7">
-        <v>1.258699e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W204" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="X204" s="7">
         <v>2321</v>
       </c>
       <c r="Y204" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z204" s="5" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="AA204" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB204" s="10">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC204" s="11">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AD204" s="11">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AE204" s="12">
-        <v>2780</v>
+        <v>31590</v>
       </c>
       <c r="AF204" s="12">
-        <v>2780</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A205" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B205" s="13" t="s">
         <v>33</v>
@@ -20417,7 +20447,7 @@
         <v>43944</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E205" s="15" t="s">
         <v>33</v>
@@ -20426,7 +20456,7 @@
         <v>2320</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H205" s="13" t="s">
         <v>36</v>
@@ -20445,10 +20475,10 @@
       <c r="P205" s="19"/>
       <c r="Q205" s="18"/>
       <c r="R205" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S205" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T205" s="13" t="s">
         <v>33</v>
@@ -20457,42 +20487,42 @@
         <v>33</v>
       </c>
       <c r="V205" s="17">
-        <v>1.259784e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W205" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="X205" s="17">
         <v>2321</v>
       </c>
       <c r="Y205" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z205" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA205" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB205" s="21">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC205" s="22">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AD205" s="22">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AE205" s="23">
-        <v>1800</v>
+        <v>2780</v>
       </c>
       <c r="AF205" s="23">
-        <v>1800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>33</v>
@@ -20501,7 +20531,7 @@
         <v>43944</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>33</v>
@@ -20510,7 +20540,7 @@
         <v>2320</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>36</v>
@@ -20529,10 +20559,10 @@
       <c r="P206" s="9"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S206" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T206" s="3" t="s">
         <v>33</v>
@@ -20541,42 +20571,42 @@
         <v>33</v>
       </c>
       <c r="V206" s="7">
-        <v>1.259792e6</v>
+        <v>1.259784e6</v>
       </c>
       <c r="W206" s="5" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="X206" s="7">
         <v>2321</v>
       </c>
       <c r="Y206" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z206" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA206" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB206" s="10">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="AC206" s="11">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD206" s="11">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE206" s="12">
-        <v>1228</v>
+        <v>1800</v>
       </c>
       <c r="AF206" s="12">
-        <v>1228</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A207" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>33</v>
@@ -20585,7 +20615,7 @@
         <v>43944</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E207" s="15" t="s">
         <v>33</v>
@@ -20594,7 +20624,7 @@
         <v>2320</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>36</v>
@@ -20613,10 +20643,10 @@
       <c r="P207" s="19"/>
       <c r="Q207" s="18"/>
       <c r="R207" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S207" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T207" s="13" t="s">
         <v>33</v>
@@ -20625,42 +20655,42 @@
         <v>33</v>
       </c>
       <c r="V207" s="17">
-        <v>1.260669e6</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W207" s="15" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="X207" s="17">
         <v>2321</v>
       </c>
       <c r="Y207" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z207" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA207" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB207" s="21">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC207" s="22">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AD207" s="22">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AE207" s="23">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="AF207" s="23">
-        <v>1490</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>33</v>
@@ -20669,7 +20699,7 @@
         <v>43944</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>33</v>
@@ -20678,7 +20708,7 @@
         <v>2320</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>36</v>
@@ -20697,10 +20727,10 @@
       <c r="P208" s="9"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T208" s="3" t="s">
         <v>33</v>
@@ -20709,42 +20739,42 @@
         <v>33</v>
       </c>
       <c r="V208" s="7">
-        <v>1.260677e6</v>
+        <v>1.260669e6</v>
       </c>
       <c r="W208" s="5" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="X208" s="7">
         <v>2321</v>
       </c>
       <c r="Y208" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z208" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA208" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB208" s="10">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC208" s="11">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AD208" s="11">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE208" s="12">
-        <v>4770</v>
+        <v>1490</v>
       </c>
       <c r="AF208" s="12">
-        <v>4770</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="209" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A209" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B209" s="13" t="s">
         <v>33</v>
@@ -20753,7 +20783,7 @@
         <v>43944</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E209" s="15" t="s">
         <v>33</v>
@@ -20762,7 +20792,7 @@
         <v>2320</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>36</v>
@@ -20781,10 +20811,10 @@
       <c r="P209" s="19"/>
       <c r="Q209" s="18"/>
       <c r="R209" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S209" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T209" s="13" t="s">
         <v>33</v>
@@ -20793,42 +20823,42 @@
         <v>33</v>
       </c>
       <c r="V209" s="17">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W209" s="20" t="s">
-        <v>548</v>
+        <v>1.260677e6</v>
+      </c>
+      <c r="W209" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="X209" s="17">
         <v>2321</v>
       </c>
       <c r="Y209" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z209" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA209" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB209" s="21">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC209" s="22">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AD209" s="22">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AE209" s="23">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
       <c r="AF209" s="23">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="210" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>33</v>
@@ -20837,7 +20867,7 @@
         <v>43944</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>33</v>
@@ -20846,7 +20876,7 @@
         <v>2320</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>36</v>
@@ -20865,10 +20895,10 @@
       <c r="P210" s="9"/>
       <c r="Q210" s="8"/>
       <c r="R210" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S210" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T210" s="3" t="s">
         <v>33</v>
@@ -20877,19 +20907,19 @@
         <v>33</v>
       </c>
       <c r="V210" s="7">
-        <v>1.687115e6</v>
-      </c>
-      <c r="W210" s="5" t="s">
-        <v>549</v>
+        <v>1.260731e6</v>
+      </c>
+      <c r="W210" s="24" t="s">
+        <v>554</v>
       </c>
       <c r="X210" s="7">
         <v>2321</v>
       </c>
       <c r="Y210" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z210" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA210" s="3" t="s">
         <v>327</v>
@@ -20898,21 +20928,21 @@
         <v>60</v>
       </c>
       <c r="AC210" s="11">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AD210" s="11">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AE210" s="12">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
       <c r="AF210" s="12">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A211" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>33</v>
@@ -20921,7 +20951,7 @@
         <v>43944</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E211" s="15" t="s">
         <v>33</v>
@@ -20930,7 +20960,7 @@
         <v>2320</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>36</v>
@@ -20949,10 +20979,10 @@
       <c r="P211" s="19"/>
       <c r="Q211" s="18"/>
       <c r="R211" s="15" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="S211" s="15" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="T211" s="13" t="s">
         <v>33</v>
@@ -20961,40 +20991,124 @@
         <v>33</v>
       </c>
       <c r="V211" s="17">
-        <v>1.257463e6</v>
+        <v>1.687115e6</v>
       </c>
       <c r="W211" s="15" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="X211" s="17">
         <v>2321</v>
       </c>
       <c r="Y211" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z211" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA211" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB211" s="21">
+        <v>60</v>
+      </c>
+      <c r="AC211" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AD211" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AE211" s="23">
+        <v>999</v>
+      </c>
+      <c r="AF211" s="23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A212" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J212" s="7">
+        <v>0</v>
+      </c>
+      <c r="K212" s="5"/>
+      <c r="L212" s="7"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="8"/>
+      <c r="O212" s="8"/>
+      <c r="P212" s="9"/>
+      <c r="Q212" s="8"/>
+      <c r="R212" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="S212" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="T212" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U212" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V212" s="7">
+        <v>1.257463e6</v>
+      </c>
+      <c r="W212" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="X212" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y212" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z212" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA212" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB212" s="10">
         <v>200</v>
       </c>
-      <c r="AC211" s="22">
+      <c r="AC212" s="11">
         <v>34.2</v>
       </c>
-      <c r="AD211" s="22">
+      <c r="AD212" s="11">
         <v>34.2</v>
       </c>
-      <c r="AE211" s="23">
+      <c r="AE212" s="12">
         <v>6840</v>
       </c>
-      <c r="AF211" s="23">
+      <c r="AF212" s="12">
         <v>6840</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="213" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/compras-coronavirus.xlsx
+++ b/data/compras-coronavirus.xlsx
@@ -1,14 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glauc\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E0A2B3-B5F2-4916-AA53-E664AA96C7C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-20610" yWindow="0" windowWidth="20730" windowHeight="11160"/>
+  </bookViews>
   <sheets>
     <sheet name="contratacoes-emergenciais" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="564">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -781,7 +793,7 @@
     <t>1401608 000009/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança
+    <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
 contra Pânico e Incêndio e material para orientações de segurança.</t>
   </si>
   <si>
@@ -1601,10 +1613,25 @@
     <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: PEDIATRICO, CALIBRE 10 FRENCH;</t>
   </si>
   <si>
+    <t>2311076 000200/2020</t>
+  </si>
+  <si>
+    <t>MEDICAMENTO</t>
+  </si>
+  <si>
+    <t>75.014.167/0001-00</t>
+  </si>
+  <si>
+    <t>NUNESFARMA DISTRIBUIDORA DE PRODUTOS FARMACEUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>SULFATO DE ZINCO - PRINCIPIO ATIVO: SULFATO DE ZINCO; CONCENTRACAO/DOSAGEM: 20 MG; FORMA FARMACEUTICA: COMPRIMIDO MASTIGAVEL; APRESENTACAO: .; COMPONENTE: .;</t>
+  </si>
+  <si>
     <t>2320310 000127/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Material de limpeza 
+    <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
   </si>
   <si>
@@ -1692,35 +1719,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="173" formatCode="0"/>
-    <numFmt numFmtId="174" formatCode="d\/m\/yyyy"/>
-    <numFmt numFmtId="175" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="176" formatCode="##,###,###,###,###,##0.0000"/>
-    <numFmt numFmtId="177" formatCode="##,###,###,###,###,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="172" formatCode="d\/m\/yyyy"/>
+    <numFmt numFmtId="173" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="##,###,###,###,###,##0.0000"/>
+    <numFmt numFmtId="175" formatCode="##,###,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="6"/>
-      <color rgb="00000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="00FFFFFF"/>
+      <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="00000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1729,31 +1753,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00000000"/>
-        <bgColor rgb="00000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="54"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5175B9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F4"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="33"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1763,31 +1784,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00CACAD9"/>
+        <color indexed="31"/>
       </left>
       <right style="thin">
-        <color rgb="00CACAD9"/>
+        <color indexed="31"/>
       </right>
       <top style="thin">
-        <color rgb="00CACAD9"/>
+        <color indexed="31"/>
       </top>
       <bottom style="thin">
-        <color rgb="00CACAD9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CAC9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="00CAC9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="00CAC9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00CAC9D9"/>
+        <color indexed="31"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1796,125 +1802,589 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="172" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="173" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="175" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="173" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="174" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="175" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="00F8FBFC"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.8093" customWidth="1"/>
-    <col min="2" max="2" width="23.8165" customWidth="1"/>
-    <col min="3" max="3" width="20.5842333333333" customWidth="1"/>
-    <col min="4" max="5" width="34.6541" customWidth="1"/>
-    <col min="6" max="6" width="23.8165" customWidth="1"/>
-    <col min="7" max="7" width="14.9753" customWidth="1"/>
-    <col min="8" max="8" width="23.8165" customWidth="1"/>
-    <col min="9" max="11" width="17.5421" customWidth="1"/>
-    <col min="12" max="12" width="18.5383986666667" customWidth="1"/>
-    <col min="13" max="13" width="31.0871986666667" customWidth="1"/>
-    <col min="14" max="14" width="23.0559666666667" customWidth="1"/>
-    <col min="15" max="15" width="31.0871986666667" customWidth="1"/>
-    <col min="16" max="16" width="26.6685" customWidth="1"/>
-    <col min="17" max="17" width="28.3797" customWidth="1"/>
-    <col min="18" max="18" width="31.2317" customWidth="1"/>
-    <col min="19" max="19" width="39.7877" customWidth="1"/>
-    <col min="20" max="20" width="14.2603986666667" customWidth="1"/>
-    <col min="21" max="21" width="39.7877" customWidth="1"/>
-    <col min="22" max="22" width="8.7009" customWidth="1"/>
-    <col min="23" max="24" width="10.7163133333333" customWidth="1"/>
-    <col min="25" max="25" width="83.8986333333333" customWidth="1"/>
-    <col min="26" max="26" width="54.1883986666667" customWidth="1"/>
-    <col min="27" max="27" width="26.4783666666667" customWidth="1"/>
-    <col min="28" max="28" width="22.2954333333333" customWidth="1"/>
-    <col min="29" max="29" width="35.4146333333333" customWidth="1"/>
-    <col min="30" max="30" width="37.1258333333333" customWidth="1"/>
-    <col min="31" max="31" width="32.9429" customWidth="1"/>
-    <col min="32" max="32" width="21.9151666666667" customWidth="1"/>
-    <col min="33" max="33" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" customWidth="1"/>
+    <col min="19" max="19" width="39.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="39.7109375" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="83.85546875" customWidth="1"/>
+    <col min="26" max="26" width="54.140625" customWidth="1"/>
+    <col min="27" max="27" width="26.42578125" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" customWidth="1"/>
+    <col min="29" max="29" width="35.42578125" customWidth="1"/>
+    <col min="30" max="30" width="37.140625" customWidth="1"/>
+    <col min="31" max="31" width="33" customWidth="1"/>
+    <col min="32" max="32" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.3325" customHeight="1">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2041,7 +2511,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="7">
-        <v>9.245761e6</v>
+        <v>9245761</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>38</v>
@@ -2108,7 +2578,7 @@
         <v>780098.1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
@@ -2137,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="17">
-        <v>9.245765e6</v>
+        <v>9245765</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>47</v>
@@ -2173,7 +2643,7 @@
         <v>33</v>
       </c>
       <c r="V3" s="17">
-        <v>1.083678e6</v>
+        <v>1083678</v>
       </c>
       <c r="W3" s="20" t="s">
         <v>48</v>
@@ -2206,7 +2676,7 @@
         <v>159840</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -2235,7 +2705,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="7">
-        <v>9.245765e6</v>
+        <v>9245765</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>47</v>
@@ -2271,7 +2741,7 @@
         <v>33</v>
       </c>
       <c r="V4" s="7">
-        <v>1.23568e6</v>
+        <v>1235680</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>50</v>
@@ -2304,7 +2774,7 @@
         <v>67680</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
@@ -2388,7 +2858,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -2472,7 +2942,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
@@ -2501,7 +2971,7 @@
         <v>37</v>
       </c>
       <c r="J7" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>59</v>
@@ -2556,10 +3026,10 @@
         <v>40</v>
       </c>
       <c r="AC7" s="22">
-        <v>450000e-6</v>
+        <v>0.45</v>
       </c>
       <c r="AD7" s="22">
-        <v>450000e-6</v>
+        <v>0.45</v>
       </c>
       <c r="AE7" s="23">
         <v>18</v>
@@ -2568,7 +3038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -2597,7 +3067,7 @@
         <v>37</v>
       </c>
       <c r="J8" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>59</v>
@@ -2652,19 +3122,19 @@
         <v>1</v>
       </c>
       <c r="AC8" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD8" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE8" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF8" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="9" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>57</v>
       </c>
@@ -2693,7 +3163,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>59</v>
@@ -2760,7 +3230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="10" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
@@ -2789,7 +3259,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>59</v>
@@ -2856,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="11" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -2885,7 +3355,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>59</v>
@@ -2940,19 +3410,19 @@
         <v>1</v>
       </c>
       <c r="AC11" s="22">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD11" s="22">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE11" s="23">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF11" s="23">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="12" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -2981,7 +3451,7 @@
         <v>37</v>
       </c>
       <c r="J12" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>59</v>
@@ -3048,7 +3518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="13" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>57</v>
       </c>
@@ -3077,7 +3547,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>59</v>
@@ -3132,10 +3602,10 @@
         <v>50</v>
       </c>
       <c r="AC13" s="22">
-        <v>180000e-6</v>
+        <v>0.18</v>
       </c>
       <c r="AD13" s="22">
-        <v>180000e-6</v>
+        <v>0.18</v>
       </c>
       <c r="AE13" s="23">
         <v>9</v>
@@ -3144,7 +3614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="14" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -3173,7 +3643,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>59</v>
@@ -3240,7 +3710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="15" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>57</v>
       </c>
@@ -3269,7 +3739,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>59</v>
@@ -3336,7 +3806,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="16" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -3365,7 +3835,7 @@
         <v>37</v>
       </c>
       <c r="J16" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>59</v>
@@ -3432,7 +3902,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="17" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>57</v>
       </c>
@@ -3461,7 +3931,7 @@
         <v>37</v>
       </c>
       <c r="J17" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>59</v>
@@ -3528,7 +3998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="18" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -3557,7 +4027,7 @@
         <v>37</v>
       </c>
       <c r="J18" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>59</v>
@@ -3612,10 +4082,10 @@
         <v>3</v>
       </c>
       <c r="AC18" s="11">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="AD18" s="11">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="AE18" s="12">
         <v>2.4</v>
@@ -3624,7 +4094,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="19" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -3653,7 +4123,7 @@
         <v>37</v>
       </c>
       <c r="J19" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>59</v>
@@ -3720,7 +4190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="20" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -3749,7 +4219,7 @@
         <v>37</v>
       </c>
       <c r="J20" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>59</v>
@@ -3804,10 +4274,10 @@
         <v>30</v>
       </c>
       <c r="AC20" s="11">
-        <v>880000e-6</v>
+        <v>0.88</v>
       </c>
       <c r="AD20" s="11">
-        <v>880000e-6</v>
+        <v>0.88</v>
       </c>
       <c r="AE20" s="12">
         <v>26.4</v>
@@ -3816,7 +4286,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="21" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>57</v>
       </c>
@@ -3845,7 +4315,7 @@
         <v>37</v>
       </c>
       <c r="J21" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>59</v>
@@ -3912,7 +4382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="22" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -3941,7 +4411,7 @@
         <v>37</v>
       </c>
       <c r="J22" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>59</v>
@@ -3996,10 +4466,10 @@
         <v>30</v>
       </c>
       <c r="AC22" s="11">
-        <v>990000e-6</v>
+        <v>0.99</v>
       </c>
       <c r="AD22" s="11">
-        <v>990000e-6</v>
+        <v>0.99</v>
       </c>
       <c r="AE22" s="12">
         <v>29.7</v>
@@ -4008,7 +4478,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="23" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
@@ -4037,7 +4507,7 @@
         <v>37</v>
       </c>
       <c r="J23" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>59</v>
@@ -4104,7 +4574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="24" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -4133,7 +4603,7 @@
         <v>37</v>
       </c>
       <c r="J24" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>59</v>
@@ -4200,7 +4670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="25" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
@@ -4229,7 +4699,7 @@
         <v>37</v>
       </c>
       <c r="J25" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>59</v>
@@ -4296,7 +4766,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="26" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -4325,7 +4795,7 @@
         <v>37</v>
       </c>
       <c r="J26" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>59</v>
@@ -4392,7 +4862,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="27" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>57</v>
       </c>
@@ -4421,7 +4891,7 @@
         <v>37</v>
       </c>
       <c r="J27" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>59</v>
@@ -4455,7 +4925,7 @@
         <v>33</v>
       </c>
       <c r="V27" s="17">
-        <v>1.035142e6</v>
+        <v>1035142</v>
       </c>
       <c r="W27" s="15" t="s">
         <v>86</v>
@@ -4488,7 +4958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="28" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -4517,7 +4987,7 @@
         <v>37</v>
       </c>
       <c r="J28" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>59</v>
@@ -4551,7 +5021,7 @@
         <v>33</v>
       </c>
       <c r="V28" s="7">
-        <v>1.04639e6</v>
+        <v>1046390</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>87</v>
@@ -4584,7 +5054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="29" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>57</v>
       </c>
@@ -4613,7 +5083,7 @@
         <v>37</v>
       </c>
       <c r="J29" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>59</v>
@@ -4647,7 +5117,7 @@
         <v>33</v>
       </c>
       <c r="V29" s="17">
-        <v>1.151371e6</v>
+        <v>1151371</v>
       </c>
       <c r="W29" s="15" t="s">
         <v>88</v>
@@ -4674,13 +5144,13 @@
         <v>1.89</v>
       </c>
       <c r="AE29" s="23">
-        <v>75.6</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="AF29" s="23">
-        <v>75.6</v>
+        <v>75.600000000000009</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="30" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -4709,7 +5179,7 @@
         <v>37</v>
       </c>
       <c r="J30" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>59</v>
@@ -4743,7 +5213,7 @@
         <v>33</v>
       </c>
       <c r="V30" s="7">
-        <v>1.252305e6</v>
+        <v>1252305</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>89</v>
@@ -4764,10 +5234,10 @@
         <v>40</v>
       </c>
       <c r="AC30" s="11">
-        <v>580000e-6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AD30" s="11">
-        <v>580000e-6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AE30" s="12">
         <v>23.2</v>
@@ -4776,7 +5246,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="31" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>57</v>
       </c>
@@ -4805,7 +5275,7 @@
         <v>37</v>
       </c>
       <c r="J31" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>59</v>
@@ -4839,7 +5309,7 @@
         <v>33</v>
       </c>
       <c r="V31" s="17">
-        <v>1.27586e6</v>
+        <v>1275860</v>
       </c>
       <c r="W31" s="15" t="s">
         <v>90</v>
@@ -4872,7 +5342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="32" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -4901,7 +5371,7 @@
         <v>37</v>
       </c>
       <c r="J32" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>59</v>
@@ -4935,7 +5405,7 @@
         <v>33</v>
       </c>
       <c r="V32" s="7">
-        <v>1.396595e6</v>
+        <v>1396595</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>91</v>
@@ -4956,10 +5426,10 @@
         <v>30</v>
       </c>
       <c r="AC32" s="11">
-        <v>330000e-6</v>
+        <v>0.33</v>
       </c>
       <c r="AD32" s="11">
-        <v>330000e-6</v>
+        <v>0.33</v>
       </c>
       <c r="AE32" s="12">
         <v>9.9</v>
@@ -4968,7 +5438,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="33" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>57</v>
       </c>
@@ -4997,7 +5467,7 @@
         <v>37</v>
       </c>
       <c r="J33" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>59</v>
@@ -5031,7 +5501,7 @@
         <v>33</v>
       </c>
       <c r="V33" s="17">
-        <v>1.532073e6</v>
+        <v>1532073</v>
       </c>
       <c r="W33" s="15" t="s">
         <v>92</v>
@@ -5052,10 +5522,10 @@
         <v>30</v>
       </c>
       <c r="AC33" s="22">
-        <v>360000e-6</v>
+        <v>0.36</v>
       </c>
       <c r="AD33" s="22">
-        <v>360000e-6</v>
+        <v>0.36</v>
       </c>
       <c r="AE33" s="23">
         <v>10.8</v>
@@ -5064,7 +5534,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="34" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -5093,7 +5563,7 @@
         <v>37</v>
       </c>
       <c r="J34" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>59</v>
@@ -5127,7 +5597,7 @@
         <v>33</v>
       </c>
       <c r="V34" s="7">
-        <v>1.555782e6</v>
+        <v>1555782</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>93</v>
@@ -5160,7 +5630,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="35" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>57</v>
       </c>
@@ -5189,7 +5659,7 @@
         <v>37</v>
       </c>
       <c r="J35" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>59</v>
@@ -5223,7 +5693,7 @@
         <v>33</v>
       </c>
       <c r="V35" s="17">
-        <v>1.59325e6</v>
+        <v>1593250</v>
       </c>
       <c r="W35" s="15" t="s">
         <v>94</v>
@@ -5256,7 +5726,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="36" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -5285,7 +5755,7 @@
         <v>37</v>
       </c>
       <c r="J36" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>59</v>
@@ -5319,7 +5789,7 @@
         <v>33</v>
       </c>
       <c r="V36" s="7">
-        <v>1.603329e6</v>
+        <v>1603329</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>95</v>
@@ -5340,19 +5810,19 @@
         <v>1</v>
       </c>
       <c r="AC36" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD36" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE36" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF36" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="37" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
@@ -5381,7 +5851,7 @@
         <v>37</v>
       </c>
       <c r="J37" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>59</v>
@@ -5415,7 +5885,7 @@
         <v>33</v>
       </c>
       <c r="V37" s="17">
-        <v>1.689274e6</v>
+        <v>1689274</v>
       </c>
       <c r="W37" s="20" t="s">
         <v>97</v>
@@ -5448,7 +5918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="38" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -5477,7 +5947,7 @@
         <v>37</v>
       </c>
       <c r="J38" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>59</v>
@@ -5511,7 +5981,7 @@
         <v>33</v>
       </c>
       <c r="V38" s="7">
-        <v>1.734989e6</v>
+        <v>1734989</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>99</v>
@@ -5544,7 +6014,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="39" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>57</v>
       </c>
@@ -5573,7 +6043,7 @@
         <v>37</v>
       </c>
       <c r="J39" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>59</v>
@@ -5607,7 +6077,7 @@
         <v>33</v>
       </c>
       <c r="V39" s="17">
-        <v>1.754416e6</v>
+        <v>1754416</v>
       </c>
       <c r="W39" s="15" t="s">
         <v>100</v>
@@ -5640,7 +6110,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="40" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -5669,7 +6139,7 @@
         <v>37</v>
       </c>
       <c r="J40" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>59</v>
@@ -5703,7 +6173,7 @@
         <v>33</v>
       </c>
       <c r="V40" s="7">
-        <v>1.754831e6</v>
+        <v>1754831</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>101</v>
@@ -5724,19 +6194,19 @@
         <v>1</v>
       </c>
       <c r="AC40" s="11">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AD40" s="11">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AE40" s="12">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AF40" s="12">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="41" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -5765,7 +6235,7 @@
         <v>37</v>
       </c>
       <c r="J41" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>59</v>
@@ -5799,7 +6269,7 @@
         <v>33</v>
       </c>
       <c r="V41" s="17">
-        <v>1.75484e6</v>
+        <v>1754840</v>
       </c>
       <c r="W41" s="15" t="s">
         <v>102</v>
@@ -5832,7 +6302,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="42" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -5916,7 +6386,7 @@
         <v>155057.31</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="43" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>109</v>
       </c>
@@ -5945,7 +6415,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="17">
-        <v>9.247068e6</v>
+        <v>9247068</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>111</v>
@@ -6002,10 +6472,10 @@
         <v>264850</v>
       </c>
       <c r="AC43" s="22">
-        <v>570000e-6</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="AD43" s="22">
-        <v>380000e-6</v>
+        <v>0.38</v>
       </c>
       <c r="AE43" s="23">
         <v>150964.5</v>
@@ -6014,7 +6484,7 @@
         <v>100643</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="44" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>116</v>
       </c>
@@ -6065,7 +6535,7 @@
         <v>33</v>
       </c>
       <c r="V44" s="7">
-        <v>1.746723e6</v>
+        <v>1746723</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>121</v>
@@ -6098,7 +6568,7 @@
         <v>55120</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="45" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>124</v>
       </c>
@@ -6149,7 +6619,7 @@
         <v>33</v>
       </c>
       <c r="V45" s="17">
-        <v>1.487353e6</v>
+        <v>1487353</v>
       </c>
       <c r="W45" s="15" t="s">
         <v>128</v>
@@ -6182,7 +6652,7 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="46" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>130</v>
       </c>
@@ -6233,7 +6703,7 @@
         <v>33</v>
       </c>
       <c r="V46" s="7">
-        <v>1.686372e6</v>
+        <v>1686372</v>
       </c>
       <c r="W46" s="5" t="s">
         <v>134</v>
@@ -6266,7 +6736,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="47" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>136</v>
       </c>
@@ -6317,7 +6787,7 @@
         <v>33</v>
       </c>
       <c r="V47" s="17">
-        <v>1.758136e6</v>
+        <v>1758136</v>
       </c>
       <c r="W47" s="15" t="s">
         <v>141</v>
@@ -6338,7 +6808,7 @@
         <v>6</v>
       </c>
       <c r="AC47" s="22">
-        <v>259.415</v>
+        <v>259.41500000000002</v>
       </c>
       <c r="AD47" s="22">
         <v>200</v>
@@ -6350,7 +6820,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="48" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>142</v>
       </c>
@@ -6401,7 +6871,7 @@
         <v>33</v>
       </c>
       <c r="V48" s="7">
-        <v>1.759833e6</v>
+        <v>1759833</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>146</v>
@@ -6434,7 +6904,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="49" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>142</v>
       </c>
@@ -6485,7 +6955,7 @@
         <v>33</v>
       </c>
       <c r="V49" s="17">
-        <v>1.759841e6</v>
+        <v>1759841</v>
       </c>
       <c r="W49" s="15" t="s">
         <v>147</v>
@@ -6518,7 +6988,7 @@
         <v>839.7</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="50" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>148</v>
       </c>
@@ -6602,7 +7072,7 @@
         <v>13110</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="51" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>148</v>
       </c>
@@ -6674,19 +7144,19 @@
         <v>1</v>
       </c>
       <c r="AC51" s="22">
-        <v>8929.8</v>
+        <v>8929.8000000000011</v>
       </c>
       <c r="AD51" s="22">
-        <v>8929.8</v>
+        <v>8929.8000000000011</v>
       </c>
       <c r="AE51" s="23">
-        <v>8929.8</v>
+        <v>8929.8000000000011</v>
       </c>
       <c r="AF51" s="23">
-        <v>8929.8</v>
+        <v>8929.8000000000011</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="52" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>148</v>
       </c>
@@ -6770,7 +7240,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="53" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>148</v>
       </c>
@@ -6821,7 +7291,7 @@
         <v>33</v>
       </c>
       <c r="V53" s="17">
-        <v>1.139886e6</v>
+        <v>1139886</v>
       </c>
       <c r="W53" s="15" t="s">
         <v>156</v>
@@ -6848,13 +7318,13 @@
         <v>1631.8</v>
       </c>
       <c r="AE53" s="23">
-        <v>4895.4</v>
+        <v>4895.4000000000005</v>
       </c>
       <c r="AF53" s="23">
-        <v>4895.4</v>
+        <v>4895.4000000000005</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="54" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>148</v>
       </c>
@@ -6905,7 +7375,7 @@
         <v>33</v>
       </c>
       <c r="V54" s="7">
-        <v>1.1458e6</v>
+        <v>1145800</v>
       </c>
       <c r="W54" s="5" t="s">
         <v>157</v>
@@ -6926,19 +7396,19 @@
         <v>4</v>
       </c>
       <c r="AC54" s="11">
-        <v>4198.4</v>
+        <v>4198.3999999999996</v>
       </c>
       <c r="AD54" s="11">
-        <v>4198.4</v>
+        <v>4198.3999999999996</v>
       </c>
       <c r="AE54" s="12">
-        <v>16793.6</v>
+        <v>16793.599999999999</v>
       </c>
       <c r="AF54" s="12">
-        <v>16793.6</v>
+        <v>16793.599999999999</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="55" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>148</v>
       </c>
@@ -6989,7 +7459,7 @@
         <v>33</v>
       </c>
       <c r="V55" s="17">
-        <v>1.14586e6</v>
+        <v>1145860</v>
       </c>
       <c r="W55" s="15" t="s">
         <v>158</v>
@@ -7022,7 +7492,7 @@
         <v>12570.6</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="56" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>148</v>
       </c>
@@ -7073,7 +7543,7 @@
         <v>33</v>
       </c>
       <c r="V56" s="7">
-        <v>1.145908e6</v>
+        <v>1145908</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>159</v>
@@ -7106,7 +7576,7 @@
         <v>2517.4</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="57" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>148</v>
       </c>
@@ -7157,7 +7627,7 @@
         <v>33</v>
       </c>
       <c r="V57" s="17">
-        <v>1.176641e6</v>
+        <v>1176641</v>
       </c>
       <c r="W57" s="15" t="s">
         <v>160</v>
@@ -7190,7 +7660,7 @@
         <v>31955.4</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="58" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>148</v>
       </c>
@@ -7241,7 +7711,7 @@
         <v>33</v>
       </c>
       <c r="V58" s="7">
-        <v>1.207334e6</v>
+        <v>1207334</v>
       </c>
       <c r="W58" s="5" t="s">
         <v>161</v>
@@ -7274,7 +7744,7 @@
         <v>762.6</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="59" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>148</v>
       </c>
@@ -7325,7 +7795,7 @@
         <v>33</v>
       </c>
       <c r="V59" s="17">
-        <v>1.266446e6</v>
+        <v>1266446</v>
       </c>
       <c r="W59" s="15" t="s">
         <v>162</v>
@@ -7358,7 +7828,7 @@
         <v>639.6</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="60" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>148</v>
       </c>
@@ -7409,7 +7879,7 @@
         <v>33</v>
       </c>
       <c r="V60" s="7">
-        <v>1.337009e6</v>
+        <v>1337009</v>
       </c>
       <c r="W60" s="5" t="s">
         <v>163</v>
@@ -7442,7 +7912,7 @@
         <v>3230.8</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="61" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>148</v>
       </c>
@@ -7493,7 +7963,7 @@
         <v>33</v>
       </c>
       <c r="V61" s="17">
-        <v>1.344072e6</v>
+        <v>1344072</v>
       </c>
       <c r="W61" s="15" t="s">
         <v>164</v>
@@ -7514,19 +7984,19 @@
         <v>1</v>
       </c>
       <c r="AC61" s="22">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
       <c r="AD61" s="22">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
       <c r="AE61" s="23">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
       <c r="AF61" s="23">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="62" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>148</v>
       </c>
@@ -7577,7 +8047,7 @@
         <v>33</v>
       </c>
       <c r="V62" s="7">
-        <v>1.559222e6</v>
+        <v>1559222</v>
       </c>
       <c r="W62" s="5" t="s">
         <v>165</v>
@@ -7610,7 +8080,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="63" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>166</v>
       </c>
@@ -7661,7 +8131,7 @@
         <v>33</v>
       </c>
       <c r="V63" s="17">
-        <v>1.456741e6</v>
+        <v>1456741</v>
       </c>
       <c r="W63" s="15" t="s">
         <v>170</v>
@@ -7694,7 +8164,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="64" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>166</v>
       </c>
@@ -7745,7 +8215,7 @@
         <v>33</v>
       </c>
       <c r="V64" s="7">
-        <v>1.45675e6</v>
+        <v>1456750</v>
       </c>
       <c r="W64" s="24" t="s">
         <v>171</v>
@@ -7778,7 +8248,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="65" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>166</v>
       </c>
@@ -7860,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="66" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>175</v>
       </c>
@@ -7932,7 +8402,7 @@
         <v>5</v>
       </c>
       <c r="AC66" s="11">
-        <v>38.8</v>
+        <v>38.800000000000004</v>
       </c>
       <c r="AD66" s="11">
         <v>37.6</v>
@@ -7944,7 +8414,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="67" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>182</v>
       </c>
@@ -7973,7 +8443,7 @@
         <v>37</v>
       </c>
       <c r="J67" s="17">
-        <v>9.245786e6</v>
+        <v>9245786</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>184</v>
@@ -8009,7 +8479,7 @@
         <v>33</v>
       </c>
       <c r="V67" s="17">
-        <v>1.754467e6</v>
+        <v>1754467</v>
       </c>
       <c r="W67" s="15" t="s">
         <v>187</v>
@@ -8042,7 +8512,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="68" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>189</v>
       </c>
@@ -8093,7 +8563,7 @@
         <v>33</v>
       </c>
       <c r="V68" s="7">
-        <v>1.66937e6</v>
+        <v>1669370</v>
       </c>
       <c r="W68" s="5" t="s">
         <v>193</v>
@@ -8126,7 +8596,7 @@
         <v>421545.6</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="69" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>194</v>
       </c>
@@ -8177,7 +8647,7 @@
         <v>33</v>
       </c>
       <c r="V69" s="17">
-        <v>1.114174e6</v>
+        <v>1114174</v>
       </c>
       <c r="W69" s="15" t="s">
         <v>198</v>
@@ -8210,7 +8680,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="70" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>200</v>
       </c>
@@ -8261,7 +8731,7 @@
         <v>33</v>
       </c>
       <c r="V70" s="7">
-        <v>1.66937e6</v>
+        <v>1669370</v>
       </c>
       <c r="W70" s="5" t="s">
         <v>193</v>
@@ -8294,7 +8764,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="71" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>207</v>
       </c>
@@ -8378,7 +8848,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="72" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>207</v>
       </c>
@@ -8429,7 +8899,7 @@
         <v>33</v>
       </c>
       <c r="V72" s="7">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W72" s="5" t="s">
         <v>214</v>
@@ -8450,10 +8920,10 @@
         <v>1000</v>
       </c>
       <c r="AC72" s="11">
-        <v>19.9</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="AD72" s="11">
-        <v>19.9</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="AE72" s="12">
         <v>19900</v>
@@ -8462,7 +8932,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="73" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>207</v>
       </c>
@@ -8546,7 +9016,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="74" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>207</v>
       </c>
@@ -8597,7 +9067,7 @@
         <v>33</v>
       </c>
       <c r="V74" s="7">
-        <v>1.57669e6</v>
+        <v>1576690</v>
       </c>
       <c r="W74" s="24" t="s">
         <v>218</v>
@@ -8630,7 +9100,7 @@
         <v>117600</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="75" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>207</v>
       </c>
@@ -8681,7 +9151,7 @@
         <v>33</v>
       </c>
       <c r="V75" s="17">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W75" s="15" t="s">
         <v>214</v>
@@ -8714,7 +9184,7 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="76" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>207</v>
       </c>
@@ -8798,7 +9268,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="77" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>207</v>
       </c>
@@ -8849,7 +9319,7 @@
         <v>33</v>
       </c>
       <c r="V77" s="17">
-        <v>1.672711e6</v>
+        <v>1672711</v>
       </c>
       <c r="W77" s="15" t="s">
         <v>223</v>
@@ -8870,19 +9340,19 @@
         <v>70</v>
       </c>
       <c r="AC77" s="22">
-        <v>37.41</v>
+        <v>37.410000000000004</v>
       </c>
       <c r="AD77" s="22">
         <v>37.14</v>
       </c>
       <c r="AE77" s="23">
-        <v>2618.7</v>
+        <v>2618.7000000000003</v>
       </c>
       <c r="AF77" s="23">
-        <v>2599.8</v>
+        <v>2599.8000000000002</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="78" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>207</v>
       </c>
@@ -8933,7 +9403,7 @@
         <v>33</v>
       </c>
       <c r="V78" s="7">
-        <v>1.67272e6</v>
+        <v>1672720</v>
       </c>
       <c r="W78" s="5" t="s">
         <v>224</v>
@@ -8954,7 +9424,7 @@
         <v>360</v>
       </c>
       <c r="AC78" s="11">
-        <v>37.41</v>
+        <v>37.410000000000004</v>
       </c>
       <c r="AD78" s="11">
         <v>37.14</v>
@@ -8966,7 +9436,7 @@
         <v>13370.4</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="79" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>207</v>
       </c>
@@ -9017,7 +9487,7 @@
         <v>33</v>
       </c>
       <c r="V79" s="17">
-        <v>1.672738e6</v>
+        <v>1672738</v>
       </c>
       <c r="W79" s="15" t="s">
         <v>225</v>
@@ -9038,7 +9508,7 @@
         <v>570</v>
       </c>
       <c r="AC79" s="22">
-        <v>37.41</v>
+        <v>37.410000000000004</v>
       </c>
       <c r="AD79" s="22">
         <v>37.14</v>
@@ -9050,7 +9520,7 @@
         <v>21169.8</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="80" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>207</v>
       </c>
@@ -9101,7 +9571,7 @@
         <v>33</v>
       </c>
       <c r="V80" s="7">
-        <v>1.470957e6</v>
+        <v>1470957</v>
       </c>
       <c r="W80" s="5" t="s">
         <v>228</v>
@@ -9134,7 +9604,7 @@
         <v>10890</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="81" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>207</v>
       </c>
@@ -9218,7 +9688,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="82" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>232</v>
       </c>
@@ -9269,7 +9739,7 @@
         <v>33</v>
       </c>
       <c r="V82" s="7">
-        <v>1.149741e6</v>
+        <v>1149741</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>236</v>
@@ -9302,7 +9772,7 @@
         <v>8670</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="83" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>232</v>
       </c>
@@ -9353,7 +9823,7 @@
         <v>33</v>
       </c>
       <c r="V83" s="17">
-        <v>1.57669e6</v>
+        <v>1576690</v>
       </c>
       <c r="W83" s="20" t="s">
         <v>218</v>
@@ -9386,7 +9856,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="84" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>232</v>
       </c>
@@ -9437,7 +9907,7 @@
         <v>33</v>
       </c>
       <c r="V84" s="7">
-        <v>1.698745e6</v>
+        <v>1698745</v>
       </c>
       <c r="W84" s="24" t="s">
         <v>237</v>
@@ -9458,19 +9928,19 @@
         <v>60</v>
       </c>
       <c r="AC84" s="11">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="AD84" s="11">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="AE84" s="12">
-        <v>1226.4</v>
+        <v>1226.4000000000001</v>
       </c>
       <c r="AF84" s="12">
-        <v>1226.4</v>
+        <v>1226.4000000000001</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="85" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>232</v>
       </c>
@@ -9554,7 +10024,7 @@
         <v>502500</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="86" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>232</v>
       </c>
@@ -9626,10 +10096,10 @@
         <v>1000</v>
       </c>
       <c r="AC86" s="11">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AD86" s="11">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AE86" s="12">
         <v>19600</v>
@@ -9638,7 +10108,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="87" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>232</v>
       </c>
@@ -9710,10 +10180,10 @@
         <v>1000</v>
       </c>
       <c r="AC87" s="22">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AD87" s="22">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AE87" s="23">
         <v>19600</v>
@@ -9722,7 +10192,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="88" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>232</v>
       </c>
@@ -9806,7 +10276,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="89" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>232</v>
       </c>
@@ -9857,7 +10327,7 @@
         <v>33</v>
       </c>
       <c r="V89" s="17">
-        <v>1.04275e6</v>
+        <v>1042750</v>
       </c>
       <c r="W89" s="15" t="s">
         <v>241</v>
@@ -9890,7 +10360,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="90" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>232</v>
       </c>
@@ -9941,7 +10411,7 @@
         <v>33</v>
       </c>
       <c r="V90" s="7">
-        <v>1.213598e6</v>
+        <v>1213598</v>
       </c>
       <c r="W90" s="5" t="s">
         <v>242</v>
@@ -9968,13 +10438,13 @@
         <v>3550</v>
       </c>
       <c r="AE90" s="12">
-        <v>2.059e6</v>
+        <v>2059000</v>
       </c>
       <c r="AF90" s="12">
-        <v>2.059e6</v>
+        <v>2059000</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="91" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>232</v>
       </c>
@@ -10025,7 +10495,7 @@
         <v>33</v>
       </c>
       <c r="V91" s="17">
-        <v>1.313533e6</v>
+        <v>1313533</v>
       </c>
       <c r="W91" s="15" t="s">
         <v>243</v>
@@ -10058,7 +10528,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="92" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>232</v>
       </c>
@@ -10142,7 +10612,7 @@
         <v>50600</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="93" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>232</v>
       </c>
@@ -10226,7 +10696,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="94" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>232</v>
       </c>
@@ -10310,7 +10780,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="95" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>232</v>
       </c>
@@ -10394,7 +10864,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="96" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>232</v>
       </c>
@@ -10445,7 +10915,7 @@
         <v>33</v>
       </c>
       <c r="V96" s="7">
-        <v>1.604821e6</v>
+        <v>1604821</v>
       </c>
       <c r="W96" s="5" t="s">
         <v>254</v>
@@ -10478,7 +10948,7 @@
         <v>41544</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="97" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>256</v>
       </c>
@@ -10507,7 +10977,7 @@
         <v>37</v>
       </c>
       <c r="J97" s="17">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>258</v>
@@ -10574,7 +11044,7 @@
         <v>6357</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="98" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>256</v>
       </c>
@@ -10603,7 +11073,7 @@
         <v>37</v>
       </c>
       <c r="J98" s="7">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>258</v>
@@ -10637,7 +11107,7 @@
         <v>33</v>
       </c>
       <c r="V98" s="7">
-        <v>1.391542e6</v>
+        <v>1391542</v>
       </c>
       <c r="W98" s="5" t="s">
         <v>263</v>
@@ -10670,7 +11140,7 @@
         <v>386.1</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="99" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>256</v>
       </c>
@@ -10699,7 +11169,7 @@
         <v>37</v>
       </c>
       <c r="J99" s="17">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K99" s="15" t="s">
         <v>258</v>
@@ -10733,7 +11203,7 @@
         <v>33</v>
       </c>
       <c r="V99" s="17">
-        <v>1.41416e6</v>
+        <v>1414160</v>
       </c>
       <c r="W99" s="15" t="s">
         <v>264</v>
@@ -10760,13 +11230,13 @@
         <v>4.95</v>
       </c>
       <c r="AE99" s="23">
-        <v>516.8</v>
+        <v>516.79999999999995</v>
       </c>
       <c r="AF99" s="23">
         <v>376.2</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="100" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>256</v>
       </c>
@@ -10795,7 +11265,7 @@
         <v>37</v>
       </c>
       <c r="J100" s="7">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>258</v>
@@ -10829,7 +11299,7 @@
         <v>33</v>
       </c>
       <c r="V100" s="7">
-        <v>1.451006e6</v>
+        <v>1451006</v>
       </c>
       <c r="W100" s="5" t="s">
         <v>265</v>
@@ -10862,7 +11332,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="101" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>256</v>
       </c>
@@ -10891,7 +11361,7 @@
         <v>37</v>
       </c>
       <c r="J101" s="17">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K101" s="15" t="s">
         <v>258</v>
@@ -10925,7 +11395,7 @@
         <v>33</v>
       </c>
       <c r="V101" s="17">
-        <v>1.600125e6</v>
+        <v>1600125</v>
       </c>
       <c r="W101" s="15" t="s">
         <v>266</v>
@@ -10958,7 +11428,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="102" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>256</v>
       </c>
@@ -10987,7 +11457,7 @@
         <v>37</v>
       </c>
       <c r="J102" s="7">
-        <v>9.250233e6</v>
+        <v>9250233</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>267</v>
@@ -11054,7 +11524,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="103" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>272</v>
       </c>
@@ -11083,7 +11553,7 @@
         <v>37</v>
       </c>
       <c r="J103" s="17">
-        <v>9.251225e6</v>
+        <v>9251225</v>
       </c>
       <c r="K103" s="15" t="s">
         <v>274</v>
@@ -11152,7 +11622,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="104" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>276</v>
       </c>
@@ -11181,7 +11651,7 @@
         <v>37</v>
       </c>
       <c r="J104" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>279</v>
@@ -11248,7 +11718,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="105" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>276</v>
       </c>
@@ -11277,7 +11747,7 @@
         <v>37</v>
       </c>
       <c r="J105" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K105" s="15" t="s">
         <v>279</v>
@@ -11329,13 +11799,13 @@
         <v>44</v>
       </c>
       <c r="AB105" s="21">
-        <v>5.587405e6</v>
+        <v>5587405</v>
       </c>
       <c r="AC105" s="22">
-        <v>80000e-6</v>
+        <v>0.08</v>
       </c>
       <c r="AD105" s="22">
-        <v>75000e-6</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE105" s="23">
         <v>446992.4</v>
@@ -11344,7 +11814,7 @@
         <v>419055.37</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="106" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>276</v>
       </c>
@@ -11373,7 +11843,7 @@
         <v>37</v>
       </c>
       <c r="J106" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>279</v>
@@ -11440,7 +11910,7 @@
         <v>106640</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="107" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>276</v>
       </c>
@@ -11469,7 +11939,7 @@
         <v>37</v>
       </c>
       <c r="J107" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K107" s="15" t="s">
         <v>279</v>
@@ -11503,7 +11973,7 @@
         <v>33</v>
       </c>
       <c r="V107" s="17">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W107" s="15" t="s">
         <v>214</v>
@@ -11524,10 +11994,10 @@
         <v>5000</v>
       </c>
       <c r="AC107" s="22">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="AD107" s="22">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="AE107" s="23">
         <v>90850</v>
@@ -11536,7 +12006,7 @@
         <v>90850</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="108" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>276</v>
       </c>
@@ -11565,7 +12035,7 @@
         <v>37</v>
       </c>
       <c r="J108" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>279</v>
@@ -11599,7 +12069,7 @@
         <v>33</v>
       </c>
       <c r="V108" s="7">
-        <v>1.672525e6</v>
+        <v>1672525</v>
       </c>
       <c r="W108" s="5" t="s">
         <v>283</v>
@@ -11632,7 +12102,7 @@
         <v>262080</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="109" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>276</v>
       </c>
@@ -11661,7 +12131,7 @@
         <v>37</v>
       </c>
       <c r="J109" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K109" s="15" t="s">
         <v>279</v>
@@ -11695,7 +12165,7 @@
         <v>33</v>
       </c>
       <c r="V109" s="17">
-        <v>1.672533e6</v>
+        <v>1672533</v>
       </c>
       <c r="W109" s="15" t="s">
         <v>285</v>
@@ -11728,7 +12198,7 @@
         <v>356460</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="110" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>276</v>
       </c>
@@ -11757,7 +12227,7 @@
         <v>37</v>
       </c>
       <c r="J110" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>279</v>
@@ -11791,7 +12261,7 @@
         <v>33</v>
       </c>
       <c r="V110" s="7">
-        <v>1.672541e6</v>
+        <v>1672541</v>
       </c>
       <c r="W110" s="5" t="s">
         <v>286</v>
@@ -11824,7 +12294,7 @@
         <v>24710</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="111" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>276</v>
       </c>
@@ -11853,7 +12323,7 @@
         <v>37</v>
       </c>
       <c r="J111" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K111" s="15" t="s">
         <v>279</v>
@@ -11887,7 +12357,7 @@
         <v>33</v>
       </c>
       <c r="V111" s="17">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W111" s="15" t="s">
         <v>287</v>
@@ -11914,13 +12384,13 @@
         <v>28.47</v>
       </c>
       <c r="AE111" s="23">
-        <v>1.05020136e6</v>
+        <v>1050201.3600000001</v>
       </c>
       <c r="AF111" s="23">
-        <v>1.05020136e6</v>
+        <v>1050201.3600000001</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="112" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>276</v>
       </c>
@@ -11949,7 +12419,7 @@
         <v>37</v>
       </c>
       <c r="J112" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>279</v>
@@ -11983,7 +12453,7 @@
         <v>33</v>
       </c>
       <c r="V112" s="7">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W112" s="5" t="s">
         <v>288</v>
@@ -12010,13 +12480,13 @@
         <v>28.47</v>
       </c>
       <c r="AE112" s="12">
-        <v>1.94057214e6</v>
+        <v>1940572.14</v>
       </c>
       <c r="AF112" s="12">
-        <v>1.94057214e6</v>
+        <v>1940572.14</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="113" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>276</v>
       </c>
@@ -12045,7 +12515,7 @@
         <v>37</v>
       </c>
       <c r="J113" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K113" s="15" t="s">
         <v>279</v>
@@ -12079,7 +12549,7 @@
         <v>33</v>
       </c>
       <c r="V113" s="17">
-        <v>1.672606e6</v>
+        <v>1672606</v>
       </c>
       <c r="W113" s="15" t="s">
         <v>289</v>
@@ -12112,7 +12582,7 @@
         <v>993261.36</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="114" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>276</v>
       </c>
@@ -12141,7 +12611,7 @@
         <v>37</v>
       </c>
       <c r="J114" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>279</v>
@@ -12175,7 +12645,7 @@
         <v>33</v>
       </c>
       <c r="V114" s="7">
-        <v>1.672738e6</v>
+        <v>1672738</v>
       </c>
       <c r="W114" s="5" t="s">
         <v>225</v>
@@ -12208,7 +12678,7 @@
         <v>60450</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="115" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>276</v>
       </c>
@@ -12237,7 +12707,7 @@
         <v>37</v>
       </c>
       <c r="J115" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K115" s="15" t="s">
         <v>279</v>
@@ -12271,7 +12741,7 @@
         <v>33</v>
       </c>
       <c r="V115" s="17">
-        <v>1.672762e6</v>
+        <v>1672762</v>
       </c>
       <c r="W115" s="15" t="s">
         <v>290</v>
@@ -12304,7 +12774,7 @@
         <v>72540</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="116" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>276</v>
       </c>
@@ -12333,7 +12803,7 @@
         <v>37</v>
       </c>
       <c r="J116" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>279</v>
@@ -12367,7 +12837,7 @@
         <v>33</v>
       </c>
       <c r="V116" s="7">
-        <v>1.67277e6</v>
+        <v>1672770</v>
       </c>
       <c r="W116" s="5" t="s">
         <v>291</v>
@@ -12400,7 +12870,7 @@
         <v>145080</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="117" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>276</v>
       </c>
@@ -12429,7 +12899,7 @@
         <v>37</v>
       </c>
       <c r="J117" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K117" s="15" t="s">
         <v>279</v>
@@ -12463,7 +12933,7 @@
         <v>33</v>
       </c>
       <c r="V117" s="17">
-        <v>1.710273e6</v>
+        <v>1710273</v>
       </c>
       <c r="W117" s="15" t="s">
         <v>292</v>
@@ -12481,7 +12951,7 @@
         <v>44</v>
       </c>
       <c r="AB117" s="21">
-        <v>5.746855e6</v>
+        <v>5746855</v>
       </c>
       <c r="AC117" s="22">
         <v>3.84</v>
@@ -12490,13 +12960,13 @@
         <v>3.8245</v>
       </c>
       <c r="AE117" s="23">
-        <v>22.0679232e6</v>
+        <v>22067923.199999999</v>
       </c>
       <c r="AF117" s="23">
-        <v>21.97884694e6</v>
+        <v>21978846.940000001</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="118" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>293</v>
       </c>
@@ -12525,7 +12995,7 @@
         <v>37</v>
       </c>
       <c r="J118" s="7">
-        <v>9.245606e6</v>
+        <v>9245606</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>295</v>
@@ -12559,7 +13029,7 @@
         <v>33</v>
       </c>
       <c r="V118" s="7">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W118" s="5" t="s">
         <v>214</v>
@@ -12586,13 +13056,13 @@
         <v>9.98</v>
       </c>
       <c r="AE118" s="12">
-        <v>1.497e6</v>
+        <v>1497000</v>
       </c>
       <c r="AF118" s="12">
-        <v>1.497e6</v>
+        <v>1497000</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="119" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>299</v>
       </c>
@@ -12621,7 +13091,7 @@
         <v>37</v>
       </c>
       <c r="J119" s="17">
-        <v>9.245644e6</v>
+        <v>9245644</v>
       </c>
       <c r="K119" s="15" t="s">
         <v>301</v>
@@ -12688,7 +13158,7 @@
         <v>99800</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="120" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>303</v>
       </c>
@@ -12717,7 +13187,7 @@
         <v>37</v>
       </c>
       <c r="J120" s="7">
-        <v>9.245631e6</v>
+        <v>9245631</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>306</v>
@@ -12751,7 +13221,7 @@
         <v>33</v>
       </c>
       <c r="V120" s="7">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W120" s="5" t="s">
         <v>214</v>
@@ -12784,7 +13254,7 @@
         <v>648700</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="121" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>308</v>
       </c>
@@ -12835,7 +13305,7 @@
         <v>33</v>
       </c>
       <c r="V121" s="17">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W121" s="15" t="s">
         <v>312</v>
@@ -12868,7 +13338,7 @@
         <v>252500</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="122" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>314</v>
       </c>
@@ -12919,7 +13389,7 @@
         <v>33</v>
       </c>
       <c r="V122" s="7">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W122" s="5" t="s">
         <v>312</v>
@@ -12952,7 +13422,7 @@
         <v>80800</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="123" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>317</v>
       </c>
@@ -13003,7 +13473,7 @@
         <v>33</v>
       </c>
       <c r="V123" s="17">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W123" s="15" t="s">
         <v>312</v>
@@ -13030,13 +13500,13 @@
         <v>2.02</v>
       </c>
       <c r="AE123" s="23">
-        <v>286167.34</v>
+        <v>286167.34000000003</v>
       </c>
       <c r="AF123" s="23">
-        <v>286167.34</v>
+        <v>286167.34000000003</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="124" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>319</v>
       </c>
@@ -13087,7 +13557,7 @@
         <v>33</v>
       </c>
       <c r="V124" s="7">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W124" s="5" t="s">
         <v>312</v>
@@ -13120,7 +13590,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="125" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>319</v>
       </c>
@@ -13171,7 +13641,7 @@
         <v>33</v>
       </c>
       <c r="V125" s="17">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W125" s="15" t="s">
         <v>312</v>
@@ -13204,7 +13674,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="126" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>321</v>
       </c>
@@ -13233,7 +13703,7 @@
         <v>37</v>
       </c>
       <c r="J126" s="7">
-        <v>9.24571e6</v>
+        <v>9245710</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>323</v>
@@ -13267,7 +13737,7 @@
         <v>33</v>
       </c>
       <c r="V126" s="7">
-        <v>1.734423e6</v>
+        <v>1734423</v>
       </c>
       <c r="W126" s="5" t="s">
         <v>326</v>
@@ -13300,7 +13770,7 @@
         <v>175680</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="127" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>328</v>
       </c>
@@ -13329,7 +13799,7 @@
         <v>37</v>
       </c>
       <c r="J127" s="17">
-        <v>9.245712e6</v>
+        <v>9245712</v>
       </c>
       <c r="K127" s="15" t="s">
         <v>330</v>
@@ -13390,13 +13860,13 @@
         <v>15.01</v>
       </c>
       <c r="AE127" s="23">
-        <v>11.2575e6</v>
+        <v>11257500</v>
       </c>
       <c r="AF127" s="23">
-        <v>11.2575e6</v>
+        <v>11257500</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="128" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>332</v>
       </c>
@@ -13425,7 +13895,7 @@
         <v>37</v>
       </c>
       <c r="J128" s="7">
-        <v>9.245714e6</v>
+        <v>9245714</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>334</v>
@@ -13459,7 +13929,7 @@
         <v>33</v>
       </c>
       <c r="V128" s="7">
-        <v>1.734423e6</v>
+        <v>1734423</v>
       </c>
       <c r="W128" s="5" t="s">
         <v>326</v>
@@ -13492,7 +13962,7 @@
         <v>472395</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="129" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>337</v>
       </c>
@@ -13543,7 +14013,7 @@
         <v>33</v>
       </c>
       <c r="V129" s="17">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W129" s="15" t="s">
         <v>287</v>
@@ -13576,7 +14046,7 @@
         <v>230300</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="130" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>337</v>
       </c>
@@ -13627,7 +14097,7 @@
         <v>33</v>
       </c>
       <c r="V130" s="7">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W130" s="5" t="s">
         <v>288</v>
@@ -13660,7 +14130,7 @@
         <v>822500</v>
       </c>
     </row>
-    <row r="131" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="131" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>339</v>
       </c>
@@ -13689,7 +14159,7 @@
         <v>37</v>
       </c>
       <c r="J131" s="17">
-        <v>9.24576e6</v>
+        <v>9245760</v>
       </c>
       <c r="K131" s="15" t="s">
         <v>341</v>
@@ -13723,7 +14193,7 @@
         <v>33</v>
       </c>
       <c r="V131" s="17">
-        <v>1.649256e6</v>
+        <v>1649256</v>
       </c>
       <c r="W131" s="15" t="s">
         <v>344</v>
@@ -13750,13 +14220,13 @@
         <v>23610</v>
       </c>
       <c r="AE131" s="23">
-        <v>1.4166e6</v>
+        <v>1416600</v>
       </c>
       <c r="AF131" s="23">
-        <v>1.4166e6</v>
+        <v>1416600</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="132" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>345</v>
       </c>
@@ -13785,7 +14255,7 @@
         <v>37</v>
       </c>
       <c r="J132" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>347</v>
@@ -13846,13 +14316,13 @@
         <v>3.8245</v>
       </c>
       <c r="AE132" s="12">
-        <v>2.4285575e6</v>
+        <v>2428557.5</v>
       </c>
       <c r="AF132" s="12">
-        <v>2.4285575e6</v>
+        <v>2428557.5</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="133" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>345</v>
       </c>
@@ -13881,7 +14351,7 @@
         <v>37</v>
       </c>
       <c r="J133" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K133" s="15" t="s">
         <v>347</v>
@@ -13948,7 +14418,7 @@
         <v>750500</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="134" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>345</v>
       </c>
@@ -13977,7 +14447,7 @@
         <v>37</v>
       </c>
       <c r="J134" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>347</v>
@@ -14029,13 +14499,13 @@
         <v>44</v>
       </c>
       <c r="AB134" s="10">
-        <v>1e6</v>
+        <v>1000000</v>
       </c>
       <c r="AC134" s="11">
-        <v>224500e-6</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="AD134" s="11">
-        <v>224500e-6</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="AE134" s="12">
         <v>224500</v>
@@ -14044,7 +14514,7 @@
         <v>224500</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="135" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>345</v>
       </c>
@@ -14073,7 +14543,7 @@
         <v>37</v>
       </c>
       <c r="J135" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K135" s="15" t="s">
         <v>347</v>
@@ -14140,7 +14610,7 @@
         <v>793500</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="136" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>345</v>
       </c>
@@ -14169,7 +14639,7 @@
         <v>37</v>
       </c>
       <c r="J136" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>347</v>
@@ -14203,7 +14673,7 @@
         <v>33</v>
       </c>
       <c r="V136" s="7">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W136" s="5" t="s">
         <v>287</v>
@@ -14236,7 +14706,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="137" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>345</v>
       </c>
@@ -14265,7 +14735,7 @@
         <v>37</v>
       </c>
       <c r="J137" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K137" s="15" t="s">
         <v>347</v>
@@ -14299,7 +14769,7 @@
         <v>33</v>
       </c>
       <c r="V137" s="17">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W137" s="15" t="s">
         <v>288</v>
@@ -14332,7 +14802,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="138" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>345</v>
       </c>
@@ -14361,7 +14831,7 @@
         <v>37</v>
       </c>
       <c r="J138" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>347</v>
@@ -14395,7 +14865,7 @@
         <v>33</v>
       </c>
       <c r="V138" s="7">
-        <v>1.672606e6</v>
+        <v>1672606</v>
       </c>
       <c r="W138" s="5" t="s">
         <v>289</v>
@@ -14428,7 +14898,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="139" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>349</v>
       </c>
@@ -14457,7 +14927,7 @@
         <v>37</v>
       </c>
       <c r="J139" s="17">
-        <v>9.245766e6</v>
+        <v>9245766</v>
       </c>
       <c r="K139" s="15" t="s">
         <v>351</v>
@@ -14491,7 +14961,7 @@
         <v>33</v>
       </c>
       <c r="V139" s="17">
-        <v>1.649256e6</v>
+        <v>1649256</v>
       </c>
       <c r="W139" s="15" t="s">
         <v>344</v>
@@ -14518,13 +14988,13 @@
         <v>21274</v>
       </c>
       <c r="AE139" s="23">
-        <v>2.1274e6</v>
+        <v>2127400</v>
       </c>
       <c r="AF139" s="23">
-        <v>2.1274e6</v>
+        <v>2127400</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="140" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>354</v>
       </c>
@@ -14553,7 +15023,7 @@
         <v>37</v>
       </c>
       <c r="J140" s="7">
-        <v>9.245781e6</v>
+        <v>9245781</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>356</v>
@@ -14587,7 +15057,7 @@
         <v>33</v>
       </c>
       <c r="V140" s="7">
-        <v>1.734423e6</v>
+        <v>1734423</v>
       </c>
       <c r="W140" s="5" t="s">
         <v>326</v>
@@ -14614,13 +15084,13 @@
         <v>20406.25</v>
       </c>
       <c r="AE140" s="12">
-        <v>3.265e6</v>
+        <v>3265000</v>
       </c>
       <c r="AF140" s="12">
-        <v>3.265e6</v>
+        <v>3265000</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="141" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>359</v>
       </c>
@@ -14698,13 +15168,13 @@
         <v>14.9</v>
       </c>
       <c r="AE141" s="23">
-        <v>6.3109397e6</v>
+        <v>6310939.7000000002</v>
       </c>
       <c r="AF141" s="23">
-        <v>6.3109397e6</v>
+        <v>6310939.7000000002</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="142" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>363</v>
       </c>
@@ -14755,7 +15225,7 @@
         <v>33</v>
       </c>
       <c r="V142" s="7">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W142" s="5" t="s">
         <v>287</v>
@@ -14776,10 +15246,10 @@
         <v>4500</v>
       </c>
       <c r="AC142" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD142" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE142" s="12">
         <v>156150</v>
@@ -14788,7 +15258,7 @@
         <v>156150</v>
       </c>
     </row>
-    <row r="143" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="143" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>363</v>
       </c>
@@ -14839,7 +15309,7 @@
         <v>33</v>
       </c>
       <c r="V143" s="17">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W143" s="15" t="s">
         <v>288</v>
@@ -14860,10 +15330,10 @@
         <v>10000</v>
       </c>
       <c r="AC143" s="22">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD143" s="22">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE143" s="23">
         <v>347000</v>
@@ -14872,7 +15342,7 @@
         <v>347000</v>
       </c>
     </row>
-    <row r="144" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="144" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>363</v>
       </c>
@@ -14923,7 +15393,7 @@
         <v>33</v>
       </c>
       <c r="V144" s="7">
-        <v>1.672606e6</v>
+        <v>1672606</v>
       </c>
       <c r="W144" s="5" t="s">
         <v>289</v>
@@ -14944,10 +15414,10 @@
         <v>2000</v>
       </c>
       <c r="AC144" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD144" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE144" s="12">
         <v>69400</v>
@@ -14956,7 +15426,7 @@
         <v>69400</v>
       </c>
     </row>
-    <row r="145" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="145" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>365</v>
       </c>
@@ -14985,7 +15455,7 @@
         <v>37</v>
       </c>
       <c r="J145" s="17">
-        <v>9.246004e6</v>
+        <v>9246004</v>
       </c>
       <c r="K145" s="15" t="s">
         <v>367</v>
@@ -15046,13 +15516,13 @@
         <v>14.7</v>
       </c>
       <c r="AE145" s="23">
-        <v>7.35e6</v>
+        <v>7350000</v>
       </c>
       <c r="AF145" s="23">
-        <v>7.35e6</v>
+        <v>7350000</v>
       </c>
     </row>
-    <row r="146" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="146" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>368</v>
       </c>
@@ -15081,7 +15551,7 @@
         <v>37</v>
       </c>
       <c r="J146" s="7">
-        <v>9.246005e6</v>
+        <v>9246005</v>
       </c>
       <c r="K146" s="5" t="s">
         <v>370</v>
@@ -15133,7 +15603,7 @@
         <v>44</v>
       </c>
       <c r="AB146" s="10">
-        <v>3e6</v>
+        <v>3000000</v>
       </c>
       <c r="AC146" s="11">
         <v>2.74</v>
@@ -15142,13 +15612,13 @@
         <v>2.74</v>
       </c>
       <c r="AE146" s="12">
-        <v>8.22e6</v>
+        <v>8220000</v>
       </c>
       <c r="AF146" s="12">
-        <v>8.22e6</v>
+        <v>8220000</v>
       </c>
     </row>
-    <row r="147" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="147" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>368</v>
       </c>
@@ -15177,7 +15647,7 @@
         <v>37</v>
       </c>
       <c r="J147" s="17">
-        <v>9.246005e6</v>
+        <v>9246005</v>
       </c>
       <c r="K147" s="15" t="s">
         <v>370</v>
@@ -15244,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="148" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>372</v>
       </c>
@@ -15322,13 +15792,13 @@
         <v>2.74</v>
       </c>
       <c r="AE148" s="12">
-        <v>2.33451288e6</v>
+        <v>2334512.88</v>
       </c>
       <c r="AF148" s="12">
-        <v>2.33451288e6</v>
+        <v>2334512.88</v>
       </c>
     </row>
-    <row r="149" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="149" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>374</v>
       </c>
@@ -15357,7 +15827,7 @@
         <v>37</v>
       </c>
       <c r="J149" s="17">
-        <v>9.247074e6</v>
+        <v>9247074</v>
       </c>
       <c r="K149" s="15" t="s">
         <v>376</v>
@@ -15391,7 +15861,7 @@
         <v>33</v>
       </c>
       <c r="V149" s="17">
-        <v>1.753681e6</v>
+        <v>1753681</v>
       </c>
       <c r="W149" s="15" t="s">
         <v>379</v>
@@ -15418,13 +15888,13 @@
         <v>70000</v>
       </c>
       <c r="AE149" s="23">
-        <v>39.34e6</v>
+        <v>39340000</v>
       </c>
       <c r="AF149" s="23">
-        <v>39.34e6</v>
+        <v>39340000</v>
       </c>
     </row>
-    <row r="150" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="150" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>374</v>
       </c>
@@ -15453,7 +15923,7 @@
         <v>37</v>
       </c>
       <c r="J150" s="7">
-        <v>9.247074e6</v>
+        <v>9247074</v>
       </c>
       <c r="K150" s="5" t="s">
         <v>376</v>
@@ -15487,7 +15957,7 @@
         <v>33</v>
       </c>
       <c r="V150" s="7">
-        <v>1.756877e6</v>
+        <v>1756877</v>
       </c>
       <c r="W150" s="5" t="s">
         <v>380</v>
@@ -15514,13 +15984,13 @@
         <v>25000</v>
       </c>
       <c r="AE150" s="12">
-        <v>4.625e6</v>
+        <v>4625000</v>
       </c>
       <c r="AF150" s="12">
-        <v>4.625e6</v>
+        <v>4625000</v>
       </c>
     </row>
-    <row r="151" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="151" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>381</v>
       </c>
@@ -15549,7 +16019,7 @@
         <v>37</v>
       </c>
       <c r="J151" s="17">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K151" s="15" t="s">
         <v>383</v>
@@ -15583,7 +16053,7 @@
         <v>33</v>
       </c>
       <c r="V151" s="17">
-        <v>1.747983e6</v>
+        <v>1747983</v>
       </c>
       <c r="W151" s="15" t="s">
         <v>386</v>
@@ -15616,7 +16086,7 @@
         <v>939658</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="152" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>381</v>
       </c>
@@ -15645,7 +16115,7 @@
         <v>37</v>
       </c>
       <c r="J152" s="7">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K152" s="5" t="s">
         <v>383</v>
@@ -15679,7 +16149,7 @@
         <v>33</v>
       </c>
       <c r="V152" s="7">
-        <v>1.75307e6</v>
+        <v>1753070</v>
       </c>
       <c r="W152" s="5" t="s">
         <v>388</v>
@@ -15700,19 +16170,19 @@
         <v>900</v>
       </c>
       <c r="AC152" s="11">
-        <v>3995.6207</v>
+        <v>3995.6207000000004</v>
       </c>
       <c r="AD152" s="11">
-        <v>3995.6207</v>
+        <v>3995.6207000000004</v>
       </c>
       <c r="AE152" s="12">
-        <v>3.59605863e6</v>
+        <v>3596058.63</v>
       </c>
       <c r="AF152" s="12">
-        <v>3.59605863e6</v>
+        <v>3596058.63</v>
       </c>
     </row>
-    <row r="153" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="153" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>381</v>
       </c>
@@ -15741,7 +16211,7 @@
         <v>37</v>
       </c>
       <c r="J153" s="17">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K153" s="15" t="s">
         <v>383</v>
@@ -15775,7 +16245,7 @@
         <v>33</v>
       </c>
       <c r="V153" s="17">
-        <v>1.753088e6</v>
+        <v>1753088</v>
       </c>
       <c r="W153" s="15" t="s">
         <v>389</v>
@@ -15808,7 +16278,7 @@
         <v>599400</v>
       </c>
     </row>
-    <row r="154" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="154" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>381</v>
       </c>
@@ -15837,7 +16307,7 @@
         <v>37</v>
       </c>
       <c r="J154" s="7">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K154" s="5" t="s">
         <v>383</v>
@@ -15871,7 +16341,7 @@
         <v>33</v>
       </c>
       <c r="V154" s="7">
-        <v>1.753924e6</v>
+        <v>1753924</v>
       </c>
       <c r="W154" s="5" t="s">
         <v>390</v>
@@ -15904,7 +16374,7 @@
         <v>11682</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="155" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>381</v>
       </c>
@@ -15933,7 +16403,7 @@
         <v>37</v>
       </c>
       <c r="J155" s="17">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K155" s="15" t="s">
         <v>383</v>
@@ -15967,7 +16437,7 @@
         <v>33</v>
       </c>
       <c r="V155" s="17">
-        <v>1.75663e6</v>
+        <v>1756630</v>
       </c>
       <c r="W155" s="15" t="s">
         <v>391</v>
@@ -16000,7 +16470,7 @@
         <v>8982</v>
       </c>
     </row>
-    <row r="156" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="156" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>392</v>
       </c>
@@ -16029,7 +16499,7 @@
         <v>37</v>
       </c>
       <c r="J156" s="7">
-        <v>9.247154e6</v>
+        <v>9247154</v>
       </c>
       <c r="K156" s="5" t="s">
         <v>394</v>
@@ -16063,7 +16533,7 @@
         <v>33</v>
       </c>
       <c r="V156" s="7">
-        <v>1.755366e6</v>
+        <v>1755366</v>
       </c>
       <c r="W156" s="5" t="s">
         <v>397</v>
@@ -16090,13 +16560,13 @@
         <v>12.29</v>
       </c>
       <c r="AE156" s="12">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
       <c r="AF156" s="12">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
     </row>
-    <row r="157" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="157" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>398</v>
       </c>
@@ -16125,7 +16595,7 @@
         <v>37</v>
       </c>
       <c r="J157" s="17">
-        <v>9.247151e6</v>
+        <v>9247151</v>
       </c>
       <c r="K157" s="15" t="s">
         <v>400</v>
@@ -16159,7 +16629,7 @@
         <v>33</v>
       </c>
       <c r="V157" s="17">
-        <v>1.758063e6</v>
+        <v>1758063</v>
       </c>
       <c r="W157" s="15" t="s">
         <v>403</v>
@@ -16186,13 +16656,13 @@
         <v>24359.2562</v>
       </c>
       <c r="AE157" s="23">
-        <v>7.30777686e6</v>
+        <v>7307776.8600000003</v>
       </c>
       <c r="AF157" s="23">
-        <v>7.30777686e6</v>
+        <v>7307776.8600000003</v>
       </c>
     </row>
-    <row r="158" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="158" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>404</v>
       </c>
@@ -16221,7 +16691,7 @@
         <v>37</v>
       </c>
       <c r="J158" s="7">
-        <v>9.247179e6</v>
+        <v>9247179</v>
       </c>
       <c r="K158" s="5" t="s">
         <v>406</v>
@@ -16255,7 +16725,7 @@
         <v>33</v>
       </c>
       <c r="V158" s="7">
-        <v>1.755366e6</v>
+        <v>1755366</v>
       </c>
       <c r="W158" s="5" t="s">
         <v>397</v>
@@ -16282,13 +16752,13 @@
         <v>12.29</v>
       </c>
       <c r="AE158" s="12">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
       <c r="AF158" s="12">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="159" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>407</v>
       </c>
@@ -16372,7 +16842,7 @@
         <v>77400</v>
       </c>
     </row>
-    <row r="160" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="160" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>413</v>
       </c>
@@ -16401,7 +16871,7 @@
         <v>37</v>
       </c>
       <c r="J160" s="7">
-        <v>9.247172e6</v>
+        <v>9247172</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>415</v>
@@ -16468,7 +16938,7 @@
         <v>27653.11</v>
       </c>
     </row>
-    <row r="161" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="161" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>420</v>
       </c>
@@ -16552,7 +17022,7 @@
         <v>453600</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="162" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>422</v>
       </c>
@@ -16581,7 +17051,7 @@
         <v>37</v>
       </c>
       <c r="J162" s="7">
-        <v>9.250254e6</v>
+        <v>9250254</v>
       </c>
       <c r="K162" s="5" t="s">
         <v>424</v>
@@ -16648,7 +17118,7 @@
         <v>236250</v>
       </c>
     </row>
-    <row r="163" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="163" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>422</v>
       </c>
@@ -16677,7 +17147,7 @@
         <v>37</v>
       </c>
       <c r="J163" s="17">
-        <v>9.250254e6</v>
+        <v>9250254</v>
       </c>
       <c r="K163" s="15" t="s">
         <v>424</v>
@@ -16711,7 +17181,7 @@
         <v>33</v>
       </c>
       <c r="V163" s="17">
-        <v>1.27189e6</v>
+        <v>1271890</v>
       </c>
       <c r="W163" s="15" t="s">
         <v>428</v>
@@ -16744,7 +17214,7 @@
         <v>365508</v>
       </c>
     </row>
-    <row r="164" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="164" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>422</v>
       </c>
@@ -16773,7 +17243,7 @@
         <v>37</v>
       </c>
       <c r="J164" s="7">
-        <v>9.250315e6</v>
+        <v>9250315</v>
       </c>
       <c r="K164" s="5" t="s">
         <v>429</v>
@@ -16840,7 +17310,7 @@
         <v>302016</v>
       </c>
     </row>
-    <row r="165" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="165" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>433</v>
       </c>
@@ -16869,7 +17339,7 @@
         <v>37</v>
       </c>
       <c r="J165" s="17">
-        <v>9.251266e6</v>
+        <v>9251266</v>
       </c>
       <c r="K165" s="15" t="s">
         <v>435</v>
@@ -16903,7 +17373,7 @@
         <v>33</v>
       </c>
       <c r="V165" s="17">
-        <v>1.758276e6</v>
+        <v>1758276</v>
       </c>
       <c r="W165" s="15" t="s">
         <v>438</v>
@@ -16924,10 +17394,10 @@
         <v>3000</v>
       </c>
       <c r="AC165" s="22">
-        <v>40.27</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="AD165" s="22">
-        <v>40.27</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="AE165" s="23">
         <v>120810</v>
@@ -16936,7 +17406,7 @@
         <v>120810</v>
       </c>
     </row>
-    <row r="166" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="166" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>439</v>
       </c>
@@ -16987,7 +17457,7 @@
         <v>33</v>
       </c>
       <c r="V166" s="7">
-        <v>1.669486e6</v>
+        <v>1669486</v>
       </c>
       <c r="W166" s="5" t="s">
         <v>442</v>
@@ -17020,7 +17490,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="167" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="167" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>439</v>
       </c>
@@ -17071,7 +17541,7 @@
         <v>33</v>
       </c>
       <c r="V167" s="17">
-        <v>1.696041e6</v>
+        <v>1696041</v>
       </c>
       <c r="W167" s="15" t="s">
         <v>445</v>
@@ -17104,7 +17574,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="168" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="168" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>446</v>
       </c>
@@ -17133,7 +17603,7 @@
         <v>448</v>
       </c>
       <c r="J168" s="7">
-        <v>9.246044e6</v>
+        <v>9246044</v>
       </c>
       <c r="K168" s="5" t="s">
         <v>449</v>
@@ -17167,7 +17637,7 @@
         <v>33</v>
       </c>
       <c r="V168" s="7">
-        <v>1.66937e6</v>
+        <v>1669370</v>
       </c>
       <c r="W168" s="5" t="s">
         <v>193</v>
@@ -17200,7 +17670,7 @@
         <v>4606</v>
       </c>
     </row>
-    <row r="169" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="169" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>446</v>
       </c>
@@ -17229,7 +17699,7 @@
         <v>448</v>
       </c>
       <c r="J169" s="17">
-        <v>9.246044e6</v>
+        <v>9246044</v>
       </c>
       <c r="K169" s="15" t="s">
         <v>449</v>
@@ -17263,7 +17733,7 @@
         <v>33</v>
       </c>
       <c r="V169" s="17">
-        <v>1.669397e6</v>
+        <v>1669397</v>
       </c>
       <c r="W169" s="15" t="s">
         <v>452</v>
@@ -17296,7 +17766,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="170" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>446</v>
       </c>
@@ -17325,7 +17795,7 @@
         <v>448</v>
       </c>
       <c r="J170" s="7">
-        <v>9.246044e6</v>
+        <v>9246044</v>
       </c>
       <c r="K170" s="5" t="s">
         <v>449</v>
@@ -17359,7 +17829,7 @@
         <v>33</v>
       </c>
       <c r="V170" s="7">
-        <v>1.669486e6</v>
+        <v>1669486</v>
       </c>
       <c r="W170" s="5" t="s">
         <v>442</v>
@@ -17392,7 +17862,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="171" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>453</v>
       </c>
@@ -17476,7 +17946,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="172" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="172" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>457</v>
       </c>
@@ -17527,7 +17997,7 @@
         <v>33</v>
       </c>
       <c r="V172" s="7">
-        <v>1.69216e6</v>
+        <v>1692160</v>
       </c>
       <c r="W172" s="5" t="s">
         <v>459</v>
@@ -17560,7 +18030,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="173" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="173" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>460</v>
       </c>
@@ -17589,7 +18059,7 @@
         <v>37</v>
       </c>
       <c r="J173" s="17">
-        <v>9.246007e6</v>
+        <v>9246007</v>
       </c>
       <c r="K173" s="15" t="s">
         <v>462</v>
@@ -17623,7 +18093,7 @@
         <v>33</v>
       </c>
       <c r="V173" s="17">
-        <v>1.71894e6</v>
+        <v>1718940</v>
       </c>
       <c r="W173" s="15" t="s">
         <v>465</v>
@@ -17644,7 +18114,7 @@
         <v>84000</v>
       </c>
       <c r="AC173" s="22">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AD173" s="22">
         <v>1.71</v>
@@ -17656,7 +18126,7 @@
         <v>143640</v>
       </c>
     </row>
-    <row r="174" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="174" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>466</v>
       </c>
@@ -17740,7 +18210,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="175" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>466</v>
       </c>
@@ -17815,7 +18285,7 @@
         <v>24</v>
       </c>
       <c r="AD175" s="22">
-        <v>32.87</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="AE175" s="23">
         <v>720</v>
@@ -17824,7 +18294,7 @@
         <v>986.1</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="176" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>472</v>
       </c>
@@ -17896,10 +18366,10 @@
         <v>10000</v>
       </c>
       <c r="AC176" s="11">
-        <v>676000e-6</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AD176" s="11">
-        <v>676000e-6</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AE176" s="12">
         <v>6760</v>
@@ -17908,7 +18378,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row r="177" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="177" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>472</v>
       </c>
@@ -17959,7 +18429,7 @@
         <v>33</v>
       </c>
       <c r="V177" s="17">
-        <v>1.670891e6</v>
+        <v>1670891</v>
       </c>
       <c r="W177" s="15" t="s">
         <v>478</v>
@@ -17992,7 +18462,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="178" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>472</v>
       </c>
@@ -18043,7 +18513,7 @@
         <v>33</v>
       </c>
       <c r="V178" s="7">
-        <v>1.69773e6</v>
+        <v>1697730</v>
       </c>
       <c r="W178" s="5" t="s">
         <v>481</v>
@@ -18076,7 +18546,7 @@
         <v>248600</v>
       </c>
     </row>
-    <row r="179" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="179" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>472</v>
       </c>
@@ -18160,7 +18630,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="180" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="180" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>472</v>
       </c>
@@ -18211,7 +18681,7 @@
         <v>33</v>
       </c>
       <c r="V180" s="7">
-        <v>1.368818e6</v>
+        <v>1368818</v>
       </c>
       <c r="W180" s="5" t="s">
         <v>483</v>
@@ -18232,10 +18702,10 @@
         <v>10</v>
       </c>
       <c r="AC180" s="11">
-        <v>293.6</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="AD180" s="11">
-        <v>293.6</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="AE180" s="12">
         <v>2936</v>
@@ -18244,7 +18714,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="181" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="181" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>472</v>
       </c>
@@ -18295,7 +18765,7 @@
         <v>33</v>
       </c>
       <c r="V181" s="17">
-        <v>1.497391e6</v>
+        <v>1497391</v>
       </c>
       <c r="W181" s="15" t="s">
         <v>484</v>
@@ -18328,7 +18798,7 @@
         <v>51300</v>
       </c>
     </row>
-    <row r="182" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="182" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>472</v>
       </c>
@@ -18379,7 +18849,7 @@
         <v>33</v>
       </c>
       <c r="V182" s="7">
-        <v>1.669613e6</v>
+        <v>1669613</v>
       </c>
       <c r="W182" s="5" t="s">
         <v>487</v>
@@ -18406,13 +18876,13 @@
         <v>31.96</v>
       </c>
       <c r="AE182" s="12">
-        <v>319.6</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="AF182" s="12">
-        <v>319.6</v>
+        <v>319.60000000000002</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="183" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>472</v>
       </c>
@@ -18496,7 +18966,7 @@
         <v>1675.6</v>
       </c>
     </row>
-    <row r="184" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="184" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>472</v>
       </c>
@@ -18547,7 +19017,7 @@
         <v>33</v>
       </c>
       <c r="V184" s="7">
-        <v>1.151746e6</v>
+        <v>1151746</v>
       </c>
       <c r="W184" s="5" t="s">
         <v>493</v>
@@ -18580,7 +19050,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="185" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="185" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>472</v>
       </c>
@@ -18609,7 +19079,7 @@
         <v>37</v>
       </c>
       <c r="J185" s="17">
-        <v>9.245762e6</v>
+        <v>9245762</v>
       </c>
       <c r="K185" s="15" t="s">
         <v>494</v>
@@ -18664,10 +19134,10 @@
         <v>30000</v>
       </c>
       <c r="AC185" s="22">
-        <v>900000e-6</v>
+        <v>0.9</v>
       </c>
       <c r="AD185" s="22">
-        <v>900000e-6</v>
+        <v>0.9</v>
       </c>
       <c r="AE185" s="23">
         <v>27000</v>
@@ -18676,7 +19146,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="186" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="186" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>472</v>
       </c>
@@ -18705,7 +19175,7 @@
         <v>37</v>
       </c>
       <c r="J186" s="7">
-        <v>9.245763e6</v>
+        <v>9245763</v>
       </c>
       <c r="K186" s="5" t="s">
         <v>498</v>
@@ -18760,10 +19230,10 @@
         <v>30000</v>
       </c>
       <c r="AC186" s="11">
-        <v>550000e-6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD186" s="11">
-        <v>550000e-6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE186" s="12">
         <v>16500</v>
@@ -18772,7 +19242,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="187" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="187" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>472</v>
       </c>
@@ -18801,7 +19271,7 @@
         <v>37</v>
       </c>
       <c r="J187" s="17">
-        <v>9.245763e6</v>
+        <v>9245763</v>
       </c>
       <c r="K187" s="15" t="s">
         <v>498</v>
@@ -18835,7 +19305,7 @@
         <v>33</v>
       </c>
       <c r="V187" s="17">
-        <v>1.651595e6</v>
+        <v>1651595</v>
       </c>
       <c r="W187" s="15" t="s">
         <v>502</v>
@@ -18868,7 +19338,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="188" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="188" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>503</v>
       </c>
@@ -18897,7 +19367,7 @@
         <v>37</v>
       </c>
       <c r="J188" s="7">
-        <v>9.245674e6</v>
+        <v>9245674</v>
       </c>
       <c r="K188" s="5" t="s">
         <v>506</v>
@@ -18954,19 +19424,19 @@
         <v>0</v>
       </c>
       <c r="AC188" s="11">
-        <v>4.35942886e6</v>
+        <v>4359428.8600000003</v>
       </c>
       <c r="AD188" s="11">
-        <v>4.35942886e6</v>
+        <v>4359428.8600000003</v>
       </c>
       <c r="AE188" s="12">
-        <v>4.35942886e6</v>
+        <v>4359428.8600000003</v>
       </c>
       <c r="AF188" s="12">
-        <v>4.35942886e6</v>
+        <v>4359428.8600000003</v>
       </c>
     </row>
-    <row r="189" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="189" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>510</v>
       </c>
@@ -18995,7 +19465,7 @@
         <v>37</v>
       </c>
       <c r="J189" s="17">
-        <v>9.24595e6</v>
+        <v>9245950</v>
       </c>
       <c r="K189" s="15" t="s">
         <v>512</v>
@@ -19052,19 +19522,19 @@
         <v>0</v>
       </c>
       <c r="AC189" s="22">
-        <v>1.04162557e6</v>
+        <v>1041625.57</v>
       </c>
       <c r="AD189" s="22">
-        <v>1.04162557e6</v>
+        <v>1041625.57</v>
       </c>
       <c r="AE189" s="23">
-        <v>1.04162557e6</v>
+        <v>1041625.57</v>
       </c>
       <c r="AF189" s="23">
-        <v>1.04162557e6</v>
+        <v>1041625.57</v>
       </c>
     </row>
-    <row r="190" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="190" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>515</v>
       </c>
@@ -19093,7 +19563,7 @@
         <v>37</v>
       </c>
       <c r="J190" s="7">
-        <v>9.247198e6</v>
+        <v>9247198</v>
       </c>
       <c r="K190" s="5" t="s">
         <v>517</v>
@@ -19150,19 +19620,19 @@
         <v>0</v>
       </c>
       <c r="AC190" s="11">
-        <v>7.11634326e6</v>
+        <v>7116343.2599999998</v>
       </c>
       <c r="AD190" s="11">
-        <v>7.11634326e6</v>
+        <v>7116343.2599999998</v>
       </c>
       <c r="AE190" s="12">
-        <v>7.11634326e6</v>
+        <v>7116343.2599999998</v>
       </c>
       <c r="AF190" s="12">
-        <v>7.11634326e6</v>
+        <v>7116343.2599999998</v>
       </c>
     </row>
-    <row r="191" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="191" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>520</v>
       </c>
@@ -19191,7 +19661,7 @@
         <v>37</v>
       </c>
       <c r="J191" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K191" s="15" t="s">
         <v>523</v>
@@ -19260,7 +19730,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="192" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>520</v>
       </c>
@@ -19289,7 +19759,7 @@
         <v>37</v>
       </c>
       <c r="J192" s="7">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K192" s="5" t="s">
         <v>523</v>
@@ -19358,7 +19828,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="193" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>520</v>
       </c>
@@ -19387,7 +19857,7 @@
         <v>37</v>
       </c>
       <c r="J193" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K193" s="15" t="s">
         <v>523</v>
@@ -19456,7 +19926,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="194" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>520</v>
       </c>
@@ -19485,7 +19955,7 @@
         <v>37</v>
       </c>
       <c r="J194" s="7">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K194" s="5" t="s">
         <v>523</v>
@@ -19554,7 +20024,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="195" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="195" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>520</v>
       </c>
@@ -19583,7 +20053,7 @@
         <v>37</v>
       </c>
       <c r="J195" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K195" s="15" t="s">
         <v>523</v>
@@ -19619,7 +20089,7 @@
         <v>33</v>
       </c>
       <c r="V195" s="17">
-        <v>1.129139e6</v>
+        <v>1129139</v>
       </c>
       <c r="W195" s="15" t="s">
         <v>527</v>
@@ -19652,7 +20122,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="196" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="196" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>520</v>
       </c>
@@ -19681,7 +20151,7 @@
         <v>37</v>
       </c>
       <c r="J196" s="7">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K196" s="5" t="s">
         <v>523</v>
@@ -19717,7 +20187,7 @@
         <v>33</v>
       </c>
       <c r="V196" s="7">
-        <v>1.152823e6</v>
+        <v>1152823</v>
       </c>
       <c r="W196" s="5" t="s">
         <v>528</v>
@@ -19750,7 +20220,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="197" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="197" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>520</v>
       </c>
@@ -19779,7 +20249,7 @@
         <v>37</v>
       </c>
       <c r="J197" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K197" s="15" t="s">
         <v>523</v>
@@ -19815,7 +20285,7 @@
         <v>33</v>
       </c>
       <c r="V197" s="17">
-        <v>1.152831e6</v>
+        <v>1152831</v>
       </c>
       <c r="W197" s="15" t="s">
         <v>529</v>
@@ -19848,7 +20318,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="198" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="198" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>530</v>
       </c>
@@ -19856,19 +20326,19 @@
         <v>33</v>
       </c>
       <c r="C198" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D198" s="26" t="s">
+        <v>43955</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>531</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F198" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>36</v>
@@ -19887,54 +20357,54 @@
       <c r="P198" s="9"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="S198" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="S198" s="5" t="s">
+      <c r="T198" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U198" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V198" s="7">
+        <v>1755897</v>
+      </c>
+      <c r="W198" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="T198" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U198" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V198" s="7">
-        <v>1.692143e6</v>
-      </c>
-      <c r="W198" s="5" t="s">
+      <c r="X198" s="7">
+        <v>2311</v>
+      </c>
+      <c r="Y198" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z198" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA198" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB198" s="10">
+        <v>300</v>
+      </c>
+      <c r="AC198" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="AD198" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="AE198" s="12">
+        <v>285</v>
+      </c>
+      <c r="AF198" s="12">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="X198" s="7">
-        <v>2321</v>
-      </c>
-      <c r="Y198" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="Z198" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA198" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB198" s="10">
-        <v>3000</v>
-      </c>
-      <c r="AC198" s="11">
-        <v>8.2</v>
-      </c>
-      <c r="AD198" s="11">
-        <v>8.2</v>
-      </c>
-      <c r="AE198" s="12">
-        <v>24600</v>
-      </c>
-      <c r="AF198" s="12">
-        <v>24600</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="18.1322" customHeight="1">
-      <c r="A199" s="13" t="s">
-        <v>530</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>33</v>
@@ -19943,7 +20413,7 @@
         <v>43944</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E199" s="15" t="s">
         <v>33</v>
@@ -19952,7 +20422,7 @@
         <v>2320</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>36</v>
@@ -19971,10 +20441,10 @@
       <c r="P199" s="19"/>
       <c r="Q199" s="18"/>
       <c r="R199" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="S199" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="T199" s="13" t="s">
         <v>33</v>
@@ -19983,42 +20453,42 @@
         <v>33</v>
       </c>
       <c r="V199" s="17">
-        <v>1.143883e6</v>
+        <v>1692143</v>
       </c>
       <c r="W199" s="15" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X199" s="17">
         <v>2321</v>
       </c>
       <c r="Y199" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z199" s="15" t="s">
-        <v>444</v>
+        <v>135</v>
       </c>
       <c r="AA199" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB199" s="21">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="AC199" s="22">
-        <v>600000e-6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD199" s="22">
-        <v>600000e-6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AE199" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
       <c r="AF199" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
     </row>
-    <row r="200" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="200" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>33</v>
@@ -20027,7 +20497,7 @@
         <v>43944</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>33</v>
@@ -20036,7 +20506,7 @@
         <v>2320</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>36</v>
@@ -20055,10 +20525,10 @@
       <c r="P200" s="9"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="S200" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="T200" s="3" t="s">
         <v>33</v>
@@ -20067,16 +20537,16 @@
         <v>33</v>
       </c>
       <c r="V200" s="7">
-        <v>1.244515e6</v>
+        <v>1143883</v>
       </c>
       <c r="W200" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="X200" s="7">
         <v>2321</v>
       </c>
       <c r="Y200" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z200" s="5" t="s">
         <v>444</v>
@@ -20085,24 +20555,24 @@
         <v>327</v>
       </c>
       <c r="AB200" s="10">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC200" s="11">
-        <v>20.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD200" s="11">
-        <v>20.1</v>
+        <v>0.6</v>
       </c>
       <c r="AE200" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
       <c r="AF200" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
     </row>
-    <row r="201" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="201" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B201" s="13" t="s">
         <v>33</v>
@@ -20111,7 +20581,7 @@
         <v>43944</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E201" s="15" t="s">
         <v>33</v>
@@ -20120,7 +20590,7 @@
         <v>2320</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>36</v>
@@ -20139,10 +20609,10 @@
       <c r="P201" s="19"/>
       <c r="Q201" s="18"/>
       <c r="R201" s="15" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="S201" s="15" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="T201" s="13" t="s">
         <v>33</v>
@@ -20151,16 +20621,16 @@
         <v>33</v>
       </c>
       <c r="V201" s="17">
-        <v>1.244108e6</v>
+        <v>1244515</v>
       </c>
       <c r="W201" s="15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="X201" s="17">
         <v>2321</v>
       </c>
       <c r="Y201" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z201" s="15" t="s">
         <v>444</v>
@@ -20169,24 +20639,24 @@
         <v>327</v>
       </c>
       <c r="AB201" s="21">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC201" s="22">
-        <v>358.24</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AD201" s="22">
-        <v>358.24</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AE201" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
       <c r="AF201" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
     </row>
-    <row r="202" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="202" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>33</v>
@@ -20195,7 +20665,7 @@
         <v>43944</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>33</v>
@@ -20204,7 +20674,7 @@
         <v>2320</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>36</v>
@@ -20223,10 +20693,10 @@
       <c r="P202" s="9"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S202" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T202" s="3" t="s">
         <v>33</v>
@@ -20235,16 +20705,16 @@
         <v>33</v>
       </c>
       <c r="V202" s="7">
-        <v>1.244507e6</v>
+        <v>1244108</v>
       </c>
       <c r="W202" s="5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="X202" s="7">
         <v>2321</v>
       </c>
       <c r="Y202" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z202" s="5" t="s">
         <v>444</v>
@@ -20253,24 +20723,24 @@
         <v>327</v>
       </c>
       <c r="AB202" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC202" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AD202" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AE202" s="12">
-        <v>1745</v>
+        <v>32241.599999999999</v>
       </c>
       <c r="AF202" s="12">
-        <v>1745</v>
+        <v>32241.599999999999</v>
       </c>
     </row>
-    <row r="203" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="203" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>33</v>
@@ -20279,7 +20749,7 @@
         <v>43944</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E203" s="15" t="s">
         <v>33</v>
@@ -20288,7 +20758,7 @@
         <v>2320</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>36</v>
@@ -20307,10 +20777,10 @@
       <c r="P203" s="19"/>
       <c r="Q203" s="18"/>
       <c r="R203" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S203" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T203" s="13" t="s">
         <v>33</v>
@@ -20319,16 +20789,16 @@
         <v>33</v>
       </c>
       <c r="V203" s="17">
-        <v>1.257587e6</v>
+        <v>1244507</v>
       </c>
       <c r="W203" s="15" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="X203" s="17">
         <v>2321</v>
       </c>
       <c r="Y203" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z203" s="15" t="s">
         <v>444</v>
@@ -20337,24 +20807,24 @@
         <v>327</v>
       </c>
       <c r="AB203" s="21">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC203" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD203" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE203" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
       <c r="AF203" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="204" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>33</v>
@@ -20363,7 +20833,7 @@
         <v>43944</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>33</v>
@@ -20372,7 +20842,7 @@
         <v>2320</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>36</v>
@@ -20391,10 +20861,10 @@
       <c r="P204" s="9"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T204" s="3" t="s">
         <v>33</v>
@@ -20403,42 +20873,42 @@
         <v>33</v>
       </c>
       <c r="V204" s="7">
-        <v>1.257625e6</v>
+        <v>1257587</v>
       </c>
       <c r="W204" s="5" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="X204" s="7">
         <v>2321</v>
       </c>
       <c r="Y204" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z204" s="5" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="AA204" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB204" s="10">
-        <v>90</v>
+        <v>80000</v>
       </c>
       <c r="AC204" s="11">
-        <v>351</v>
+        <v>0.39</v>
       </c>
       <c r="AD204" s="11">
-        <v>351</v>
+        <v>0.39</v>
       </c>
       <c r="AE204" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
       <c r="AF204" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
     </row>
-    <row r="205" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="205" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B205" s="13" t="s">
         <v>33</v>
@@ -20447,7 +20917,7 @@
         <v>43944</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E205" s="15" t="s">
         <v>33</v>
@@ -20456,7 +20926,7 @@
         <v>2320</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H205" s="13" t="s">
         <v>36</v>
@@ -20475,10 +20945,10 @@
       <c r="P205" s="19"/>
       <c r="Q205" s="18"/>
       <c r="R205" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S205" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T205" s="13" t="s">
         <v>33</v>
@@ -20487,42 +20957,42 @@
         <v>33</v>
       </c>
       <c r="V205" s="17">
-        <v>1.258699e6</v>
+        <v>1257625</v>
       </c>
       <c r="W205" s="15" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="X205" s="17">
         <v>2321</v>
       </c>
       <c r="Y205" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z205" s="15" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="AA205" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB205" s="21">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC205" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AD205" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AE205" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
       <c r="AF205" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
     </row>
-    <row r="206" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="206" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>33</v>
@@ -20531,7 +21001,7 @@
         <v>43944</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>33</v>
@@ -20540,7 +21010,7 @@
         <v>2320</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>36</v>
@@ -20559,10 +21029,10 @@
       <c r="P206" s="9"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S206" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T206" s="3" t="s">
         <v>33</v>
@@ -20571,16 +21041,16 @@
         <v>33</v>
       </c>
       <c r="V206" s="7">
-        <v>1.259784e6</v>
+        <v>1258699</v>
       </c>
       <c r="W206" s="5" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="X206" s="7">
         <v>2321</v>
       </c>
       <c r="Y206" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z206" s="5" t="s">
         <v>444</v>
@@ -20589,24 +21059,24 @@
         <v>327</v>
       </c>
       <c r="AB206" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC206" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AD206" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AE206" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
       <c r="AF206" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
     </row>
-    <row r="207" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="207" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>33</v>
@@ -20615,7 +21085,7 @@
         <v>43944</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E207" s="15" t="s">
         <v>33</v>
@@ -20624,7 +21094,7 @@
         <v>2320</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>36</v>
@@ -20643,10 +21113,10 @@
       <c r="P207" s="19"/>
       <c r="Q207" s="18"/>
       <c r="R207" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S207" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T207" s="13" t="s">
         <v>33</v>
@@ -20655,16 +21125,16 @@
         <v>33</v>
       </c>
       <c r="V207" s="17">
-        <v>1.259792e6</v>
+        <v>1259784</v>
       </c>
       <c r="W207" s="15" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="X207" s="17">
         <v>2321</v>
       </c>
       <c r="Y207" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z207" s="15" t="s">
         <v>444</v>
@@ -20673,24 +21143,24 @@
         <v>327</v>
       </c>
       <c r="AB207" s="21">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="AC207" s="22">
-        <v>15.35</v>
+        <v>0.6</v>
       </c>
       <c r="AD207" s="22">
-        <v>15.35</v>
+        <v>0.6</v>
       </c>
       <c r="AE207" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
       <c r="AF207" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
     </row>
-    <row r="208" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="208" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>33</v>
@@ -20699,7 +21169,7 @@
         <v>43944</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>33</v>
@@ -20708,7 +21178,7 @@
         <v>2320</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>36</v>
@@ -20727,10 +21197,10 @@
       <c r="P208" s="9"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T208" s="3" t="s">
         <v>33</v>
@@ -20739,16 +21209,16 @@
         <v>33</v>
       </c>
       <c r="V208" s="7">
-        <v>1.260669e6</v>
+        <v>1259792</v>
       </c>
       <c r="W208" s="5" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="X208" s="7">
         <v>2321</v>
       </c>
       <c r="Y208" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z208" s="5" t="s">
         <v>444</v>
@@ -20757,24 +21227,24 @@
         <v>327</v>
       </c>
       <c r="AB208" s="10">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC208" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AD208" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AE208" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="AF208" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
     </row>
-    <row r="209" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="209" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B209" s="13" t="s">
         <v>33</v>
@@ -20783,7 +21253,7 @@
         <v>43944</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E209" s="15" t="s">
         <v>33</v>
@@ -20792,7 +21262,7 @@
         <v>2320</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>36</v>
@@ -20811,10 +21281,10 @@
       <c r="P209" s="19"/>
       <c r="Q209" s="18"/>
       <c r="R209" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S209" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T209" s="13" t="s">
         <v>33</v>
@@ -20823,16 +21293,16 @@
         <v>33</v>
       </c>
       <c r="V209" s="17">
-        <v>1.260677e6</v>
+        <v>1260669</v>
       </c>
       <c r="W209" s="15" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="X209" s="17">
         <v>2321</v>
       </c>
       <c r="Y209" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z209" s="15" t="s">
         <v>444</v>
@@ -20841,24 +21311,24 @@
         <v>327</v>
       </c>
       <c r="AB209" s="21">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC209" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AD209" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE209" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
       <c r="AF209" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
     </row>
-    <row r="210" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="210" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>33</v>
@@ -20867,7 +21337,7 @@
         <v>43944</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>33</v>
@@ -20876,7 +21346,7 @@
         <v>2320</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>36</v>
@@ -20895,10 +21365,10 @@
       <c r="P210" s="9"/>
       <c r="Q210" s="8"/>
       <c r="R210" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S210" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T210" s="3" t="s">
         <v>33</v>
@@ -20907,16 +21377,16 @@
         <v>33</v>
       </c>
       <c r="V210" s="7">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W210" s="24" t="s">
-        <v>554</v>
+        <v>1260677</v>
+      </c>
+      <c r="W210" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="X210" s="7">
         <v>2321</v>
       </c>
       <c r="Y210" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z210" s="5" t="s">
         <v>444</v>
@@ -20925,24 +21395,24 @@
         <v>327</v>
       </c>
       <c r="AB210" s="10">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC210" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AD210" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AE210" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
       <c r="AF210" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
     </row>
-    <row r="211" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="211" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>33</v>
@@ -20951,7 +21421,7 @@
         <v>43944</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E211" s="15" t="s">
         <v>33</v>
@@ -20960,7 +21430,7 @@
         <v>2320</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>36</v>
@@ -20979,10 +21449,10 @@
       <c r="P211" s="19"/>
       <c r="Q211" s="18"/>
       <c r="R211" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S211" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T211" s="13" t="s">
         <v>33</v>
@@ -20991,16 +21461,16 @@
         <v>33</v>
       </c>
       <c r="V211" s="17">
-        <v>1.687115e6</v>
-      </c>
-      <c r="W211" s="15" t="s">
-        <v>555</v>
+        <v>1260731</v>
+      </c>
+      <c r="W211" s="20" t="s">
+        <v>559</v>
       </c>
       <c r="X211" s="17">
         <v>2321</v>
       </c>
       <c r="Y211" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z211" s="15" t="s">
         <v>444</v>
@@ -21012,21 +21482,21 @@
         <v>60</v>
       </c>
       <c r="AC211" s="22">
-        <v>16.65</v>
+        <v>271.97000000000003</v>
       </c>
       <c r="AD211" s="22">
-        <v>16.65</v>
+        <v>271.97000000000003</v>
       </c>
       <c r="AE211" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
       <c r="AF211" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="212" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>33</v>
@@ -21035,7 +21505,7 @@
         <v>43944</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>33</v>
@@ -21044,7 +21514,7 @@
         <v>2320</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>36</v>
@@ -21063,10 +21533,10 @@
       <c r="P212" s="9"/>
       <c r="Q212" s="8"/>
       <c r="R212" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="S212" s="5" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="T212" s="3" t="s">
         <v>33</v>
@@ -21075,16 +21545,16 @@
         <v>33</v>
       </c>
       <c r="V212" s="7">
-        <v>1.257463e6</v>
+        <v>1687115</v>
       </c>
       <c r="W212" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="X212" s="7">
         <v>2321</v>
       </c>
       <c r="Y212" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z212" s="5" t="s">
         <v>444</v>
@@ -21093,24 +21563,108 @@
         <v>327</v>
       </c>
       <c r="AB212" s="10">
+        <v>60</v>
+      </c>
+      <c r="AC212" s="11">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AD212" s="11">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AE212" s="12">
+        <v>999</v>
+      </c>
+      <c r="AF212" s="12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C213" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D213" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F213" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="H213" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I213" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J213" s="17">
+        <v>0</v>
+      </c>
+      <c r="K213" s="15"/>
+      <c r="L213" s="17"/>
+      <c r="M213" s="15"/>
+      <c r="N213" s="18"/>
+      <c r="O213" s="18"/>
+      <c r="P213" s="19"/>
+      <c r="Q213" s="18"/>
+      <c r="R213" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="S213" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="T213" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U213" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V213" s="17">
+        <v>1257463</v>
+      </c>
+      <c r="W213" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="X213" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y213" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z213" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA213" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB213" s="21">
         <v>200</v>
       </c>
-      <c r="AC212" s="11">
-        <v>34.2</v>
-      </c>
-      <c r="AD212" s="11">
-        <v>34.2</v>
-      </c>
-      <c r="AE212" s="12">
+      <c r="AC213" s="22">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AD213" s="22">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AE213" s="23">
         <v>6840</v>
       </c>
-      <c r="AF212" s="12">
+      <c r="AF213" s="23">
         <v>6840</v>
       </c>
     </row>
-    <row r="213" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.78431372549019618" right="0.78431372549019618" top="0.98039215686274517" bottom="0.98039215686274517" header="0.50980392156862753" footer="0.50980392156862753"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data/compras-coronavirus.xlsx
+++ b/data/compras-coronavirus.xlsx
@@ -1143,6 +1143,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C7" s="2">
         <v>43936</v>
       </c>
@@ -1267,6 +1272,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C8" s="2">
         <v>43936</v>
       </c>
@@ -1391,6 +1401,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C9" s="2">
         <v>43936</v>
       </c>
@@ -1515,6 +1530,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C10" s="2">
         <v>43936</v>
       </c>
@@ -1639,6 +1659,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C11" s="2">
         <v>43936</v>
       </c>
@@ -1763,6 +1788,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C12" s="2">
         <v>43936</v>
       </c>
@@ -1887,6 +1917,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C13" s="2">
         <v>43936</v>
       </c>
@@ -2011,6 +2046,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C14" s="2">
         <v>43936</v>
       </c>
@@ -2135,6 +2175,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C15" s="2">
         <v>43936</v>
       </c>
@@ -2259,6 +2304,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C16" s="2">
         <v>43936</v>
       </c>
@@ -2383,6 +2433,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C17" s="2">
         <v>43936</v>
       </c>
@@ -2507,6 +2562,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C18" s="2">
         <v>43936</v>
       </c>
@@ -2631,6 +2691,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C19" s="2">
         <v>43936</v>
       </c>
@@ -2755,6 +2820,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C20" s="2">
         <v>43936</v>
       </c>
@@ -2879,6 +2949,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C21" s="2">
         <v>43936</v>
       </c>
@@ -3003,6 +3078,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C22" s="2">
         <v>43936</v>
       </c>
@@ -3127,6 +3207,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C23" s="2">
         <v>43936</v>
       </c>
@@ -3251,6 +3336,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C24" s="2">
         <v>43936</v>
       </c>
@@ -3375,6 +3465,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C25" s="2">
         <v>43936</v>
       </c>
@@ -3499,6 +3594,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C26" s="2">
         <v>43936</v>
       </c>
@@ -3623,6 +3723,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C27" s="2">
         <v>43936</v>
       </c>
@@ -3747,6 +3852,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C28" s="2">
         <v>43936</v>
       </c>
@@ -3871,6 +3981,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C29" s="2">
         <v>43936</v>
       </c>
@@ -3995,6 +4110,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C30" s="2">
         <v>43936</v>
       </c>
@@ -4119,6 +4239,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C31" s="2">
         <v>43936</v>
       </c>
@@ -4243,6 +4368,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C32" s="2">
         <v>43936</v>
       </c>
@@ -4367,6 +4497,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C33" s="2">
         <v>43936</v>
       </c>
@@ -4491,6 +4626,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C34" s="2">
         <v>43936</v>
       </c>
@@ -4615,6 +4755,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C35" s="2">
         <v>43936</v>
       </c>
@@ -4739,6 +4884,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C36" s="2">
         <v>43936</v>
       </c>
@@ -4863,6 +5013,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C37" s="2">
         <v>43936</v>
       </c>
@@ -4987,6 +5142,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C38" s="2">
         <v>43936</v>
       </c>
@@ -5111,6 +5271,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C39" s="2">
         <v>43936</v>
       </c>
@@ -5235,6 +5400,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C40" s="2">
         <v>43936</v>
       </c>
@@ -5359,6 +5529,11 @@
           <t>0250073 000004/2020</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/17466/0/0/0/0/16388/59750367/107136/1252305/322690/0250073000004-2020</t>
+        </is>
+      </c>
       <c r="C41" s="2">
         <v>43936</v>
       </c>
@@ -5590,6 +5765,11 @@
           <t>0250073 000009/2020</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831094/0/0/8783/0/0/0/0/5444/66403693/29886/415812/322918/0250073000009-2020</t>
+        </is>
+      </c>
       <c r="C43" s="2">
         <v>43942</v>
       </c>
@@ -8168,6 +8348,11 @@
           <t>1250084 000010/2020</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831094/0/0/61994/0/0/0/0/21797/84950030/216609/1754467/322336/1250084000010-2020</t>
+        </is>
+      </c>
       <c r="C67" s="2">
         <v>43930</v>
       </c>
@@ -12305,6 +12490,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C104" s="2">
         <v>43910</v>
       </c>
@@ -12429,6 +12619,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C105" s="2">
         <v>43910</v>
       </c>
@@ -12553,6 +12748,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C106" s="2">
         <v>43910</v>
       </c>
@@ -12677,6 +12877,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C107" s="2">
         <v>43910</v>
       </c>
@@ -12801,6 +13006,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C108" s="2">
         <v>43910</v>
       </c>
@@ -12925,6 +13135,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C109" s="2">
         <v>43910</v>
       </c>
@@ -13049,6 +13264,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C110" s="2">
         <v>43910</v>
       </c>
@@ -13173,6 +13393,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C111" s="2">
         <v>43910</v>
       </c>
@@ -13297,6 +13522,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C112" s="2">
         <v>43910</v>
       </c>
@@ -13421,6 +13651,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C113" s="2">
         <v>43910</v>
       </c>
@@ -13545,6 +13780,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C114" s="2">
         <v>43910</v>
       </c>
@@ -13669,6 +13909,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C115" s="2">
         <v>43910</v>
       </c>
@@ -13793,6 +14038,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C116" s="2">
         <v>43910</v>
       </c>
@@ -13917,6 +14167,11 @@
           <t>1501561 000005/2020</t>
         </is>
       </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+        </is>
+      </c>
       <c r="C117" s="2">
         <v>43910</v>
       </c>
@@ -14041,6 +14296,11 @@
           <t>1501561 000006/2020</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/30-04-2020/65/65888</t>
+        </is>
+      </c>
       <c r="C118" s="2">
         <v>43912</v>
       </c>
@@ -14165,6 +14425,11 @@
           <t>1501561 000009/2020</t>
         </is>
       </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/30-04-2020/65/65898</t>
+        </is>
+      </c>
       <c r="C119" s="2">
         <v>43916</v>
       </c>
@@ -14289,6 +14554,11 @@
           <t>1501561 000010/2020</t>
         </is>
       </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/30-04-2020/65/65894</t>
+        </is>
+      </c>
       <c r="C120" s="2">
         <v>43916</v>
       </c>
@@ -14948,6 +15218,11 @@
           <t>1501561 000015/2020</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/31-05-2020/12/65960</t>
+        </is>
+      </c>
       <c r="C126" s="2">
         <v>43923</v>
       </c>
@@ -15072,6 +15347,11 @@
           <t>1501561 000016/2020</t>
         </is>
       </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831017/0/0/17532/0/0/0/0/10733/65320034/10036/125628/321781/1501561000016-2020</t>
+        </is>
+      </c>
       <c r="C127" s="2">
         <v>43924</v>
       </c>
@@ -15196,6 +15476,11 @@
           <t>1501561 000017/2020</t>
         </is>
       </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/31-05-2020/12/65986</t>
+        </is>
+      </c>
       <c r="C128" s="2">
         <v>43924</v>
       </c>
@@ -15534,6 +15819,11 @@
           <t>1501561 000019/2020</t>
         </is>
       </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831017/0/0/9190/0/0/0/0/1547/65181220/167591/1649256/322108/1501561000019-2020</t>
+        </is>
+      </c>
       <c r="C131" s="2">
         <v>43929</v>
       </c>
@@ -15658,6 +15948,11 @@
           <t>1501561 000020/2020</t>
         </is>
       </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322112/1501561000020-2020</t>
+        </is>
+      </c>
       <c r="C132" s="2">
         <v>43930</v>
       </c>
@@ -15782,6 +16077,11 @@
           <t>1501561 000020/2020</t>
         </is>
       </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322112/1501561000020-2020</t>
+        </is>
+      </c>
       <c r="C133" s="2">
         <v>43930</v>
       </c>
@@ -15906,6 +16206,11 @@
           <t>1501561 000020/2020</t>
         </is>
       </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322112/1501561000020-2020</t>
+        </is>
+      </c>
       <c r="C134" s="2">
         <v>43930</v>
       </c>
@@ -16030,6 +16335,11 @@
           <t>1501561 000020/2020</t>
         </is>
       </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322112/1501561000020-2020</t>
+        </is>
+      </c>
       <c r="C135" s="2">
         <v>43930</v>
       </c>
@@ -16154,6 +16464,11 @@
           <t>1501561 000020/2020</t>
         </is>
       </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322112/1501561000020-2020</t>
+        </is>
+      </c>
       <c r="C136" s="2">
         <v>43930</v>
       </c>
@@ -16278,6 +16593,11 @@
           <t>1501561 000020/2020</t>
         </is>
       </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322112/1501561000020-2020</t>
+        </is>
+      </c>
       <c r="C137" s="2">
         <v>43930</v>
       </c>
@@ -16402,6 +16722,11 @@
           <t>1501561 000020/2020</t>
         </is>
       </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322112/1501561000020-2020</t>
+        </is>
+      </c>
       <c r="C138" s="2">
         <v>43930</v>
       </c>
@@ -16526,6 +16851,11 @@
           <t>1501561 000021/2020</t>
         </is>
       </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/31-05-2020/12/66043</t>
+        </is>
+      </c>
       <c r="C139" s="2">
         <v>43930</v>
       </c>
@@ -16650,6 +16980,11 @@
           <t>1501561 000022/2020</t>
         </is>
       </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831017/0/0/9190/0/0/0/0/1547/65181220/167591/1649256/322108/1501561000019-2020</t>
+        </is>
+      </c>
       <c r="C140" s="2">
         <v>43934</v>
       </c>
@@ -17202,6 +17537,11 @@
           <t>1501561 000025/2020</t>
         </is>
       </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322631/1501561000025-2020</t>
+        </is>
+      </c>
       <c r="C145" s="2">
         <v>43938</v>
       </c>
@@ -17326,6 +17666,11 @@
           <t>1501561 000026/2020</t>
         </is>
       </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/30348/0/0/0/0/10733/65320034/8733/125245/322692/1501561000026-2020</t>
+        </is>
+      </c>
       <c r="C146" s="2">
         <v>43938</v>
       </c>
@@ -17450,6 +17795,11 @@
           <t>1501561 000026/2020</t>
         </is>
       </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/30348/0/0/0/0/10733/65320034/8733/125245/322692/1501561000026-2020</t>
+        </is>
+      </c>
       <c r="C147" s="2">
         <v>43938</v>
       </c>
@@ -17681,6 +18031,11 @@
           <t>1501561 000028/2020</t>
         </is>
       </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/239/0/0/0/0/822/65181751/215727/1753681/323054/1501561000028-2020</t>
+        </is>
+      </c>
       <c r="C149" s="2">
         <v>43948</v>
       </c>
@@ -17805,6 +18160,11 @@
           <t>1501561 000028/2020</t>
         </is>
       </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/239/0/0/0/0/822/65181751/215727/1753681/323054/1501561000028-2020</t>
+        </is>
+      </c>
       <c r="C150" s="2">
         <v>43948</v>
       </c>
@@ -17929,6 +18289,11 @@
           <t>1501561 000029/2020</t>
         </is>
       </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/20981/0/0/0/0/3854/68201451/215959/1753924/323117/1501561000029-2020</t>
+        </is>
+      </c>
       <c r="C151" s="2">
         <v>43950</v>
       </c>
@@ -18053,6 +18418,11 @@
           <t>1501561 000029/2020</t>
         </is>
       </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/20981/0/0/0/0/3854/68201451/215959/1753924/323117/1501561000029-2020</t>
+        </is>
+      </c>
       <c r="C152" s="2">
         <v>43950</v>
       </c>
@@ -18177,6 +18547,11 @@
           <t>1501561 000029/2020</t>
         </is>
       </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/20981/0/0/0/0/3854/68201451/215959/1753924/323117/1501561000029-2020</t>
+        </is>
+      </c>
       <c r="C153" s="2">
         <v>43950</v>
       </c>
@@ -18301,6 +18676,11 @@
           <t>1501561 000029/2020</t>
         </is>
       </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/20981/0/0/0/0/3854/68201451/215959/1753924/323117/1501561000029-2020</t>
+        </is>
+      </c>
       <c r="C154" s="2">
         <v>43950</v>
       </c>
@@ -18425,6 +18805,11 @@
           <t>1501561 000029/2020</t>
         </is>
       </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/20981/0/0/0/0/3854/68201451/215959/1753924/323117/1501561000029-2020</t>
+        </is>
+      </c>
       <c r="C155" s="2">
         <v>43950</v>
       </c>
@@ -18549,6 +18934,11 @@
           <t>1501561 000030/2020</t>
         </is>
       </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831065/0/0/62110/0/0/0/0/15771/65320018/217626/1755366/323445/1501561000030-2020</t>
+        </is>
+      </c>
       <c r="C156" s="2">
         <v>43955</v>
       </c>
@@ -18673,6 +19063,11 @@
           <t>1501561 000031/2020</t>
         </is>
       </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/37380/0/0/0/0/822/65181751/219609/1758063/323435/1501561000031-2020</t>
+        </is>
+      </c>
       <c r="C157" s="2">
         <v>43956</v>
       </c>
@@ -18797,6 +19192,11 @@
           <t>1501561 000032/2020</t>
         </is>
       </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831008/0/0/62110/0/0/0/0/15771/65320018/217626/1755366/323606/1501561000032-2020</t>
+        </is>
+      </c>
       <c r="C158" s="2">
         <v>43959</v>
       </c>
@@ -19028,6 +19428,11 @@
           <t>2012015 000034/2020</t>
         </is>
       </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/covid-19/compras-contratos/contratoscovid-detalharcompra/322908</t>
+        </is>
+      </c>
       <c r="C160" s="2">
         <v>43921</v>
       </c>
@@ -22283,6 +22688,11 @@
           <t>2301925 000001/2020</t>
         </is>
       </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/19962/0/0/0/0/7051/3010163/94368/1155/321506/2301925000001-2020</t>
+        </is>
+      </c>
       <c r="C188" s="2">
         <v>43921</v>
       </c>
@@ -22410,6 +22820,11 @@
           <t>2301925 000002/2020</t>
         </is>
       </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/16018/0/0/0/0/7051/3010163/94368/1155/322267/2301925000002-2020</t>
+        </is>
+      </c>
       <c r="C189" s="2">
         <v>43935</v>
       </c>
@@ -22532,6 +22947,11 @@
           <t>2301925 000003/2020</t>
         </is>
       </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/26247/0/0/0/0/7051/3010163/94368/1155/323729/2301925000003-2020</t>
+        </is>
+      </c>
       <c r="C190" s="2">
         <v>43963</v>
       </c>
@@ -22659,6 +23079,11 @@
           <t>2311076 000134/2020</t>
         </is>
       </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+        </is>
+      </c>
       <c r="C191" s="2">
         <v>43928</v>
       </c>
@@ -22786,6 +23211,11 @@
           <t>2311076 000134/2020</t>
         </is>
       </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+        </is>
+      </c>
       <c r="C192" s="2">
         <v>43928</v>
       </c>
@@ -22913,6 +23343,11 @@
           <t>2311076 000134/2020</t>
         </is>
       </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+        </is>
+      </c>
       <c r="C193" s="2">
         <v>43928</v>
       </c>
@@ -23040,6 +23475,11 @@
           <t>2311076 000134/2020</t>
         </is>
       </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+        </is>
+      </c>
       <c r="C194" s="2">
         <v>43928</v>
       </c>
@@ -23167,6 +23607,11 @@
           <t>2311076 000134/2020</t>
         </is>
       </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+        </is>
+      </c>
       <c r="C195" s="2">
         <v>43928</v>
       </c>
@@ -23294,6 +23739,11 @@
           <t>2311076 000134/2020</t>
         </is>
       </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+        </is>
+      </c>
       <c r="C196" s="2">
         <v>43928</v>
       </c>
@@ -23419,6 +23869,11 @@
       <c r="A197" t="inlineStr">
         <is>
           <t>2311076 000134/2020</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
         </is>
       </c>
       <c r="C197" s="2">

--- a/data/compras-coronavirus.xlsx
+++ b/data/compras-coronavirus.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF213"/>
+  <dimension ref="A1:AF214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4098,10 +4098,10 @@
         <v>1.89</v>
       </c>
       <c r="AE29">
-        <v>75.60000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AF29">
-        <v>75.60000000000001</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -5874,7 +5874,7 @@
         <v>264850</v>
       </c>
       <c r="AC43">
-        <v>0.5700000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="AD43">
         <v>0.38</v>
@@ -6730,16 +6730,16 @@
         <v>1</v>
       </c>
       <c r="AC51">
-        <v>8929.800000000001</v>
+        <v>8929.799999999999</v>
       </c>
       <c r="AD51">
-        <v>8929.800000000001</v>
+        <v>8929.799999999999</v>
       </c>
       <c r="AE51">
-        <v>8929.800000000001</v>
+        <v>8929.799999999999</v>
       </c>
       <c r="AF51">
-        <v>8929.800000000001</v>
+        <v>8929.799999999999</v>
       </c>
     </row>
     <row r="52">
@@ -6950,10 +6950,10 @@
         <v>1631.8</v>
       </c>
       <c r="AE53">
-        <v>4895.400000000001</v>
+        <v>4895.4</v>
       </c>
       <c r="AF53">
-        <v>4895.400000000001</v>
+        <v>4895.4</v>
       </c>
     </row>
     <row r="54">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D__x000D_
+          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
 contra Pânico e Incêndio e material para orientações de segurança.</t>
         </is>
       </c>
@@ -11723,7 +11723,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D__x000D_
+          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
 contra Pânico e Incêndio e material para orientações de segurança.</t>
         </is>
       </c>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D__x000D_
+          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
 contra Pânico e Incêndio e material para orientações de segurança.</t>
         </is>
       </c>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D__x000D_
+          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
 contra Pânico e Incêndio e material para orientações de segurança.</t>
         </is>
       </c>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D__x000D_
+          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
 contra Pânico e Incêndio e material para orientações de segurança.</t>
         </is>
       </c>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D__x000D_
+          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
 contra Pânico e Incêndio e material para orientações de segurança.</t>
         </is>
       </c>
@@ -24040,7 +24040,32 @@
         </is>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>9251383</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163606</t>
+        </is>
+      </c>
+      <c r="L198">
+        <v>2310</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+        </is>
+      </c>
+      <c r="N198" s="2">
+        <v>44014</v>
+      </c>
+      <c r="O198" s="2">
+        <v>44013</v>
+      </c>
+      <c r="P198" s="2">
+        <v>44557</v>
+      </c>
+      <c r="Q198" s="2">
+        <v>44192</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -24120,7 +24145,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -24228,7 +24253,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -24336,7 +24361,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -24444,7 +24469,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -24552,7 +24577,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -24660,7 +24685,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -24768,7 +24793,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -24876,7 +24901,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -24984,7 +25009,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -25092,7 +25117,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -25200,7 +25225,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -25308,7 +25333,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -25416,7 +25441,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -25524,7 +25549,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -25632,7 +25657,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D__x000D_
+          <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
@@ -25722,6 +25747,113 @@
       </c>
       <c r="AF213">
         <v>6840</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2320310 000201/2020</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/covid-19/compras-contratos/contratoscovid-detalharcompra/326183</t>
+        </is>
+      </c>
+      <c r="C214" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>aquisição de painéis de proteção de acrílico para instalação nas Recepções e Cadastros das unidades</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=201&amp;ano=2020</t>
+        </is>
+      </c>
+      <c r="F214">
+        <v>2320</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>19.173.186/0001-09</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>ACRILDAM INDUSTRIA E COMERCIO ARTEFATOS DE ACRILICO LTDA -EPP</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>2320.01.0007282/2020-14</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfEANceHYe9YALv-Lkm_pd1K4zyhaeV8RlXJ-jfusexf</t>
+        </is>
+      </c>
+      <c r="V214">
+        <v>6297</v>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t>SERVICOS DE CONFECCAO DE PECAS E ACESSORIOS DE ACRILICO EM GERAL.</t>
+        </is>
+      </c>
+      <c r="X214">
+        <v>2321</v>
+      </c>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>SERVICOS DE CONFECCAO DE ARTEFATOS DE ACRILICO</t>
+        </is>
+      </c>
+      <c r="AA214" t="inlineStr">
+        <is>
+          <t>MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+      <c r="AC214">
+        <v>9972</v>
+      </c>
+      <c r="AD214">
+        <v>8496</v>
+      </c>
+      <c r="AE214">
+        <v>9972</v>
+      </c>
+      <c r="AF214">
+        <v>8496</v>
       </c>
     </row>
   </sheetData>

--- a/data/compras-coronavirus.xlsx
+++ b/data/compras-coronavirus.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF216"/>
+  <dimension ref="A1:AF222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6357,7 +6357,29 @@
         </is>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>9251810</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163651</t>
+        </is>
+      </c>
+      <c r="L48">
+        <v>2270</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N48" s="2">
+        <v>44016</v>
+      </c>
+      <c r="O48" s="2">
+        <v>44016</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>44195</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -20391,33 +20413,33 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2121022 000013/2020</t>
+          <t>2012194 000003/2020</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21585/79300596/170097/1669486/320360/2121022000013-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/09-07-2020/1831081/0/0/18817/0/0/0/0/5308/61400149/102646/1188364/325215/2012194000003-2020</t>
         </is>
       </c>
       <c r="C168" s="2">
-        <v>43907</v>
+        <v>43957</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus, para que se evite a propagação do mesmo em nossos funcionários.</t>
+          <t>Peças de Reposição Para os Ventiladores Pulmonares Marca Nellcor Puritam Benett</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=13&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012194&amp;numero=3&amp;ano=2020</t>
         </is>
       </c>
       <c r="F168">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -20427,7 +20449,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação - Por valor</t>
+          <t>Dispensa de Licitação</t>
         </is>
       </c>
       <c r="J168">
@@ -20435,43 +20457,43 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>21.559.804/0001-03</t>
+          <t>23.836.281/0001-12</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>GERBRA COMERCIO EIRELI - ME</t>
+          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>2120.01.0002380/2020-39</t>
+          <t>2010.01.0019957/2020-84</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNU-bGLFMcHfylxcAnJciUWgFm2fjW-xNWqUTyFeF1e1c</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVZSQV91fGK89jvY-bG8XF0WomA33vcy-mlrc5d6NAEK</t>
         </is>
       </c>
       <c r="V168">
-        <v>1669486</v>
+        <v>985201</v>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>ALCOOL ETILICO HIDRATADO ASPECTO FISICO: SOLUCAO AQUOSA; GRAU INPM: 70; GRAU GL: 77; APRESENTACAO: FRASCO 1 L;</t>
+          <t>SENSOR PARA EQUIPAMENTO MEDICO-HOSPITALAR - IDENTIFICACAO: SENSOR FLUXO INSP. AR/O2; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT; REFERENCIA: 4-072211-SP;</t>
         </is>
       </c>
       <c r="X168">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
@@ -20480,51 +20502,51 @@
         </is>
       </c>
       <c r="AB168">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="AC168">
-        <v>7.5</v>
+        <v>5209.46</v>
       </c>
       <c r="AD168">
-        <v>7.5</v>
+        <v>5209.46</v>
       </c>
       <c r="AE168">
-        <v>2250</v>
+        <v>5209.46</v>
       </c>
       <c r="AF168">
-        <v>2250</v>
+        <v>5209.46</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2121022 000013/2020</t>
+          <t>2012194 000003/2020</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21585/79300596/170097/1669486/320360/2121022000013-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/09-07-2020/1831081/0/0/18817/0/0/0/0/5308/61400149/102646/1188364/325215/2012194000003-2020</t>
         </is>
       </c>
       <c r="C169" s="2">
-        <v>43907</v>
+        <v>43957</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus, para que se evite a propagação do mesmo em nossos funcionários.</t>
+          <t>Peças de Reposição Para os Ventiladores Pulmonares Marca Nellcor Puritam Benett</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=13&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012194&amp;numero=3&amp;ano=2020</t>
         </is>
       </c>
       <c r="F169">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -20534,7 +20556,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação - Por valor</t>
+          <t>Dispensa de Licitação</t>
         </is>
       </c>
       <c r="J169">
@@ -20542,43 +20564,43 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>21.559.804/0001-03</t>
+          <t>23.836.281/0001-12</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>GERBRA COMERCIO EIRELI - ME</t>
+          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>2120.01.0002380/2020-39</t>
+          <t>2010.01.0019957/2020-84</t>
         </is>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNU-bGLFMcHfylxcAnJciUWgFm2fjW-xNWqUTyFeF1e1c</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVZSQV91fGK89jvY-bG8XF0WomA33vcy-mlrc5d6NAEK</t>
         </is>
       </c>
       <c r="V169">
-        <v>1696041</v>
+        <v>1137506</v>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: DE 62 A 74 GRAUS; GRAU GL: DE 70 A 84 GRAUS; APRESENTACAO: GALAO 5 L;</t>
+          <t>PLACA PARA EQUIPAMENTOS MED/HOSP. - IDENTIFICACAO: MEMORIA PCB-CPU-BDU; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 10078888;</t>
         </is>
       </c>
       <c r="X169">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
@@ -20587,51 +20609,51 @@
         </is>
       </c>
       <c r="AB169">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AC169">
-        <v>144</v>
+        <v>12566.5</v>
       </c>
       <c r="AD169">
-        <v>80</v>
+        <v>12566.5</v>
       </c>
       <c r="AE169">
-        <v>14400</v>
+        <v>12566.5</v>
       </c>
       <c r="AF169">
-        <v>8000</v>
+        <v>12566.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2121022 000016/2020</t>
+          <t>2012194 000003/2020</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/23776/0/0/0/0/21585/79300596/170097/1669486/322871/2121022000016-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/09-07-2020/1831081/0/0/18817/0/0/0/0/5308/61400149/102646/1188364/325215/2012194000003-2020</t>
         </is>
       </c>
       <c r="C170" s="2">
-        <v>43908</v>
+        <v>43957</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Aquisição  de álcool etílico hidratado e higienizador antisséptico de mãos gel;para atendimento aos funcionários, devido a crise do Coronavírus.</t>
+          <t>Peças de Reposição Para os Ventiladores Pulmonares Marca Nellcor Puritam Benett</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=16&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012194&amp;numero=3&amp;ano=2020</t>
         </is>
       </c>
       <c r="F170">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -20641,126 +20663,104 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Registro de preços realizado no SIRP</t>
+          <t>Dispensa de Licitação</t>
         </is>
       </c>
       <c r="J170">
-        <v>9246044</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162744</t>
-        </is>
-      </c>
-      <c r="L170">
-        <v>2120</v>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
-        </is>
-      </c>
-      <c r="N170" s="2">
-        <v>43976</v>
-      </c>
-      <c r="O170" s="2">
-        <v>43946</v>
-      </c>
-      <c r="Q170" s="2">
-        <v>44196</v>
+        <v>0</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>04.654.861/0001-44</t>
+          <t>23.836.281/0001-12</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>INDALABOR INDAIA LABORATORIO FARMACEUTICO LTDA</t>
+          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>2120.01.0002426/2020-58</t>
+          <t>2010.01.0019957/2020-84</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbkDdfN-L9Clz1AdiQkQlFQXZ2VNXeTve-noWRbweyAb</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVZSQV91fGK89jvY-bG8XF0WomA33vcy-mlrc5d6NAEK</t>
         </is>
       </c>
       <c r="V170">
-        <v>1669370</v>
+        <v>1137590</v>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: ENTRE 62 E 74 GRAUS; GRAU GL: ENTRE 70 E 84 GRAUS; APRESENTACAO: FRASCO COM VALVULA TIPO PUMP 500 ML;</t>
+          <t>KIT MANUTENCAO EQUIPAMENTOS MEDICO-HOSPITALARES - IDENTIFICACAO: PREVENTIVA 10.000 HORAS; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 4-078179-00;</t>
         </is>
       </c>
       <c r="X170">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>MINAS GERAIS</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB170">
-        <v>700</v>
+        <v>1</v>
       </c>
       <c r="AC170">
-        <v>6.58</v>
+        <v>1649.84</v>
       </c>
       <c r="AD170">
-        <v>6.58</v>
+        <v>1649.84</v>
       </c>
       <c r="AE170">
-        <v>4606</v>
+        <v>1649.84</v>
       </c>
       <c r="AF170">
-        <v>4606</v>
+        <v>1649.84</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2121022 000016/2020</t>
+          <t>2012194 000003/2020</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/23776/0/0/0/0/21585/79300596/170097/1669486/322871/2121022000016-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/09-07-2020/1831081/0/0/18817/0/0/0/0/5308/61400149/102646/1188364/325215/2012194000003-2020</t>
         </is>
       </c>
       <c r="C171" s="2">
-        <v>43908</v>
+        <v>43957</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Aquisição  de álcool etílico hidratado e higienizador antisséptico de mãos gel;para atendimento aos funcionários, devido a crise do Coronavírus.</t>
+          <t>Peças de Reposição Para os Ventiladores Pulmonares Marca Nellcor Puritam Benett</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=16&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012194&amp;numero=3&amp;ano=2020</t>
         </is>
       </c>
       <c r="F171">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -20770,126 +20770,104 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Registro de preços realizado no SIRP</t>
+          <t>Dispensa de Licitação</t>
         </is>
       </c>
       <c r="J171">
-        <v>9246044</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162744</t>
-        </is>
-      </c>
-      <c r="L171">
-        <v>2120</v>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
-        </is>
-      </c>
-      <c r="N171" s="2">
-        <v>43976</v>
-      </c>
-      <c r="O171" s="2">
-        <v>43946</v>
-      </c>
-      <c r="Q171" s="2">
-        <v>44196</v>
+        <v>0</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>04.654.861/0001-44</t>
+          <t>23.836.281/0001-12</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>INDALABOR INDAIA LABORATORIO FARMACEUTICO LTDA</t>
+          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>2120.01.0002426/2020-58</t>
+          <t>2010.01.0019957/2020-84</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbkDdfN-L9Clz1AdiQkQlFQXZ2VNXeTve-noWRbweyAb</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVZSQV91fGK89jvY-bG8XF0WomA33vcy-mlrc5d6NAEK</t>
         </is>
       </c>
       <c r="V171">
-        <v>1669397</v>
+        <v>1188364</v>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: DE 62 A 74 GRAUS; GRAU GL: DE 70 A 84 GRAUS; APRESENTACAO: REFIL PARA DISPENSER 800 ML COM BICO DOSADOR;</t>
+          <t>BATERIA PARA EQUIPAMENTO MEDICO/HOSPITALAR - TENSAO: 24 VOLTS; CORRENTE: 7,0 AH; REFERENCIA: 4-070523-SP; EQUIPAMENTO: VENTILADOR PULMONAR NELLCOR PURITAN BENNETT/840;</t>
         </is>
       </c>
       <c r="X171">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>MINAS GERAIS</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB171">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="AC171">
-        <v>6.8</v>
+        <v>2115.6</v>
       </c>
       <c r="AD171">
-        <v>6.8</v>
+        <v>2115.6</v>
       </c>
       <c r="AE171">
-        <v>1360</v>
+        <v>2115.6</v>
       </c>
       <c r="AF171">
-        <v>1360</v>
+        <v>2115.6</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2121022 000016/2020</t>
+          <t>2012194 000003/2020</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/23776/0/0/0/0/21585/79300596/170097/1669486/322871/2121022000016-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/09-07-2020/1831081/0/0/18817/0/0/0/0/5308/61400149/102646/1188364/325215/2012194000003-2020</t>
         </is>
       </c>
       <c r="C172" s="2">
-        <v>43908</v>
+        <v>43957</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Aquisição  de álcool etílico hidratado e higienizador antisséptico de mãos gel;para atendimento aos funcionários, devido a crise do Coronavírus.</t>
+          <t>Peças de Reposição Para os Ventiladores Pulmonares Marca Nellcor Puritam Benett</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=16&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012194&amp;numero=3&amp;ano=2020</t>
         </is>
       </c>
       <c r="F172">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -20899,126 +20877,104 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Registro de preços realizado no SIRP</t>
+          <t>Dispensa de Licitação</t>
         </is>
       </c>
       <c r="J172">
-        <v>9246044</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162744</t>
-        </is>
-      </c>
-      <c r="L172">
-        <v>2120</v>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
-        </is>
-      </c>
-      <c r="N172" s="2">
-        <v>43976</v>
-      </c>
-      <c r="O172" s="2">
-        <v>43946</v>
-      </c>
-      <c r="Q172" s="2">
-        <v>44196</v>
+        <v>0</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>04.654.861/0001-44</t>
+          <t>23.836.281/0001-12</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>INDALABOR INDAIA LABORATORIO FARMACEUTICO LTDA</t>
+          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>2120.01.0002426/2020-58</t>
+          <t>2010.01.0019957/2020-84</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbkDdfN-L9Clz1AdiQkQlFQXZ2VNXeTve-noWRbweyAb</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVZSQV91fGK89jvY-bG8XF0WomA33vcy-mlrc5d6NAEK</t>
         </is>
       </c>
       <c r="V172">
-        <v>1669486</v>
+        <v>1540416</v>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>ALCOOL ETILICO HIDRATADO ASPECTO FISICO: SOLUCAO AQUOSA; GRAU INPM: 70; GRAU GL: 77; APRESENTACAO: FRASCO 1 L;</t>
+          <t>CABO EQUIPAMENTO/INSTRUMENTO MEDICO-HOSPITALAR - IDENTIFICACAO: CABO DO LCD (FLAT CABLE); EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 4-076856-SP;</t>
         </is>
       </c>
       <c r="X172">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>MINAS GERAIS</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB172">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AC172">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="AD172">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="AE172">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="AF172">
-        <v>400</v>
+        <v>902</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2121022 000017/2020</t>
+          <t>2012194 000003/2020</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/11790/36500798/81234/513830/320558/2121022000017-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/09-07-2020/1831081/0/0/18817/0/0/0/0/5308/61400149/102646/1188364/325215/2012194000003-2020</t>
         </is>
       </c>
       <c r="C173" s="2">
-        <v>43909</v>
+        <v>43957</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Aquisição dos materiais é para atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus.</t>
+          <t>Peças de Reposição Para os Ventiladores Pulmonares Marca Nellcor Puritam Benett</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=17&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012194&amp;numero=3&amp;ano=2020</t>
         </is>
       </c>
       <c r="F173">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -21028,7 +20984,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação - Por valor</t>
+          <t>Dispensa de Licitação</t>
         </is>
       </c>
       <c r="J173">
@@ -21036,43 +20992,43 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>21.559.804/0001-03</t>
+          <t>23.836.281/0001-12</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>GERBRA COMERCIO EIRELI - ME</t>
+          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>2120.01.0002470/2020-34</t>
+          <t>2010.01.0019957/2020-84</t>
         </is>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbaftZbsSfiX2ducxTUKZGMtb3vQmBzcpVhwkMOvJmDe</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVZSQV91fGK89jvY-bG8XF0WomA33vcy-mlrc5d6NAEK</t>
         </is>
       </c>
       <c r="V173">
-        <v>513830</v>
+        <v>1754823</v>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>BISNAGA PLASTICA - TIPO: BRANCA LEITOSA; CAPACIDADE: 280 GRAMAS; FUNDO: FUNDO FECHADO; BOCA: BOCA AUTO LACRAVEL; BATOQUE: COM BATOQUE;</t>
+          <t>DISPLAY PARA EQUIPAMENTOS MEDICO-HOSPITALARES - IDENTIFICACAO: 840 LCD; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT; REFERENCIA: 10133165;</t>
         </is>
       </c>
       <c r="X173">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>MAQUINAS, COMPONENTES, SUPRIMENTOS E EQUIPAMENTOS PARA INDUSTRIA QUIMICA E FARMACEUTICA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
@@ -21081,43 +21037,43 @@
         </is>
       </c>
       <c r="AB173">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="AC173">
-        <v>5</v>
+        <v>6642</v>
       </c>
       <c r="AD173">
-        <v>5</v>
+        <v>6642</v>
       </c>
       <c r="AE173">
-        <v>1050</v>
+        <v>19926</v>
       </c>
       <c r="AF173">
-        <v>1050</v>
+        <v>19926</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2121022 000020/2020</t>
+          <t>2121022 000013/2020</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21741/85200085/175918/1692160/320977/2121022000020-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21585/79300596/170097/1669486/320360/2121022000013-2020</t>
         </is>
       </c>
       <c r="C174" s="2">
-        <v>43915</v>
+        <v>43907</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>A aquisição de 40 (quarenta) galões de 5 litros de sabonete líquido para suprir a demanda do IPSM devido a crise de saúde pública instalado pelo Coronavírus</t>
+          <t>Atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus, para que se evite a propagação do mesmo em nossos funcionários.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=20&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=13&amp;ano=2020</t>
         </is>
       </c>
       <c r="F174">
@@ -21153,20 +21109,20 @@
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>2120.01.0002637/2020-84</t>
+          <t>2120.01.0002380/2020-39</t>
         </is>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcB6rkIRjUz8PjAVWeiitknebRdMANcKLG3H0Jtys8jx</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNU-bGLFMcHfylxcAnJciUWgFm2fjW-xNWqUTyFeF1e1c</t>
         </is>
       </c>
       <c r="V174">
-        <v>1692160</v>
+        <v>1669486</v>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>SABONETE LIQUIDO -  INDICACAO: HIGIENIZACAO DA PELE; BASE DO PRODUTO: PEROLADA; ASPECTO: VISCOSO; PH: FISIOLOGICO; COMPOSICAO: AGENTES HIDRATANTES E EMOLIENTES; FRAGRANCIA: FRAGRANCIA SUAVE HIPOALERGENICA; APRESENTACAO: EMBALAGEM 5 L;</t>
+          <t>ALCOOL ETILICO HIDRATADO ASPECTO FISICO: SOLUCAO AQUOSA; GRAU INPM: 70; GRAU GL: 77; APRESENTACAO: FRASCO 1 L;</t>
         </is>
       </c>
       <c r="X174">
@@ -21179,7 +21135,7 @@
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
         </is>
       </c>
       <c r="AA174" t="inlineStr">
@@ -21188,43 +21144,43 @@
         </is>
       </c>
       <c r="AB174">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="AC174">
-        <v>40</v>
+        <v>7.5</v>
       </c>
       <c r="AD174">
-        <v>40</v>
+        <v>7.5</v>
       </c>
       <c r="AE174">
-        <v>1600</v>
+        <v>2250</v>
       </c>
       <c r="AF174">
-        <v>1600</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2121022 000021/2020</t>
+          <t>2121022 000013/2020</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/62017/0/0/0/0/10733/65320034/191403/1718940/322704/2121022000021-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21585/79300596/170097/1669486/320360/2121022000013-2020</t>
         </is>
       </c>
       <c r="C175" s="2">
-        <v>43938</v>
+        <v>43907</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>A aquisição de máscaras descartáveis para uso dos funcionários do IPSM no atendimento a demanda de prevenção ao Coronavírus.</t>
+          <t>Atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus, para que se evite a propagação do mesmo em nossos funcionários.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=21&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=13&amp;ano=2020</t>
         </is>
       </c>
       <c r="F175">
@@ -21242,60 +21198,38 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação</t>
+          <t>Dispensa de Licitação - Por valor</t>
         </is>
       </c>
       <c r="J175">
-        <v>9246007</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162711</t>
-        </is>
-      </c>
-      <c r="L175">
-        <v>2120</v>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
-        </is>
-      </c>
-      <c r="N175" s="2">
-        <v>43944</v>
-      </c>
-      <c r="O175" s="2">
-        <v>43944</v>
-      </c>
-      <c r="Q175" s="2">
-        <v>44126</v>
+        <v>0</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>36.929.324/0001-56</t>
+          <t>21.559.804/0001-03</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>FABER FIDELES COSTA 07475156621</t>
+          <t>GERBRA COMERCIO EIRELI - ME</t>
         </is>
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>2120.01.0003104/2020-85</t>
+          <t>2120.01.0002380/2020-39</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNXY-m8gPf-hQ0mo22dmh-_0U7p4QzvU92UzSIdqZfRMC</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNU-bGLFMcHfylxcAnJciUWgFm2fjW-xNWqUTyFeF1e1c</t>
         </is>
       </c>
       <c r="V175">
-        <v>1718940</v>
+        <v>1696041</v>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 2 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 20 G; FILTRO: SEM FILTRO; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: DE 62 A 74 GRAUS; GRAU GL: DE 70 A 84 GRAUS; APRESENTACAO: GALAO 5 L;</t>
         </is>
       </c>
       <c r="X175">
@@ -21308,7 +21242,7 @@
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr">
@@ -21317,43 +21251,43 @@
         </is>
       </c>
       <c r="AB175">
-        <v>84000</v>
+        <v>100</v>
       </c>
       <c r="AC175">
-        <v>2.2</v>
+        <v>144</v>
       </c>
       <c r="AD175">
-        <v>1.71</v>
+        <v>80</v>
       </c>
       <c r="AE175">
-        <v>184800</v>
+        <v>14400</v>
       </c>
       <c r="AF175">
-        <v>143640</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2121022 000023/2020</t>
+          <t>2121022 000016/2020</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/38852/0/0/0/0/16090/79300022/59640/835889/325676/2121022000023-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/23776/0/0/0/0/21585/79300596/170097/1669486/322871/2121022000016-2020</t>
         </is>
       </c>
       <c r="C176" s="2">
-        <v>43986</v>
+        <v>43908</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Compra de medicamentos de alto custo para atendimento das necessidades da beneficiária do SISAU - PMMG/CBMMG/IPSM Roseniria Martins Borges, matrícula 028.165.098&amp;#8203.</t>
+          <t>Aquisição  de álcool etílico hidratado e higienizador antisséptico de mãos gel;para atendimento aos funcionários, devido a crise do Coronavírus.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=23&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=16&amp;ano=2020</t>
         </is>
       </c>
       <c r="F176">
@@ -21371,38 +21305,60 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação - Por valor</t>
+          <t>Registro de preços realizado no SIRP</t>
         </is>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>9246044</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162744</t>
+        </is>
+      </c>
+      <c r="L176">
+        <v>2120</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+        </is>
+      </c>
+      <c r="N176" s="2">
+        <v>43976</v>
+      </c>
+      <c r="O176" s="2">
+        <v>43946</v>
+      </c>
+      <c r="Q176" s="2">
+        <v>44196</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>24.939.626/0001-26</t>
+          <t>04.654.861/0001-44</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>BR ONLINE ELETRICA E CONSTRUCOES EIRELI - EPP</t>
+          <t>INDALABOR INDAIA LABORATORIO FARMACEUTICO LTDA</t>
         </is>
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t>2120.01.0004743/2020-64</t>
+          <t>2120.01.0002426/2020-58</t>
         </is>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcUdyV8a25nm0QSZh2zXXS5x39zwLWeMeuOQand_JZQA</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbkDdfN-L9Clz1AdiQkQlFQXZ2VNXeTve-noWRbweyAb</t>
         </is>
       </c>
       <c r="V176">
-        <v>50245</v>
+        <v>1669370</v>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>AGUA SANITARIA - TEOR: 2 PORCENTO DE CLORO ATIVO;</t>
+          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: ENTRE 62 E 74 GRAUS; GRAU GL: ENTRE 70 E 84 GRAUS; APRESENTACAO: FRASCO COM VALVULA TIPO PUMP 500 ML;</t>
         </is>
       </c>
       <c r="X176">
@@ -21415,52 +21371,52 @@
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>MINAS GERAIS</t>
         </is>
       </c>
       <c r="AB176">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AC176">
-        <v>1.9131</v>
+        <v>6.58</v>
       </c>
       <c r="AD176">
-        <v>1.84</v>
+        <v>6.58</v>
       </c>
       <c r="AE176">
-        <v>382.62</v>
+        <v>4606</v>
       </c>
       <c r="AF176">
-        <v>368</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2121022 000023/2020</t>
+          <t>2121022 000016/2020</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/38852/0/0/0/0/16090/79300022/59640/835889/325676/2121022000023-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/23776/0/0/0/0/21585/79300596/170097/1669486/322871/2121022000016-2020</t>
         </is>
       </c>
       <c r="C177" s="2">
-        <v>43986</v>
+        <v>43908</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Compra de medicamentos de alto custo para atendimento das necessidades da beneficiária do SISAU - PMMG/CBMMG/IPSM Roseniria Martins Borges, matrícula 028.165.098&amp;#8203.</t>
+          <t>Aquisição  de álcool etílico hidratado e higienizador antisséptico de mãos gel;para atendimento aos funcionários, devido a crise do Coronavírus.</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=23&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=16&amp;ano=2020</t>
         </is>
       </c>
       <c r="F177">
@@ -21478,38 +21434,60 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação - Por valor</t>
+          <t>Registro de preços realizado no SIRP</t>
         </is>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>9246044</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162744</t>
+        </is>
+      </c>
+      <c r="L177">
+        <v>2120</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+        </is>
+      </c>
+      <c r="N177" s="2">
+        <v>43976</v>
+      </c>
+      <c r="O177" s="2">
+        <v>43946</v>
+      </c>
+      <c r="Q177" s="2">
+        <v>44196</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>24.939.626/0001-26</t>
+          <t>04.654.861/0001-44</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>BR ONLINE ELETRICA E CONSTRUCOES EIRELI - EPP</t>
+          <t>INDALABOR INDAIA LABORATORIO FARMACEUTICO LTDA</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>2120.01.0004743/2020-64</t>
+          <t>2120.01.0002426/2020-58</t>
         </is>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcUdyV8a25nm0QSZh2zXXS5x39zwLWeMeuOQand_JZQA</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbkDdfN-L9Clz1AdiQkQlFQXZ2VNXeTve-noWRbweyAb</t>
         </is>
       </c>
       <c r="V177">
-        <v>835889</v>
+        <v>1669397</v>
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>DETERGENTE  USO DOMESTICO - APRESENTACAO: LIQUIDO SUPERCONCENTRADO, DILUICAO 1:200; FRAGRANCIA: NEUTRO;</t>
+          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: DE 62 A 74 GRAUS; GRAU GL: DE 70 A 84 GRAUS; APRESENTACAO: REFIL PARA DISPENSER 800 ML COM BICO DOSADOR;</t>
         </is>
       </c>
       <c r="X177">
@@ -21522,60 +21500,60 @@
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>MINAS GERAIS</t>
         </is>
       </c>
       <c r="AB177">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AC177">
-        <v>24</v>
+        <v>6.8</v>
       </c>
       <c r="AD177">
-        <v>32.87</v>
+        <v>6.8</v>
       </c>
       <c r="AE177">
-        <v>720</v>
+        <v>1360</v>
       </c>
       <c r="AF177">
-        <v>986.1</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2261032 000112/2020</t>
+          <t>2121022 000016/2020</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/23776/0/0/0/0/21585/79300596/170097/1669486/322871/2121022000016-2020</t>
         </is>
       </c>
       <c r="C178" s="2">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>INSUMOS LABORATORIAIS - COVID-19</t>
+          <t>Aquisição  de álcool etílico hidratado e higienizador antisséptico de mãos gel;para atendimento aos funcionários, devido a crise do Coronavírus.</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=16&amp;ano=2020</t>
         </is>
       </c>
       <c r="F178">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -21585,104 +21563,126 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação</t>
+          <t>Registro de preços realizado no SIRP</t>
         </is>
       </c>
       <c r="J178">
-        <v>0</v>
+        <v>9246044</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162744</t>
+        </is>
+      </c>
+      <c r="L178">
+        <v>2120</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+        </is>
+      </c>
+      <c r="N178" s="2">
+        <v>43976</v>
+      </c>
+      <c r="O178" s="2">
+        <v>43946</v>
+      </c>
+      <c r="Q178" s="2">
+        <v>44196</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>06.003.551/0001-95</t>
+          <t>04.654.861/0001-44</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>QUALIVIDROS DISTRIBUIDORA LTDA</t>
+          <t>INDALABOR INDAIA LABORATORIO FARMACEUTICO LTDA</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>2260.01.0002208/2020-32</t>
+          <t>2120.01.0002426/2020-58</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbkDdfN-L9Clz1AdiQkQlFQXZ2VNXeTve-noWRbweyAb</t>
         </is>
       </c>
       <c r="V178">
-        <v>82414</v>
+        <v>1669486</v>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>SORO FETAL BOVINO - APLICACAO: CULTIVO CELULAR; COMPONENTES (1): NIVEIS DE ENDOTOXINA &lt; OU = 10 EU/ML; COMPONENTES (2): NIVEIS DE HEMOGLOBINA &lt; OU = A 15 MG/DL; CARACTERISTICAS GERAIS: ISENTO DE MICOPLASMA;</t>
+          <t>ALCOOL ETILICO HIDRATADO ASPECTO FISICO: SOLUCAO AQUOSA; GRAU INPM: 70; GRAU GL: 77; APRESENTACAO: FRASCO 1 L;</t>
         </is>
       </c>
       <c r="X178">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>MINAS GERAIS</t>
         </is>
       </c>
       <c r="AB178">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AC178">
-        <v>0.6760000000000001</v>
+        <v>4</v>
       </c>
       <c r="AD178">
-        <v>0.6760000000000001</v>
+        <v>4</v>
       </c>
       <c r="AE178">
-        <v>6760</v>
+        <v>400</v>
       </c>
       <c r="AF178">
-        <v>6760</v>
+        <v>400</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2261032 000112/2020</t>
+          <t>2121022 000017/2020</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/11790/36500798/81234/513830/320558/2121022000017-2020</t>
         </is>
       </c>
       <c r="C179" s="2">
-        <v>43920</v>
+        <v>43909</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>INSUMOS LABORATORIAIS - COVID-19</t>
+          <t>Aquisição dos materiais é para atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus.</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=17&amp;ano=2020</t>
         </is>
       </c>
       <c r="F179">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -21692,7 +21692,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação</t>
+          <t>Dispensa de Licitação - Por valor</t>
         </is>
       </c>
       <c r="J179">
@@ -21700,43 +21700,43 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>06.003.551/0001-95</t>
+          <t>21.559.804/0001-03</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>QUALIVIDROS DISTRIBUIDORA LTDA</t>
+          <t>GERBRA COMERCIO EIRELI - ME</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>2260.01.0002208/2020-32</t>
+          <t>2120.01.0002470/2020-34</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbaftZbsSfiX2ducxTUKZGMtb3vQmBzcpVhwkMOvJmDe</t>
         </is>
       </c>
       <c r="V179">
-        <v>1670891</v>
+        <v>513830</v>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>LAMINA DE BISTURI DESCARTAVEL MATERIA-PRIMA: ACO INOXIDAVEL ESTERIL; NUMERO: 20; EMBALAGEM: INDIVIDUAL, ESTERIL E COM ABERTURA EM PETALA;</t>
+          <t>BISNAGA PLASTICA - TIPO: BRANCA LEITOSA; CAPACIDADE: 280 GRAMAS; FUNDO: FUNDO FECHADO; BOCA: BOCA AUTO LACRAVEL; BATOQUE: COM BATOQUE;</t>
         </is>
       </c>
       <c r="X179">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>MAQUINAS, COMPONENTES, SUPRIMENTOS E EQUIPAMENTOS PARA INDUSTRIA QUIMICA E FARMACEUTICA</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr">
@@ -21745,51 +21745,51 @@
         </is>
       </c>
       <c r="AB179">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AC179">
-        <v>34.9</v>
+        <v>5</v>
       </c>
       <c r="AD179">
-        <v>34.9</v>
+        <v>5</v>
       </c>
       <c r="AE179">
-        <v>698</v>
+        <v>1050</v>
       </c>
       <c r="AF179">
-        <v>698</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2261032 000112/2020</t>
+          <t>2121022 000020/2020</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21741/85200085/175918/1692160/320977/2121022000020-2020</t>
         </is>
       </c>
       <c r="C180" s="2">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>INSUMOS LABORATORIAIS - COVID-19</t>
+          <t>A aquisição de 40 (quarenta) galões de 5 litros de sabonete líquido para suprir a demanda do IPSM devido a crise de saúde pública instalado pelo Coronavírus</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=20&amp;ano=2020</t>
         </is>
       </c>
       <c r="F180">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação</t>
+          <t>Dispensa de Licitação - Por valor</t>
         </is>
       </c>
       <c r="J180">
@@ -21807,43 +21807,43 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>11.909.227/0001-70</t>
+          <t>21.559.804/0001-03</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>PROMEGA BIOTECNOLOGIA DO BRASIL LTDA.</t>
+          <t>GERBRA COMERCIO EIRELI - ME</t>
         </is>
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>2260.01.0002208/2020-32</t>
+          <t>2120.01.0002637/2020-84</t>
         </is>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcB6rkIRjUz8PjAVWeiitknebRdMANcKLG3H0Jtys8jx</t>
         </is>
       </c>
       <c r="V180">
-        <v>1697730</v>
+        <v>1692160</v>
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>KIT PARA RT-PCR - TIPO: ONE-STEP, METODO DE DETECCAO POR SONDA TIPO TAQMAN; IDENTIFICACAO: CONJUNTO DE REAGENTES LIQUIDOS INCOLORES; FINALIDADE: DETECCAO E QUANTIFICACAO RNA, PCR EM TEMPO REAL;</t>
+          <t>SABONETE LIQUIDO -  INDICACAO: HIGIENIZACAO DA PELE; BASE DO PRODUTO: PEROLADA; ASPECTO: VISCOSO; PH: FISIOLOGICO; COMPOSICAO: AGENTES HIDRATANTES E EMOLIENTES; FRAGRANCIA: FRAGRANCIA SUAVE HIPOALERGENICA; APRESENTACAO: EMBALAGEM 5 L;</t>
         </is>
       </c>
       <c r="X180">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr">
@@ -21852,51 +21852,51 @@
         </is>
       </c>
       <c r="AB180">
-        <v>20000</v>
+        <v>40</v>
       </c>
       <c r="AC180">
-        <v>12.43</v>
+        <v>40</v>
       </c>
       <c r="AD180">
-        <v>12.43</v>
+        <v>40</v>
       </c>
       <c r="AE180">
-        <v>248600</v>
+        <v>1600</v>
       </c>
       <c r="AF180">
-        <v>248600</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2261032 000112/2020</t>
+          <t>2121022 000021/2020</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/62017/0/0/0/0/10733/65320034/191403/1718940/322704/2121022000021-2020</t>
         </is>
       </c>
       <c r="C181" s="2">
-        <v>43920</v>
+        <v>43938</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>INSUMOS LABORATORIAIS - COVID-19</t>
+          <t>A aquisição de máscaras descartáveis para uso dos funcionários do IPSM no atendimento a demanda de prevenção ao Coronavírus.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=21&amp;ano=2020</t>
         </is>
       </c>
       <c r="F181">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -21910,47 +21910,69 @@
         </is>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>9246007</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162711</t>
+        </is>
+      </c>
+      <c r="L181">
+        <v>2120</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+        </is>
+      </c>
+      <c r="N181" s="2">
+        <v>43944</v>
+      </c>
+      <c r="O181" s="2">
+        <v>43944</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>44126</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>13.545.241/0001-68</t>
+          <t>36.929.324/0001-56</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>SINTESE BIOTECNOLOGIA LTDA</t>
+          <t>FABER FIDELES COSTA 07475156621</t>
         </is>
       </c>
       <c r="T181" t="inlineStr">
         <is>
-          <t>2260.01.0002208/2020-32</t>
+          <t>2120.01.0003104/2020-85</t>
         </is>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNXY-m8gPf-hQ0mo22dmh-_0U7p4QzvU92UzSIdqZfRMC</t>
         </is>
       </c>
       <c r="V181">
-        <v>394890</v>
+        <v>1718940</v>
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>BASE DE OLIGONUCLEOTIDEOS - ASPECTO: PO LIOFILIZADO; APRESENTACAO: EN NMOL OU MICROMOL; FINALIDADE: AMPLIFICACAO REGIOES ESPECIFICAS MOLECULAS DE DNA;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 2 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 20 G; FILTRO: SEM FILTRO; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X181">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
@@ -21959,51 +21981,51 @@
         </is>
       </c>
       <c r="AB181">
-        <v>450</v>
+        <v>84000</v>
       </c>
       <c r="AC181">
-        <v>7.98</v>
+        <v>2.2</v>
       </c>
       <c r="AD181">
-        <v>7.98</v>
+        <v>1.71</v>
       </c>
       <c r="AE181">
-        <v>3591</v>
+        <v>184800</v>
       </c>
       <c r="AF181">
-        <v>3591</v>
+        <v>143640</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2261032 000112/2020</t>
+          <t>2121022 000023/2020</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/38852/0/0/0/0/16090/79300022/59640/835889/325676/2121022000023-2020</t>
         </is>
       </c>
       <c r="C182" s="2">
-        <v>43920</v>
+        <v>43986</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>INSUMOS LABORATORIAIS - COVID-19</t>
+          <t>Compra de medicamentos de alto custo para atendimento das necessidades da beneficiária do SISAU - PMMG/CBMMG/IPSM Roseniria Martins Borges, matrícula 028.165.098&amp;#8203.</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=23&amp;ano=2020</t>
         </is>
       </c>
       <c r="F182">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -22013,7 +22035,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação</t>
+          <t>Dispensa de Licitação - Por valor</t>
         </is>
       </c>
       <c r="J182">
@@ -22021,43 +22043,43 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>13.545.241/0001-68</t>
+          <t>24.939.626/0001-26</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>SINTESE BIOTECNOLOGIA LTDA</t>
+          <t>BR ONLINE ELETRICA E CONSTRUCOES EIRELI - EPP</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>2260.01.0002208/2020-32</t>
+          <t>2120.01.0004743/2020-64</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcUdyV8a25nm0QSZh2zXXS5x39zwLWeMeuOQand_JZQA</t>
         </is>
       </c>
       <c r="V182">
-        <v>1368818</v>
+        <v>50245</v>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>AGUA ULTRAPURA - IDENTIFICACAO: LIVRE DE DNASE E RNASE PARA PCR; FINALIDADE: AMPLIFICACAO DE DNA BACTERIANO DIAGNOSTICO; COMPATIBILIDADE: COM TERMOCICLADOR PARA PCR;</t>
+          <t>AGUA SANITARIA - TEOR: 2 PORCENTO DE CLORO ATIVO;</t>
         </is>
       </c>
       <c r="X182">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
@@ -22066,51 +22088,51 @@
         </is>
       </c>
       <c r="AB182">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="AC182">
-        <v>293.6</v>
+        <v>1.9131</v>
       </c>
       <c r="AD182">
-        <v>293.6</v>
+        <v>1.84</v>
       </c>
       <c r="AE182">
-        <v>2936</v>
+        <v>382.62</v>
       </c>
       <c r="AF182">
-        <v>2936</v>
+        <v>368</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2261032 000112/2020</t>
+          <t>2121022 000023/2020</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/38852/0/0/0/0/16090/79300022/59640/835889/325676/2121022000023-2020</t>
         </is>
       </c>
       <c r="C183" s="2">
-        <v>43920</v>
+        <v>43986</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>INSUMOS LABORATORIAIS - COVID-19</t>
+          <t>Compra de medicamentos de alto custo para atendimento das necessidades da beneficiária do SISAU - PMMG/CBMMG/IPSM Roseniria Martins Borges, matrícula 028.165.098&amp;#8203.</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=23&amp;ano=2020</t>
         </is>
       </c>
       <c r="F183">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -22120,7 +22142,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação</t>
+          <t>Dispensa de Licitação - Por valor</t>
         </is>
       </c>
       <c r="J183">
@@ -22128,43 +22150,43 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>13.545.241/0001-68</t>
+          <t>24.939.626/0001-26</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>SINTESE BIOTECNOLOGIA LTDA</t>
+          <t>BR ONLINE ELETRICA E CONSTRUCOES EIRELI - EPP</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>2260.01.0002208/2020-32</t>
+          <t>2120.01.0004743/2020-64</t>
         </is>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcUdyV8a25nm0QSZh2zXXS5x39zwLWeMeuOQand_JZQA</t>
         </is>
       </c>
       <c r="V183">
-        <v>1497391</v>
+        <v>835889</v>
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>BASE DE OLIGONUCLEOTIDEOS - ASPECTO: PO LIOFILIZADO OU LIQUIDO; APRESENTACAO: NANOMOL, MICROMOL OU PICOMOL DA SEQUENCIA MARCADA; FINALIDADE: PCR EM TEMPO REAL; QUENCHER 3 LINHAS;</t>
+          <t>DETERGENTE  USO DOMESTICO - APRESENTACAO: LIQUIDO SUPERCONCENTRADO, DILUICAO 1:200; FRAGRANCIA: NEUTRO;</t>
         </is>
       </c>
       <c r="X183">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
@@ -22173,19 +22195,19 @@
         </is>
       </c>
       <c r="AB183">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AC183">
-        <v>3420</v>
+        <v>24</v>
       </c>
       <c r="AD183">
-        <v>3420</v>
+        <v>32.87</v>
       </c>
       <c r="AE183">
-        <v>51300</v>
+        <v>720</v>
       </c>
       <c r="AF183">
-        <v>51300</v>
+        <v>986.1</v>
       </c>
     </row>
     <row r="184">
@@ -22235,12 +22257,12 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>21.268.634/0001-08</t>
+          <t>06.003.551/0001-95</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>MULTIPLIER DISTRIBUIDORA EIRELI - EPP</t>
+          <t>QUALIVIDROS DISTRIBUIDORA LTDA</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
@@ -22254,11 +22276,11 @@
         </is>
       </c>
       <c r="V184">
-        <v>1669613</v>
+        <v>82414</v>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>ALCOOL ETILICO (ETANOL) IDENTIFICACAO: ABSOLUTO P.A. - ACS; ASPECTO FISICO: LIQUIDO INCOLOR ANIDRO; CONCENTRACAO: 99,5%; NUMERO CAS: 64-17-5; FORMULA MOLECULAR: CH3CH2OH; PESO MOLECULAR: 46,07 G/MOL; APRESENTACAO: FRASCO 1 L;</t>
+          <t>SORO FETAL BOVINO - APLICACAO: CULTIVO CELULAR; COMPONENTES (1): NIVEIS DE ENDOTOXINA &lt; OU = 10 EU/ML; COMPONENTES (2): NIVEIS DE HEMOGLOBINA &lt; OU = A 15 MG/DL; CARACTERISTICAS GERAIS: ISENTO DE MICOPLASMA;</t>
         </is>
       </c>
       <c r="X184">
@@ -22280,19 +22302,19 @@
         </is>
       </c>
       <c r="AB184">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="AC184">
-        <v>31.96</v>
+        <v>0.6760000000000001</v>
       </c>
       <c r="AD184">
-        <v>31.96</v>
+        <v>0.6760000000000001</v>
       </c>
       <c r="AE184">
-        <v>319.6</v>
+        <v>6760</v>
       </c>
       <c r="AF184">
-        <v>319.6</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="185">
@@ -22342,12 +22364,12 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>63.067.904/0005-88</t>
+          <t>06.003.551/0001-95</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>LIFE TECHNOLOGIES BRASIL COMERCIO E INDUSTRIA DE PRODUTOS PARA BIOTECNOLOGIA LTDA</t>
+          <t>QUALIVIDROS DISTRIBUIDORA LTDA</t>
         </is>
       </c>
       <c r="T185" t="inlineStr">
@@ -22361,11 +22383,11 @@
         </is>
       </c>
       <c r="V185">
-        <v>857025</v>
+        <v>1670891</v>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>MEIO MEM EARLE - ASPECTO: PO; COMPOSICAO: COM SAIS DE EARLE E L-GLUTAMINA SEM BICABORNATO DE SODIO; SOLUBILIDADE: APROX.9,6G DE PO P/LITRO DE MEIO (PREPARA 1 LITRO); FINALIDADE: CULTIVO CELULAR;</t>
+          <t>LAMINA DE BISTURI DESCARTAVEL MATERIA-PRIMA: ACO INOXIDAVEL ESTERIL; NUMERO: 20; EMBALAGEM: INDIVIDUAL, ESTERIL E COM ABERTURA EM PETALA;</t>
         </is>
       </c>
       <c r="X185">
@@ -22378,7 +22400,7 @@
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
@@ -22387,19 +22409,19 @@
         </is>
       </c>
       <c r="AB185">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AC185">
-        <v>16.756</v>
+        <v>34.9</v>
       </c>
       <c r="AD185">
-        <v>16.756</v>
+        <v>34.9</v>
       </c>
       <c r="AE185">
-        <v>1675.6</v>
+        <v>698</v>
       </c>
       <c r="AF185">
-        <v>1675.6</v>
+        <v>698</v>
       </c>
     </row>
     <row r="186">
@@ -22449,12 +22471,12 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>68.337.658/0001-27</t>
+          <t>11.909.227/0001-70</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>SIGMA-ALDRICH BRASIL LTDA</t>
+          <t>PROMEGA BIOTECNOLOGIA DO BRASIL LTDA.</t>
         </is>
       </c>
       <c r="T186" t="inlineStr">
@@ -22468,11 +22490,11 @@
         </is>
       </c>
       <c r="V186">
-        <v>1151746</v>
+        <v>1697730</v>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>PENICILINA + ESTREPTOMICINA - APLICACAO: PARA CULTIVO CELULAR ETC; ASPECTO: LIQUIDO; APRESENTACAO: FRASCO COM VOLUME DE 100ML; COMPLEMENTO: FORMULACAO CONTENDO 10.000 U PENICILINA E 10.000 µG/ML ESTREPTOMICINA;</t>
+          <t>KIT PARA RT-PCR - TIPO: ONE-STEP, METODO DE DETECCAO POR SONDA TIPO TAQMAN; IDENTIFICACAO: CONJUNTO DE REAGENTES LIQUIDOS INCOLORES; FINALIDADE: DETECCAO E QUANTIFICACAO RNA, PCR EM TEMPO REAL;</t>
         </is>
       </c>
       <c r="X186">
@@ -22494,19 +22516,19 @@
         </is>
       </c>
       <c r="AB186">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="AC186">
-        <v>117</v>
+        <v>12.43</v>
       </c>
       <c r="AD186">
-        <v>117</v>
+        <v>12.43</v>
       </c>
       <c r="AE186">
-        <v>2340</v>
+        <v>248600</v>
       </c>
       <c r="AF186">
-        <v>2340</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="187">
@@ -22552,38 +22574,16 @@
         </is>
       </c>
       <c r="J187">
-        <v>9245762</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162595</t>
-        </is>
-      </c>
-      <c r="L187">
-        <v>2260</v>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
-        </is>
-      </c>
-      <c r="N187" s="2">
-        <v>43936</v>
-      </c>
-      <c r="O187" s="2">
-        <v>43936</v>
-      </c>
-      <c r="Q187" s="2">
-        <v>44115</v>
+        <v>0</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>53.276.010/0001-10</t>
+          <t>13.545.241/0001-68</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>HEXIS CIENTIFICA LTDA</t>
+          <t>SINTESE BIOTECNOLOGIA LTDA</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
@@ -22597,11 +22597,11 @@
         </is>
       </c>
       <c r="V187">
-        <v>781673</v>
+        <v>394890</v>
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>TUBO PLASTICO PARA LABORATORIO - MATERIA-PRIMA: POLIPROPILENO, LIVRE DE PIROGENIO, RNASES E DNASES; MEDIDAS: -; VOLUME: 15ML, TAMPA ROSQUEAVEL;</t>
+          <t>BASE DE OLIGONUCLEOTIDEOS - ASPECTO: PO LIOFILIZADO; APRESENTACAO: EN NMOL OU MICROMOL; FINALIDADE: AMPLIFICACAO REGIOES ESPECIFICAS MOLECULAS DE DNA;</t>
         </is>
       </c>
       <c r="X187">
@@ -22614,7 +22614,7 @@
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E ARTIGOS DE LABORATORIO, COMPONENTES E ACESSORIOS</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="AB187">
-        <v>30000</v>
+        <v>450</v>
       </c>
       <c r="AC187">
-        <v>0.9</v>
+        <v>7.98</v>
       </c>
       <c r="AD187">
-        <v>0.9</v>
+        <v>7.98</v>
       </c>
       <c r="AE187">
-        <v>27000</v>
+        <v>3591</v>
       </c>
       <c r="AF187">
-        <v>27000</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="188">
@@ -22681,38 +22681,16 @@
         </is>
       </c>
       <c r="J188">
-        <v>9245763</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162596</t>
-        </is>
-      </c>
-      <c r="L188">
-        <v>2260</v>
-      </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
-        </is>
-      </c>
-      <c r="N188" s="2">
-        <v>43936</v>
-      </c>
-      <c r="O188" s="2">
-        <v>43936</v>
-      </c>
-      <c r="Q188" s="2">
-        <v>44115</v>
+        <v>0</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>02.661.790/0001-81</t>
+          <t>13.545.241/0001-68</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>SARSTEDT LTDA</t>
+          <t>SINTESE BIOTECNOLOGIA LTDA</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
@@ -22726,11 +22704,11 @@
         </is>
       </c>
       <c r="V188">
-        <v>538957</v>
+        <v>1368818</v>
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>TUBO CRIOGENICO - MATERIA-PRIMA: POLIPROPILENO, TEMPERATURA - 196 A + 121 ºC; TIPO: TAMPA ROSQUEAVEL, ANEL SILICONE, GRADUADO, C/BASE; CAPACIDADE: 2,0 ML;</t>
+          <t>AGUA ULTRAPURA - IDENTIFICACAO: LIVRE DE DNASE E RNASE PARA PCR; FINALIDADE: AMPLIFICACAO DE DNA BACTERIANO DIAGNOSTICO; COMPATIBILIDADE: COM TERMOCICLADOR PARA PCR;</t>
         </is>
       </c>
       <c r="X188">
@@ -22743,7 +22721,7 @@
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E ARTIGOS DE LABORATORIO, COMPONENTES E ACESSORIOS</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
@@ -22752,19 +22730,19 @@
         </is>
       </c>
       <c r="AB188">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="AC188">
-        <v>0.55</v>
+        <v>293.6</v>
       </c>
       <c r="AD188">
-        <v>0.55</v>
+        <v>293.6</v>
       </c>
       <c r="AE188">
-        <v>16500</v>
+        <v>2936</v>
       </c>
       <c r="AF188">
-        <v>16500</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="189">
@@ -22810,38 +22788,16 @@
         </is>
       </c>
       <c r="J189">
-        <v>9245763</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162596</t>
-        </is>
-      </c>
-      <c r="L189">
-        <v>2260</v>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
-        </is>
-      </c>
-      <c r="N189" s="2">
-        <v>43936</v>
-      </c>
-      <c r="O189" s="2">
-        <v>43936</v>
-      </c>
-      <c r="Q189" s="2">
-        <v>44115</v>
+        <v>0</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>02.661.790/0001-81</t>
+          <t>13.545.241/0001-68</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>SARSTEDT LTDA</t>
+          <t>SINTESE BIOTECNOLOGIA LTDA</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
@@ -22855,11 +22811,11 @@
         </is>
       </c>
       <c r="V189">
-        <v>1651595</v>
+        <v>1497391</v>
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>TUBO CRIOGENICO - MATERIA-PRIMA: POLIPROPILENO; TIPO: TAMPA DE ROSCA, ESTERIL, APIROGENICO, AUTOCLAVAVEL; CAPACIDADE: 5,0 ML / 5,7CM ALTURA X 1,5CM (BOCA);</t>
+          <t>BASE DE OLIGONUCLEOTIDEOS - ASPECTO: PO LIOFILIZADO OU LIQUIDO; APRESENTACAO: NANOMOL, MICROMOL OU PICOMOL DA SEQUENCIA MARCADA; FINALIDADE: PCR EM TEMPO REAL; QUENCHER 3 LINHAS;</t>
         </is>
       </c>
       <c r="X189">
@@ -22872,7 +22828,7 @@
       </c>
       <c r="Z189" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E ARTIGOS DE LABORATORIO, COMPONENTES E ACESSORIOS</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA189" t="inlineStr">
@@ -22881,51 +22837,51 @@
         </is>
       </c>
       <c r="AB189">
-        <v>30000</v>
+        <v>15</v>
       </c>
       <c r="AC189">
-        <v>1.08</v>
+        <v>3420</v>
       </c>
       <c r="AD189">
-        <v>1.08</v>
+        <v>3420</v>
       </c>
       <c r="AE189">
-        <v>32400</v>
+        <v>51300</v>
       </c>
       <c r="AF189">
-        <v>32400</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2301925 000001/2020</t>
+          <t>2261032 000112/2020</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/19962/0/0/0/0/7051/3010163/94368/1155/321506/2301925000001-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
         </is>
       </c>
       <c r="C190" s="2">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>REFORMA DA ALA ¿D¿ E AMPLIAÇÃO DA CAPACIDADE DE CARGA DA SUBESTAÇÃO DO HOSPITAL EDUARDO DE MENEZES, NO MUNICÍPIO DE BELO HORIZONTE ¿ UNIDADE INTEGRANTE DA FUNDAÇÃO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
+          <t>INSUMOS LABORATORIAIS - COVID-19</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=1&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
         </is>
       </c>
       <c r="F190">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -22939,72 +22895,47 @@
         </is>
       </c>
       <c r="J190">
-        <v>9245674</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162508</t>
-        </is>
-      </c>
-      <c r="L190">
-        <v>2300</v>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
-        </is>
-      </c>
-      <c r="N190" s="2">
-        <v>43922</v>
-      </c>
-      <c r="O190" s="2">
-        <v>43922</v>
-      </c>
-      <c r="P190" s="2">
-        <v>44105</v>
-      </c>
-      <c r="Q190" s="2">
-        <v>44131</v>
+        <v>0</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>03.367.118/0001-40</t>
+          <t>21.268.634/0001-08</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>CONSTRUTORA SINARCO LTDA</t>
+          <t>MULTIPLIER DISTRIBUIDORA EIRELI - EPP</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t>2300.01.0048942/2020-33</t>
+          <t>2260.01.0002208/2020-32</t>
         </is>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcRjPwXFitFhfS7KLPDdYgYJdPtKoxHVfo1reueoR29T</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
         </is>
       </c>
       <c r="V190">
-        <v>1155</v>
+        <v>1669613</v>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>ADAPTACOES E REFORMAS</t>
+          <t>ALCOOL ETILICO (ETANOL) IDENTIFICACAO: ABSOLUTO P.A. - ACS; ASPECTO FISICO: LIQUIDO INCOLOR ANIDRO; CONCENTRACAO: 99,5%; NUMERO CAS: 64-17-5; FORMULA MOLECULAR: CH3CH2OH; PESO MOLECULAR: 46,07 G/MOL; APRESENTACAO: FRASCO 1 L;</t>
         </is>
       </c>
       <c r="X190">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>OBRAS E SERVICOS DE ENGENHARIA CIVIL</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA190" t="inlineStr">
@@ -23013,51 +22944,51 @@
         </is>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC190">
-        <v>4359428.86</v>
+        <v>31.96</v>
       </c>
       <c r="AD190">
-        <v>4359428.86</v>
+        <v>31.96</v>
       </c>
       <c r="AE190">
-        <v>4359428.86</v>
+        <v>319.6</v>
       </c>
       <c r="AF190">
-        <v>4359428.86</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2301925 000002/2020</t>
+          <t>2261032 000112/2020</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/16018/0/0/0/0/7051/3010163/94368/1155/322267/2301925000002-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
         </is>
       </c>
       <c r="C191" s="2">
-        <v>43935</v>
+        <v>43920</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>EXECUÇÃO DOS SERVIÇOS DE ENGENHARIA, ABRANGENDO REPAROS GERAIS, COMPLEMENTAÇÃO DA INSTALAÇÃO DO SISTEMA DE CLIMATIZAÇÃO E EXAUSTÃO, INSTALAÇÃO DE CÂMARAS FRIAS DO SVO</t>
+          <t>INSUMOS LABORATORIAIS - COVID-19</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=2&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
         </is>
       </c>
       <c r="F191">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -23071,67 +23002,47 @@
         </is>
       </c>
       <c r="J191">
-        <v>9245950</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162645</t>
-        </is>
-      </c>
-      <c r="L191">
-        <v>2300</v>
-      </c>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
-        </is>
-      </c>
-      <c r="N191" s="2">
-        <v>43936</v>
-      </c>
-      <c r="O191" s="2">
-        <v>43936</v>
-      </c>
-      <c r="P191" s="2">
-        <v>44119</v>
-      </c>
-      <c r="Q191" s="2">
-        <v>44119</v>
+        <v>0</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>04.764.300/0001-06</t>
+          <t>63.067.904/0005-88</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>EFICIENCIA CONSTRUTORA LTDA</t>
+          <t>LIFE TECHNOLOGIES BRASIL COMERCIO E INDUSTRIA DE PRODUTOS PARA BIOTECNOLOGIA LTDA</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t>2300.01.0053745/2020-41</t>
+          <t>2260.01.0002208/2020-32</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
         </is>
       </c>
       <c r="V191">
-        <v>1155</v>
+        <v>857025</v>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>ADAPTACOES E REFORMAS</t>
+          <t>MEIO MEM EARLE - ASPECTO: PO; COMPOSICAO: COM SAIS DE EARLE E L-GLUTAMINA SEM BICABORNATO DE SODIO; SOLUBILIDADE: APROX.9,6G DE PO P/LITRO DE MEIO (PREPARA 1 LITRO); FINALIDADE: CULTIVO CELULAR;</t>
         </is>
       </c>
       <c r="X191">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>OBRAS E SERVICOS DE ENGENHARIA CIVIL</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA191" t="inlineStr">
@@ -23140,51 +23051,51 @@
         </is>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC191">
-        <v>1041625.57</v>
+        <v>16.756</v>
       </c>
       <c r="AD191">
-        <v>1041625.57</v>
+        <v>16.756</v>
       </c>
       <c r="AE191">
-        <v>1041625.57</v>
+        <v>1675.6</v>
       </c>
       <c r="AF191">
-        <v>1041625.57</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2301925 000003/2020</t>
+          <t>2261032 000112/2020</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/26247/0/0/0/0/7051/3010163/94368/1155/323729/2301925000003-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
         </is>
       </c>
       <c r="C192" s="2">
-        <v>43963</v>
+        <v>43920</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA, EM CARÁTER EMERGENCIAL E POR DISPENSA DE LICITAÇÃO, PARA A REFORMA DO HOSPITAL JULIA KUBITSCHEK EM BELO HORIZONTE.</t>
+          <t>INSUMOS LABORATORIAIS - COVID-19</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=3&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
         </is>
       </c>
       <c r="F192">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -23198,72 +23109,47 @@
         </is>
       </c>
       <c r="J192">
-        <v>9247198</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163055</t>
-        </is>
-      </c>
-      <c r="L192">
-        <v>2300</v>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
-        </is>
-      </c>
-      <c r="N192" s="2">
-        <v>43963</v>
-      </c>
-      <c r="O192" s="2">
-        <v>43963</v>
-      </c>
-      <c r="P192" s="2">
-        <v>44195</v>
-      </c>
-      <c r="Q192" s="2">
-        <v>44195</v>
+        <v>0</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>00.645.535/0001-10</t>
+          <t>68.337.658/0001-27</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>2A ENGENHARIA E CONSTRUCOES LTDA</t>
+          <t>SIGMA-ALDRICH BRASIL LTDA</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>2300.01.0058319/2020-24</t>
+          <t>2260.01.0002208/2020-32</t>
         </is>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZMC_X2vfK31SJ80Ne-80XwFRI_knf2x3dLuVrJDLlhh</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
         </is>
       </c>
       <c r="V192">
-        <v>1155</v>
+        <v>1151746</v>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>ADAPTACOES E REFORMAS</t>
+          <t>PENICILINA + ESTREPTOMICINA - APLICACAO: PARA CULTIVO CELULAR ETC; ASPECTO: LIQUIDO; APRESENTACAO: FRASCO COM VOLUME DE 100ML; COMPLEMENTO: FORMULACAO CONTENDO 10.000 U PENICILINA E 10.000 µG/ML ESTREPTOMICINA;</t>
         </is>
       </c>
       <c r="X192">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="Z192" t="inlineStr">
         <is>
-          <t>OBRAS E SERVICOS DE ENGENHARIA CIVIL</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA192" t="inlineStr">
@@ -23272,51 +23158,51 @@
         </is>
       </c>
       <c r="AB192">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC192">
-        <v>7116343.26</v>
+        <v>117</v>
       </c>
       <c r="AD192">
-        <v>7116343.26</v>
+        <v>117</v>
       </c>
       <c r="AE192">
-        <v>7116343.26</v>
+        <v>2340</v>
       </c>
       <c r="AF192">
-        <v>7116343.26</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2311076 000134/2020</t>
+          <t>2261032 000112/2020</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
         </is>
       </c>
       <c r="C193" s="2">
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>MATERIAIS MÉDICO HOSPITALARES</t>
+          <t>INSUMOS LABORATORIAIS - COVID-19</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
         </is>
       </c>
       <c r="F193">
-        <v>2310</v>
+        <v>2260</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -23330,125 +23216,122 @@
         </is>
       </c>
       <c r="J193">
-        <v>9245982</v>
+        <v>9245762</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162595</t>
         </is>
       </c>
       <c r="L193">
-        <v>2310</v>
+        <v>2260</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="N193" s="2">
-        <v>43943</v>
+        <v>43936</v>
       </c>
       <c r="O193" s="2">
-        <v>43939</v>
-      </c>
-      <c r="P193" s="2">
-        <v>44304</v>
+        <v>43936</v>
       </c>
       <c r="Q193" s="2">
-        <v>44121</v>
+        <v>44115</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>05.075.964/0001-12</t>
+          <t>53.276.010/0001-10</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
+          <t>HEXIS CIENTIFICA LTDA</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t>2310.01.0005838/2020-70</t>
+          <t>2260.01.0002208/2020-32</t>
         </is>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
         </is>
       </c>
       <c r="V193">
-        <v>18228</v>
+        <v>781673</v>
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>FILTRO ABSOLUTO - TIPO: HEPA 3, EFICIENCIA DE FILTRAGEM 99,7% D.O.P; CLASSE: PENETRACAO DE BACTERIAS: MEDIA MENOR QUE 0,00069%; MOLDURA: SEM MOLDURA; DIMENSOES: 48" X 11" X 24"; VAZAO: ELEMENTO FILTRANTE:FIBRA VIDRO C/AG.ANTIMICROBIANO; RESISTENCIA TERMICA: 100ºC; CONFIGURACAO: -;</t>
+          <t>TUBO PLASTICO PARA LABORATORIO - MATERIA-PRIMA: POLIPROPILENO, LIVRE DE PIROGENIO, RNASES E DNASES; MEDIDAS: -; VOLUME: 15ML, TAMPA ROSQUEAVEL;</t>
         </is>
       </c>
       <c r="X193">
-        <v>2311</v>
+        <v>2261</v>
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
         <is>
-          <t>INSTRUMENTOS E EQUIPAMENTOS ODONTOLOGICOS, COMPONENTES E ACESSORIOS</t>
+          <t>EQUIPAMENTOS E ARTIGOS DE LABORATORIO, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA193" t="inlineStr">
         <is>
-          <t>Montes Claros</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB193">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="AC193">
-        <v>36</v>
+        <v>0.9</v>
       </c>
       <c r="AD193">
-        <v>36</v>
+        <v>0.9</v>
       </c>
       <c r="AE193">
-        <v>7200</v>
+        <v>27000</v>
       </c>
       <c r="AF193">
-        <v>7200</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2311076 000134/2020</t>
+          <t>2261032 000112/2020</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
         </is>
       </c>
       <c r="C194" s="2">
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>MATERIAIS MÉDICO HOSPITALARES</t>
+          <t>INSUMOS LABORATORIAIS - COVID-19</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
         </is>
       </c>
       <c r="F194">
-        <v>2310</v>
+        <v>2260</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -23462,125 +23345,122 @@
         </is>
       </c>
       <c r="J194">
-        <v>9245982</v>
+        <v>9245763</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162596</t>
         </is>
       </c>
       <c r="L194">
-        <v>2310</v>
+        <v>2260</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="N194" s="2">
-        <v>43943</v>
+        <v>43936</v>
       </c>
       <c r="O194" s="2">
-        <v>43939</v>
-      </c>
-      <c r="P194" s="2">
-        <v>44304</v>
+        <v>43936</v>
       </c>
       <c r="Q194" s="2">
-        <v>44121</v>
+        <v>44115</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>05.075.964/0001-12</t>
+          <t>02.661.790/0001-81</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
+          <t>SARSTEDT LTDA</t>
         </is>
       </c>
       <c r="T194" t="inlineStr">
         <is>
-          <t>2310.01.0005838/2020-70</t>
+          <t>2260.01.0002208/2020-32</t>
         </is>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
         </is>
       </c>
       <c r="V194">
-        <v>236268</v>
+        <v>538957</v>
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: ADULTO;</t>
+          <t>TUBO CRIOGENICO - MATERIA-PRIMA: POLIPROPILENO, TEMPERATURA - 196 A + 121 ºC; TIPO: TAMPA ROSQUEAVEL, ANEL SILICONE, GRADUADO, C/BASE; CAPACIDADE: 2,0 ML;</t>
         </is>
       </c>
       <c r="X194">
-        <v>2311</v>
+        <v>2261</v>
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>EQUIPAMENTOS E ARTIGOS DE LABORATORIO, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>Montes Claros</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB194">
-        <v>50</v>
+        <v>30000</v>
       </c>
       <c r="AC194">
-        <v>45</v>
+        <v>0.55</v>
       </c>
       <c r="AD194">
-        <v>45</v>
+        <v>0.55</v>
       </c>
       <c r="AE194">
-        <v>2250</v>
+        <v>16500</v>
       </c>
       <c r="AF194">
-        <v>2250</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2311076 000134/2020</t>
+          <t>2261032 000112/2020</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
         </is>
       </c>
       <c r="C195" s="2">
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>MATERIAIS MÉDICO HOSPITALARES</t>
+          <t>INSUMOS LABORATORIAIS - COVID-19</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
         </is>
       </c>
       <c r="F195">
-        <v>2310</v>
+        <v>2260</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -23594,125 +23474,122 @@
         </is>
       </c>
       <c r="J195">
-        <v>9245982</v>
+        <v>9245763</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162596</t>
         </is>
       </c>
       <c r="L195">
-        <v>2310</v>
+        <v>2260</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="N195" s="2">
-        <v>43943</v>
+        <v>43936</v>
       </c>
       <c r="O195" s="2">
-        <v>43939</v>
-      </c>
-      <c r="P195" s="2">
-        <v>44304</v>
+        <v>43936</v>
       </c>
       <c r="Q195" s="2">
-        <v>44121</v>
+        <v>44115</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>05.075.964/0001-12</t>
+          <t>02.661.790/0001-81</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
+          <t>SARSTEDT LTDA</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t>2310.01.0005838/2020-70</t>
+          <t>2260.01.0002208/2020-32</t>
         </is>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
         </is>
       </c>
       <c r="V195">
-        <v>461920</v>
+        <v>1651595</v>
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
+          <t>TUBO CRIOGENICO - MATERIA-PRIMA: POLIPROPILENO; TIPO: TAMPA DE ROSCA, ESTERIL, APIROGENICO, AUTOCLAVAVEL; CAPACIDADE: 5,0 ML / 5,7CM ALTURA X 1,5CM (BOCA);</t>
         </is>
       </c>
       <c r="X195">
-        <v>2311</v>
+        <v>2261</v>
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>EQUIPAMENTOS E ARTIGOS DE LABORATORIO, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>Montes Claros</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB195">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="AC195">
-        <v>8</v>
+        <v>1.08</v>
       </c>
       <c r="AD195">
-        <v>8</v>
+        <v>1.08</v>
       </c>
       <c r="AE195">
-        <v>4800</v>
+        <v>32400</v>
       </c>
       <c r="AF195">
-        <v>4800</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2311076 000134/2020</t>
+          <t>2301925 000001/2020</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/19962/0/0/0/0/7051/3010163/94368/1155/321506/2301925000001-2020</t>
         </is>
       </c>
       <c r="C196" s="2">
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>MATERIAIS MÉDICO HOSPITALARES</t>
+          <t>REFORMA DA ALA ¿D¿ E AMPLIAÇÃO DA CAPACIDADE DE CARGA DA SUBESTAÇÃO DO HOSPITAL EDUARDO DE MENEZES, NO MUNICÍPIO DE BELO HORIZONTE ¿ UNIDADE INTEGRANTE DA FUNDAÇÃO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=1&amp;ano=2020</t>
         </is>
       </c>
       <c r="F196">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -23726,125 +23603,125 @@
         </is>
       </c>
       <c r="J196">
-        <v>9245982</v>
+        <v>9245674</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162508</t>
         </is>
       </c>
       <c r="L196">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
         </is>
       </c>
       <c r="N196" s="2">
-        <v>43943</v>
+        <v>43922</v>
       </c>
       <c r="O196" s="2">
-        <v>43939</v>
+        <v>43922</v>
       </c>
       <c r="P196" s="2">
-        <v>44304</v>
+        <v>44105</v>
       </c>
       <c r="Q196" s="2">
-        <v>44121</v>
+        <v>44131</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>05.075.964/0001-12</t>
+          <t>03.367.118/0001-40</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
+          <t>CONSTRUTORA SINARCO LTDA</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>2310.01.0005838/2020-70</t>
+          <t>2300.01.0048942/2020-33</t>
         </is>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcRjPwXFitFhfS7KLPDdYgYJdPtKoxHVfo1reueoR29T</t>
         </is>
       </c>
       <c r="V196">
-        <v>804495</v>
+        <v>1155</v>
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: COM VIA DE IRRIGACAO;</t>
+          <t>ADAPTACOES E REFORMAS</t>
         </is>
       </c>
       <c r="X196">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>OBRAS E SERVICOS DE ENGENHARIA CIVIL</t>
         </is>
       </c>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>Montes Claros</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB196">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AC196">
-        <v>45</v>
+        <v>4359428.86</v>
       </c>
       <c r="AD196">
-        <v>45</v>
+        <v>4359428.86</v>
       </c>
       <c r="AE196">
-        <v>7650</v>
+        <v>4359428.86</v>
       </c>
       <c r="AF196">
-        <v>7650</v>
+        <v>4359428.86</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2311076 000134/2020</t>
+          <t>2301925 000002/2020</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/16018/0/0/0/0/7051/3010163/94368/1155/322267/2301925000002-2020</t>
         </is>
       </c>
       <c r="C197" s="2">
-        <v>43928</v>
+        <v>43935</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>MATERIAIS MÉDICO HOSPITALARES</t>
+          <t>EXECUÇÃO DOS SERVIÇOS DE ENGENHARIA, ABRANGENDO REPAROS GERAIS, COMPLEMENTAÇÃO DA INSTALAÇÃO DO SISTEMA DE CLIMATIZAÇÃO E EXAUSTÃO, INSTALAÇÃO DE CÂMARAS FRIAS DO SVO</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=2&amp;ano=2020</t>
         </is>
       </c>
       <c r="F197">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -23858,125 +23735,120 @@
         </is>
       </c>
       <c r="J197">
-        <v>9245982</v>
+        <v>9245950</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162645</t>
         </is>
       </c>
       <c r="L197">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
         </is>
       </c>
       <c r="N197" s="2">
-        <v>43943</v>
+        <v>43936</v>
       </c>
       <c r="O197" s="2">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="P197" s="2">
-        <v>44304</v>
+        <v>44119</v>
       </c>
       <c r="Q197" s="2">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>05.075.964/0001-12</t>
+          <t>04.764.300/0001-06</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
+          <t>EFICIENCIA CONSTRUTORA LTDA</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
         <is>
-          <t>2310.01.0005838/2020-70</t>
-        </is>
-      </c>
-      <c r="U197" t="inlineStr">
-        <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
+          <t>2300.01.0053745/2020-41</t>
         </is>
       </c>
       <c r="V197">
-        <v>1129139</v>
+        <v>1155</v>
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: NEONATAL, CALIBRE 6 FRENCH;</t>
+          <t>ADAPTACOES E REFORMAS</t>
         </is>
       </c>
       <c r="X197">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>OBRAS E SERVICOS DE ENGENHARIA CIVIL</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>Montes Claros</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB197">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC197">
-        <v>45</v>
+        <v>1041625.57</v>
       </c>
       <c r="AD197">
-        <v>45</v>
+        <v>1041625.57</v>
       </c>
       <c r="AE197">
-        <v>1350</v>
+        <v>1041625.57</v>
       </c>
       <c r="AF197">
-        <v>1350</v>
+        <v>1041625.57</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2311076 000134/2020</t>
+          <t>2301925 000003/2020</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/26247/0/0/0/0/7051/3010163/94368/1155/323729/2301925000003-2020</t>
         </is>
       </c>
       <c r="C198" s="2">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>MATERIAIS MÉDICO HOSPITALARES</t>
+          <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA, EM CARÁTER EMERGENCIAL E POR DISPENSA DE LICITAÇÃO, PARA A REFORMA DO HOSPITAL JULIA KUBITSCHEK EM BELO HORIZONTE.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=3&amp;ano=2020</t>
         </is>
       </c>
       <c r="F198">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -23990,93 +23862,93 @@
         </is>
       </c>
       <c r="J198">
-        <v>9245982</v>
+        <v>9247198</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163055</t>
         </is>
       </c>
       <c r="L198">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
         </is>
       </c>
       <c r="N198" s="2">
-        <v>43943</v>
+        <v>43963</v>
       </c>
       <c r="O198" s="2">
-        <v>43939</v>
+        <v>43963</v>
       </c>
       <c r="P198" s="2">
-        <v>44304</v>
+        <v>44195</v>
       </c>
       <c r="Q198" s="2">
-        <v>44121</v>
+        <v>44195</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>05.075.964/0001-12</t>
+          <t>00.645.535/0001-10</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
+          <t>2A ENGENHARIA E CONSTRUCOES LTDA</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>2310.01.0005838/2020-70</t>
+          <t>2300.01.0058319/2020-24</t>
         </is>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZMC_X2vfK31SJ80Ne-80XwFRI_knf2x3dLuVrJDLlhh</t>
         </is>
       </c>
       <c r="V198">
-        <v>1152823</v>
+        <v>1155</v>
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: NEONATAL, CALIBRE 8 FRENCH;</t>
+          <t>ADAPTACOES E REFORMAS</t>
         </is>
       </c>
       <c r="X198">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>OBRAS E SERVICOS DE ENGENHARIA CIVIL</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
         <is>
-          <t>Montes Claros</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB198">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC198">
-        <v>45</v>
+        <v>7116343.26</v>
       </c>
       <c r="AD198">
-        <v>45</v>
+        <v>7116343.26</v>
       </c>
       <c r="AE198">
-        <v>1350</v>
+        <v>7116343.26</v>
       </c>
       <c r="AF198">
-        <v>1350</v>
+        <v>7116343.26</v>
       </c>
     </row>
     <row r="199">
@@ -24170,11 +24042,11 @@
         </is>
       </c>
       <c r="V199">
-        <v>1152831</v>
+        <v>18228</v>
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: PEDIATRICO, CALIBRE 10 FRENCH;</t>
+          <t>FILTRO ABSOLUTO - TIPO: HEPA 3, EFICIENCIA DE FILTRAGEM 99,7% D.O.P; CLASSE: PENETRACAO DE BACTERIAS: MEDIA MENOR QUE 0,00069%; MOLDURA: SEM MOLDURA; DIMENSOES: 48" X 11" X 24"; VAZAO: ELEMENTO FILTRANTE:FIBRA VIDRO C/AG.ANTIMICROBIANO; RESISTENCIA TERMICA: 100ºC; CONFIGURACAO: -;</t>
         </is>
       </c>
       <c r="X199">
@@ -24187,7 +24059,7 @@
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>INSTRUMENTOS E EQUIPAMENTOS ODONTOLOGICOS, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
@@ -24196,43 +24068,43 @@
         </is>
       </c>
       <c r="AB199">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AC199">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD199">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE199">
-        <v>1350</v>
+        <v>7200</v>
       </c>
       <c r="AF199">
-        <v>1350</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2311076 000200/2020</t>
+          <t>2311076 000134/2020</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/02-07-2020/1831059/0/0/13726/0/0/0/0/20815/21110140/217891/1755897/325967/2311076000200-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
         </is>
       </c>
       <c r="C200" s="2">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>MEDICAMENTO</t>
+          <t>MATERIAIS MÉDICO HOSPITALARES</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=200&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
         </is>
       </c>
       <c r="F200">
@@ -24254,11 +24126,11 @@
         </is>
       </c>
       <c r="J200">
-        <v>9251383</v>
+        <v>9245982</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163606</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
         </is>
       </c>
       <c r="L200">
@@ -24270,43 +24142,43 @@
         </is>
       </c>
       <c r="N200" s="2">
-        <v>44014</v>
+        <v>43943</v>
       </c>
       <c r="O200" s="2">
-        <v>44013</v>
+        <v>43939</v>
       </c>
       <c r="P200" s="2">
-        <v>44557</v>
+        <v>44304</v>
       </c>
       <c r="Q200" s="2">
-        <v>44192</v>
+        <v>44121</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>75.014.167/0001-00</t>
+          <t>05.075.964/0001-12</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>NUNESFARMA DISTRIBUIDORA DE PRODUTOS FARMACEUTICOS LTDA</t>
+          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
         </is>
       </c>
       <c r="T200" t="inlineStr">
         <is>
-          <t>2310.01.0006565/2020-35</t>
+          <t>2310.01.0005838/2020-70</t>
         </is>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZ45mW9t_E3LIoTnYioO6kNk1Zk5f0ao3wEJQfu0IOIo</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
         </is>
       </c>
       <c r="V200">
-        <v>1755897</v>
+        <v>236268</v>
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>SULFATO DE ZINCO - PRINCIPIO ATIVO: SULFATO DE ZINCO; CONCENTRACAO/DOSAGEM: 20 MG; FORMA FARMACEUTICA: COMPRIMIDO MASTIGAVEL; APRESENTACAO: .; COMPONENTE: .;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: ADULTO;</t>
         </is>
       </c>
       <c r="X200">
@@ -24319,7 +24191,7 @@
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>MEDICAMENTOS ALOPATICOS</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
@@ -24328,52 +24200,51 @@
         </is>
       </c>
       <c r="AB200">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>45</v>
       </c>
       <c r="AD200">
-        <v>0.95</v>
+        <v>45</v>
       </c>
       <c r="AE200">
-        <v>285</v>
+        <v>2250</v>
       </c>
       <c r="AF200">
-        <v>285</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2320310 000127/2020</t>
+          <t>2311076 000134/2020</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
         </is>
       </c>
       <c r="C201" s="2">
-        <v>43944</v>
+        <v>43928</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D_
-SEI 2320.01.0004287/2020-78</t>
+          <t>MATERIAIS MÉDICO HOSPITALARES</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
         </is>
       </c>
       <c r="F201">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -24387,101 +24258,125 @@
         </is>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>9245982</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+        </is>
+      </c>
+      <c r="L201">
+        <v>2310</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+        </is>
+      </c>
+      <c r="N201" s="2">
+        <v>43943</v>
+      </c>
+      <c r="O201" s="2">
+        <v>43939</v>
+      </c>
+      <c r="P201" s="2">
+        <v>44304</v>
+      </c>
+      <c r="Q201" s="2">
+        <v>44121</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>04.158.618/0001-35</t>
+          <t>05.075.964/0001-12</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>LIMPEZA &amp; BRILHO LTDA -EPP</t>
+          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
         </is>
       </c>
       <c r="T201" t="inlineStr">
         <is>
-          <t>2320.01.0004287/2020-78</t>
+          <t>2310.01.0005838/2020-70</t>
         </is>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
         </is>
       </c>
       <c r="V201">
-        <v>1692143</v>
+        <v>461920</v>
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>SABONETE LIQUIDO -  INDICACAO: HIGIENIZACAO DA PELE; BASE DO PRODUTO: PEROLADA; ASPECTO: VISCOSO; PH: FISIOLOGICO; COMPOSICAO: AGENTES HIDRATANTES E EMOLIENTES; FRAGRANCIA: FRAGRANCIA SUAVE HIPOALERGENICA; APRESENTACAO: REFIL 800 ML;</t>
+          <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
         </is>
       </c>
       <c r="X201">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Montes Claros</t>
         </is>
       </c>
       <c r="AB201">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="AC201">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD201">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE201">
-        <v>24600</v>
+        <v>4800</v>
       </c>
       <c r="AF201">
-        <v>24600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2320310 000127/2020</t>
+          <t>2311076 000134/2020</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
         </is>
       </c>
       <c r="C202" s="2">
-        <v>43944</v>
+        <v>43928</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D_
-SEI 2320.01.0004287/2020-78</t>
+          <t>MATERIAIS MÉDICO HOSPITALARES</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
         </is>
       </c>
       <c r="F202">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -24495,101 +24390,125 @@
         </is>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>9245982</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+        </is>
+      </c>
+      <c r="L202">
+        <v>2310</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+        </is>
+      </c>
+      <c r="N202" s="2">
+        <v>43943</v>
+      </c>
+      <c r="O202" s="2">
+        <v>43939</v>
+      </c>
+      <c r="P202" s="2">
+        <v>44304</v>
+      </c>
+      <c r="Q202" s="2">
+        <v>44121</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>08.195.271/0001-51</t>
+          <t>05.075.964/0001-12</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>FOCOS COMERCIAL LTDA</t>
+          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
         </is>
       </c>
       <c r="T202" t="inlineStr">
         <is>
-          <t>2320.01.0004287/2020-78</t>
+          <t>2310.01.0005838/2020-70</t>
         </is>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
         </is>
       </c>
       <c r="V202">
-        <v>1143883</v>
+        <v>804495</v>
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>PANO PARA LIMPEZA - MATERIA-PRIMA: NAO TECIDO; COMPOSICAO (1): 100 POR CENTO VISCOSE; COMPONENTE (2): LATEX SINTETICO; FRAGRANCIA: SEM FRAGANCIA; DIMENSOES: 30 X 29 CM;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: COM VIA DE IRRIGACAO;</t>
         </is>
       </c>
       <c r="X202">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Montes Claros</t>
         </is>
       </c>
       <c r="AB202">
-        <v>200000</v>
+        <v>170</v>
       </c>
       <c r="AC202">
-        <v>0.6</v>
+        <v>45</v>
       </c>
       <c r="AD202">
-        <v>0.6</v>
+        <v>45</v>
       </c>
       <c r="AE202">
-        <v>120000</v>
+        <v>7650</v>
       </c>
       <c r="AF202">
-        <v>120000</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2320310 000127/2020</t>
+          <t>2311076 000134/2020</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
         </is>
       </c>
       <c r="C203" s="2">
-        <v>43944</v>
+        <v>43928</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D_
-SEI 2320.01.0004287/2020-78</t>
+          <t>MATERIAIS MÉDICO HOSPITALARES</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
         </is>
       </c>
       <c r="F203">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -24603,101 +24522,125 @@
         </is>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>9245982</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+        </is>
+      </c>
+      <c r="L203">
+        <v>2310</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+        </is>
+      </c>
+      <c r="N203" s="2">
+        <v>43943</v>
+      </c>
+      <c r="O203" s="2">
+        <v>43939</v>
+      </c>
+      <c r="P203" s="2">
+        <v>44304</v>
+      </c>
+      <c r="Q203" s="2">
+        <v>44121</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>24.291.891/0001-40</t>
+          <t>05.075.964/0001-12</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>DISTRIBUIR COMERCIO EIRELI - EPP</t>
+          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>2320.01.0004287/2020-78</t>
+          <t>2310.01.0005838/2020-70</t>
         </is>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
         </is>
       </c>
       <c r="V203">
-        <v>1244515</v>
+        <v>1129139</v>
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>RODO - BASE: INJETADA EM ABS, COM BORRACHA DUPLA; DIMENSAO BASE: 45 CM; CABO: DE ALUMINIO FRISADO, DE 1,40 M;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: NEONATAL, CALIBRE 6 FRENCH;</t>
         </is>
       </c>
       <c r="X203">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Montes Claros</t>
         </is>
       </c>
       <c r="AB203">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AC203">
-        <v>20.1</v>
+        <v>45</v>
       </c>
       <c r="AD203">
-        <v>20.1</v>
+        <v>45</v>
       </c>
       <c r="AE203">
-        <v>1005</v>
+        <v>1350</v>
       </c>
       <c r="AF203">
-        <v>1005</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2320310 000127/2020</t>
+          <t>2311076 000134/2020</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
         </is>
       </c>
       <c r="C204" s="2">
-        <v>43944</v>
+        <v>43928</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D_
-SEI 2320.01.0004287/2020-78</t>
+          <t>MATERIAIS MÉDICO HOSPITALARES</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
         </is>
       </c>
       <c r="F204">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -24711,101 +24654,125 @@
         </is>
       </c>
       <c r="J204">
-        <v>0</v>
+        <v>9245982</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+        </is>
+      </c>
+      <c r="L204">
+        <v>2310</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+        </is>
+      </c>
+      <c r="N204" s="2">
+        <v>43943</v>
+      </c>
+      <c r="O204" s="2">
+        <v>43939</v>
+      </c>
+      <c r="P204" s="2">
+        <v>44304</v>
+      </c>
+      <c r="Q204" s="2">
+        <v>44121</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>36.447.719/0001-12</t>
+          <t>05.075.964/0001-12</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
         </is>
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>2320.01.0004287/2020-78</t>
+          <t>2310.01.0005838/2020-70</t>
         </is>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
         </is>
       </c>
       <c r="V204">
-        <v>1244108</v>
+        <v>1152823</v>
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>DETERGENTE NEUTRO - IDENTIFICACAO: BIODEGRADAVEL PARA LIMPEZA GERAL; PH: 6,5 - 7,5; DENSIDADE: NAO APLICAVEL;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: NEONATAL, CALIBRE 8 FRENCH;</t>
         </is>
       </c>
       <c r="X204">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Montes Claros</t>
         </is>
       </c>
       <c r="AB204">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AC204">
-        <v>358.24</v>
+        <v>45</v>
       </c>
       <c r="AD204">
-        <v>358.24</v>
+        <v>45</v>
       </c>
       <c r="AE204">
-        <v>32241.6</v>
+        <v>1350</v>
       </c>
       <c r="AF204">
-        <v>32241.6</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2320310 000127/2020</t>
+          <t>2311076 000134/2020</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
         </is>
       </c>
       <c r="C205" s="2">
-        <v>43944</v>
+        <v>43928</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D_
-SEI 2320.01.0004287/2020-78</t>
+          <t>MATERIAIS MÉDICO HOSPITALARES</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
         </is>
       </c>
       <c r="F205">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -24819,101 +24786,125 @@
         </is>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>9245982</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+        </is>
+      </c>
+      <c r="L205">
+        <v>2310</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+        </is>
+      </c>
+      <c r="N205" s="2">
+        <v>43943</v>
+      </c>
+      <c r="O205" s="2">
+        <v>43939</v>
+      </c>
+      <c r="P205" s="2">
+        <v>44304</v>
+      </c>
+      <c r="Q205" s="2">
+        <v>44121</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>36.447.719/0001-12</t>
+          <t>05.075.964/0001-12</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
         </is>
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>2320.01.0004287/2020-78</t>
+          <t>2310.01.0005838/2020-70</t>
         </is>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
         </is>
       </c>
       <c r="V205">
-        <v>1244507</v>
+        <v>1152831</v>
       </c>
       <c r="W205" t="inlineStr">
         <is>
-          <t>RODO - BASE: INJETADA EM ABS, COM BORRACHA DUPLA; DIMENSAO BASE: 55CM APROXIMADAMENTE; CABO: DE ALUMINIO FRISADO DE 1,40CM;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: PEDIATRICO, CALIBRE 10 FRENCH;</t>
         </is>
       </c>
       <c r="X205">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA205" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Montes Claros</t>
         </is>
       </c>
       <c r="AB205">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AC205">
-        <v>34.9</v>
+        <v>45</v>
       </c>
       <c r="AD205">
-        <v>34.9</v>
+        <v>45</v>
       </c>
       <c r="AE205">
-        <v>1745</v>
+        <v>1350</v>
       </c>
       <c r="AF205">
-        <v>1745</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2320310 000127/2020</t>
+          <t>2311076 000200/2020</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/02-07-2020/1831059/0/0/13726/0/0/0/0/20815/21110140/217891/1755897/325967/2311076000200-2020</t>
         </is>
       </c>
       <c r="C206" s="2">
-        <v>43944</v>
+        <v>43955</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D_
-SEI 2320.01.0004287/2020-78</t>
+          <t>MEDICAMENTO</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=200&amp;ano=2020</t>
         </is>
       </c>
       <c r="F206">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -24927,68 +24918,93 @@
         </is>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>9251383</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163606</t>
+        </is>
+      </c>
+      <c r="L206">
+        <v>2310</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+        </is>
+      </c>
+      <c r="N206" s="2">
+        <v>44014</v>
+      </c>
+      <c r="O206" s="2">
+        <v>44013</v>
+      </c>
+      <c r="P206" s="2">
+        <v>44557</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>44192</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>36.447.719/0001-12</t>
+          <t>75.014.167/0001-00</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+          <t>NUNESFARMA DISTRIBUIDORA DE PRODUTOS FARMACEUTICOS LTDA</t>
         </is>
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>2320.01.0004287/2020-78</t>
+          <t>2310.01.0006565/2020-35</t>
         </is>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZ45mW9t_E3LIoTnYioO6kNk1Zk5f0ao3wEJQfu0IOIo</t>
         </is>
       </c>
       <c r="V206">
-        <v>1257587</v>
+        <v>1755897</v>
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>REFIL PARA LIMPEZA - IDENTIFICACAO: REFIL PARA LAMELO (PANO DE VARRICAO); MATERIA-PRIMA: TNT IMPREGNADO EM OLEO MINERAL NEUTRO; MEDIDAS: APROXIMADAS 17CM X 60CM;</t>
+          <t>SULFATO DE ZINCO - PRINCIPIO ATIVO: SULFATO DE ZINCO; CONCENTRACAO/DOSAGEM: 20 MG; FORMA FARMACEUTICA: COMPRIMIDO MASTIGAVEL; APRESENTACAO: .; COMPONENTE: .;</t>
         </is>
       </c>
       <c r="X206">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>MEDICAMENTOS ALOPATICOS</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Montes Claros</t>
         </is>
       </c>
       <c r="AB206">
-        <v>80000</v>
+        <v>300</v>
       </c>
       <c r="AC206">
-        <v>0.39</v>
+        <v>0.95</v>
       </c>
       <c r="AD206">
-        <v>0.39</v>
+        <v>0.95</v>
       </c>
       <c r="AE206">
-        <v>31200</v>
+        <v>285</v>
       </c>
       <c r="AF206">
-        <v>31200</v>
+        <v>285</v>
       </c>
     </row>
     <row r="207">
@@ -25039,12 +25055,12 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>36.447.719/0001-12</t>
+          <t>04.158.618/0001-35</t>
         </is>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+          <t>LIMPEZA &amp; BRILHO LTDA -EPP</t>
         </is>
       </c>
       <c r="T207" t="inlineStr">
@@ -25058,11 +25074,11 @@
         </is>
       </c>
       <c r="V207">
-        <v>1257625</v>
+        <v>1692143</v>
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>QUATERNARIO DE AMONIA - ASPECTO: LIQUIDO DE QUARTA GERACAO; CONCENTRACAO: CONCENTRADO E DILUICAO FINAL DE 1 X 240; UTILIZACAO: DESINFETANTE HOSPITALAR;</t>
+          <t>SABONETE LIQUIDO -  INDICACAO: HIGIENIZACAO DA PELE; BASE DO PRODUTO: PEROLADA; ASPECTO: VISCOSO; PH: FISIOLOGICO; COMPOSICAO: AGENTES HIDRATANTES E EMOLIENTES; FRAGRANCIA: FRAGRANCIA SUAVE HIPOALERGENICA; APRESENTACAO: REFIL 800 ML;</t>
         </is>
       </c>
       <c r="X207">
@@ -25075,7 +25091,7 @@
       </c>
       <c r="Z207" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="AA207" t="inlineStr">
@@ -25084,19 +25100,19 @@
         </is>
       </c>
       <c r="AB207">
-        <v>90</v>
+        <v>3000</v>
       </c>
       <c r="AC207">
-        <v>351</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD207">
-        <v>351</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE207">
-        <v>31590</v>
+        <v>24600</v>
       </c>
       <c r="AF207">
-        <v>31590</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="208">
@@ -25147,12 +25163,12 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>36.447.719/0001-12</t>
+          <t>08.195.271/0001-51</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+          <t>FOCOS COMERCIAL LTDA</t>
         </is>
       </c>
       <c r="T208" t="inlineStr">
@@ -25166,11 +25182,11 @@
         </is>
       </c>
       <c r="V208">
-        <v>1258699</v>
+        <v>1143883</v>
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>ESPONJA SINTETICA PARA LIMPEZA - MATERIA-PRIMA: FIBRAS SINTETICAS E MINERAL ABRASIVO; TIPO: DUPLA FACE (VERMELHA E BRANCA); FORMATO: RETANGULAR (72MM X 135MM X 30MM);</t>
+          <t>PANO PARA LIMPEZA - MATERIA-PRIMA: NAO TECIDO; COMPOSICAO (1): 100 POR CENTO VISCOSE; COMPONENTE (2): LATEX SINTETICO; FRAGRANCIA: SEM FRAGANCIA; DIMENSOES: 30 X 29 CM;</t>
         </is>
       </c>
       <c r="X208">
@@ -25192,19 +25208,19 @@
         </is>
       </c>
       <c r="AB208">
-        <v>2000</v>
+        <v>200000</v>
       </c>
       <c r="AC208">
-        <v>1.39</v>
+        <v>0.6</v>
       </c>
       <c r="AD208">
-        <v>1.39</v>
+        <v>0.6</v>
       </c>
       <c r="AE208">
-        <v>2780</v>
+        <v>120000</v>
       </c>
       <c r="AF208">
-        <v>2780</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="209">
@@ -25255,12 +25271,12 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>36.447.719/0001-12</t>
+          <t>24.291.891/0001-40</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+          <t>DISTRIBUIR COMERCIO EIRELI - EPP</t>
         </is>
       </c>
       <c r="T209" t="inlineStr">
@@ -25274,11 +25290,11 @@
         </is>
       </c>
       <c r="V209">
-        <v>1259784</v>
+        <v>1244515</v>
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>ESPONJA SINTETICA PARA LIMPEZA - MATERIA-PRIMA: FIBRAS SINTETICAS E MATERIAL ABRASIVO; TIPO: DUPLA FACE(AMARELA E BRANCA); FORMATO: RETANGULAR - 103MM X 180MM X 30MM;</t>
+          <t>RODO - BASE: INJETADA EM ABS, COM BORRACHA DUPLA; DIMENSAO BASE: 45 CM; CABO: DE ALUMINIO FRISADO, DE 1,40 M;</t>
         </is>
       </c>
       <c r="X209">
@@ -25300,19 +25316,19 @@
         </is>
       </c>
       <c r="AB209">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="AC209">
-        <v>0.6</v>
+        <v>20.1</v>
       </c>
       <c r="AD209">
-        <v>0.6</v>
+        <v>20.1</v>
       </c>
       <c r="AE209">
-        <v>1800</v>
+        <v>1005</v>
       </c>
       <c r="AF209">
-        <v>1800</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="210">
@@ -25382,11 +25398,11 @@
         </is>
       </c>
       <c r="V210">
-        <v>1259792</v>
+        <v>1244108</v>
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>DETERGENTE - APRESENTACAO: LIQUIDO, BIODEGRADAVEL,SUPER CONCENTRADO; FRAGANCIA: NEUTRO A BASA DE SULFONATO DE SODIO;</t>
+          <t>DETERGENTE NEUTRO - IDENTIFICACAO: BIODEGRADAVEL PARA LIMPEZA GERAL; PH: 6,5 - 7,5; DENSIDADE: NAO APLICAVEL;</t>
         </is>
       </c>
       <c r="X210">
@@ -25408,19 +25424,19 @@
         </is>
       </c>
       <c r="AB210">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC210">
-        <v>15.35</v>
+        <v>358.24</v>
       </c>
       <c r="AD210">
-        <v>15.35</v>
+        <v>358.24</v>
       </c>
       <c r="AE210">
-        <v>1228</v>
+        <v>32241.6</v>
       </c>
       <c r="AF210">
-        <v>1228</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="211">
@@ -25490,11 +25506,11 @@
         </is>
       </c>
       <c r="V211">
-        <v>1260669</v>
+        <v>1244507</v>
       </c>
       <c r="W211" t="inlineStr">
         <is>
-          <t>FIBRA PARA LIMPEZA - FINALIDADE: PARA SUPERFICIES DELICADAS; MATERIA-PRIMA: NAO TECIDO A BASE DE FIBRAS SINTETICAS; DIMENSOES: 110 X 225MM E ESPESSURA DE APROX. 6,5 A 10,5MM; COR: AZUL;</t>
+          <t>RODO - BASE: INJETADA EM ABS, COM BORRACHA DUPLA; DIMENSAO BASE: 55CM APROXIMADAMENTE; CABO: DE ALUMINIO FRISADO DE 1,40CM;</t>
         </is>
       </c>
       <c r="X211">
@@ -25516,19 +25532,19 @@
         </is>
       </c>
       <c r="AB211">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AC211">
-        <v>1.49</v>
+        <v>34.9</v>
       </c>
       <c r="AD211">
-        <v>1.49</v>
+        <v>34.9</v>
       </c>
       <c r="AE211">
-        <v>1490</v>
+        <v>1745</v>
       </c>
       <c r="AF211">
-        <v>1490</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="212">
@@ -25598,11 +25614,11 @@
         </is>
       </c>
       <c r="V212">
-        <v>1260677</v>
+        <v>1257587</v>
       </c>
       <c r="W212" t="inlineStr">
         <is>
-          <t>FIBRA PARA LIMPEZA - FINALIDADE: PARA SUPERFICIES DELICADAS; MATERIA-PRIMA: NAO TECIDO A BASE DE FIBRAS SINTETICAS; DIMENSOES: 110 X 225MM E ESPESSURA DE APROX. 6,5 A 10,5MM; COR: VERDE;</t>
+          <t>REFIL PARA LIMPEZA - IDENTIFICACAO: REFIL PARA LAMELO (PANO DE VARRICAO); MATERIA-PRIMA: TNT IMPREGNADO EM OLEO MINERAL NEUTRO; MEDIDAS: APROXIMADAS 17CM X 60CM;</t>
         </is>
       </c>
       <c r="X212">
@@ -25624,19 +25640,19 @@
         </is>
       </c>
       <c r="AB212">
-        <v>3000</v>
+        <v>80000</v>
       </c>
       <c r="AC212">
-        <v>1.59</v>
+        <v>0.39</v>
       </c>
       <c r="AD212">
-        <v>1.59</v>
+        <v>0.39</v>
       </c>
       <c r="AE212">
-        <v>4770</v>
+        <v>31200</v>
       </c>
       <c r="AF212">
-        <v>4770</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="213">
@@ -25706,11 +25722,11 @@
         </is>
       </c>
       <c r="V213">
-        <v>1260731</v>
+        <v>1257625</v>
       </c>
       <c r="W213" t="inlineStr">
         <is>
-          <t>DESENCROSTANTE LIQUIDO - APLICACAO: LIMPADOR RAPIDA ACAO NA LIMPEZA E REMOCAO RESIDUOS; FINALIDADE: ESPUMA DE SABAO, RESIDUOS DE GORDURA EM BANHEIROS; TIPO: CONCENTRADO, BIODEGRADAVEL; COMPOSICAO: 1-OCTIL PIRROLIDONA, ACIDO HIDROACETICO ETC; ALCALINIDADE: NAO APLICAVEL; PH: IGUAL 1,00-2,00; DENSIDADE: RELATIVA IGUAL 1 AGUA=1;</t>
+          <t>QUATERNARIO DE AMONIA - ASPECTO: LIQUIDO DE QUARTA GERACAO; CONCENTRACAO: CONCENTRADO E DILUICAO FINAL DE 1 X 240; UTILIZACAO: DESINFETANTE HOSPITALAR;</t>
         </is>
       </c>
       <c r="X213">
@@ -25723,7 +25739,7 @@
       </c>
       <c r="Z213" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA213" t="inlineStr">
@@ -25732,19 +25748,19 @@
         </is>
       </c>
       <c r="AB213">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AC213">
-        <v>271.97</v>
+        <v>351</v>
       </c>
       <c r="AD213">
-        <v>271.97</v>
+        <v>351</v>
       </c>
       <c r="AE213">
-        <v>16318.2</v>
+        <v>31590</v>
       </c>
       <c r="AF213">
-        <v>16318.2</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="214">
@@ -25814,11 +25830,11 @@
         </is>
       </c>
       <c r="V214">
-        <v>1687115</v>
+        <v>1258699</v>
       </c>
       <c r="W214" t="inlineStr">
         <is>
-          <t>VASSOURA -  TIPO DAS CERDAS: PIACAVA NATURAL; LARGURA BASE: NUMERO 5; MATERIAL BASE: MADEIRA REVESTIDA EM METAL; MATERIAL CABO: MADEIRA REVESTIDO PLASTICO; COMPRIMENTO CABO: 1,20 M;</t>
+          <t>ESPONJA SINTETICA PARA LIMPEZA - MATERIA-PRIMA: FIBRAS SINTETICAS E MINERAL ABRASIVO; TIPO: DUPLA FACE (VERMELHA E BRANCA); FORMATO: RETANGULAR (72MM X 135MM X 30MM);</t>
         </is>
       </c>
       <c r="X214">
@@ -25840,19 +25856,19 @@
         </is>
       </c>
       <c r="AB214">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="AC214">
-        <v>16.65</v>
+        <v>1.39</v>
       </c>
       <c r="AD214">
-        <v>16.65</v>
+        <v>1.39</v>
       </c>
       <c r="AE214">
-        <v>999</v>
+        <v>2780</v>
       </c>
       <c r="AF214">
-        <v>999</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="215">
@@ -25903,12 +25919,12 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>66.219.957/0001-31</t>
+          <t>36.447.719/0001-12</t>
         </is>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>AGUIMAR ANDRADE COMERCIO E ASSISTENCIA TECNICA EIRELI - EPP</t>
+          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="T215" t="inlineStr">
@@ -25922,11 +25938,11 @@
         </is>
       </c>
       <c r="V215">
-        <v>1257463</v>
+        <v>1259784</v>
       </c>
       <c r="W215" t="inlineStr">
         <is>
-          <t>REFIL PARA LIMPEZA - IDENTIFICACAO: REFIL PARA O SUPORTE DO SISTEMA DE LIMPEZA UMIDA; MATERIA-PRIMA: POLIESTER OU MICROFIBRA (COR AZUL); MEDIDAS: APROXIMADAS 45CM X 10CM;</t>
+          <t>ESPONJA SINTETICA PARA LIMPEZA - MATERIA-PRIMA: FIBRAS SINTETICAS E MATERIAL ABRASIVO; TIPO: DUPLA FACE(AMARELA E BRANCA); FORMATO: RETANGULAR - 103MM X 180MM X 30MM;</t>
         </is>
       </c>
       <c r="X215">
@@ -25948,43 +25964,44 @@
         </is>
       </c>
       <c r="AB215">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="AC215">
-        <v>34.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD215">
-        <v>34.2</v>
+        <v>0.6</v>
       </c>
       <c r="AE215">
-        <v>6840</v>
+        <v>1800</v>
       </c>
       <c r="AF215">
-        <v>6840</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2320310 000201/2020</t>
+          <t>2320310 000127/2020</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/covid-19/compras-contratos/contratoscovid-detalharcompra/326183</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
         </is>
       </c>
       <c r="C216" s="2">
-        <v>44007</v>
+        <v>43944</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>aquisição de painéis de proteção de acrílico para instalação nas Recepções e Cadastros das unidades</t>
+          <t>Material de limpeza _x000D_
+SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=201&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
         </is>
       </c>
       <c r="F216">
@@ -26010,30 +26027,30 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>19.173.186/0001-09</t>
+          <t>36.447.719/0001-12</t>
         </is>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>ACRILDAM INDUSTRIA E COMERCIO ARTEFATOS DE ACRILICO LTDA -EPP</t>
+          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
         <is>
-          <t>2320.01.0007282/2020-14</t>
+          <t>2320.01.0004287/2020-78</t>
         </is>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfEANceHYe9YALv-Lkm_pd1K4zyhaeV8RlXJ-jfusexf</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
         </is>
       </c>
       <c r="V216">
-        <v>6297</v>
+        <v>1259792</v>
       </c>
       <c r="W216" t="inlineStr">
         <is>
-          <t>SERVICOS DE CONFECCAO DE PECAS E ACESSORIOS DE ACRILICO EM GERAL.</t>
+          <t>DETERGENTE - APRESENTACAO: LIQUIDO, BIODEGRADAVEL,SUPER CONCENTRADO; FRAGANCIA: NEUTRO A BASA DE SULFONATO DE SODIO;</t>
         </is>
       </c>
       <c r="X216">
@@ -26046,27 +26063,674 @@
       </c>
       <c r="Z216" t="inlineStr">
         <is>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+        </is>
+      </c>
+      <c r="AA216" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+      <c r="AB216">
+        <v>80</v>
+      </c>
+      <c r="AC216">
+        <v>15.35</v>
+      </c>
+      <c r="AD216">
+        <v>15.35</v>
+      </c>
+      <c r="AE216">
+        <v>1228</v>
+      </c>
+      <c r="AF216">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2320310 000127/2020</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+        </is>
+      </c>
+      <c r="C217" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Material de limpeza _x000D_
+SEI 2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+        </is>
+      </c>
+      <c r="F217">
+        <v>2320</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>36.447.719/0001-12</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+        </is>
+      </c>
+      <c r="V217">
+        <v>1260669</v>
+      </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>FIBRA PARA LIMPEZA - FINALIDADE: PARA SUPERFICIES DELICADAS; MATERIA-PRIMA: NAO TECIDO A BASE DE FIBRAS SINTETICAS; DIMENSOES: 110 X 225MM E ESPESSURA DE APROX. 6,5 A 10,5MM; COR: AZUL;</t>
+        </is>
+      </c>
+      <c r="X217">
+        <v>2321</v>
+      </c>
+      <c r="Y217" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="Z217" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+        </is>
+      </c>
+      <c r="AA217" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+      <c r="AB217">
+        <v>1000</v>
+      </c>
+      <c r="AC217">
+        <v>1.49</v>
+      </c>
+      <c r="AD217">
+        <v>1.49</v>
+      </c>
+      <c r="AE217">
+        <v>1490</v>
+      </c>
+      <c r="AF217">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2320310 000127/2020</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+        </is>
+      </c>
+      <c r="C218" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Material de limpeza _x000D_
+SEI 2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+        </is>
+      </c>
+      <c r="F218">
+        <v>2320</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>36.447.719/0001-12</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+        </is>
+      </c>
+      <c r="V218">
+        <v>1260677</v>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>FIBRA PARA LIMPEZA - FINALIDADE: PARA SUPERFICIES DELICADAS; MATERIA-PRIMA: NAO TECIDO A BASE DE FIBRAS SINTETICAS; DIMENSOES: 110 X 225MM E ESPESSURA DE APROX. 6,5 A 10,5MM; COR: VERDE;</t>
+        </is>
+      </c>
+      <c r="X218">
+        <v>2321</v>
+      </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+        </is>
+      </c>
+      <c r="AA218" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+      <c r="AB218">
+        <v>3000</v>
+      </c>
+      <c r="AC218">
+        <v>1.59</v>
+      </c>
+      <c r="AD218">
+        <v>1.59</v>
+      </c>
+      <c r="AE218">
+        <v>4770</v>
+      </c>
+      <c r="AF218">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2320310 000127/2020</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+        </is>
+      </c>
+      <c r="C219" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Material de limpeza _x000D_
+SEI 2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+        </is>
+      </c>
+      <c r="F219">
+        <v>2320</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>36.447.719/0001-12</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+        </is>
+      </c>
+      <c r="V219">
+        <v>1260731</v>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>DESENCROSTANTE LIQUIDO - APLICACAO: LIMPADOR RAPIDA ACAO NA LIMPEZA E REMOCAO RESIDUOS; FINALIDADE: ESPUMA DE SABAO, RESIDUOS DE GORDURA EM BANHEIROS; TIPO: CONCENTRADO, BIODEGRADAVEL; COMPOSICAO: 1-OCTIL PIRROLIDONA, ACIDO HIDROACETICO ETC; ALCALINIDADE: NAO APLICAVEL; PH: IGUAL 1,00-2,00; DENSIDADE: RELATIVA IGUAL 1 AGUA=1;</t>
+        </is>
+      </c>
+      <c r="X219">
+        <v>2321</v>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+        </is>
+      </c>
+      <c r="AA219" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+      <c r="AB219">
+        <v>60</v>
+      </c>
+      <c r="AC219">
+        <v>271.97</v>
+      </c>
+      <c r="AD219">
+        <v>271.97</v>
+      </c>
+      <c r="AE219">
+        <v>16318.2</v>
+      </c>
+      <c r="AF219">
+        <v>16318.2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2320310 000127/2020</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+        </is>
+      </c>
+      <c r="C220" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Material de limpeza _x000D_
+SEI 2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+        </is>
+      </c>
+      <c r="F220">
+        <v>2320</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>36.447.719/0001-12</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+        </is>
+      </c>
+      <c r="V220">
+        <v>1687115</v>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>VASSOURA -  TIPO DAS CERDAS: PIACAVA NATURAL; LARGURA BASE: NUMERO 5; MATERIAL BASE: MADEIRA REVESTIDA EM METAL; MATERIAL CABO: MADEIRA REVESTIDO PLASTICO; COMPRIMENTO CABO: 1,20 M;</t>
+        </is>
+      </c>
+      <c r="X220">
+        <v>2321</v>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+        </is>
+      </c>
+      <c r="AA220" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+      <c r="AB220">
+        <v>60</v>
+      </c>
+      <c r="AC220">
+        <v>16.65</v>
+      </c>
+      <c r="AD220">
+        <v>16.65</v>
+      </c>
+      <c r="AE220">
+        <v>999</v>
+      </c>
+      <c r="AF220">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2320310 000127/2020</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+        </is>
+      </c>
+      <c r="C221" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Material de limpeza _x000D_
+SEI 2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+        </is>
+      </c>
+      <c r="F221">
+        <v>2320</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>66.219.957/0001-31</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>AGUIMAR ANDRADE COMERCIO E ASSISTENCIA TECNICA EIRELI - EPP</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>2320.01.0004287/2020-78</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+        </is>
+      </c>
+      <c r="V221">
+        <v>1257463</v>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>REFIL PARA LIMPEZA - IDENTIFICACAO: REFIL PARA O SUPORTE DO SISTEMA DE LIMPEZA UMIDA; MATERIA-PRIMA: POLIESTER OU MICROFIBRA (COR AZUL); MEDIDAS: APROXIMADAS 45CM X 10CM;</t>
+        </is>
+      </c>
+      <c r="X221">
+        <v>2321</v>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+        </is>
+      </c>
+      <c r="AA221" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+      <c r="AB221">
+        <v>200</v>
+      </c>
+      <c r="AC221">
+        <v>34.2</v>
+      </c>
+      <c r="AD221">
+        <v>34.2</v>
+      </c>
+      <c r="AE221">
+        <v>6840</v>
+      </c>
+      <c r="AF221">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2320310 000201/2020</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/covid-19/compras-contratos/contratoscovid-detalharcompra/326183</t>
+        </is>
+      </c>
+      <c r="C222" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>aquisição de painéis de proteção de acrílico para instalação nas Recepções e Cadastros das unidades</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=201&amp;ano=2020</t>
+        </is>
+      </c>
+      <c r="F222">
+        <v>2320</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>19.173.186/0001-09</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>ACRILDAM INDUSTRIA E COMERCIO ARTEFATOS DE ACRILICO LTDA -EPP</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>2320.01.0007282/2020-14</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfEANceHYe9YALv-Lkm_pd1K4zyhaeV8RlXJ-jfusexf</t>
+        </is>
+      </c>
+      <c r="V222">
+        <v>6297</v>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>SERVICOS DE CONFECCAO DE PECAS E ACESSORIOS DE ACRILICO EM GERAL.</t>
+        </is>
+      </c>
+      <c r="X222">
+        <v>2321</v>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr">
+        <is>
           <t>SERVICOS DE CONFECCAO DE ARTEFATOS DE ACRILICO</t>
         </is>
       </c>
-      <c r="AA216" t="inlineStr">
+      <c r="AA222" t="inlineStr">
         <is>
           <t>MINAS GERAIS</t>
         </is>
       </c>
-      <c r="AB216">
+      <c r="AB222">
         <v>0</v>
       </c>
-      <c r="AC216">
+      <c r="AC222">
         <v>9972</v>
       </c>
-      <c r="AD216">
+      <c r="AD222">
         <v>8496</v>
       </c>
-      <c r="AE216">
+      <c r="AE222">
         <v>9972</v>
       </c>
-      <c r="AF216">
+      <c r="AF222">
         <v>8496</v>
       </c>
     </row>

--- a/data/compras-coronavirus.xlsx
+++ b/data/compras-coronavirus.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF278"/>
+  <dimension ref="A1:AF280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9625,7 +9625,32 @@
         </is>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L72">
+        <v>1250</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N72" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O72" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P72" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>44119</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -9732,7 +9757,32 @@
         </is>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L73">
+        <v>1250</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N73" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O73" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P73" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>44119</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -9839,7 +9889,32 @@
         </is>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L74">
+        <v>1250</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N74" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O74" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P74" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>44119</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -9946,7 +10021,32 @@
         </is>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L75">
+        <v>1250</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N75" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O75" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P75" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>44119</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -10053,7 +10153,32 @@
         </is>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L76">
+        <v>1250</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N76" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O76" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P76" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>44119</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -10160,7 +10285,32 @@
         </is>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L77">
+        <v>1250</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N77" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O77" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P77" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>44119</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -10267,7 +10417,32 @@
         </is>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L78">
+        <v>1250</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N78" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O78" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P78" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>44119</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -10374,7 +10549,32 @@
         </is>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L79">
+        <v>1250</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N79" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O79" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P79" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>44119</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -10481,7 +10681,32 @@
         </is>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L80">
+        <v>1250</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N80" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O80" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>44119</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -10588,7 +10813,32 @@
         </is>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>9251969</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163717</t>
+        </is>
+      </c>
+      <c r="L81">
+        <v>1250</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="N81" s="2">
+        <v>44027</v>
+      </c>
+      <c r="O81" s="2">
+        <v>44027</v>
+      </c>
+      <c r="P81" s="2">
+        <v>44196</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>44119</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -18763,26 +19013,25 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1401608 000009/2020</t>
+          <t>1401269 000067/2020</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/24-06-2020/1831009/0/0/3692/0/0/0/0/1817/9040021/189320/90670/324849/1401608000009-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/16-07-2020/1831009/0/0/57009/0/0/0/0/17564/3010031/94354/1015/327143/1401269000067-2020</t>
         </is>
       </c>
       <c r="C155" s="2">
-        <v>43975</v>
+        <v>44013</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
-contra Pânico e Incêndio e material para orientações de segurança.</t>
+          <t>Execução de serviços comuns de construção e reforma, com todas as adequações, materiais e mão de obra necessários, de um local adequado para desinfecção de viaturas de diversos tamanhos.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1401608&amp;numero=9&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1401269&amp;numero=67&amp;ano=2020</t>
         </is>
       </c>
       <c r="F155">
@@ -18804,56 +19053,24 @@
         </is>
       </c>
       <c r="J155">
-        <v>9250224</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163298</t>
-        </is>
-      </c>
-      <c r="L155">
-        <v>1400</v>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>CORPO DE BOMBEIROS MILITAR DE MINAS GERAIS</t>
-        </is>
-      </c>
-      <c r="N155" s="2">
-        <v>43987</v>
-      </c>
-      <c r="O155" s="2">
-        <v>43985</v>
-      </c>
-      <c r="Q155" s="2">
-        <v>44167</v>
+        <v>0</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>35.030.914/0001-80</t>
+          <t>26.175.019/0001-62</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>ABADIA INCENDIO LTDA</t>
-        </is>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>1400.01.0024060/2020-76</t>
-        </is>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNWjYxpTJ6cY5pMv4NnUUAIxBEk65C56Tx3WuWIMHGfIx</t>
+          <t>3S CONSTRUCOES LTDA</t>
         </is>
       </c>
       <c r="V155">
-        <v>123390</v>
+        <v>1015</v>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>EXTINTOR DE INCENDIO - TIPO: PO QUIMICO, CLASSE ABC; CAPACIDADE CARGA: 6KG - CAPACIDADE EXTINTORA 4A:40-BC; MODELO: PORTATIL;</t>
+          <t>REPARO, RESTAURACAO E RECUPERACAO DE BENS IMOVEIS</t>
         </is>
       </c>
       <c r="X155">
@@ -18866,7 +19083,7 @@
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS, COMPONENTES, ACESSORIOS  E ARTIGOS PARA  COMBATE A INCENDIO, RESGATE, BUSCA E SALVAMENTO</t>
+          <t>SERVICOS DE REFORMA E ADAPTACAO DE BENS IMOVEIS</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
@@ -18875,19 +19092,19 @@
         </is>
       </c>
       <c r="AB155">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>109</v>
+        <v>72638.28</v>
       </c>
       <c r="AD155">
-        <v>105.95</v>
+        <v>72638.28</v>
       </c>
       <c r="AE155">
-        <v>6540</v>
+        <v>72638.28</v>
       </c>
       <c r="AF155">
-        <v>6357</v>
+        <v>72638.28</v>
       </c>
     </row>
     <row r="156">
@@ -18979,11 +19196,11 @@
         </is>
       </c>
       <c r="V156">
-        <v>1391542</v>
+        <v>123390</v>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>SINALIZACAO DE EMERGENCIA - MATERIA-PRIMA: MATERIAL PLASTICO TIPO PVC; DIMENSOES: 40CM X 20CM; SIGNIFICADO: SAIDA - S12; PICTOGRAMA: MENSAGEM; COR DE FUNDO: VERDE;</t>
+          <t>EXTINTOR DE INCENDIO - TIPO: PO QUIMICO, CLASSE ABC; CAPACIDADE CARGA: 6KG - CAPACIDADE EXTINTORA 4A:40-BC; MODELO: PORTATIL;</t>
         </is>
       </c>
       <c r="X156">
@@ -19005,19 +19222,19 @@
         </is>
       </c>
       <c r="AB156">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AC156">
-        <v>6.8</v>
+        <v>109</v>
       </c>
       <c r="AD156">
-        <v>4.95</v>
+        <v>105.95</v>
       </c>
       <c r="AE156">
-        <v>530.4</v>
+        <v>6540</v>
       </c>
       <c r="AF156">
-        <v>386.1</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="157">
@@ -19109,11 +19326,11 @@
         </is>
       </c>
       <c r="V157">
-        <v>1414160</v>
+        <v>1391542</v>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>SINALIZACAO DE EMERGENCIA - MATERIA-PRIMA: PLASTICO TIPO PVC; DIMENSOES: 40CM X 20CM; SIGNIFICADO: SAIDA DE EMERGENCIA A DIREITA - S2; PICTOGRAMA: FOTOLUMINESCENTE; COR DE FUNDO: VERDE;</t>
+          <t>SINALIZACAO DE EMERGENCIA - MATERIA-PRIMA: MATERIAL PLASTICO TIPO PVC; DIMENSOES: 40CM X 20CM; SIGNIFICADO: SAIDA - S12; PICTOGRAMA: MENSAGEM; COR DE FUNDO: VERDE;</t>
         </is>
       </c>
       <c r="X157">
@@ -19135,7 +19352,7 @@
         </is>
       </c>
       <c r="AB157">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC157">
         <v>6.8</v>
@@ -19144,10 +19361,10 @@
         <v>4.95</v>
       </c>
       <c r="AE157">
-        <v>516.8</v>
+        <v>530.4</v>
       </c>
       <c r="AF157">
-        <v>376.2</v>
+        <v>386.1</v>
       </c>
     </row>
     <row r="158">
@@ -19239,11 +19456,11 @@
         </is>
       </c>
       <c r="V158">
-        <v>1451006</v>
+        <v>1414160</v>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>SINALIZACAO DE EMERGENCIA - MATERIA-PRIMA: PVC; DIMENSOES: 30X30CM COM 2MM DE ESPESSURA; SIGNIFICADO: LOCALIZACAO DO EXTINTOR DE INCENDIO; PICTOGRAMA: EXTINTOR DE INCENDIO; COR DE FUNDO: VERMELHO;</t>
+          <t>SINALIZACAO DE EMERGENCIA - MATERIA-PRIMA: PLASTICO TIPO PVC; DIMENSOES: 40CM X 20CM; SIGNIFICADO: SAIDA DE EMERGENCIA A DIREITA - S2; PICTOGRAMA: FOTOLUMINESCENTE; COR DE FUNDO: VERDE;</t>
         </is>
       </c>
       <c r="X158">
@@ -19265,19 +19482,19 @@
         </is>
       </c>
       <c r="AB158">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AC158">
-        <v>6.375</v>
+        <v>6.8</v>
       </c>
       <c r="AD158">
-        <v>5.95</v>
+        <v>4.95</v>
       </c>
       <c r="AE158">
-        <v>382.5</v>
+        <v>516.8</v>
       </c>
       <c r="AF158">
-        <v>357</v>
+        <v>376.2</v>
       </c>
     </row>
     <row r="159">
@@ -19369,11 +19586,11 @@
         </is>
       </c>
       <c r="V159">
-        <v>1600125</v>
+        <v>1451006</v>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>SUPORTE PARA EXTINTOR DE INCENDIO - TIPO: TRIPE PARAFUSAVEL; COMPATIBILIDADE: EXTINTOR AP/CO2/BC/ABC; MATERIA-PRIMA: ACO; ACABAMENTO: PINTURA;</t>
+          <t>SINALIZACAO DE EMERGENCIA - MATERIA-PRIMA: PVC; DIMENSOES: 30X30CM COM 2MM DE ESPESSURA; SIGNIFICADO: LOCALIZACAO DO EXTINTOR DE INCENDIO; PICTOGRAMA: EXTINTOR DE INCENDIO; COR DE FUNDO: VERMELHO;</t>
         </is>
       </c>
       <c r="X159">
@@ -19398,16 +19615,16 @@
         <v>60</v>
       </c>
       <c r="AC159">
-        <v>19.95</v>
+        <v>6.375</v>
       </c>
       <c r="AD159">
-        <v>19.95</v>
+        <v>5.95</v>
       </c>
       <c r="AE159">
-        <v>1197</v>
+        <v>382.5</v>
       </c>
       <c r="AF159">
-        <v>1197</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160">
@@ -19454,11 +19671,11 @@
         </is>
       </c>
       <c r="J160">
-        <v>9250233</v>
+        <v>9250224</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163307</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163298</t>
         </is>
       </c>
       <c r="L160">
@@ -19480,12 +19697,12 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>25.698.473/0001-35</t>
+          <t>35.030.914/0001-80</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>GRAWANDO COMERCIAL LTDA -ME</t>
+          <t>ABADIA INCENDIO LTDA</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
@@ -19499,11 +19716,11 @@
         </is>
       </c>
       <c r="V160">
-        <v>90670</v>
+        <v>1600125</v>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>CONFECCAO DE BANNER EM LONA, FORMATO 80 X 120CM , 4X0 COR,  ACABAMENTO BASTAO E CORDA.</t>
+          <t>SUPORTE PARA EXTINTOR DE INCENDIO - TIPO: TRIPE PARAFUSAVEL; COMPATIBILIDADE: EXTINTOR AP/CO2/BC/ABC; MATERIA-PRIMA: ACO; ACABAMENTO: PINTURA;</t>
         </is>
       </c>
       <c r="X160">
@@ -19516,7 +19733,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>SERVICOS GRAFICOS</t>
+          <t>EQUIPAMENTOS, COMPONENTES, ACESSORIOS  E ARTIGOS PARA  COMBATE A INCENDIO, RESGATE, BUSCA E SALVAMENTO</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
@@ -19525,38 +19742,44 @@
         </is>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC160">
-        <v>2750</v>
+        <v>19.95</v>
       </c>
       <c r="AD160">
-        <v>2750</v>
+        <v>19.95</v>
       </c>
       <c r="AE160">
-        <v>2750</v>
+        <v>1197</v>
       </c>
       <c r="AF160">
-        <v>2750</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1401608 000011/2020</t>
+          <t>1401608 000009/2020</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/24-06-2020/1831009/0/0/3692/0/0/0/0/1817/9040021/189320/90670/324849/1401608000009-2020</t>
         </is>
       </c>
       <c r="C161" s="2">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Recipiente para acondicionamento de material esterilizante para uso pessoal para a prevenção e o combate ao COVID-19.</t>
+          <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
+contra Pânico e Incêndio e material para orientações de segurança.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1401608&amp;numero=11&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1401608&amp;numero=9&amp;ano=2020</t>
         </is>
       </c>
       <c r="F161">
@@ -19578,11 +19801,11 @@
         </is>
       </c>
       <c r="J161">
-        <v>9251225</v>
+        <v>9250233</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163527</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163307</t>
         </is>
       </c>
       <c r="L161">
@@ -19594,43 +19817,40 @@
         </is>
       </c>
       <c r="N161" s="2">
-        <v>44009</v>
+        <v>43987</v>
       </c>
       <c r="O161" s="2">
-        <v>44007</v>
-      </c>
-      <c r="P161" s="2">
-        <v>44189</v>
+        <v>43985</v>
       </c>
       <c r="Q161" s="2">
-        <v>44189</v>
+        <v>44167</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>26.286.203/0001-80</t>
+          <t>25.698.473/0001-35</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>FRANKLIN EMBALAGENS LTDA -EPP</t>
+          <t>GRAWANDO COMERCIAL LTDA -ME</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>1400.01.0029563/2020-02</t>
+          <t>1400.01.0024060/2020-76</t>
         </is>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNTuKrx28-LXCh34sH6SpYiBpujM5Fb6GF8z0engkMSC6</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNWjYxpTJ6cY5pMv4NnUUAIxBEk65C56Tx3WuWIMHGfIx</t>
         </is>
       </c>
       <c r="V161">
-        <v>634522</v>
+        <v>90670</v>
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>FRASCO PARA ACONDICIONAMENTO DE MEDICAMENTO - MATERIA-PRIMA: PLASTICO BRANCO LEITOSO TIPO CONTA-GOTAS; CAPACIDADE VOLUMETRICA: 30ML, TAMPA DE ROSCA TIPO LACRE; TIPO DO FUNDO: LISO; COR: -;</t>
+          <t>CONFECCAO DE BANNER EM LONA, FORMATO 80 X 120CM , 4X0 COR,  ACABAMENTO BASTAO E CORDA.</t>
         </is>
       </c>
       <c r="X161">
@@ -19643,7 +19863,7 @@
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>MATERIAL PARA ACONDICIONAMENTO E EMBALAGENS</t>
+          <t>SERVICOS GRAFICOS</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
@@ -19652,51 +19872,46 @@
         </is>
       </c>
       <c r="AB161">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AC161">
-        <v>2</v>
+        <v>2750</v>
       </c>
       <c r="AD161">
-        <v>1.35</v>
+        <v>2750</v>
       </c>
       <c r="AE161">
-        <v>12000</v>
+        <v>2750</v>
       </c>
       <c r="AF161">
-        <v>8100</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1501561 000005/2020</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
+          <t>1401608 000011/2020</t>
         </is>
       </c>
       <c r="C162" s="2">
-        <v>43910</v>
+        <v>43978</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Aquisição de Materiais Médico Hospitalares para atendimento a epidemia do COVID 19 no Estado de Minas Gerais.</t>
+          <t>Recipiente para acondicionamento de material esterilizante para uso pessoal para a prevenção e o combate ao COVID-19.</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=5&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1401608&amp;numero=11&amp;ano=2020</t>
         </is>
       </c>
       <c r="F162">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>CORPO DE BOMBEIROS MILITAR DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -19710,69 +19925,72 @@
         </is>
       </c>
       <c r="J162">
-        <v>9245572</v>
+        <v>9251225</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162367</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163527</t>
         </is>
       </c>
       <c r="L162">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>CORPO DE BOMBEIROS MILITAR DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="N162" s="2">
-        <v>43914</v>
+        <v>44009</v>
       </c>
       <c r="O162" s="2">
-        <v>43914</v>
+        <v>44007</v>
+      </c>
+      <c r="P162" s="2">
+        <v>44189</v>
       </c>
       <c r="Q162" s="2">
-        <v>44097</v>
+        <v>44189</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>20.235.404/0001-71</t>
+          <t>26.286.203/0001-80</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>DCB DISTRIBUIDORA CIRURGICA BRASILEIRA LTDA</t>
+          <t>FRANKLIN EMBALAGENS LTDA -EPP</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>1500.01.0014225/2020-94</t>
+          <t>1400.01.0029563/2020-02</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfhvdQskkAOK8KfWEQ0s5t7ghqygo8U_Ichz28fPlct3</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNTuKrx28-LXCh34sH6SpYiBpujM5Fb6GF8z0engkMSC6</t>
         </is>
       </c>
       <c r="V162">
-        <v>227846</v>
+        <v>634522</v>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL COM MANGA LONGA; MATERIA-PRIMA: TELA NAO TECIDA; GRAMATURA/COMPOSICAO: GRAMATURA MINIMA DE 30 G/M2; COMPRIMENTO: 110 CM DE CUMPRIMENTO;</t>
+          <t>FRASCO PARA ACONDICIONAMENTO DE MEDICAMENTO - MATERIA-PRIMA: PLASTICO BRANCO LEITOSO TIPO CONTA-GOTAS; CAPACIDADE VOLUMETRICA: 30ML, TAMPA DE ROSCA TIPO LACRE; TIPO DO FUNDO: LISO; COR: -;</t>
         </is>
       </c>
       <c r="X162">
-        <v>4291</v>
+        <v>1401</v>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>FUNDO ESTADUAL DE SAUDE</t>
+          <t>CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>MATERIAL PARA ACONDICIONAMENTO E EMBALAGENS</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
@@ -19781,19 +19999,19 @@
         </is>
       </c>
       <c r="AB162">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="AC162">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="AD162">
-        <v>3.85</v>
+        <v>1.35</v>
       </c>
       <c r="AE162">
-        <v>38500</v>
+        <v>12000</v>
       </c>
       <c r="AF162">
-        <v>38500</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="163">
@@ -19884,11 +20102,11 @@
         </is>
       </c>
       <c r="V163">
-        <v>238392</v>
+        <v>227846</v>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>TOUCA DESCARTAVEL - MATERIA-PRIMA: NAO TECIDO, 100% POLIPROPILENO; TIPO: DESCARTAVEL; GRAMATURA: 20 A 30 G; MODELO: SANFONADA, COM ELASTICO; COR: CONFORME SOLICITADO PELO ORGAO/ENTIDADE; APRESENTACAO: PACOTE 100 UN;</t>
+          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL COM MANGA LONGA; MATERIA-PRIMA: TELA NAO TECIDA; GRAMATURA/COMPOSICAO: GRAMATURA MINIMA DE 30 G/M2; COMPRIMENTO: 110 CM DE CUMPRIMENTO;</t>
         </is>
       </c>
       <c r="X163">
@@ -19910,19 +20128,19 @@
         </is>
       </c>
       <c r="AB163">
-        <v>5587405</v>
+        <v>10000</v>
       </c>
       <c r="AC163">
-        <v>0.08</v>
+        <v>3.85</v>
       </c>
       <c r="AD163">
-        <v>0.075</v>
+        <v>3.85</v>
       </c>
       <c r="AE163">
-        <v>446992.4</v>
+        <v>38500</v>
       </c>
       <c r="AF163">
-        <v>419055.37</v>
+        <v>38500</v>
       </c>
     </row>
     <row r="164">
@@ -20013,11 +20231,11 @@
         </is>
       </c>
       <c r="V164">
-        <v>570184</v>
+        <v>238392</v>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL, MANGA LONGA COM ELASTICO NO PUNHO; MATERIA-PRIMA: POLIPROPILENO; GRAMATURA/COMPOSICAO: 16 A 20 G/M2; COMPRIMENTO: 110 CM DE COMPRIMENTO;</t>
+          <t>TOUCA DESCARTAVEL - MATERIA-PRIMA: NAO TECIDO, 100% POLIPROPILENO; TIPO: DESCARTAVEL; GRAMATURA: 20 A 30 G; MODELO: SANFONADA, COM ELASTICO; COR: CONFORME SOLICITADO PELO ORGAO/ENTIDADE; APRESENTACAO: PACOTE 100 UN;</t>
         </is>
       </c>
       <c r="X164">
@@ -20039,19 +20257,19 @@
         </is>
       </c>
       <c r="AB164">
-        <v>62000</v>
+        <v>5587405</v>
       </c>
       <c r="AC164">
-        <v>1.72</v>
+        <v>0.08</v>
       </c>
       <c r="AD164">
-        <v>1.72</v>
+        <v>0.075</v>
       </c>
       <c r="AE164">
-        <v>106640</v>
+        <v>446992.4</v>
       </c>
       <c r="AF164">
-        <v>106640</v>
+        <v>419055.37</v>
       </c>
     </row>
     <row r="165">
@@ -20142,11 +20360,11 @@
         </is>
       </c>
       <c r="V165">
-        <v>1647385</v>
+        <v>570184</v>
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95 COM CARVAO ATIVADO; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL, MANGA LONGA COM ELASTICO NO PUNHO; MATERIA-PRIMA: POLIPROPILENO; GRAMATURA/COMPOSICAO: 16 A 20 G/M2; COMPRIMENTO: 110 CM DE COMPRIMENTO;</t>
         </is>
       </c>
       <c r="X165">
@@ -20168,19 +20386,19 @@
         </is>
       </c>
       <c r="AB165">
-        <v>5000</v>
+        <v>62000</v>
       </c>
       <c r="AC165">
-        <v>18.17</v>
+        <v>1.72</v>
       </c>
       <c r="AD165">
-        <v>18.17</v>
+        <v>1.72</v>
       </c>
       <c r="AE165">
-        <v>90850</v>
+        <v>106640</v>
       </c>
       <c r="AF165">
-        <v>90850</v>
+        <v>106640</v>
       </c>
     </row>
     <row r="166">
@@ -20271,11 +20489,11 @@
         </is>
       </c>
       <c r="V166">
-        <v>1672525</v>
+        <v>1647385</v>
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% BORRACHA NITRILICA; ESTERIL: NAO; TAMANHO: P; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: TEXTURIZADA E ANTIDERRAPANTE; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95 COM CARVAO ATIVADO; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X166">
@@ -20288,7 +20506,7 @@
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>MATERIAL E SUPRIMENTO MEDICO-HOSPITALAR</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
@@ -20297,19 +20515,19 @@
         </is>
       </c>
       <c r="AB166">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="AC166">
-        <v>29.12</v>
+        <v>18.17</v>
       </c>
       <c r="AD166">
-        <v>29.12</v>
+        <v>18.17</v>
       </c>
       <c r="AE166">
-        <v>262080</v>
+        <v>90850</v>
       </c>
       <c r="AF166">
-        <v>262080</v>
+        <v>90850</v>
       </c>
     </row>
     <row r="167">
@@ -20400,11 +20618,11 @@
         </is>
       </c>
       <c r="V167">
-        <v>1672533</v>
+        <v>1672525</v>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% BORRACHA NITRILICA; ESTERIL: NAO; TAMANHO: M; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: TEXTURIZADA E ANTIDERRAPANTE; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% BORRACHA NITRILICA; ESTERIL: NAO; TAMANHO: P; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: TEXTURIZADA E ANTIDERRAPANTE; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X167">
@@ -20426,19 +20644,19 @@
         </is>
       </c>
       <c r="AB167">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="AC167">
         <v>29.12</v>
       </c>
       <c r="AD167">
-        <v>27.42</v>
+        <v>29.12</v>
       </c>
       <c r="AE167">
-        <v>378560</v>
+        <v>262080</v>
       </c>
       <c r="AF167">
-        <v>356460</v>
+        <v>262080</v>
       </c>
     </row>
     <row r="168">
@@ -20529,11 +20747,11 @@
         </is>
       </c>
       <c r="V168">
-        <v>1672541</v>
+        <v>1672533</v>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% BORRACHA NITRILICA; ESTERIL: NAO; TAMANHO: G; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: TEXTURIZADA E ANTIDERRAPANTE; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% BORRACHA NITRILICA; ESTERIL: NAO; TAMANHO: M; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: TEXTURIZADA E ANTIDERRAPANTE; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X168">
@@ -20555,19 +20773,19 @@
         </is>
       </c>
       <c r="AB168">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="AC168">
-        <v>24.71</v>
+        <v>29.12</v>
       </c>
       <c r="AD168">
-        <v>24.71</v>
+        <v>27.42</v>
       </c>
       <c r="AE168">
-        <v>24710</v>
+        <v>378560</v>
       </c>
       <c r="AF168">
-        <v>24710</v>
+        <v>356460</v>
       </c>
     </row>
     <row r="169">
@@ -20658,11 +20876,11 @@
         </is>
       </c>
       <c r="V169">
-        <v>1672584</v>
+        <v>1672541</v>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: P; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% BORRACHA NITRILICA; ESTERIL: NAO; TAMANHO: G; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: TEXTURIZADA E ANTIDERRAPANTE; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X169">
@@ -20684,19 +20902,19 @@
         </is>
       </c>
       <c r="AB169">
-        <v>36888</v>
+        <v>1000</v>
       </c>
       <c r="AC169">
-        <v>28.47</v>
+        <v>24.71</v>
       </c>
       <c r="AD169">
-        <v>28.47</v>
+        <v>24.71</v>
       </c>
       <c r="AE169">
-        <v>1050201.36</v>
+        <v>24710</v>
       </c>
       <c r="AF169">
-        <v>1050201.36</v>
+        <v>24710</v>
       </c>
     </row>
     <row r="170">
@@ -20787,11 +21005,11 @@
         </is>
       </c>
       <c r="V170">
-        <v>1672592</v>
+        <v>1672584</v>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: M; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: P; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X170">
@@ -20813,7 +21031,7 @@
         </is>
       </c>
       <c r="AB170">
-        <v>68162</v>
+        <v>36888</v>
       </c>
       <c r="AC170">
         <v>28.47</v>
@@ -20822,10 +21040,10 @@
         <v>28.47</v>
       </c>
       <c r="AE170">
-        <v>1940572.14</v>
+        <v>1050201.36</v>
       </c>
       <c r="AF170">
-        <v>1940572.14</v>
+        <v>1050201.36</v>
       </c>
     </row>
     <row r="171">
@@ -20916,11 +21134,11 @@
         </is>
       </c>
       <c r="V171">
-        <v>1672606</v>
+        <v>1672592</v>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; ESTERIL: NAO; TAMANHO: G; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: M; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X171">
@@ -20942,7 +21160,7 @@
         </is>
       </c>
       <c r="AB171">
-        <v>34888</v>
+        <v>68162</v>
       </c>
       <c r="AC171">
         <v>28.47</v>
@@ -20951,10 +21169,10 @@
         <v>28.47</v>
       </c>
       <c r="AE171">
-        <v>993261.36</v>
+        <v>1940572.14</v>
       </c>
       <c r="AF171">
-        <v>993261.36</v>
+        <v>1940572.14</v>
       </c>
     </row>
     <row r="172">
@@ -21045,11 +21263,11 @@
         </is>
       </c>
       <c r="V172">
-        <v>1672738</v>
+        <v>1672606</v>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% VINIL (PVC); ESTERIL: NAO; TAMANHO: G; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; ESTERIL: NAO; TAMANHO: G; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X172">
@@ -21071,19 +21289,19 @@
         </is>
       </c>
       <c r="AB172">
-        <v>2500</v>
+        <v>34888</v>
       </c>
       <c r="AC172">
-        <v>24.18</v>
+        <v>28.47</v>
       </c>
       <c r="AD172">
-        <v>24.18</v>
+        <v>28.47</v>
       </c>
       <c r="AE172">
-        <v>60450</v>
+        <v>993261.36</v>
       </c>
       <c r="AF172">
-        <v>60450</v>
+        <v>993261.36</v>
       </c>
     </row>
     <row r="173">
@@ -21174,11 +21392,11 @@
         </is>
       </c>
       <c r="V173">
-        <v>1672762</v>
+        <v>1672738</v>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% VINIL (PVC); TAMANHO: P; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% VINIL (PVC); ESTERIL: NAO; TAMANHO: G; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X173">
@@ -21200,7 +21418,7 @@
         </is>
       </c>
       <c r="AB173">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="AC173">
         <v>24.18</v>
@@ -21209,10 +21427,10 @@
         <v>24.18</v>
       </c>
       <c r="AE173">
-        <v>72540</v>
+        <v>60450</v>
       </c>
       <c r="AF173">
-        <v>72540</v>
+        <v>60450</v>
       </c>
     </row>
     <row r="174">
@@ -21303,11 +21521,11 @@
         </is>
       </c>
       <c r="V174">
-        <v>1672770</v>
+        <v>1672762</v>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% VINIL (PVC); TAMANHO: M; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% VINIL (PVC); TAMANHO: P; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X174">
@@ -21329,7 +21547,7 @@
         </is>
       </c>
       <c r="AB174">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AC174">
         <v>24.18</v>
@@ -21338,10 +21556,10 @@
         <v>24.18</v>
       </c>
       <c r="AE174">
-        <v>145080</v>
+        <v>72540</v>
       </c>
       <c r="AF174">
-        <v>145080</v>
+        <v>72540</v>
       </c>
     </row>
     <row r="175">
@@ -21432,11 +21650,11 @@
         </is>
       </c>
       <c r="V175">
-        <v>1710273</v>
+        <v>1672770</v>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 03 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 30 G; FILTRO: COM FILTRO; TIPO FIXACAO: ELASTICO OU TIRAS; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: 100% VINIL (PVC); TAMANHO: M; PO: ISENTA DE PO; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X175">
@@ -21449,7 +21667,7 @@
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>MATERIAL E SUPRIMENTO MEDICO-HOSPITALAR</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr">
@@ -21458,43 +21676,43 @@
         </is>
       </c>
       <c r="AB175">
-        <v>5746855</v>
+        <v>6000</v>
       </c>
       <c r="AC175">
-        <v>3.84</v>
+        <v>24.18</v>
       </c>
       <c r="AD175">
-        <v>3.8245</v>
+        <v>24.18</v>
       </c>
       <c r="AE175">
-        <v>22067923.2</v>
+        <v>145080</v>
       </c>
       <c r="AF175">
-        <v>21978846.94</v>
+        <v>145080</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1501561 000006/2020</t>
+          <t>1501561 000005/2020</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/30-04-2020/65/65888</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/0/0/0/17532/0/0/0/0/21609/84950013/170590/1672541</t>
         </is>
       </c>
       <c r="C176" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Aquisição de materiais médico hospitalares emergencial para atendimento a demanda do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de Materiais Médico Hospitalares para atendimento a epidemia do COVID 19 no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=6&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=5&amp;ano=2020</t>
         </is>
       </c>
       <c r="F176">
@@ -21516,56 +21734,56 @@
         </is>
       </c>
       <c r="J176">
-        <v>9245606</v>
+        <v>9245572</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162402</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162367</t>
         </is>
       </c>
       <c r="L176">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
         </is>
       </c>
       <c r="N176" s="2">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="O176" s="2">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="Q176" s="2">
-        <v>44100</v>
+        <v>44097</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>68.176.544/0001-42</t>
+          <t>20.235.404/0001-71</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>KSN - PROTECAO RESPIRATORIA EIRELI</t>
+          <t>DCB DISTRIBUIDORA CIRURGICA BRASILEIRA LTDA</t>
         </is>
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t>1500.01.0014240/2020-77</t>
+          <t>1500.01.0014225/2020-94</t>
         </is>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNemi44pVLcA6xlA_T2TmMxSSEWGTpsZhrQQyNf3QwUGT</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfhvdQskkAOK8KfWEQ0s5t7ghqygo8U_Ichz28fPlct3</t>
         </is>
       </c>
       <c r="V176">
-        <v>1647385</v>
+        <v>1710273</v>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95 COM CARVAO ATIVADO; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 03 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 30 G; FILTRO: COM FILTRO; TIPO FIXACAO: ELASTICO OU TIRAS; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X176">
@@ -21587,51 +21805,51 @@
         </is>
       </c>
       <c r="AB176">
-        <v>150000</v>
+        <v>5746855</v>
       </c>
       <c r="AC176">
-        <v>9.98</v>
+        <v>3.84</v>
       </c>
       <c r="AD176">
-        <v>9.98</v>
+        <v>3.8245</v>
       </c>
       <c r="AE176">
-        <v>1497000</v>
+        <v>22067923.2</v>
       </c>
       <c r="AF176">
-        <v>1497000</v>
+        <v>21978846.94</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1501561 000009/2020</t>
+          <t>1501561 000006/2020</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/30-04-2020/65/65898</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/30-04-2020/65/65888</t>
         </is>
       </c>
       <c r="C177" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Mascaras N95 para atendimento a  demanda da Epidemias do COVID-19.</t>
+          <t>Aquisição de materiais médico hospitalares emergencial para atendimento a demanda do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=9&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=6&amp;ano=2020</t>
         </is>
       </c>
       <c r="F177">
-        <v>1250</v>
+        <v>1320</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -21645,11 +21863,11 @@
         </is>
       </c>
       <c r="J177">
-        <v>9245644</v>
+        <v>9245606</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162422</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162402</t>
         </is>
       </c>
       <c r="L177">
@@ -21661,13 +21879,13 @@
         </is>
       </c>
       <c r="N177" s="2">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="O177" s="2">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="Q177" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -21681,28 +21899,28 @@
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>1500.01.0014717/2020-02</t>
+          <t>1500.01.0014240/2020-77</t>
         </is>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNaPZt1bfW8c-PV9P4JQK8uJGv3YqMU4NVpab1tsLIdnr</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNemi44pVLcA6xlA_T2TmMxSSEWGTpsZhrQQyNf3QwUGT</t>
         </is>
       </c>
       <c r="V177">
-        <v>125628</v>
+        <v>1647385</v>
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95 COM CARVAO ATIVADO; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X177">
-        <v>1251</v>
+        <v>4291</v>
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>POLICIA MILITAR DO ESTADO DE MINAS GERAIS</t>
+          <t>FUNDO ESTADUAL DE SAUDE</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
@@ -21716,7 +21934,7 @@
         </is>
       </c>
       <c r="AB177">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="AC177">
         <v>9.98</v>
@@ -21725,21 +21943,21 @@
         <v>9.98</v>
       </c>
       <c r="AE177">
-        <v>99800</v>
+        <v>1497000</v>
       </c>
       <c r="AF177">
-        <v>99800</v>
+        <v>1497000</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1501561 000010/2020</t>
+          <t>1501561 000009/2020</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/30-04-2020/65/65894</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/30-04-2020/65/65898</t>
         </is>
       </c>
       <c r="C178" s="2">
@@ -21747,20 +21965,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Aquisição de Mascaras N95 para atendimento a demanda de Pandemia do COIVD-19, no Estado de Minas Gerais.</t>
+          <t>Mascaras N95 para atendimento a  demanda da Epidemias do COVID-19.</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=10&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=9&amp;ano=2020</t>
         </is>
       </c>
       <c r="F178">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE JUSTICA E SEGURANCA PUBLIC</t>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -21774,11 +21992,11 @@
         </is>
       </c>
       <c r="J178">
-        <v>9245631</v>
+        <v>9245644</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162436</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162422</t>
         </is>
       </c>
       <c r="L178">
@@ -21810,28 +22028,28 @@
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>1500.01.0014880/2020-63</t>
+          <t>1500.01.0014717/2020-02</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNWtLDCB2BRiACKkVGegn229F4sZ3Y9c9VI5OmjBC3EiM</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNaPZt1bfW8c-PV9P4JQK8uJGv3YqMU4NVpab1tsLIdnr</t>
         </is>
       </c>
       <c r="V178">
-        <v>1647385</v>
+        <v>125628</v>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95 COM CARVAO ATIVADO; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X178">
-        <v>1451</v>
+        <v>1251</v>
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE JUSTICA E SEGURANCA PUBLICA</t>
+          <t>POLICIA MILITAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
@@ -21841,11 +22059,11 @@
       </c>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>MINAS GERAIS</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB178">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="AC178">
         <v>9.98</v>
@@ -21854,34 +22072,34 @@
         <v>9.98</v>
       </c>
       <c r="AE178">
-        <v>648700</v>
+        <v>99800</v>
       </c>
       <c r="AF178">
-        <v>648700</v>
+        <v>99800</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1501561 000011/2020</t>
+          <t>1501561 000010/2020</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/14-04-2020/1831095/0/0/61932/0/0/0/0/15788/83050019/215076/1752731/321268/1501561000011-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/30-04-2020/65/65894</t>
         </is>
       </c>
       <c r="C179" s="2">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Aquisição de TNT, para confecção de máscaras, para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de Mascaras N95 para atendimento a demanda de Pandemia do COIVD-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=11&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=10&amp;ano=2020</t>
         </is>
       </c>
       <c r="F179">
@@ -21903,34 +22121,56 @@
         </is>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>9245631</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162436</t>
+        </is>
+      </c>
+      <c r="L179">
+        <v>1500</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+        </is>
+      </c>
+      <c r="N179" s="2">
+        <v>43918</v>
+      </c>
+      <c r="O179" s="2">
+        <v>43918</v>
+      </c>
+      <c r="Q179" s="2">
+        <v>44101</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>84.951.649/0001-88</t>
+          <t>68.176.544/0001-42</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>J M S INDUSTRIA E COMERCIO - EIRELI</t>
+          <t>KSN - PROTECAO RESPIRATORIA EIRELI</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>1500.01.0015098/2020-94</t>
+          <t>1500.01.0014880/2020-63</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZVUaOKfNegpE6rZULivzDqsXpe1-8-5vC2Wdhy0hq4S</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNWtLDCB2BRiACKkVGegn229F4sZ3Y9c9VI5OmjBC3EiM</t>
         </is>
       </c>
       <c r="V179">
-        <v>1752731</v>
+        <v>1647385</v>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>TECIDO DE FIBRAS NATURAIS E SINTETICAS - TIPO DA FIBRA: TECIDO NAO TEXTURIZADO (TNT); COMPOSICAO: 100% POLIPROPILENO;; LARGURA: MINIMA 140 CM; COR: BRANCA; GRAMATURA: MINIMA 20 G/M2, BFE MINIMO DE 95%;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95 COM CARVAO ATIVADO; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X179">
@@ -21943,7 +22183,7 @@
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>TECIDOS, AVIAMENTOS, ARTIGOS  E MATERIAL PARA COSTURA E ESTOFAMENTO</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr">
@@ -21952,51 +22192,51 @@
         </is>
       </c>
       <c r="AB179">
-        <v>125000</v>
+        <v>65000</v>
       </c>
       <c r="AC179">
-        <v>2.02</v>
+        <v>9.98</v>
       </c>
       <c r="AD179">
-        <v>2.02</v>
+        <v>9.98</v>
       </c>
       <c r="AE179">
-        <v>252500</v>
+        <v>648700</v>
       </c>
       <c r="AF179">
-        <v>252500</v>
+        <v>648700</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1501561 000012/2020</t>
+          <t>1501561 000011/2020</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/14-04-2020/1831079/0/0/61932/0/0/0/0/15788/83050019/215076/1752731/321355/1501561000012-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/14-04-2020/1831095/0/0/61932/0/0/0/0/15788/83050019/215076/1752731/321268/1501561000011-2020</t>
         </is>
       </c>
       <c r="C180" s="2">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>aquisição de TNT (Tecido não tecido/texturizado), branco, para fabricação de máscaras cirúrgicas descartáveis.</t>
+          <t>Aquisição de TNT, para confecção de máscaras, para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=12&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=11&amp;ano=2020</t>
         </is>
       </c>
       <c r="F180">
-        <v>1510</v>
+        <v>1450</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>POLICIA CIVIL DO ESTADO DE MINAS GERAIS</t>
+          <t>SECRETARIA DE ESTADO DE JUSTICA E SEGURANCA PUBLIC</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -22024,12 +22264,12 @@
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>1500.01.0016168/2020-13</t>
+          <t>1500.01.0015098/2020-94</t>
         </is>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNWiRF6_FSwzjRMnlEM9NiNXm-l5MrWzddF2V2gXC3Cb9</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZVUaOKfNegpE6rZULivzDqsXpe1-8-5vC2Wdhy0hq4S</t>
         </is>
       </c>
       <c r="V180">
@@ -22041,11 +22281,11 @@
         </is>
       </c>
       <c r="X180">
-        <v>1511</v>
+        <v>1451</v>
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>POLICIA CIVIL DO ESTADO DE MINAS GERAIS</t>
+          <t>SECRETARIA DE ESTADO DE JUSTICA E SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
@@ -22059,7 +22299,7 @@
         </is>
       </c>
       <c r="AB180">
-        <v>40000</v>
+        <v>125000</v>
       </c>
       <c r="AC180">
         <v>2.02</v>
@@ -22068,42 +22308,42 @@
         <v>2.02</v>
       </c>
       <c r="AE180">
-        <v>80800</v>
+        <v>252500</v>
       </c>
       <c r="AF180">
-        <v>80800</v>
+        <v>252500</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1501561 000013/2020</t>
+          <t>1501561 000012/2020</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/14-04-2020/1831017/0/0/61932/0/0/0/0/15788/83050019/215076/1752731/321345/1501561000013-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/14-04-2020/1831079/0/0/61932/0/0/0/0/15788/83050019/215076/1752731/321355/1501561000012-2020</t>
         </is>
       </c>
       <c r="C181" s="2">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Aquisição de TNT para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>aquisição de TNT (Tecido não tecido/texturizado), branco, para fabricação de máscaras cirúrgicas descartáveis.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=13&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=12&amp;ano=2020</t>
         </is>
       </c>
       <c r="F181">
-        <v>1320</v>
+        <v>1510</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>POLICIA CIVIL DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -22131,12 +22371,12 @@
       </c>
       <c r="T181" t="inlineStr">
         <is>
-          <t>1500.01.0016171/2020-29</t>
+          <t>1500.01.0016168/2020-13</t>
         </is>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcaVYBqunt2k5aTQouvp-gFObNn6cJy36-Bsa9Ij5gVr</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNWiRF6_FSwzjRMnlEM9NiNXm-l5MrWzddF2V2gXC3Cb9</t>
         </is>
       </c>
       <c r="V181">
@@ -22148,11 +22388,11 @@
         </is>
       </c>
       <c r="X181">
-        <v>4291</v>
+        <v>1511</v>
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>FUNDO ESTADUAL DE SAUDE</t>
+          <t>POLICIA CIVIL DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
@@ -22162,11 +22402,11 @@
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>MINAS GERAIS</t>
         </is>
       </c>
       <c r="AB181">
-        <v>141667</v>
+        <v>40000</v>
       </c>
       <c r="AC181">
         <v>2.02</v>
@@ -22175,21 +22415,21 @@
         <v>2.02</v>
       </c>
       <c r="AE181">
-        <v>286167.34</v>
+        <v>80800</v>
       </c>
       <c r="AF181">
-        <v>286167.34</v>
+        <v>80800</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1501561 000014/2020</t>
+          <t>1501561 000013/2020</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/14-04-2020/1831094/0/0/61932/0/0/0/0/15788/83050019/215076/1752731/321278/1501561000014-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/14-04-2020/1831017/0/0/61932/0/0/0/0/15788/83050019/215076/1752731/321345/1501561000013-2020</t>
         </is>
       </c>
       <c r="C182" s="2">
@@ -22202,15 +22442,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=14&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=13&amp;ano=2020</t>
         </is>
       </c>
       <c r="F182">
-        <v>1250</v>
+        <v>1320</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>POLICIA MILITAR DE MINAS GERAIS</t>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -22238,12 +22478,12 @@
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>1500.01.0016170/2020-56</t>
+          <t>1500.01.0016171/2020-29</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVwAL_Jcg1pWb4u8HPiKB8N7JbuPq6BzBiuUi7M8uByy</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcaVYBqunt2k5aTQouvp-gFObNn6cJy36-Bsa9Ij5gVr</t>
         </is>
       </c>
       <c r="V182">
@@ -22255,11 +22495,11 @@
         </is>
       </c>
       <c r="X182">
-        <v>1251</v>
+        <v>4291</v>
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>POLICIA MILITAR DO ESTADO DE MINAS GERAIS</t>
+          <t>FUNDO ESTADUAL DE SAUDE</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
@@ -22273,7 +22513,7 @@
         </is>
       </c>
       <c r="AB182">
-        <v>100000</v>
+        <v>141667</v>
       </c>
       <c r="AC182">
         <v>2.02</v>
@@ -22282,10 +22522,10 @@
         <v>2.02</v>
       </c>
       <c r="AE182">
-        <v>202000</v>
+        <v>286167.34</v>
       </c>
       <c r="AF182">
-        <v>202000</v>
+        <v>286167.34</v>
       </c>
     </row>
     <row r="183">
@@ -22376,11 +22616,11 @@
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>Vespasiano</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB183">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="AC183">
         <v>2.02</v>
@@ -22389,42 +22629,42 @@
         <v>2.02</v>
       </c>
       <c r="AE183">
-        <v>50500</v>
+        <v>202000</v>
       </c>
       <c r="AF183">
-        <v>50500</v>
+        <v>202000</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1501561 000015/2020</t>
+          <t>1501561 000014/2020</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/31-05-2020/12/65960</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/14-04-2020/1831094/0/0/61932/0/0/0/0/15788/83050019/215076/1752731/321278/1501561000014-2020</t>
         </is>
       </c>
       <c r="C184" s="2">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Aquisição de monitores respiratórios, para atendimento a demanda da Pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de TNT para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=15&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=14&amp;ano=2020</t>
         </is>
       </c>
       <c r="F184">
-        <v>1320</v>
+        <v>1250</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>POLICIA MILITAR DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -22438,114 +22678,92 @@
         </is>
       </c>
       <c r="J184">
-        <v>9245710</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162549</t>
-        </is>
-      </c>
-      <c r="L184">
-        <v>1320</v>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
-        </is>
-      </c>
-      <c r="N184" s="2">
-        <v>43925</v>
-      </c>
-      <c r="O184" s="2">
-        <v>43925</v>
-      </c>
-      <c r="Q184" s="2">
-        <v>44107</v>
+        <v>0</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>11.405.384/0001-49</t>
+          <t>84.951.649/0001-88</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>ALFA MED SISTEMAS MEDICOS LTDA</t>
+          <t>J M S INDUSTRIA E COMERCIO - EIRELI</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>1500.01.0016175/2020-18</t>
+          <t>1500.01.0016170/2020-56</t>
         </is>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfNt5bG0xtwVT036uzyHHpjGV5aqG5njRuiyFTmrZXXO</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVwAL_Jcg1pWb4u8HPiKB8N7JbuPq6BzBiuUi7M8uByy</t>
         </is>
       </c>
       <c r="V184">
-        <v>1734423</v>
+        <v>1752731</v>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>MONITOR MULTIPARAMETROS - IDENTIFICACAO: MONITORACAO DE SINAIS VITAIS; PARAMETROS: ECG/ SPO2/ PNI/ TEMP/ PI / ETCO2 / CONECTIVIDADE; APLICACAO: MONITORACAO DE PACIENTE ADULTO E PEDIATRICO;</t>
+          <t>TECIDO DE FIBRAS NATURAIS E SINTETICAS - TIPO DA FIBRA: TECIDO NAO TEXTURIZADO (TNT); COMPOSICAO: 100% POLIPROPILENO;; LARGURA: MINIMA 140 CM; COR: BRANCA; GRAMATURA: MINIMA 20 G/M2, BFE MINIMO DE 95%;</t>
         </is>
       </c>
       <c r="X184">
-        <v>4291</v>
+        <v>1251</v>
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>FUNDO ESTADUAL DE SAUDE</t>
+          <t>POLICIA MILITAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>TECIDOS, AVIAMENTOS, ARTIGOS  E MATERIAL PARA COSTURA E ESTOFAMENTO</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Vespasiano</t>
         </is>
       </c>
       <c r="AB184">
-        <v>8</v>
+        <v>25000</v>
       </c>
       <c r="AC184">
-        <v>21960</v>
+        <v>2.02</v>
       </c>
       <c r="AD184">
-        <v>21960</v>
+        <v>2.02</v>
       </c>
       <c r="AE184">
-        <v>175680</v>
+        <v>50500</v>
       </c>
       <c r="AF184">
-        <v>175680</v>
+        <v>50500</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1501561 000016/2020</t>
+          <t>1501561 000015/2020</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831017/0/0/17532/0/0/0/0/10733/65320034/10036/125628/321781/1501561000016-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/31-05-2020/12/65960</t>
         </is>
       </c>
       <c r="C185" s="2">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Aquisição de Máscaras N95, para atendimento a pandemia do COVID-19, no Estado de Minas Gerais</t>
+          <t>Aquisição de monitores respiratórios, para atendimento a demanda da Pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=16&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=15&amp;ano=2020</t>
         </is>
       </c>
       <c r="F185">
@@ -22567,19 +22785,19 @@
         </is>
       </c>
       <c r="J185">
-        <v>9245712</v>
+        <v>9245710</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162531</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162549</t>
         </is>
       </c>
       <c r="L185">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
         </is>
       </c>
       <c r="N185" s="2">
@@ -22593,30 +22811,30 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>20.235.404/0001-71</t>
+          <t>11.405.384/0001-49</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>DCB DISTRIBUIDORA CIRURGICA BRASILEIRA LTDA</t>
+          <t>ALFA MED SISTEMAS MEDICOS LTDA</t>
         </is>
       </c>
       <c r="T185" t="inlineStr">
         <is>
-          <t>1320.01.0038920/2020-59</t>
+          <t>1500.01.0016175/2020-18</t>
         </is>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNUkApG51peFMARHIXGBukGXSpHubhMU-5fnf5SJ8ey6H</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfNt5bG0xtwVT036uzyHHpjGV5aqG5njRuiyFTmrZXXO</t>
         </is>
       </c>
       <c r="V185">
-        <v>125628</v>
+        <v>1734423</v>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>MONITOR MULTIPARAMETROS - IDENTIFICACAO: MONITORACAO DE SINAIS VITAIS; PARAMETROS: ECG/ SPO2/ PNI/ TEMP/ PI / ETCO2 / CONECTIVIDADE; APLICACAO: MONITORACAO DE PACIENTE ADULTO E PEDIATRICO;</t>
         </is>
       </c>
       <c r="X185">
@@ -22629,39 +22847,39 @@
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>VESTUARIO PARA USO ODONTOLOGICO, HOSPITALAR E ITENS CORRELATOS</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Contagem</t>
         </is>
       </c>
       <c r="AB185">
-        <v>750000</v>
+        <v>8</v>
       </c>
       <c r="AC185">
-        <v>15.01</v>
+        <v>21960</v>
       </c>
       <c r="AD185">
-        <v>15.01</v>
+        <v>21960</v>
       </c>
       <c r="AE185">
-        <v>11257500</v>
+        <v>175680</v>
       </c>
       <c r="AF185">
-        <v>11257500</v>
+        <v>175680</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1501561 000017/2020</t>
+          <t>1501561 000016/2020</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/31-05-2020/12/65986</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831017/0/0/17532/0/0/0/0/10733/65320034/10036/125628/321781/1501561000016-2020</t>
         </is>
       </c>
       <c r="C186" s="2">
@@ -22669,12 +22887,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Aquisição de monitores respiratórios, para atendimento da pandemia do COVID-19.</t>
+          <t>Aquisição de Máscaras N95, para atendimento a pandemia do COVID-19, no Estado de Minas Gerais</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=17&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=16&amp;ano=2020</t>
         </is>
       </c>
       <c r="F186">
@@ -22696,56 +22914,56 @@
         </is>
       </c>
       <c r="J186">
-        <v>9245714</v>
+        <v>9245712</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162552</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162531</t>
         </is>
       </c>
       <c r="L186">
-        <v>1320</v>
+        <v>1500</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
       <c r="N186" s="2">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="O186" s="2">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="Q186" s="2">
-        <v>44111</v>
+        <v>44107</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>01.212.789/0001-07</t>
+          <t>20.235.404/0001-71</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>R&amp;D MEDIQ EQUIPAMENTOS E SERVICOS ESPECIALIZADOS LTDA</t>
+          <t>DCB DISTRIBUIDORA CIRURGICA BRASILEIRA LTDA</t>
         </is>
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t>1500.01.0017829/2020-77</t>
+          <t>1320.01.0038920/2020-59</t>
         </is>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdQ4oRxmvW9pnK9vKsjLJAycEfDozyMx5goZlzcbf4Mh</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNUkApG51peFMARHIXGBukGXSpHubhMU-5fnf5SJ8ey6H</t>
         </is>
       </c>
       <c r="V186">
-        <v>1734423</v>
+        <v>125628</v>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>MONITOR MULTIPARAMETROS - IDENTIFICACAO: MONITORACAO DE SINAIS VITAIS; PARAMETROS: ECG/ SPO2/ PNI/ TEMP/ PI / ETCO2 / CONECTIVIDADE; APLICACAO: MONITORACAO DE PACIENTE ADULTO E PEDIATRICO;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X186">
@@ -22758,60 +22976,60 @@
       </c>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>VESTUARIO PARA USO ODONTOLOGICO, HOSPITALAR E ITENS CORRELATOS</t>
         </is>
       </c>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB186">
-        <v>24</v>
+        <v>750000</v>
       </c>
       <c r="AC186">
-        <v>19683.125</v>
+        <v>15.01</v>
       </c>
       <c r="AD186">
-        <v>19683.125</v>
+        <v>15.01</v>
       </c>
       <c r="AE186">
-        <v>472395</v>
+        <v>11257500</v>
       </c>
       <c r="AF186">
-        <v>472395</v>
+        <v>11257500</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1501561 000018/2020</t>
+          <t>1501561 000017/2020</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/2/2020/01-03-2020/22-05-2020/1831065/2/0/0/0/0/0/0/21609/84950013/170586/1672592/321925/1501561000018-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/31-05-2020/12/65986</t>
         </is>
       </c>
       <c r="C187" s="2">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Aquisição de luvas, para atendimento a demanda da pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de monitores respiratórios, para atendimento da pandemia do COVID-19.</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=18&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=17&amp;ano=2020</t>
         </is>
       </c>
       <c r="F187">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -22825,68 +23043,90 @@
         </is>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>9245714</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162552</t>
+        </is>
+      </c>
+      <c r="L187">
+        <v>1320</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+        </is>
+      </c>
+      <c r="N187" s="2">
+        <v>43929</v>
+      </c>
+      <c r="O187" s="2">
+        <v>43929</v>
+      </c>
+      <c r="Q187" s="2">
+        <v>44111</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>52.202.744/0001-92</t>
+          <t>01.212.789/0001-07</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>Nacional Comercial Hospitalar S.A</t>
+          <t>R&amp;D MEDIQ EQUIPAMENTOS E SERVICOS ESPECIALIZADOS LTDA</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>1500.01.0017382/2020-21</t>
+          <t>1500.01.0017829/2020-77</t>
         </is>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNUAGREm10rtH8EyWB4GHzPTK7GQGOKYE_fkgkdsW8Z6f</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdQ4oRxmvW9pnK9vKsjLJAycEfDozyMx5goZlzcbf4Mh</t>
         </is>
       </c>
       <c r="V187">
-        <v>1672584</v>
+        <v>1734423</v>
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: P; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>MONITOR MULTIPARAMETROS - IDENTIFICACAO: MONITORACAO DE SINAIS VITAIS; PARAMETROS: ECG/ SPO2/ PNI/ TEMP/ PI / ETCO2 / CONECTIVIDADE; APLICACAO: MONITORACAO DE PACIENTE ADULTO E PEDIATRICO;</t>
         </is>
       </c>
       <c r="X187">
-        <v>1501</v>
+        <v>4291</v>
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>FUNDO ESTADUAL DE SAUDE</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS,COMPONENTES E ACESSORIOS PARA PROTECAO INDIVIDUAL - EPI</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Contagem</t>
         </is>
       </c>
       <c r="AB187">
-        <v>7000</v>
+        <v>24</v>
       </c>
       <c r="AC187">
-        <v>32.9</v>
+        <v>19683.125</v>
       </c>
       <c r="AD187">
-        <v>32.9</v>
+        <v>19683.125</v>
       </c>
       <c r="AE187">
-        <v>230300</v>
+        <v>472395</v>
       </c>
       <c r="AF187">
-        <v>230300</v>
+        <v>472395</v>
       </c>
     </row>
     <row r="188">
@@ -22955,11 +23195,11 @@
         </is>
       </c>
       <c r="V188">
-        <v>1672592</v>
+        <v>1672584</v>
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: M; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: P; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X188">
@@ -22981,7 +23221,7 @@
         </is>
       </c>
       <c r="AB188">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="AC188">
         <v>32.9</v>
@@ -22990,42 +23230,42 @@
         <v>32.9</v>
       </c>
       <c r="AE188">
-        <v>822500</v>
+        <v>230300</v>
       </c>
       <c r="AF188">
-        <v>822500</v>
+        <v>230300</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1501561 000019/2020</t>
+          <t>1501561 000018/2020</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831017/0/0/9190/0/0/0/0/1547/65181220/167591/1649256/322108/1501561000019-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/2/2020/01-03-2020/22-05-2020/1831065/2/0/0/0/0/0/0/21609/84950013/170586/1672592/321925/1501561000018-2020</t>
         </is>
       </c>
       <c r="C189" s="2">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Aquisição de CARDIOVERSOR COM MARCAPASSO para atendimento de demanda da Secretaria de Estado da Saúde, visando equipar as unidades hospitalares envolvidas no atendimento e combate ao COVID-19.</t>
+          <t>Aquisição de luvas, para atendimento a demanda da pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=19&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=18&amp;ano=2020</t>
         </is>
       </c>
       <c r="F189">
-        <v>1320</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -23039,122 +23279,100 @@
         </is>
       </c>
       <c r="J189">
-        <v>9245760</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162606</t>
-        </is>
-      </c>
-      <c r="L189">
-        <v>1500</v>
-      </c>
-      <c r="M189" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>52.202.744/0001-92</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Nacional Comercial Hospitalar S.A</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>1500.01.0017382/2020-21</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNUAGREm10rtH8EyWB4GHzPTK7GQGOKYE_fkgkdsW8Z6f</t>
+        </is>
+      </c>
+      <c r="V189">
+        <v>1672592</v>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: M; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+        </is>
+      </c>
+      <c r="X189">
+        <v>1501</v>
+      </c>
+      <c r="Y189" t="inlineStr">
         <is>
           <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
-      <c r="N189" s="2">
-        <v>43931</v>
-      </c>
-      <c r="O189" s="2">
-        <v>43931</v>
-      </c>
-      <c r="Q189" s="2">
-        <v>44113</v>
-      </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>90.909.631/0001-10</t>
-        </is>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>INSTRAMED INDUSTRIA MEDICO HOSPITALAR LTDA</t>
-        </is>
-      </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>1500.01.0018434/2020-38</t>
-        </is>
-      </c>
-      <c r="U189" t="inlineStr">
-        <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNd9wg_GxfQdO9kP9tLZDScOCbeAxVN_lV9hX4g3XPDsI</t>
-        </is>
-      </c>
-      <c r="V189">
-        <v>1649256</v>
-      </c>
-      <c r="W189" t="inlineStr">
-        <is>
-          <t>CARDIOVERSOR - COMPONENTES (1): COM MARCAPASSO; COMPONENTES (2): MODO DEA;</t>
-        </is>
-      </c>
-      <c r="X189">
-        <v>4291</v>
-      </c>
-      <c r="Y189" t="inlineStr">
-        <is>
-          <t>FUNDO ESTADUAL DE SAUDE</t>
-        </is>
-      </c>
       <c r="Z189" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>EQUIPAMENTOS,COMPONENTES E ACESSORIOS PARA PROTECAO INDIVIDUAL - EPI</t>
         </is>
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB189">
-        <v>60</v>
+        <v>25000</v>
       </c>
       <c r="AC189">
-        <v>23610</v>
+        <v>32.9</v>
       </c>
       <c r="AD189">
-        <v>23610</v>
+        <v>32.9</v>
       </c>
       <c r="AE189">
-        <v>1416600</v>
+        <v>822500</v>
       </c>
       <c r="AF189">
-        <v>1416600</v>
+        <v>822500</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1501561 000020/2020</t>
+          <t>1501561 000019/2020</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322112/1501561000020-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831017/0/0/9190/0/0/0/0/1547/65181220/167591/1649256/322108/1501561000019-2020</t>
         </is>
       </c>
       <c r="C190" s="2">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Aquisição de equipamentos medico Hospitalares, para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de CARDIOVERSOR COM MARCAPASSO para atendimento de demanda da Secretaria de Estado da Saúde, visando equipar as unidades hospitalares envolvidas no atendimento e combate ao COVID-19.</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=20&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=19&amp;ano=2020</t>
         </is>
       </c>
       <c r="F190">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -23168,11 +23386,11 @@
         </is>
       </c>
       <c r="J190">
-        <v>9245764</v>
+        <v>9245760</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162607</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162606</t>
         </is>
       </c>
       <c r="L190">
@@ -23194,38 +23412,38 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>20.235.404/0001-71</t>
+          <t>90.909.631/0001-10</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>DCB DISTRIBUIDORA CIRURGICA BRASILEIRA LTDA</t>
+          <t>INSTRAMED INDUSTRIA MEDICO HOSPITALAR LTDA</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t>1500.01.0019011/2020-76</t>
+          <t>1500.01.0018434/2020-38</t>
         </is>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNT3y2moQgKxLgOHoUUS13f0ir908xrj-QXK1zDd9TLD-</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNd9wg_GxfQdO9kP9tLZDScOCbeAxVN_lV9hX4g3XPDsI</t>
         </is>
       </c>
       <c r="V190">
-        <v>125245</v>
+        <v>1649256</v>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 03 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 40 G; FILTRO: COM FILTRO; TIPO FIXACAO: 4 TIRAS LATERAIS; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>CARDIOVERSOR - COMPONENTES (1): COM MARCAPASSO; COMPONENTES (2): MODO DEA;</t>
         </is>
       </c>
       <c r="X190">
-        <v>1501</v>
+        <v>4291</v>
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>FUNDO ESTADUAL DE SAUDE</t>
         </is>
       </c>
       <c r="Z190" t="inlineStr">
@@ -23235,23 +23453,23 @@
       </c>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Contagem</t>
         </is>
       </c>
       <c r="AB190">
-        <v>635000</v>
+        <v>60</v>
       </c>
       <c r="AC190">
-        <v>3.8245</v>
+        <v>23610</v>
       </c>
       <c r="AD190">
-        <v>3.8245</v>
+        <v>23610</v>
       </c>
       <c r="AE190">
-        <v>2428557.5</v>
+        <v>1416600</v>
       </c>
       <c r="AF190">
-        <v>2428557.5</v>
+        <v>1416600</v>
       </c>
     </row>
     <row r="191">
@@ -23342,11 +23560,11 @@
         </is>
       </c>
       <c r="V191">
-        <v>125628</v>
+        <v>125245</v>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 03 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 40 G; FILTRO: COM FILTRO; TIPO FIXACAO: 4 TIRAS LATERAIS; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X191">
@@ -23368,19 +23586,19 @@
         </is>
       </c>
       <c r="AB191">
-        <v>50000</v>
+        <v>635000</v>
       </c>
       <c r="AC191">
-        <v>15.01</v>
+        <v>3.8245</v>
       </c>
       <c r="AD191">
-        <v>15.01</v>
+        <v>3.8245</v>
       </c>
       <c r="AE191">
-        <v>750500</v>
+        <v>2428557.5</v>
       </c>
       <c r="AF191">
-        <v>750500</v>
+        <v>2428557.5</v>
       </c>
     </row>
     <row r="192">
@@ -23471,11 +23689,11 @@
         </is>
       </c>
       <c r="V192">
-        <v>238392</v>
+        <v>125628</v>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>TOUCA DESCARTAVEL - MATERIA-PRIMA: NAO TECIDO, 100% POLIPROPILENO; TIPO: DESCARTAVEL; GRAMATURA: 20 A 30 G; MODELO: SANFONADA, COM ELASTICO; COR: CONFORME SOLICITADO PELO ORGAO/ENTIDADE; APRESENTACAO: PACOTE 100 UN;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X192">
@@ -23497,19 +23715,19 @@
         </is>
       </c>
       <c r="AB192">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="AC192">
-        <v>0.2245</v>
+        <v>15.01</v>
       </c>
       <c r="AD192">
-        <v>0.2245</v>
+        <v>15.01</v>
       </c>
       <c r="AE192">
-        <v>224500</v>
+        <v>750500</v>
       </c>
       <c r="AF192">
-        <v>224500</v>
+        <v>750500</v>
       </c>
     </row>
     <row r="193">
@@ -23600,11 +23818,11 @@
         </is>
       </c>
       <c r="V193">
-        <v>765007</v>
+        <v>238392</v>
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL, MANGA LONGA COM ELASTICO NO PUNHO; MATERIA-PRIMA: POLIPROPILENO; GRAMATURA/COMPOSICAO: 40 G/M QUADRADO; COMPRIMENTO: 110CM COMPRIMENTO APROXIMADAMENTE;</t>
+          <t>TOUCA DESCARTAVEL - MATERIA-PRIMA: NAO TECIDO, 100% POLIPROPILENO; TIPO: DESCARTAVEL; GRAMATURA: 20 A 30 G; MODELO: SANFONADA, COM ELASTICO; COR: CONFORME SOLICITADO PELO ORGAO/ENTIDADE; APRESENTACAO: PACOTE 100 UN;</t>
         </is>
       </c>
       <c r="X193">
@@ -23626,19 +23844,19 @@
         </is>
       </c>
       <c r="AB193">
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="AC193">
-        <v>15.87</v>
+        <v>0.2245</v>
       </c>
       <c r="AD193">
-        <v>15.87</v>
+        <v>0.2245</v>
       </c>
       <c r="AE193">
-        <v>793500</v>
+        <v>224500</v>
       </c>
       <c r="AF193">
-        <v>793500</v>
+        <v>224500</v>
       </c>
     </row>
     <row r="194">
@@ -23729,11 +23947,11 @@
         </is>
       </c>
       <c r="V194">
-        <v>1672584</v>
+        <v>765007</v>
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: P; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL, MANGA LONGA COM ELASTICO NO PUNHO; MATERIA-PRIMA: POLIPROPILENO; GRAMATURA/COMPOSICAO: 40 G/M QUADRADO; COMPRIMENTO: 110CM COMPRIMENTO APROXIMADAMENTE;</t>
         </is>
       </c>
       <c r="X194">
@@ -23746,7 +23964,7 @@
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS,COMPONENTES E ACESSORIOS PARA PROTECAO INDIVIDUAL - EPI</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
@@ -23755,19 +23973,19 @@
         </is>
       </c>
       <c r="AB194">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="AC194">
-        <v>31.75</v>
+        <v>15.87</v>
       </c>
       <c r="AD194">
-        <v>31.75</v>
+        <v>15.87</v>
       </c>
       <c r="AE194">
-        <v>317500</v>
+        <v>793500</v>
       </c>
       <c r="AF194">
-        <v>317500</v>
+        <v>793500</v>
       </c>
     </row>
     <row r="195">
@@ -23858,11 +24076,11 @@
         </is>
       </c>
       <c r="V195">
-        <v>1672592</v>
+        <v>1672584</v>
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: M; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: P; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X195">
@@ -23987,11 +24205,11 @@
         </is>
       </c>
       <c r="V196">
-        <v>1672606</v>
+        <v>1672592</v>
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; ESTERIL: NAO; TAMANHO: G; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: M; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X196">
@@ -24031,12 +24249,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1501561 000021/2020</t>
+          <t>1501561 000020/2020</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/31-05-2020/12/66043</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322112/1501561000020-2020</t>
         </is>
       </c>
       <c r="C197" s="2">
@@ -24044,20 +24262,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Aquisição de Cardioversores para atendimento a pandemia do COVID-19, no Estado deinas Gerais.</t>
+          <t>Aquisição de equipamentos medico Hospitalares, para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=21&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=20&amp;ano=2020</t>
         </is>
       </c>
       <c r="F197">
-        <v>1320</v>
+        <v>1500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -24071,114 +24289,114 @@
         </is>
       </c>
       <c r="J197">
-        <v>9245766</v>
+        <v>9245764</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162597</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162607</t>
         </is>
       </c>
       <c r="L197">
-        <v>1320</v>
+        <v>1500</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
       <c r="N197" s="2">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="O197" s="2">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="Q197" s="2">
-        <v>44117</v>
+        <v>44113</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>03.620.716/0001-80</t>
+          <t>20.235.404/0001-71</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>CMOS DRAKE DO NORDESTE S.A</t>
+          <t>DCB DISTRIBUIDORA CIRURGICA BRASILEIRA LTDA</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
         <is>
-          <t>1500.01.0019103/2020-17</t>
+          <t>1500.01.0019011/2020-76</t>
         </is>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQyKQ2LN1E2Z105Gh8X_iVewj7W1Y5VyCcpPXR2vacCn</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNT3y2moQgKxLgOHoUUS13f0ir908xrj-QXK1zDd9TLD-</t>
         </is>
       </c>
       <c r="V197">
-        <v>1649256</v>
+        <v>1672606</v>
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>CARDIOVERSOR - COMPONENTES (1): COM MARCAPASSO; COMPONENTES (2): MODO DEA;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; ESTERIL: NAO; TAMANHO: G; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X197">
-        <v>4291</v>
+        <v>1501</v>
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>FUNDO ESTADUAL DE SAUDE</t>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>EQUIPAMENTOS,COMPONENTES E ACESSORIOS PARA PROTECAO INDIVIDUAL - EPI</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB197">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="AC197">
-        <v>21274</v>
+        <v>31.75</v>
       </c>
       <c r="AD197">
-        <v>21274</v>
+        <v>31.75</v>
       </c>
       <c r="AE197">
-        <v>2127400</v>
+        <v>317500</v>
       </c>
       <c r="AF197">
-        <v>2127400</v>
+        <v>317500</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1501561 000022/2020</t>
+          <t>1501561 000021/2020</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831017/0/0/9190/0/0/0/0/1547/65181220/167591/1649256/322108/1501561000019-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-filtros/5/2020/01-01-2020/31-05-2020/12/66043</t>
         </is>
       </c>
       <c r="C198" s="2">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Aquisição de Aparelhos respiratórios para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de Cardioversores para atendimento a pandemia do COVID-19, no Estado deinas Gerais.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=22&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=21&amp;ano=2020</t>
         </is>
       </c>
       <c r="F198">
@@ -24200,11 +24418,11 @@
         </is>
       </c>
       <c r="J198">
-        <v>9245781</v>
+        <v>9245766</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162614</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162597</t>
         </is>
       </c>
       <c r="L198">
@@ -24216,40 +24434,40 @@
         </is>
       </c>
       <c r="N198" s="2">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="O198" s="2">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="Q198" s="2">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>10.444.624/0001-51</t>
+          <t>03.620.716/0001-80</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>SISNAC PRODUTOS PARA SAUDE LTDA</t>
+          <t>CMOS DRAKE DO NORDESTE S.A</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>1500.01.0018532/2020-11</t>
+          <t>1500.01.0019103/2020-17</t>
         </is>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNYX2MPf1EaoBsxrQA32QUq0yeoMRnBBShIM3PTB1Jn3l</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQyKQ2LN1E2Z105Gh8X_iVewj7W1Y5VyCcpPXR2vacCn</t>
         </is>
       </c>
       <c r="V198">
-        <v>1734423</v>
+        <v>1649256</v>
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>MONITOR MULTIPARAMETROS - IDENTIFICACAO: MONITORACAO DE SINAIS VITAIS; PARAMETROS: ECG/ SPO2/ PNI/ TEMP/ PI / ETCO2 / CONECTIVIDADE; APLICACAO: MONITORACAO DE PACIENTE ADULTO E PEDIATRICO;</t>
+          <t>CARDIOVERSOR - COMPONENTES (1): COM MARCAPASSO; COMPONENTES (2): MODO DEA;</t>
         </is>
       </c>
       <c r="X198">
@@ -24271,51 +24489,51 @@
         </is>
       </c>
       <c r="AB198">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AC198">
-        <v>20406.25</v>
+        <v>21274</v>
       </c>
       <c r="AD198">
-        <v>20406.25</v>
+        <v>21274</v>
       </c>
       <c r="AE198">
-        <v>3265000</v>
+        <v>2127400</v>
       </c>
       <c r="AF198">
-        <v>3265000</v>
+        <v>2127400</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1501561 000023/2020</t>
+          <t>1501561 000022/2020</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/22-05-2020/1831008/0/0/30348/0/0/0/0/10733/65320034/10036/125628/322363/1501561000023-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831017/0/0/9190/0/0/0/0/1547/65181220/167591/1649256/322108/1501561000019-2020</t>
         </is>
       </c>
       <c r="C199" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Aquisição de Máscaras N95 para atendimento a pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de Aparelhos respiratórios para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=23&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=22&amp;ano=2020</t>
         </is>
       </c>
       <c r="F199">
-        <v>2270</v>
+        <v>1320</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -24329,42 +24547,64 @@
         </is>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>9245781</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162614</t>
+        </is>
+      </c>
+      <c r="L199">
+        <v>1320</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+        </is>
+      </c>
+      <c r="N199" s="2">
+        <v>43937</v>
+      </c>
+      <c r="O199" s="2">
+        <v>43937</v>
+      </c>
+      <c r="Q199" s="2">
+        <v>44119</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>14.707.364/0001-10</t>
+          <t>10.444.624/0001-51</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>XCMG BRASIL INDUSTRIA LTDA</t>
+          <t>SISNAC PRODUTOS PARA SAUDE LTDA</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
         <is>
-          <t>1500.01.0019377/2020-88</t>
+          <t>1500.01.0018532/2020-11</t>
         </is>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNSjws8--_G4k2QvBfMLiDt9aYR5v-JFbxMvocMhiYnmr</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNYX2MPf1EaoBsxrQA32QUq0yeoMRnBBShIM3PTB1Jn3l</t>
         </is>
       </c>
       <c r="V199">
-        <v>125628</v>
+        <v>1734423</v>
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>MONITOR MULTIPARAMETROS - IDENTIFICACAO: MONITORACAO DE SINAIS VITAIS; PARAMETROS: ECG/ SPO2/ PNI/ TEMP/ PI / ETCO2 / CONECTIVIDADE; APLICACAO: MONITORACAO DE PACIENTE ADULTO E PEDIATRICO;</t>
         </is>
       </c>
       <c r="X199">
-        <v>2271</v>
+        <v>4291</v>
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
+          <t>FUNDO ESTADUAL DE SAUDE</t>
         </is>
       </c>
       <c r="Z199" t="inlineStr">
@@ -24374,55 +24614,55 @@
       </c>
       <c r="AA199" t="inlineStr">
         <is>
-          <t>MINAS GERAIS</t>
+          <t>Contagem</t>
         </is>
       </c>
       <c r="AB199">
-        <v>423553</v>
+        <v>160</v>
       </c>
       <c r="AC199">
-        <v>14.9</v>
+        <v>20406.25</v>
       </c>
       <c r="AD199">
-        <v>14.9</v>
+        <v>20406.25</v>
       </c>
       <c r="AE199">
-        <v>6310939.7</v>
+        <v>3265000</v>
       </c>
       <c r="AF199">
-        <v>6310939.7</v>
+        <v>3265000</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1501561 000024/2020</t>
+          <t>1501561 000023/2020</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/2/2020/01-03-2020/22-05-2020/1831065/2/0/0/0/0/0/0/21609/84950013/170586/1672592/322509/1501561000024-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/22-05-2020/1831008/0/0/30348/0/0/0/0/10733/65320034/10036/125628/322363/1501561000023-2020</t>
         </is>
       </c>
       <c r="C200" s="2">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Aquisição de Luvas, para atendimento a demanda de Pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de Máscaras N95 para atendimento a pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=24&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=23&amp;ano=2020</t>
         </is>
       </c>
       <c r="F200">
-        <v>1500</v>
+        <v>2270</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -24440,64 +24680,64 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>52.202.744/0001-92</t>
+          <t>14.707.364/0001-10</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>Nacional Comercial Hospitalar S.A</t>
+          <t>XCMG BRASIL INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="T200" t="inlineStr">
         <is>
-          <t>1500.01.0019842/2020-46</t>
+          <t>1500.01.0019377/2020-88</t>
         </is>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQ-7S4HdtuZ2tRT2ihh0Mc2TMrlTYKlrSUALbpTWdDIL</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNSjws8--_G4k2QvBfMLiDt9aYR5v-JFbxMvocMhiYnmr</t>
         </is>
       </c>
       <c r="V200">
-        <v>1672584</v>
+        <v>125628</v>
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: P; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X200">
-        <v>1501</v>
+        <v>2271</v>
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS,COMPONENTES E ACESSORIOS PARA PROTECAO INDIVIDUAL - EPI</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>MINAS GERAIS</t>
         </is>
       </c>
       <c r="AB200">
-        <v>4500</v>
+        <v>423553</v>
       </c>
       <c r="AC200">
-        <v>34.7</v>
+        <v>14.9</v>
       </c>
       <c r="AD200">
-        <v>34.7</v>
+        <v>14.9</v>
       </c>
       <c r="AE200">
-        <v>156150</v>
+        <v>6310939.7</v>
       </c>
       <c r="AF200">
-        <v>156150</v>
+        <v>6310939.7</v>
       </c>
     </row>
     <row r="201">
@@ -24566,11 +24806,11 @@
         </is>
       </c>
       <c r="V201">
-        <v>1672592</v>
+        <v>1672584</v>
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: M; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: P; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X201">
@@ -24592,7 +24832,7 @@
         </is>
       </c>
       <c r="AB201">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="AC201">
         <v>34.7</v>
@@ -24601,10 +24841,10 @@
         <v>34.7</v>
       </c>
       <c r="AE201">
-        <v>347000</v>
+        <v>156150</v>
       </c>
       <c r="AF201">
-        <v>347000</v>
+        <v>156150</v>
       </c>
     </row>
     <row r="202">
@@ -24673,11 +24913,11 @@
         </is>
       </c>
       <c r="V202">
-        <v>1672606</v>
+        <v>1672592</v>
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; ESTERIL: NAO; TAMANHO: G; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; TAMANHO: M; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X202">
@@ -24699,7 +24939,7 @@
         </is>
       </c>
       <c r="AB202">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="AC202">
         <v>34.7</v>
@@ -24708,34 +24948,34 @@
         <v>34.7</v>
       </c>
       <c r="AE202">
-        <v>69400</v>
+        <v>347000</v>
       </c>
       <c r="AF202">
-        <v>69400</v>
+        <v>347000</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1501561 000025/2020</t>
+          <t>1501561 000024/2020</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322631/1501561000025-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/2/2020/01-03-2020/22-05-2020/1831065/2/0/0/0/0/0/0/21609/84950013/170586/1672592/322509/1501561000024-2020</t>
         </is>
       </c>
       <c r="C203" s="2">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Aquisição emergencial de Equipamentos para Proteção Individual, visando equipar e proteger os profissionais envolvidos no atendimento  e combate à pandemia do COVID-19 no do Estado de Minas Gerais.</t>
+          <t>Aquisição de Luvas, para atendimento a demanda de Pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=25&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=24&amp;ano=2020</t>
         </is>
       </c>
       <c r="F203">
@@ -24757,56 +24997,34 @@
         </is>
       </c>
       <c r="J203">
-        <v>9246004</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162676</t>
-        </is>
-      </c>
-      <c r="L203">
-        <v>1500</v>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
-        </is>
-      </c>
-      <c r="N203" s="2">
-        <v>43944</v>
-      </c>
-      <c r="O203" s="2">
-        <v>43944</v>
-      </c>
-      <c r="Q203" s="2">
-        <v>44126</v>
+        <v>0</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>20.235.404/0001-71</t>
+          <t>52.202.744/0001-92</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>DCB DISTRIBUIDORA CIRURGICA BRASILEIRA LTDA</t>
+          <t>Nacional Comercial Hospitalar S.A</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>1500.01.0020051/2020-29</t>
+          <t>1500.01.0019842/2020-46</t>
         </is>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNT5QG9edZ9qFcWAIHB4XPUqvNgI1GZ9_NTCAJyo1S4jb</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQ-7S4HdtuZ2tRT2ihh0Mc2TMrlTYKlrSUALbpTWdDIL</t>
         </is>
       </c>
       <c r="V203">
-        <v>125628</v>
+        <v>1672606</v>
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>LUVA DESCARTAVEL PROCEDIMENTOS NAO CIRURGICOS - COMPOSICAO: LATEX DE BORRACHA NATURAL; ESTERIL: NAO; TAMANHO: G; PO: BIOABSORVIVEL; FORMATO: AMBIDESTRA; TEXTURA: LISA; APRESENTACAO: EMBALAGEM 100 UNIDADES;</t>
         </is>
       </c>
       <c r="X203">
@@ -24819,7 +25037,7 @@
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>EQUIPAMENTOS,COMPONENTES E ACESSORIOS PARA PROTECAO INDIVIDUAL - EPI</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
@@ -24828,30 +25046,30 @@
         </is>
       </c>
       <c r="AB203">
-        <v>500000</v>
+        <v>2000</v>
       </c>
       <c r="AC203">
-        <v>14.7</v>
+        <v>34.7</v>
       </c>
       <c r="AD203">
-        <v>14.7</v>
+        <v>34.7</v>
       </c>
       <c r="AE203">
-        <v>7350000</v>
+        <v>69400</v>
       </c>
       <c r="AF203">
-        <v>7350000</v>
+        <v>69400</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1501561 000026/2020</t>
+          <t>1501561 000025/2020</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/30348/0/0/0/0/10733/65320034/8733/125245/322692/1501561000026-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/17532/0/0/0/0/10733/65320034/10036/125628/322631/1501561000025-2020</t>
         </is>
       </c>
       <c r="C204" s="2">
@@ -24859,12 +25077,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Aquisição de máscaras descartáveis, para atendimento a demanda de pandemia do COVID-19, no Estado e Minas Gerais.</t>
+          <t>Aquisição emergencial de Equipamentos para Proteção Individual, visando equipar e proteger os profissionais envolvidos no atendimento  e combate à pandemia do COVID-19 no do Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=26&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=25&amp;ano=2020</t>
         </is>
       </c>
       <c r="F204">
@@ -24886,11 +25104,11 @@
         </is>
       </c>
       <c r="J204">
-        <v>9246005</v>
+        <v>9246004</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162677</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162676</t>
         </is>
       </c>
       <c r="L204">
@@ -24912,30 +25130,30 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>14.707.364/0001-10</t>
+          <t>20.235.404/0001-71</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>XCMG BRASIL INDUSTRIA LTDA</t>
+          <t>DCB DISTRIBUIDORA CIRURGICA BRASILEIRA LTDA</t>
         </is>
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>1500.01.0020336/2020-94</t>
+          <t>1500.01.0020051/2020-29</t>
         </is>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfPhIMOlq1KvViQ9Y5z_UX5Az8xDi1-K1mNgYgrN0YQE</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNT5QG9edZ9qFcWAIHB4XPUqvNgI1GZ9_NTCAJyo1S4jb</t>
         </is>
       </c>
       <c r="V204">
-        <v>125245</v>
+        <v>125628</v>
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 03 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 40 G; FILTRO: COM FILTRO; TIPO FIXACAO: 4 TIRAS LATERAIS; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X204">
@@ -24957,19 +25175,19 @@
         </is>
       </c>
       <c r="AB204">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="AC204">
-        <v>2.74</v>
+        <v>14.7</v>
       </c>
       <c r="AD204">
-        <v>2.74</v>
+        <v>14.7</v>
       </c>
       <c r="AE204">
-        <v>8220000</v>
+        <v>7350000</v>
       </c>
       <c r="AF204">
-        <v>8220000</v>
+        <v>7350000</v>
       </c>
     </row>
     <row r="205">
@@ -25077,7 +25295,7 @@
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA205" t="inlineStr">
@@ -25086,7 +25304,7 @@
         </is>
       </c>
       <c r="AB205">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AC205">
         <v>2.74</v>
@@ -25095,42 +25313,42 @@
         <v>2.74</v>
       </c>
       <c r="AE205">
-        <v>0</v>
+        <v>8220000</v>
       </c>
       <c r="AF205">
-        <v>0</v>
+        <v>8220000</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1501561 000027/2020</t>
+          <t>1501561 000026/2020</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/22-05-2020/1831008/0/0/30348/0/0/0/0/10733/65320034/8733/125245/322808/1501561000027-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831065/0/0/30348/0/0/0/0/10733/65320034/8733/125245/322692/1501561000026-2020</t>
         </is>
       </c>
       <c r="C206" s="2">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Aquisição de equipamentos médico hospitalares,bosta atendimento a demanda da Pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de máscaras descartáveis, para atendimento a demanda de pandemia do COVID-19, no Estado e Minas Gerais.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=27&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=26&amp;ano=2020</t>
         </is>
       </c>
       <c r="F206">
-        <v>2270</v>
+        <v>1500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -25144,7 +25362,29 @@
         </is>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>9246005</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162677</t>
+        </is>
+      </c>
+      <c r="L206">
+        <v>1500</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+        </is>
+      </c>
+      <c r="N206" s="2">
+        <v>43944</v>
+      </c>
+      <c r="O206" s="2">
+        <v>43944</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>44126</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -25158,12 +25398,12 @@
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>1500.01.0020447/2020-07</t>
+          <t>1500.01.0020336/2020-94</t>
         </is>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV3UTwo-FCdcv9HnEOu0LtYV_RHPnni7A0380GJPLVdO</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfPhIMOlq1KvViQ9Y5z_UX5Az8xDi1-K1mNgYgrN0YQE</t>
         </is>
       </c>
       <c r="V206">
@@ -25175,25 +25415,25 @@
         </is>
       </c>
       <c r="X206">
-        <v>2271</v>
+        <v>1501</v>
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>NÃO SE APLICA</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
         <is>
-          <t>MINAS GERAIS</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB206">
-        <v>852012</v>
+        <v>0</v>
       </c>
       <c r="AC206">
         <v>2.74</v>
@@ -25202,42 +25442,42 @@
         <v>2.74</v>
       </c>
       <c r="AE206">
-        <v>2334512.88</v>
+        <v>0</v>
       </c>
       <c r="AF206">
-        <v>2334512.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1501561 000028/2020</t>
+          <t>1501561 000027/2020</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/239/0/0/0/0/822/65181751/215727/1753681/323054/1501561000028-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/22-05-2020/1831008/0/0/30348/0/0/0/0/10733/65320034/8733/125245/322808/1501561000027-2020</t>
         </is>
       </c>
       <c r="C207" s="2">
-        <v>43948</v>
+        <v>43943</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Aquisição de ventiladores respiratórios em atendimento a demanda da pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de equipamentos médico hospitalares,bosta atendimento a demanda da Pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=28&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=27&amp;ano=2020</t>
         </is>
       </c>
       <c r="F207">
-        <v>1320</v>
+        <v>2270</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -25251,64 +25491,42 @@
         </is>
       </c>
       <c r="J207">
-        <v>9247074</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162832</t>
-        </is>
-      </c>
-      <c r="L207">
-        <v>1500</v>
-      </c>
-      <c r="M207" t="inlineStr">
-        <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
-        </is>
-      </c>
-      <c r="N207" s="2">
-        <v>43950</v>
-      </c>
-      <c r="O207" s="2">
-        <v>43950</v>
-      </c>
-      <c r="Q207" s="2">
-        <v>44132</v>
+        <v>0</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>61.489.381/0001-09</t>
+          <t>14.707.364/0001-10</t>
         </is>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>KTK INDUSTRIA, IMPORTACAO, EXPORTACAO E COMERCIO DE EQUIPAMENTOS HOSPITALARES LTDA</t>
+          <t>XCMG BRASIL INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="T207" t="inlineStr">
         <is>
-          <t>1320.01.0046719/2020-73</t>
+          <t>1500.01.0020447/2020-07</t>
         </is>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbQ7AwV304bEwORegrpC8MU26oRYg3foGOu7dRNBiSC6</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV3UTwo-FCdcv9HnEOu0LtYV_RHPnni7A0380GJPLVdO</t>
         </is>
       </c>
       <c r="V207">
-        <v>1753681</v>
+        <v>125245</v>
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>VENTILADOR PULMONAR - TIPO: MICROPROCESSADO, ELETRONICO;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 03 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 40 G; FILTRO: COM FILTRO; TIPO FIXACAO: 4 TIRAS LATERAIS; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X207">
-        <v>4291</v>
+        <v>2271</v>
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>FUNDO ESTADUAL DE SAUDE</t>
+          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z207" t="inlineStr">
@@ -25318,23 +25536,23 @@
       </c>
       <c r="AA207" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>MINAS GERAIS</t>
         </is>
       </c>
       <c r="AB207">
-        <v>562</v>
+        <v>852012</v>
       </c>
       <c r="AC207">
-        <v>70000</v>
+        <v>2.74</v>
       </c>
       <c r="AD207">
-        <v>70000</v>
+        <v>2.74</v>
       </c>
       <c r="AE207">
-        <v>39340000</v>
+        <v>2334512.88</v>
       </c>
       <c r="AF207">
-        <v>39340000</v>
+        <v>2334512.88</v>
       </c>
     </row>
     <row r="208">
@@ -25425,11 +25643,11 @@
         </is>
       </c>
       <c r="V208">
-        <v>1756877</v>
+        <v>1753681</v>
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>VENTILADOR PULMONAR - TIPO: MICROPROCESSADO; TRANSPORTE;</t>
+          <t>VENTILADOR PULMONAR - TIPO: MICROPROCESSADO, ELETRONICO;</t>
         </is>
       </c>
       <c r="X208">
@@ -25451,43 +25669,43 @@
         </is>
       </c>
       <c r="AB208">
-        <v>185</v>
+        <v>562</v>
       </c>
       <c r="AC208">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="AD208">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="AE208">
-        <v>4625000</v>
+        <v>39340000</v>
       </c>
       <c r="AF208">
-        <v>4625000</v>
+        <v>39340000</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1501561 000029/2020</t>
+          <t>1501561 000028/2020</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/20981/0/0/0/0/3854/68201451/215959/1753924/323117/1501561000029-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/239/0/0/0/0/822/65181751/215727/1753681/323054/1501561000028-2020</t>
         </is>
       </c>
       <c r="C209" s="2">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Aquisição de KITS DE BIOLOGIA MOLECULAR (PCR) PARA DIAGNÓSTICO LABORATORIAL DO COVID-19 para atendimento de demanda da Secretaria de Estado da Saúde, visando a ampliação da rede diagnóstica no Estado.</t>
+          <t>Aquisição de ventiladores respiratórios em atendimento a demanda da pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=29&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=28&amp;ano=2020</t>
         </is>
       </c>
       <c r="F209">
@@ -25509,11 +25727,11 @@
         </is>
       </c>
       <c r="J209">
-        <v>9247090</v>
+        <v>9247074</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162843</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162832</t>
         </is>
       </c>
       <c r="L209">
@@ -25525,40 +25743,40 @@
         </is>
       </c>
       <c r="N209" s="2">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="O209" s="2">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="Q209" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>13.545.241/0001-68</t>
+          <t>61.489.381/0001-09</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>SINTESE BIOTECNOLOGIA LTDA</t>
+          <t>KTK INDUSTRIA, IMPORTACAO, EXPORTACAO E COMERCIO DE EQUIPAMENTOS HOSPITALARES LTDA</t>
         </is>
       </c>
       <c r="T209" t="inlineStr">
         <is>
-          <t>1500.01.0018971/2020-89</t>
+          <t>1320.01.0046719/2020-73</t>
         </is>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNUQWfe3MlhzbSyoPeP8vAWsPGWtDxxZB9X87V89pINb5</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbQ7AwV304bEwORegrpC8MU26oRYg3foGOu7dRNBiSC6</t>
         </is>
       </c>
       <c r="V209">
-        <v>1747983</v>
+        <v>1756877</v>
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>REAGENTE PARA EXTRACAO DE RNA - IDENTIFICACAO: KIT PARA EXTRACAO DE RNA TOTAL; FINALIDADE: ANALISE DE RNA; METODO: EXTRACAO ORGANICA E FILTRACAO EM COLUNA;</t>
+          <t>VENTILADOR PULMONAR - TIPO: MICROPROCESSADO; TRANSPORTE;</t>
         </is>
       </c>
       <c r="X209">
@@ -25571,28 +25789,28 @@
       </c>
       <c r="Z209" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA209" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Contagem</t>
         </is>
       </c>
       <c r="AB209">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AC209">
-        <v>5527.4</v>
+        <v>25000</v>
       </c>
       <c r="AD209">
-        <v>5527.4</v>
+        <v>25000</v>
       </c>
       <c r="AE209">
-        <v>939658</v>
+        <v>4625000</v>
       </c>
       <c r="AF209">
-        <v>939658</v>
+        <v>4625000</v>
       </c>
     </row>
     <row r="210">
@@ -25683,11 +25901,11 @@
         </is>
       </c>
       <c r="V210">
-        <v>1753070</v>
+        <v>1747983</v>
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>KIT PARA RT-PCR - TIPO: ETAPA UNICA; IDENTIFICACAO: KIT PARA RT-QPCR; FINALIDADE: DETECCAO E QUANTIFICACAO DE RNA;</t>
+          <t>REAGENTE PARA EXTRACAO DE RNA - IDENTIFICACAO: KIT PARA EXTRACAO DE RNA TOTAL; FINALIDADE: ANALISE DE RNA; METODO: EXTRACAO ORGANICA E FILTRACAO EM COLUNA;</t>
         </is>
       </c>
       <c r="X210">
@@ -25709,19 +25927,19 @@
         </is>
       </c>
       <c r="AB210">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AC210">
-        <v>3995.6207</v>
+        <v>5527.4</v>
       </c>
       <c r="AD210">
-        <v>3995.6207</v>
+        <v>5527.4</v>
       </c>
       <c r="AE210">
-        <v>3596058.63</v>
+        <v>939658</v>
       </c>
       <c r="AF210">
-        <v>3596058.63</v>
+        <v>939658</v>
       </c>
     </row>
     <row r="211">
@@ -25812,11 +26030,11 @@
         </is>
       </c>
       <c r="V211">
-        <v>1753088</v>
+        <v>1753070</v>
       </c>
       <c r="W211" t="inlineStr">
         <is>
-          <t>KIT PARA RT-PCR - TIPO: PCR TEMPO REAL; IDENTIFICACAO: INICIADORES MARCACAO 5 FAM, SONDAS MARCACAO 3 BHQ ; FINALIDADE: DETECCAO QUANTITATIVA CEPA 2019-NCOV;</t>
+          <t>KIT PARA RT-PCR - TIPO: ETAPA UNICA; IDENTIFICACAO: KIT PARA RT-QPCR; FINALIDADE: DETECCAO E QUANTIFICACAO DE RNA;</t>
         </is>
       </c>
       <c r="X211">
@@ -25838,19 +26056,19 @@
         </is>
       </c>
       <c r="AB211">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AC211">
-        <v>1998</v>
+        <v>3995.6207</v>
       </c>
       <c r="AD211">
-        <v>1998</v>
+        <v>3995.6207</v>
       </c>
       <c r="AE211">
-        <v>599400</v>
+        <v>3596058.63</v>
       </c>
       <c r="AF211">
-        <v>599400</v>
+        <v>3596058.63</v>
       </c>
     </row>
     <row r="212">
@@ -25941,11 +26159,11 @@
         </is>
       </c>
       <c r="V212">
-        <v>1753924</v>
+        <v>1753088</v>
       </c>
       <c r="W212" t="inlineStr">
         <is>
-          <t>CONTROLE POSITIVO  - IDENTIFICACAO: HUMANO; METODOLOGIA: PCR EM TEMPO REAL; APLICACAO: DETECCAO QUANTITATIVA DA CEPA 2019-NCOV;</t>
+          <t>KIT PARA RT-PCR - TIPO: PCR TEMPO REAL; IDENTIFICACAO: INICIADORES MARCACAO 5 FAM, SONDAS MARCACAO 3 BHQ ; FINALIDADE: DETECCAO QUANTITATIVA CEPA 2019-NCOV;</t>
         </is>
       </c>
       <c r="X212">
@@ -25967,19 +26185,19 @@
         </is>
       </c>
       <c r="AB212">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="AC212">
-        <v>1298</v>
+        <v>1998</v>
       </c>
       <c r="AD212">
-        <v>1298</v>
+        <v>1998</v>
       </c>
       <c r="AE212">
-        <v>11682</v>
+        <v>599400</v>
       </c>
       <c r="AF212">
-        <v>11682</v>
+        <v>599400</v>
       </c>
     </row>
     <row r="213">
@@ -26070,11 +26288,11 @@
         </is>
       </c>
       <c r="V213">
-        <v>1756630</v>
+        <v>1753924</v>
       </c>
       <c r="W213" t="inlineStr">
         <is>
-          <t>CONTROLE POSITIVO  - IDENTIFICACAO: VIRAL; METODOLOGIA: PCR EM TEMPO REAL; APLICACAO: DETECCAO QUANTITATIVA DA CEPA 2019-NCOV;</t>
+          <t>CONTROLE POSITIVO  - IDENTIFICACAO: HUMANO; METODOLOGIA: PCR EM TEMPO REAL; APLICACAO: DETECCAO QUANTITATIVA DA CEPA 2019-NCOV;</t>
         </is>
       </c>
       <c r="X213">
@@ -26099,48 +26317,48 @@
         <v>9</v>
       </c>
       <c r="AC213">
-        <v>998</v>
+        <v>1298</v>
       </c>
       <c r="AD213">
-        <v>998</v>
+        <v>1298</v>
       </c>
       <c r="AE213">
-        <v>8982</v>
+        <v>11682</v>
       </c>
       <c r="AF213">
-        <v>8982</v>
+        <v>11682</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1501561 000030/2020</t>
+          <t>1501561 000029/2020</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831065/0/0/62110/0/0/0/0/15771/65320018/217626/1755366/323445/1501561000030-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/20981/0/0/0/0/3854/68201451/215959/1753924/323117/1501561000029-2020</t>
         </is>
       </c>
       <c r="C214" s="2">
-        <v>43955</v>
+        <v>43950</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Aquisição de aventais cirúrgico de TNT impermeável, para atendimento a demanda da pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de KITS DE BIOLOGIA MOLECULAR (PCR) PARA DIAGNÓSTICO LABORATORIAL DO COVID-19 para atendimento de demanda da Secretaria de Estado da Saúde, visando a ampliação da rede diagnóstica no Estado.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=30&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=29&amp;ano=2020</t>
         </is>
       </c>
       <c r="F214">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -26154,11 +26372,11 @@
         </is>
       </c>
       <c r="J214">
-        <v>9247154</v>
+        <v>9247090</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162971</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162843</t>
         </is>
       </c>
       <c r="L214">
@@ -26170,53 +26388,53 @@
         </is>
       </c>
       <c r="N214" s="2">
-        <v>43959</v>
+        <v>43951</v>
       </c>
       <c r="O214" s="2">
-        <v>43959</v>
+        <v>43951</v>
       </c>
       <c r="Q214" s="2">
-        <v>44142</v>
+        <v>44133</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>15.300.600/0001-42</t>
+          <t>13.545.241/0001-68</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>MONICA REIS RUBIA -ME</t>
+          <t>SINTESE BIOTECNOLOGIA LTDA</t>
         </is>
       </c>
       <c r="T214" t="inlineStr">
         <is>
-          <t>1500.01.0020360/2020-28</t>
+          <t>1500.01.0018971/2020-89</t>
         </is>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbKgSOpElIwXfkVKO9SUqmTWxMs9s1x6ZQSd1E_EdFHf</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNUQWfe3MlhzbSyoPeP8vAWsPGWtDxxZB9X87V89pINb5</t>
         </is>
       </c>
       <c r="V214">
-        <v>1755366</v>
+        <v>1756630</v>
       </c>
       <c r="W214" t="inlineStr">
         <is>
-          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL, MANGA LONGA COM ELASTICO NO PUNHO; MATERIA-PRIMA: TELA NAO TECIDO, SMS, 100% POLIPROPILENO; GRAMATURA/COMPOSICAO: MINIMA DE 50G/M2; COMPRIMENTO:  1,20 M  X 1,50M (C X L), APROXIMADAMENTE;</t>
+          <t>CONTROLE POSITIVO  - IDENTIFICACAO: VIRAL; METODOLOGIA: PCR EM TEMPO REAL; APLICACAO: DETECCAO QUANTITATIVA DA CEPA 2019-NCOV;</t>
         </is>
       </c>
       <c r="X214">
-        <v>1501</v>
+        <v>4291</v>
       </c>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+          <t>FUNDO ESTADUAL DE SAUDE</t>
         </is>
       </c>
       <c r="Z214" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA214" t="inlineStr">
@@ -26225,51 +26443,51 @@
         </is>
       </c>
       <c r="AB214">
-        <v>500000</v>
+        <v>9</v>
       </c>
       <c r="AC214">
-        <v>12.29</v>
+        <v>998</v>
       </c>
       <c r="AD214">
-        <v>12.29</v>
+        <v>998</v>
       </c>
       <c r="AE214">
-        <v>6145000</v>
+        <v>8982</v>
       </c>
       <c r="AF214">
-        <v>6145000</v>
+        <v>8982</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1501561 000031/2020</t>
+          <t>1501561 000030/2020</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/37380/0/0/0/0/822/65181751/219609/1758063/323435/1501561000031-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831065/0/0/62110/0/0/0/0/15771/65320018/217626/1755366/323445/1501561000030-2020</t>
         </is>
       </c>
       <c r="C215" s="2">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Aquisição de VENTILADORES PULMONARES para atendimento de demanda da Secretaria de Estado da Saúde, visando equipar as unidades hospitalares envolvidas no atendimento e combate à pandemia da COVID-19.</t>
+          <t>Aquisição de aventais cirúrgico de TNT impermeável, para atendimento a demanda da pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=31&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=30&amp;ano=2020</t>
         </is>
       </c>
       <c r="F215">
-        <v>1320</v>
+        <v>1500</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAUDE</t>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -26283,11 +26501,11 @@
         </is>
       </c>
       <c r="J215">
-        <v>9247151</v>
+        <v>9247154</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162969</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162971</t>
         </is>
       </c>
       <c r="L215">
@@ -26299,48 +26517,48 @@
         </is>
       </c>
       <c r="N215" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="O215" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="Q215" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>00.331.788/0031-34</t>
+          <t>15.300.600/0001-42</t>
         </is>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>AIR LIQUIDE BRASIL LTDA</t>
+          <t>MONICA REIS RUBIA -ME</t>
         </is>
       </c>
       <c r="T215" t="inlineStr">
         <is>
-          <t>1500.01.0021514/2020-07</t>
+          <t>1500.01.0020360/2020-28</t>
         </is>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNT1a_l40I2Ai3bADRCtSKqirkhVuMkobFpuiBgJavWbj</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbKgSOpElIwXfkVKO9SUqmTWxMs9s1x6ZQSd1E_EdFHf</t>
         </is>
       </c>
       <c r="V215">
-        <v>1758063</v>
+        <v>1755366</v>
       </c>
       <c r="W215" t="inlineStr">
         <is>
-          <t>VENTILADOR PULMONAR - TIPO: MICROPROCESSADO; INVASIVO E NAO INVASIVO ;</t>
+          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL, MANGA LONGA COM ELASTICO NO PUNHO; MATERIA-PRIMA: TELA NAO TECIDO, SMS, 100% POLIPROPILENO; GRAMATURA/COMPOSICAO: MINIMA DE 50G/M2; COMPRIMENTO:  1,20 M  X 1,50M (C X L), APROXIMADAMENTE;</t>
         </is>
       </c>
       <c r="X215">
-        <v>4291</v>
+        <v>1501</v>
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>FUNDO ESTADUAL DE SAUDE</t>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
         </is>
       </c>
       <c r="Z215" t="inlineStr">
@@ -26350,55 +26568,55 @@
       </c>
       <c r="AA215" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB215">
-        <v>300</v>
+        <v>500000</v>
       </c>
       <c r="AC215">
-        <v>24359.2562</v>
+        <v>12.29</v>
       </c>
       <c r="AD215">
-        <v>24359.2562</v>
+        <v>12.29</v>
       </c>
       <c r="AE215">
-        <v>7307776.86</v>
+        <v>6145000</v>
       </c>
       <c r="AF215">
-        <v>7307776.86</v>
+        <v>6145000</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1501561 000032/2020</t>
+          <t>1501561 000031/2020</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831008/0/0/62110/0/0/0/0/15771/65320018/217626/1755366/323606/1501561000032-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831017/0/0/37380/0/0/0/0/822/65181751/219609/1758063/323435/1501561000031-2020</t>
         </is>
       </c>
       <c r="C216" s="2">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Aquisição de aventais cirúrgicos, para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
+          <t>Aquisição de VENTILADORES PULMONARES para atendimento de demanda da Secretaria de Estado da Saúde, visando equipar as unidades hospitalares envolvidas no atendimento e combate à pandemia da COVID-19.</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=32&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=31&amp;ano=2020</t>
         </is>
       </c>
       <c r="F216">
-        <v>2270</v>
+        <v>1320</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
+          <t>SECRETARIA DE ESTADO DA SAUDE</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -26412,11 +26630,11 @@
         </is>
       </c>
       <c r="J216">
-        <v>9247179</v>
+        <v>9247151</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163028</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162969</t>
         </is>
       </c>
       <c r="L216">
@@ -26428,48 +26646,48 @@
         </is>
       </c>
       <c r="N216" s="2">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="O216" s="2">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="Q216" s="2">
-        <v>44143</v>
+        <v>44141</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>15.300.600/0001-42</t>
+          <t>00.331.788/0031-34</t>
         </is>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>MONICA REIS RUBIA -ME</t>
+          <t>AIR LIQUIDE BRASIL LTDA</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
         <is>
-          <t>1500.01.0020761/2020-65</t>
+          <t>1500.01.0021514/2020-07</t>
         </is>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZMrwL1l0czSUExtLCVTXTNDl5qIGUBeIV94ZydOjaD1</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNT1a_l40I2Ai3bADRCtSKqirkhVuMkobFpuiBgJavWbj</t>
         </is>
       </c>
       <c r="V216">
-        <v>1755366</v>
+        <v>1758063</v>
       </c>
       <c r="W216" t="inlineStr">
         <is>
-          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL, MANGA LONGA COM ELASTICO NO PUNHO; MATERIA-PRIMA: TELA NAO TECIDO, SMS, 100% POLIPROPILENO; GRAMATURA/COMPOSICAO: MINIMA DE 50G/M2; COMPRIMENTO:  1,20 M  X 1,50M (C X L), APROXIMADAMENTE;</t>
+          <t>VENTILADOR PULMONAR - TIPO: MICROPROCESSADO; INVASIVO E NAO INVASIVO ;</t>
         </is>
       </c>
       <c r="X216">
-        <v>2271</v>
+        <v>4291</v>
       </c>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
+          <t>FUNDO ESTADUAL DE SAUDE</t>
         </is>
       </c>
       <c r="Z216" t="inlineStr">
@@ -26479,55 +26697,55 @@
       </c>
       <c r="AA216" t="inlineStr">
         <is>
-          <t>MINAS GERAIS</t>
+          <t>Contagem</t>
         </is>
       </c>
       <c r="AB216">
-        <v>500000</v>
+        <v>300</v>
       </c>
       <c r="AC216">
-        <v>12.29</v>
+        <v>24359.2562</v>
       </c>
       <c r="AD216">
-        <v>12.29</v>
+        <v>24359.2562</v>
       </c>
       <c r="AE216">
-        <v>6145000</v>
+        <v>7307776.86</v>
       </c>
       <c r="AF216">
-        <v>6145000</v>
+        <v>7307776.86</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2012015 000031/2020</t>
+          <t>1501561 000032/2020</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/27-05-2020/1831081/0/0/13002/0/0/0/0/10733/65320034/10036/125628/321414/2012015000031-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-04-2020/30-06-2020/1831008/0/0/62110/0/0/0/0/15771/65320018/217626/1755366/323606/1501561000032-2020</t>
         </is>
       </c>
       <c r="C217" s="2">
-        <v>43907</v>
+        <v>43959</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Aquisição EMERGENCIAL do equipamento de proteção individual MÁSCARA DESCARTÁVEL N95 para o Hospital Governador Israel Pinheiro-HGIP,</t>
+          <t>Aquisição de aventais cirúrgicos, para atendimento a demanda de pandemia do COVID-19, no Estado de Minas Gerais.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=31&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=1501561&amp;numero=32&amp;ano=2020</t>
         </is>
       </c>
       <c r="F217">
-        <v>2010</v>
+        <v>2270</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
+          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -26541,42 +26759,64 @@
         </is>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>9247179</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163028</t>
+        </is>
+      </c>
+      <c r="L217">
+        <v>1500</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DE PLANEJAMENTO E GESTAO</t>
+        </is>
+      </c>
+      <c r="N217" s="2">
+        <v>43960</v>
+      </c>
+      <c r="O217" s="2">
+        <v>43960</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>44143</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>00.267.908/0001-66</t>
+          <t>15.300.600/0001-42</t>
         </is>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>HAND SHOP SUPRIMENTOS MEDICOS &amp; TERAPEUTICOS LTDA</t>
+          <t>MONICA REIS RUBIA -ME</t>
         </is>
       </c>
       <c r="T217" t="inlineStr">
         <is>
-          <t>2010.01.0014197/2020-16</t>
+          <t>1500.01.0020761/2020-65</t>
         </is>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQNokXU1GPeDIRmLJvM2Au83nZ9Vb3mOzvUzzUYm7gOo</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZMrwL1l0czSUExtLCVTXTNDl5qIGUBeIV94ZydOjaD1</t>
         </is>
       </c>
       <c r="V217">
-        <v>125628</v>
+        <v>1755366</v>
       </c>
       <c r="W217" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>AVENTAL PARA USO MEDICO/ODONTOLOGICO - TIPO: DESCARTAVEL, MANGA LONGA COM ELASTICO NO PUNHO; MATERIA-PRIMA: TELA NAO TECIDO, SMS, 100% POLIPROPILENO; GRAMATURA/COMPOSICAO: MINIMA DE 50G/M2; COMPRIMENTO:  1,20 M  X 1,50M (C X L), APROXIMADAMENTE;</t>
         </is>
       </c>
       <c r="X217">
-        <v>2011</v>
+        <v>2271</v>
       </c>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES DO ESTADO DE MINAS GERAIS</t>
+          <t>FUNDACAO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z217" t="inlineStr">
@@ -26586,47 +26826,47 @@
       </c>
       <c r="AA217" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>MINAS GERAIS</t>
         </is>
       </c>
       <c r="AB217">
-        <v>6000</v>
+        <v>500000</v>
       </c>
       <c r="AC217">
-        <v>12.9</v>
+        <v>12.29</v>
       </c>
       <c r="AD217">
-        <v>12.9</v>
+        <v>12.29</v>
       </c>
       <c r="AE217">
-        <v>77400</v>
+        <v>6145000</v>
       </c>
       <c r="AF217">
-        <v>77400</v>
+        <v>6145000</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2012015 000034/2020</t>
+          <t>2012015 000031/2020</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/covid-19/compras-contratos/contratoscovid-detalharcompra/322908</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/27-05-2020/1831081/0/0/13002/0/0/0/0/10733/65320034/10036/125628/321414/2012015000031-2020</t>
         </is>
       </c>
       <c r="C218" s="2">
-        <v>43921</v>
+        <v>43907</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Contratação, do serviço de coleta, transporte e entrega de material biológico de origem humana para análise, em virtude do surto de doença respiratória- CoronaVírus.</t>
+          <t>Aquisição EMERGENCIAL do equipamento de proteção individual MÁSCARA DESCARTÁVEL N95 para o Hospital Governador Israel Pinheiro-HGIP,</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=34&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=31&amp;ano=2020</t>
         </is>
       </c>
       <c r="F218">
@@ -26648,56 +26888,34 @@
         </is>
       </c>
       <c r="J218">
-        <v>9247172</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162983</t>
-        </is>
-      </c>
-      <c r="L218">
-        <v>2010</v>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
-        </is>
-      </c>
-      <c r="N218" s="2">
-        <v>43964</v>
-      </c>
-      <c r="O218" s="2">
-        <v>43964</v>
-      </c>
-      <c r="Q218" s="2">
-        <v>44147</v>
+        <v>0</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>07.837.315/0001-37</t>
+          <t>00.267.908/0001-66</t>
         </is>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>BIOLOGISTICA SOLUCOES EM LOGISTICA E SERVICOS EIRELI</t>
+          <t>HAND SHOP SUPRIMENTOS MEDICOS &amp; TERAPEUTICOS LTDA</t>
         </is>
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>2010.01.0015392/2020-52</t>
+          <t>2010.01.0014197/2020-16</t>
         </is>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQooaxlcnHtmrLkWw6gTNyR9L7QYVCcoU3CU8mwn4dbu</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQNokXU1GPeDIRmLJvM2Au83nZ9Vb3mOzvUzzUYm7gOo</t>
         </is>
       </c>
       <c r="V218">
-        <v>84581</v>
+        <v>125628</v>
       </c>
       <c r="W218" t="inlineStr">
         <is>
-          <t>COLETA, ENTREGA DE MATERIAL BIOLOGICO HUMANO FORA DOS LIMITES DA AV CONTORNO EM ATE 30 KM DE BH</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: N 95; FORMATO: CONCHA OU DOBRAVEL; CAMADAS: 4 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: NAO APLICAVEL; FILTRO: FILTRO PFF2; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X218">
@@ -26710,7 +26928,7 @@
       </c>
       <c r="Z218" t="inlineStr">
         <is>
-          <t>SERVICOS DE TRANSPORTE DE MATERIAL BIOLOGICO DE ORIGEM HUMANA OU      ANIMAL</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA218" t="inlineStr">
@@ -26719,43 +26937,43 @@
         </is>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AC218">
-        <v>27653.11</v>
+        <v>12.9</v>
       </c>
       <c r="AD218">
-        <v>27653.11</v>
+        <v>12.9</v>
       </c>
       <c r="AE218">
-        <v>27653.11</v>
+        <v>77400</v>
       </c>
       <c r="AF218">
-        <v>27653.11</v>
+        <v>77400</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2012015 000041/2020</t>
+          <t>2012015 000034/2020</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/27-05-2020/1831081/0/0/30348/0/0/0/0/10733/65320034/8733/125245/324182/2012015000041-2020</t>
+          <t>http://www.transparencia.mg.gov.br/covid-19/compras-contratos/contratoscovid-detalharcompra/322908</t>
         </is>
       </c>
       <c r="C219" s="2">
-        <v>43937</v>
+        <v>43921</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Aquisição EMERGENCIAL de material médico-hospitalar MÁSCARA CIRÚRGICA TRÊS CAMADAS para o Hospital Governador Israel Pinheiro-HGIP.</t>
+          <t>Contratação, do serviço de coleta, transporte e entrega de material biológico de origem humana para análise, em virtude do surto de doença respiratória- CoronaVírus.</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=41&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=34&amp;ano=2020</t>
         </is>
       </c>
       <c r="F219">
@@ -26777,34 +26995,56 @@
         </is>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>9247172</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162983</t>
+        </is>
+      </c>
+      <c r="L219">
+        <v>2010</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
+        </is>
+      </c>
+      <c r="N219" s="2">
+        <v>43964</v>
+      </c>
+      <c r="O219" s="2">
+        <v>43964</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>44147</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>14.707.364/0001-10</t>
+          <t>07.837.315/0001-37</t>
         </is>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>XCMG BRASIL INDUSTRIA LTDA</t>
+          <t>BIOLOGISTICA SOLUCOES EM LOGISTICA E SERVICOS EIRELI</t>
         </is>
       </c>
       <c r="T219" t="inlineStr">
         <is>
-          <t>2010.01.0012770/2020-36</t>
+          <t>2010.01.0015392/2020-52</t>
         </is>
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQNokXU1GPeDIRmLJvM2Au83nZ9Vb3mOzvUzzUYm7gOo</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQooaxlcnHtmrLkWw6gTNyR9L7QYVCcoU3CU8mwn4dbu</t>
         </is>
       </c>
       <c r="V219">
-        <v>125245</v>
+        <v>84581</v>
       </c>
       <c r="W219" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 03 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 40 G; FILTRO: COM FILTRO; TIPO FIXACAO: 4 TIRAS LATERAIS; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>COLETA, ENTREGA DE MATERIAL BIOLOGICO HUMANO FORA DOS LIMITES DA AV CONTORNO EM ATE 30 KM DE BH</t>
         </is>
       </c>
       <c r="X219">
@@ -26817,7 +27057,7 @@
       </c>
       <c r="Z219" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>SERVICOS DE TRANSPORTE DE MATERIAL BIOLOGICO DE ORIGEM HUMANA OU      ANIMAL</t>
         </is>
       </c>
       <c r="AA219" t="inlineStr">
@@ -26826,43 +27066,43 @@
         </is>
       </c>
       <c r="AB219">
-        <v>162000</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>2.8</v>
+        <v>27653.11</v>
       </c>
       <c r="AD219">
-        <v>2.8</v>
+        <v>27653.11</v>
       </c>
       <c r="AE219">
-        <v>453600</v>
+        <v>27653.11</v>
       </c>
       <c r="AF219">
-        <v>453600</v>
+        <v>27653.11</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2012015 000051/2020</t>
+          <t>2012015 000041/2020</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/22-06-2020/1831081/0/0/13609/0/0/0/0/9103/65155203/134879/1271890/324751/2012015000051-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/27-05-2020/1831081/0/0/30348/0/0/0/0/10733/65320034/8733/125245/324182/2012015000041-2020</t>
         </is>
       </c>
       <c r="C220" s="2">
-        <v>43963</v>
+        <v>43937</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Aquisição de materiais médico-hospitalares do tipo VENTILATÓRIOS para utilização no Hospital Governador Israel Pinheiro-HGIP, mediante contrato para fornecimento parcelado.</t>
+          <t>Aquisição EMERGENCIAL de material médico-hospitalar MÁSCARA CIRÚRGICA TRÊS CAMADAS para o Hospital Governador Israel Pinheiro-HGIP.</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=51&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=41&amp;ano=2020</t>
         </is>
       </c>
       <c r="F220">
@@ -26884,56 +27124,34 @@
         </is>
       </c>
       <c r="J220">
-        <v>9250254</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163317</t>
-        </is>
-      </c>
-      <c r="L220">
-        <v>2010</v>
-      </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
-        </is>
-      </c>
-      <c r="N220" s="2">
-        <v>43999</v>
-      </c>
-      <c r="O220" s="2">
-        <v>43999</v>
-      </c>
-      <c r="Q220" s="2">
-        <v>44181</v>
+        <v>0</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>05.075.964/0001-12</t>
+          <t>14.707.364/0001-10</t>
         </is>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
+          <t>XCMG BRASIL INDUSTRIA LTDA</t>
         </is>
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t>2010.01.0020426/2020-31</t>
+          <t>2010.01.0012770/2020-36</t>
         </is>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNTj8pIdi4pHAEn5oyrLcQaMTEgkbx3rOnCTpbEVoPAlu</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQNokXU1GPeDIRmLJvM2Au83nZ9Vb3mOzvUzzUYm7gOo</t>
         </is>
       </c>
       <c r="V220">
-        <v>804495</v>
+        <v>125245</v>
       </c>
       <c r="W220" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: COM VIA DE IRRIGACAO;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 03 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 40 G; FILTRO: COM FILTRO; TIPO FIXACAO: 4 TIRAS LATERAIS; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X220">
@@ -26955,19 +27173,19 @@
         </is>
       </c>
       <c r="AB220">
-        <v>5250</v>
+        <v>162000</v>
       </c>
       <c r="AC220">
-        <v>45</v>
+        <v>2.8</v>
       </c>
       <c r="AD220">
-        <v>45</v>
+        <v>2.8</v>
       </c>
       <c r="AE220">
-        <v>236250</v>
+        <v>453600</v>
       </c>
       <c r="AF220">
-        <v>236250</v>
+        <v>453600</v>
       </c>
     </row>
     <row r="221">
@@ -27058,11 +27276,11 @@
         </is>
       </c>
       <c r="V221">
-        <v>1271890</v>
+        <v>804495</v>
       </c>
       <c r="W221" t="inlineStr">
         <is>
-          <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: PARA RESPIRADORES; TIPO: HIDROFOBO;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: COM VIA DE IRRIGACAO;</t>
         </is>
       </c>
       <c r="X221">
@@ -27084,19 +27302,19 @@
         </is>
       </c>
       <c r="AB221">
-        <v>11700</v>
+        <v>5250</v>
       </c>
       <c r="AC221">
-        <v>31.24</v>
+        <v>45</v>
       </c>
       <c r="AD221">
-        <v>31.24</v>
+        <v>45</v>
       </c>
       <c r="AE221">
-        <v>365508</v>
+        <v>236250</v>
       </c>
       <c r="AF221">
-        <v>365508</v>
+        <v>236250</v>
       </c>
     </row>
     <row r="222">
@@ -27142,11 +27360,11 @@
         </is>
       </c>
       <c r="J222">
-        <v>9250315</v>
+        <v>9250254</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163341</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163317</t>
         </is>
       </c>
       <c r="L222">
@@ -27168,12 +27386,12 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>23.836.281/0001-12</t>
+          <t>05.075.964/0001-12</t>
         </is>
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
+          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
         </is>
       </c>
       <c r="T222" t="inlineStr">
@@ -27187,11 +27405,11 @@
         </is>
       </c>
       <c r="V222">
-        <v>461920</v>
+        <v>1271890</v>
       </c>
       <c r="W222" t="inlineStr">
         <is>
-          <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
+          <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: PARA RESPIRADORES; TIPO: HIDROFOBO;</t>
         </is>
       </c>
       <c r="X222">
@@ -27213,43 +27431,43 @@
         </is>
       </c>
       <c r="AB222">
-        <v>31200</v>
+        <v>11700</v>
       </c>
       <c r="AC222">
-        <v>9.68</v>
+        <v>31.24</v>
       </c>
       <c r="AD222">
-        <v>9.68</v>
+        <v>31.24</v>
       </c>
       <c r="AE222">
-        <v>302016</v>
+        <v>365508</v>
       </c>
       <c r="AF222">
-        <v>302016</v>
+        <v>365508</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2012015 000071/2020</t>
+          <t>2012015 000051/2020</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/02-07-2020/1831081/0/0/30038/0/0/0/0/22139/68204981/220118/1758276/326102/2012015000071-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/22-06-2020/1831081/0/0/13609/0/0/0/0/9103/65155203/134879/1271890/324751/2012015000051-2020</t>
         </is>
       </c>
       <c r="C223" s="2">
-        <v>43987</v>
+        <v>43963</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Reagentes, Calibradores e Controles para realização de determinação qualitativa de anticorpos tipo IgG para SARS-COV-2 (coronavírus)</t>
+          <t>Aquisição de materiais médico-hospitalares do tipo VENTILATÓRIOS para utilização no Hospital Governador Israel Pinheiro-HGIP, mediante contrato para fornecimento parcelado.</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=71&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=51&amp;ano=2020</t>
         </is>
       </c>
       <c r="F223">
@@ -27271,11 +27489,11 @@
         </is>
       </c>
       <c r="J223">
-        <v>9251266</v>
+        <v>9250315</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163567</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163341</t>
         </is>
       </c>
       <c r="L223">
@@ -27287,40 +27505,40 @@
         </is>
       </c>
       <c r="N223" s="2">
-        <v>44013</v>
+        <v>43999</v>
       </c>
       <c r="O223" s="2">
-        <v>44013</v>
+        <v>43999</v>
       </c>
       <c r="Q223" s="2">
-        <v>44192</v>
+        <v>44181</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>56.998.701/0032-12</t>
+          <t>23.836.281/0001-12</t>
         </is>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>ABBOTT LABORATORIOS DO BRASIL LTDA</t>
+          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
         </is>
       </c>
       <c r="T223" t="inlineStr">
         <is>
-          <t>2010.01.0025147/2020-22</t>
+          <t>2010.01.0020426/2020-31</t>
         </is>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQfdXj08nLKsdfp-ZSyjtZsd4OeKlYUeCe3Y8l5nGAoG</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNTj8pIdi4pHAEn5oyrLcQaMTEgkbx3rOnCTpbEVoPAlu</t>
         </is>
       </c>
       <c r="V223">
-        <v>1758276</v>
+        <v>461920</v>
       </c>
       <c r="W223" t="inlineStr">
         <is>
-          <t>TESTE PARA IMUNODIAGNOSTICO SARS-COV-2 - APLICACAO: DETECCAO QUALITATIVA ANTICORPOS IGG P/ SARS-COV-2; METODO: QUIMIOLUMINESCENCIA; AMOSTRAS: SORO E PLASMA HUMANO;</t>
+          <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
         </is>
       </c>
       <c r="X223">
@@ -27333,7 +27551,7 @@
       </c>
       <c r="Z223" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA223" t="inlineStr">
@@ -27342,43 +27560,43 @@
         </is>
       </c>
       <c r="AB223">
-        <v>3000</v>
+        <v>31200</v>
       </c>
       <c r="AC223">
-        <v>40.27</v>
+        <v>9.68</v>
       </c>
       <c r="AD223">
-        <v>40.27</v>
+        <v>9.68</v>
       </c>
       <c r="AE223">
-        <v>120810</v>
+        <v>302016</v>
       </c>
       <c r="AF223">
-        <v>120810</v>
+        <v>302016</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2012194 000003/2020</t>
+          <t>2012015 000071/2020</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/09-07-2020/1831081/0/0/18817/0/0/0/0/5308/61400149/102646/1188364/325215/2012194000003-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/02-07-2020/1831081/0/0/30038/0/0/0/0/22139/68204981/220118/1758276/326102/2012015000071-2020</t>
         </is>
       </c>
       <c r="C224" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Peças de Reposição Para os Ventiladores Pulmonares Marca Nellcor Puritam Benett</t>
+          <t>Reagentes, Calibradores e Controles para realização de determinação qualitativa de anticorpos tipo IgG para SARS-COV-2 (coronavírus)</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012194&amp;numero=3&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012015&amp;numero=71&amp;ano=2020</t>
         </is>
       </c>
       <c r="F224">
@@ -27400,34 +27618,56 @@
         </is>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>9251266</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163567</t>
+        </is>
+      </c>
+      <c r="L224">
+        <v>2010</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
+        </is>
+      </c>
+      <c r="N224" s="2">
+        <v>44013</v>
+      </c>
+      <c r="O224" s="2">
+        <v>44013</v>
+      </c>
+      <c r="Q224" s="2">
+        <v>44192</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>23.836.281/0001-12</t>
+          <t>56.998.701/0032-12</t>
         </is>
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
+          <t>ABBOTT LABORATORIOS DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="T224" t="inlineStr">
         <is>
-          <t>2010.01.0019957/2020-84</t>
+          <t>2010.01.0025147/2020-22</t>
         </is>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVZSQV91fGK89jvY-bG8XF0WomA33vcy-mlrc5d6NAEK</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNQfdXj08nLKsdfp-ZSyjtZsd4OeKlYUeCe3Y8l5nGAoG</t>
         </is>
       </c>
       <c r="V224">
-        <v>985201</v>
+        <v>1758276</v>
       </c>
       <c r="W224" t="inlineStr">
         <is>
-          <t>SENSOR PARA EQUIPAMENTO MEDICO-HOSPITALAR - IDENTIFICACAO: SENSOR FLUXO INSP. AR/O2; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT; REFERENCIA: 4-072211-SP;</t>
+          <t>TESTE PARA IMUNODIAGNOSTICO SARS-COV-2 - APLICACAO: DETECCAO QUALITATIVA ANTICORPOS IGG P/ SARS-COV-2; METODO: QUIMIOLUMINESCENCIA; AMOSTRAS: SORO E PLASMA HUMANO;</t>
         </is>
       </c>
       <c r="X224">
@@ -27440,7 +27680,7 @@
       </c>
       <c r="Z224" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA224" t="inlineStr">
@@ -27449,19 +27689,19 @@
         </is>
       </c>
       <c r="AB224">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="AC224">
-        <v>5209.46</v>
+        <v>40.27</v>
       </c>
       <c r="AD224">
-        <v>5209.46</v>
+        <v>40.27</v>
       </c>
       <c r="AE224">
-        <v>5209.46</v>
+        <v>120810</v>
       </c>
       <c r="AF224">
-        <v>5209.46</v>
+        <v>120810</v>
       </c>
     </row>
     <row r="225">
@@ -27530,11 +27770,11 @@
         </is>
       </c>
       <c r="V225">
-        <v>1137506</v>
+        <v>985201</v>
       </c>
       <c r="W225" t="inlineStr">
         <is>
-          <t>PLACA PARA EQUIPAMENTOS MED/HOSP. - IDENTIFICACAO: MEMORIA PCB-CPU-BDU; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 10078888;</t>
+          <t>SENSOR PARA EQUIPAMENTO MEDICO-HOSPITALAR - IDENTIFICACAO: SENSOR FLUXO INSP. AR/O2; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT; REFERENCIA: 4-072211-SP;</t>
         </is>
       </c>
       <c r="X225">
@@ -27559,16 +27799,16 @@
         <v>1</v>
       </c>
       <c r="AC225">
-        <v>12566.5</v>
+        <v>5209.46</v>
       </c>
       <c r="AD225">
-        <v>12566.5</v>
+        <v>5209.46</v>
       </c>
       <c r="AE225">
-        <v>12566.5</v>
+        <v>5209.46</v>
       </c>
       <c r="AF225">
-        <v>12566.5</v>
+        <v>5209.46</v>
       </c>
     </row>
     <row r="226">
@@ -27637,11 +27877,11 @@
         </is>
       </c>
       <c r="V226">
-        <v>1137590</v>
+        <v>1137506</v>
       </c>
       <c r="W226" t="inlineStr">
         <is>
-          <t>KIT MANUTENCAO EQUIPAMENTOS MEDICO-HOSPITALARES - IDENTIFICACAO: PREVENTIVA 10.000 HORAS; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 4-078179-00;</t>
+          <t>PLACA PARA EQUIPAMENTOS MED/HOSP. - IDENTIFICACAO: MEMORIA PCB-CPU-BDU; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 10078888;</t>
         </is>
       </c>
       <c r="X226">
@@ -27666,16 +27906,16 @@
         <v>1</v>
       </c>
       <c r="AC226">
-        <v>1649.84</v>
+        <v>12566.5</v>
       </c>
       <c r="AD226">
-        <v>1649.84</v>
+        <v>12566.5</v>
       </c>
       <c r="AE226">
-        <v>1649.84</v>
+        <v>12566.5</v>
       </c>
       <c r="AF226">
-        <v>1649.84</v>
+        <v>12566.5</v>
       </c>
     </row>
     <row r="227">
@@ -27744,11 +27984,11 @@
         </is>
       </c>
       <c r="V227">
-        <v>1188364</v>
+        <v>1137590</v>
       </c>
       <c r="W227" t="inlineStr">
         <is>
-          <t>BATERIA PARA EQUIPAMENTO MEDICO/HOSPITALAR - TENSAO: 24 VOLTS; CORRENTE: 7,0 AH; REFERENCIA: 4-070523-SP; EQUIPAMENTO: VENTILADOR PULMONAR NELLCOR PURITAN BENNETT/840;</t>
+          <t>KIT MANUTENCAO EQUIPAMENTOS MEDICO-HOSPITALARES - IDENTIFICACAO: PREVENTIVA 10.000 HORAS; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 4-078179-00;</t>
         </is>
       </c>
       <c r="X227">
@@ -27773,16 +28013,16 @@
         <v>1</v>
       </c>
       <c r="AC227">
-        <v>2115.6</v>
+        <v>1649.84</v>
       </c>
       <c r="AD227">
-        <v>2115.6</v>
+        <v>1649.84</v>
       </c>
       <c r="AE227">
-        <v>2115.6</v>
+        <v>1649.84</v>
       </c>
       <c r="AF227">
-        <v>2115.6</v>
+        <v>1649.84</v>
       </c>
     </row>
     <row r="228">
@@ -27851,11 +28091,11 @@
         </is>
       </c>
       <c r="V228">
-        <v>1540416</v>
+        <v>1188364</v>
       </c>
       <c r="W228" t="inlineStr">
         <is>
-          <t>CABO EQUIPAMENTO/INSTRUMENTO MEDICO-HOSPITALAR - IDENTIFICACAO: CABO DO LCD (FLAT CABLE); EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 4-076856-SP;</t>
+          <t>BATERIA PARA EQUIPAMENTO MEDICO/HOSPITALAR - TENSAO: 24 VOLTS; CORRENTE: 7,0 AH; REFERENCIA: 4-070523-SP; EQUIPAMENTO: VENTILADOR PULMONAR NELLCOR PURITAN BENNETT/840;</t>
         </is>
       </c>
       <c r="X228">
@@ -27880,16 +28120,16 @@
         <v>1</v>
       </c>
       <c r="AC228">
-        <v>902</v>
+        <v>2115.6</v>
       </c>
       <c r="AD228">
-        <v>902</v>
+        <v>2115.6</v>
       </c>
       <c r="AE228">
-        <v>902</v>
+        <v>2115.6</v>
       </c>
       <c r="AF228">
-        <v>902</v>
+        <v>2115.6</v>
       </c>
     </row>
     <row r="229">
@@ -27958,11 +28198,11 @@
         </is>
       </c>
       <c r="V229">
-        <v>1754823</v>
+        <v>1540416</v>
       </c>
       <c r="W229" t="inlineStr">
         <is>
-          <t>DISPLAY PARA EQUIPAMENTOS MEDICO-HOSPITALARES - IDENTIFICACAO: 840 LCD; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT; REFERENCIA: 10133165;</t>
+          <t>CABO EQUIPAMENTO/INSTRUMENTO MEDICO-HOSPITALAR - IDENTIFICACAO: CABO DO LCD (FLAT CABLE); EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 4-076856-SP;</t>
         </is>
       </c>
       <c r="X229">
@@ -27984,51 +28224,51 @@
         </is>
       </c>
       <c r="AB229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC229">
-        <v>6642</v>
+        <v>902</v>
       </c>
       <c r="AD229">
-        <v>6642</v>
+        <v>902</v>
       </c>
       <c r="AE229">
-        <v>19926</v>
+        <v>902</v>
       </c>
       <c r="AF229">
-        <v>19926</v>
+        <v>902</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2121022 000013/2020</t>
+          <t>2012194 000003/2020</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21585/79300596/170097/1669486/320360/2121022000013-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/09-07-2020/1831081/0/0/18817/0/0/0/0/5308/61400149/102646/1188364/325215/2012194000003-2020</t>
         </is>
       </c>
       <c r="C230" s="2">
-        <v>43907</v>
+        <v>43957</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus, para que se evite a propagação do mesmo em nossos funcionários.</t>
+          <t>Peças de Reposição Para os Ventiladores Pulmonares Marca Nellcor Puritam Benett</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=13&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2012194&amp;numero=3&amp;ano=2020</t>
         </is>
       </c>
       <c r="F230">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+          <t>INST.DE PREVIDENCIA DOS SERVIDORES DO EST.M.GERAIS</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -28038,7 +28278,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação - Por valor</t>
+          <t>Dispensa de Licitação</t>
         </is>
       </c>
       <c r="J230">
@@ -28046,43 +28286,43 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>21.559.804/0001-03</t>
+          <t>23.836.281/0001-12</t>
         </is>
       </c>
       <c r="S230" t="inlineStr">
         <is>
-          <t>GERBRA COMERCIO EIRELI - ME</t>
+          <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
         </is>
       </c>
       <c r="T230" t="inlineStr">
         <is>
-          <t>2120.01.0002380/2020-39</t>
+          <t>2010.01.0019957/2020-84</t>
         </is>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNU-bGLFMcHfylxcAnJciUWgFm2fjW-xNWqUTyFeF1e1c</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNVZSQV91fGK89jvY-bG8XF0WomA33vcy-mlrc5d6NAEK</t>
         </is>
       </c>
       <c r="V230">
-        <v>1669486</v>
+        <v>1754823</v>
       </c>
       <c r="W230" t="inlineStr">
         <is>
-          <t>ALCOOL ETILICO HIDRATADO ASPECTO FISICO: SOLUCAO AQUOSA; GRAU INPM: 70; GRAU GL: 77; APRESENTACAO: FRASCO 1 L;</t>
+          <t>DISPLAY PARA EQUIPAMENTOS MEDICO-HOSPITALARES - IDENTIFICACAO: 840 LCD; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT; REFERENCIA: 10133165;</t>
         </is>
       </c>
       <c r="X230">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y230" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z230" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA230" t="inlineStr">
@@ -28091,19 +28331,19 @@
         </is>
       </c>
       <c r="AB230">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="AC230">
-        <v>7.5</v>
+        <v>6642</v>
       </c>
       <c r="AD230">
-        <v>7.5</v>
+        <v>6642</v>
       </c>
       <c r="AE230">
-        <v>2250</v>
+        <v>19926</v>
       </c>
       <c r="AF230">
-        <v>2250</v>
+        <v>19926</v>
       </c>
     </row>
     <row r="231">
@@ -28172,11 +28412,11 @@
         </is>
       </c>
       <c r="V231">
-        <v>1696041</v>
+        <v>1669486</v>
       </c>
       <c r="W231" t="inlineStr">
         <is>
-          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: DE 62 A 74 GRAUS; GRAU GL: DE 70 A 84 GRAUS; APRESENTACAO: GALAO 5 L;</t>
+          <t>ALCOOL ETILICO HIDRATADO ASPECTO FISICO: SOLUCAO AQUOSA; GRAU INPM: 70; GRAU GL: 77; APRESENTACAO: FRASCO 1 L;</t>
         </is>
       </c>
       <c r="X231">
@@ -28189,7 +28429,7 @@
       </c>
       <c r="Z231" t="inlineStr">
         <is>
-          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
         </is>
       </c>
       <c r="AA231" t="inlineStr">
@@ -28198,43 +28438,43 @@
         </is>
       </c>
       <c r="AB231">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC231">
-        <v>144</v>
+        <v>7.5</v>
       </c>
       <c r="AD231">
-        <v>80</v>
+        <v>7.5</v>
       </c>
       <c r="AE231">
-        <v>14400</v>
+        <v>2250</v>
       </c>
       <c r="AF231">
-        <v>8000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2121022 000016/2020</t>
+          <t>2121022 000013/2020</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/23776/0/0/0/0/21585/79300596/170097/1669486/322871/2121022000016-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21585/79300596/170097/1669486/320360/2121022000013-2020</t>
         </is>
       </c>
       <c r="C232" s="2">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Aquisição  de álcool etílico hidratado e higienizador antisséptico de mãos gel;para atendimento aos funcionários, devido a crise do Coronavírus.</t>
+          <t>Atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus, para que se evite a propagação do mesmo em nossos funcionários.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=16&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=13&amp;ano=2020</t>
         </is>
       </c>
       <c r="F232">
@@ -28252,60 +28492,38 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Registro de preços realizado no SIRP</t>
+          <t>Dispensa de Licitação - Por valor</t>
         </is>
       </c>
       <c r="J232">
-        <v>9246044</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162744</t>
-        </is>
-      </c>
-      <c r="L232">
-        <v>2120</v>
-      </c>
-      <c r="M232" t="inlineStr">
-        <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
-        </is>
-      </c>
-      <c r="N232" s="2">
-        <v>43976</v>
-      </c>
-      <c r="O232" s="2">
-        <v>43946</v>
-      </c>
-      <c r="Q232" s="2">
-        <v>44196</v>
+        <v>0</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>04.654.861/0001-44</t>
+          <t>21.559.804/0001-03</t>
         </is>
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>INDALABOR INDAIA LABORATORIO FARMACEUTICO LTDA</t>
+          <t>GERBRA COMERCIO EIRELI - ME</t>
         </is>
       </c>
       <c r="T232" t="inlineStr">
         <is>
-          <t>2120.01.0002426/2020-58</t>
+          <t>2120.01.0002380/2020-39</t>
         </is>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbkDdfN-L9Clz1AdiQkQlFQXZ2VNXeTve-noWRbweyAb</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNU-bGLFMcHfylxcAnJciUWgFm2fjW-xNWqUTyFeF1e1c</t>
         </is>
       </c>
       <c r="V232">
-        <v>1669370</v>
+        <v>1696041</v>
       </c>
       <c r="W232" t="inlineStr">
         <is>
-          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: ENTRE 62 E 74 GRAUS; GRAU GL: ENTRE 70 E 84 GRAUS; APRESENTACAO: FRASCO COM VALVULA TIPO PUMP 500 ML;</t>
+          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: DE 62 A 74 GRAUS; GRAU GL: DE 70 A 84 GRAUS; APRESENTACAO: GALAO 5 L;</t>
         </is>
       </c>
       <c r="X232">
@@ -28323,23 +28541,23 @@
       </c>
       <c r="AA232" t="inlineStr">
         <is>
-          <t>MINAS GERAIS</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB232">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="AC232">
-        <v>6.58</v>
+        <v>144</v>
       </c>
       <c r="AD232">
-        <v>6.58</v>
+        <v>80</v>
       </c>
       <c r="AE232">
-        <v>4606</v>
+        <v>14400</v>
       </c>
       <c r="AF232">
-        <v>4606</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="233">
@@ -28430,11 +28648,11 @@
         </is>
       </c>
       <c r="V233">
-        <v>1669397</v>
+        <v>1669370</v>
       </c>
       <c r="W233" t="inlineStr">
         <is>
-          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: DE 62 A 74 GRAUS; GRAU GL: DE 70 A 84 GRAUS; APRESENTACAO: REFIL PARA DISPENSER 800 ML COM BICO DOSADOR;</t>
+          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: ENTRE 62 E 74 GRAUS; GRAU GL: ENTRE 70 E 84 GRAUS; APRESENTACAO: FRASCO COM VALVULA TIPO PUMP 500 ML;</t>
         </is>
       </c>
       <c r="X233">
@@ -28456,19 +28674,19 @@
         </is>
       </c>
       <c r="AB233">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AC233">
-        <v>6.8</v>
+        <v>6.58</v>
       </c>
       <c r="AD233">
-        <v>6.8</v>
+        <v>6.58</v>
       </c>
       <c r="AE233">
-        <v>1360</v>
+        <v>4606</v>
       </c>
       <c r="AF233">
-        <v>1360</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="234">
@@ -28559,11 +28777,11 @@
         </is>
       </c>
       <c r="V234">
-        <v>1669486</v>
+        <v>1669397</v>
       </c>
       <c r="W234" t="inlineStr">
         <is>
-          <t>ALCOOL ETILICO HIDRATADO ASPECTO FISICO: SOLUCAO AQUOSA; GRAU INPM: 70; GRAU GL: 77; APRESENTACAO: FRASCO 1 L;</t>
+          <t>HIGIENIZADOR ANTISSEPTICO DE MAOS ASPECTO FISICO: GEL; COMPOSICAO: ALCOOL ETILICO HIDRATADO + AGENTE HIDRATANTE; GRAU INPM: DE 62 A 74 GRAUS; GRAU GL: DE 70 A 84 GRAUS; APRESENTACAO: REFIL PARA DISPENSER 800 ML COM BICO DOSADOR;</t>
         </is>
       </c>
       <c r="X234">
@@ -28576,7 +28794,7 @@
       </c>
       <c r="Z234" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="AA234" t="inlineStr">
@@ -28585,43 +28803,43 @@
         </is>
       </c>
       <c r="AB234">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC234">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="AD234">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="AE234">
-        <v>400</v>
+        <v>1360</v>
       </c>
       <c r="AF234">
-        <v>400</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2121022 000017/2020</t>
+          <t>2121022 000016/2020</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/11790/36500798/81234/513830/320558/2121022000017-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/23776/0/0/0/0/21585/79300596/170097/1669486/322871/2121022000016-2020</t>
         </is>
       </c>
       <c r="C235" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Aquisição dos materiais é para atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus.</t>
+          <t>Aquisição  de álcool etílico hidratado e higienizador antisséptico de mãos gel;para atendimento aos funcionários, devido a crise do Coronavírus.</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=17&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=16&amp;ano=2020</t>
         </is>
       </c>
       <c r="F235">
@@ -28639,38 +28857,60 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação - Por valor</t>
+          <t>Registro de preços realizado no SIRP</t>
         </is>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>9246044</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162744</t>
+        </is>
+      </c>
+      <c r="L235">
+        <v>2120</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+        </is>
+      </c>
+      <c r="N235" s="2">
+        <v>43976</v>
+      </c>
+      <c r="O235" s="2">
+        <v>43946</v>
+      </c>
+      <c r="Q235" s="2">
+        <v>44196</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>21.559.804/0001-03</t>
+          <t>04.654.861/0001-44</t>
         </is>
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>GERBRA COMERCIO EIRELI - ME</t>
+          <t>INDALABOR INDAIA LABORATORIO FARMACEUTICO LTDA</t>
         </is>
       </c>
       <c r="T235" t="inlineStr">
         <is>
-          <t>2120.01.0002470/2020-34</t>
+          <t>2120.01.0002426/2020-58</t>
         </is>
       </c>
       <c r="U235" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbaftZbsSfiX2ducxTUKZGMtb3vQmBzcpVhwkMOvJmDe</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbkDdfN-L9Clz1AdiQkQlFQXZ2VNXeTve-noWRbweyAb</t>
         </is>
       </c>
       <c r="V235">
-        <v>513830</v>
+        <v>1669486</v>
       </c>
       <c r="W235" t="inlineStr">
         <is>
-          <t>BISNAGA PLASTICA - TIPO: BRANCA LEITOSA; CAPACIDADE: 280 GRAMAS; FUNDO: FUNDO FECHADO; BOCA: BOCA AUTO LACRAVEL; BATOQUE: COM BATOQUE;</t>
+          <t>ALCOOL ETILICO HIDRATADO ASPECTO FISICO: SOLUCAO AQUOSA; GRAU INPM: 70; GRAU GL: 77; APRESENTACAO: FRASCO 1 L;</t>
         </is>
       </c>
       <c r="X235">
@@ -28683,52 +28923,52 @@
       </c>
       <c r="Z235" t="inlineStr">
         <is>
-          <t>MAQUINAS, COMPONENTES, SUPRIMENTOS E EQUIPAMENTOS PARA INDUSTRIA QUIMICA E FARMACEUTICA</t>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
         </is>
       </c>
       <c r="AA235" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>MINAS GERAIS</t>
         </is>
       </c>
       <c r="AB235">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="AC235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE235">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="AF235">
-        <v>1050</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2121022 000020/2020</t>
+          <t>2121022 000017/2020</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21741/85200085/175918/1692160/320977/2121022000020-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/11790/36500798/81234/513830/320558/2121022000017-2020</t>
         </is>
       </c>
       <c r="C236" s="2">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>A aquisição de 40 (quarenta) galões de 5 litros de sabonete líquido para suprir a demanda do IPSM devido a crise de saúde pública instalado pelo Coronavírus</t>
+          <t>Aquisição dos materiais é para atender as demandas de todo o IPSM na realização de seus atendimentos aos beneficiários da saúde devido a pandemia do Coronavírus.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=20&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=17&amp;ano=2020</t>
         </is>
       </c>
       <c r="F236">
@@ -28764,20 +29004,20 @@
       </c>
       <c r="T236" t="inlineStr">
         <is>
-          <t>2120.01.0002637/2020-84</t>
+          <t>2120.01.0002470/2020-34</t>
         </is>
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcB6rkIRjUz8PjAVWeiitknebRdMANcKLG3H0Jtys8jx</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbaftZbsSfiX2ducxTUKZGMtb3vQmBzcpVhwkMOvJmDe</t>
         </is>
       </c>
       <c r="V236">
-        <v>1692160</v>
+        <v>513830</v>
       </c>
       <c r="W236" t="inlineStr">
         <is>
-          <t>SABONETE LIQUIDO -  INDICACAO: HIGIENIZACAO DA PELE; BASE DO PRODUTO: PEROLADA; ASPECTO: VISCOSO; PH: FISIOLOGICO; COMPOSICAO: AGENTES HIDRATANTES E EMOLIENTES; FRAGRANCIA: FRAGRANCIA SUAVE HIPOALERGENICA; APRESENTACAO: EMBALAGEM 5 L;</t>
+          <t>BISNAGA PLASTICA - TIPO: BRANCA LEITOSA; CAPACIDADE: 280 GRAMAS; FUNDO: FUNDO FECHADO; BOCA: BOCA AUTO LACRAVEL; BATOQUE: COM BATOQUE;</t>
         </is>
       </c>
       <c r="X236">
@@ -28790,7 +29030,7 @@
       </c>
       <c r="Z236" t="inlineStr">
         <is>
-          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
+          <t>MAQUINAS, COMPONENTES, SUPRIMENTOS E EQUIPAMENTOS PARA INDUSTRIA QUIMICA E FARMACEUTICA</t>
         </is>
       </c>
       <c r="AA236" t="inlineStr">
@@ -28799,43 +29039,43 @@
         </is>
       </c>
       <c r="AB236">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC236">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AD236">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AE236">
-        <v>1600</v>
+        <v>1050</v>
       </c>
       <c r="AF236">
-        <v>1600</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2121022 000021/2020</t>
+          <t>2121022 000020/2020</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/62017/0/0/0/0/10733/65320034/191403/1718940/322704/2121022000021-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-02-2020/02-04-2020/1831097/0/0/33700/0/0/0/0/21741/85200085/175918/1692160/320977/2121022000020-2020</t>
         </is>
       </c>
       <c r="C237" s="2">
-        <v>43938</v>
+        <v>43915</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>A aquisição de máscaras descartáveis para uso dos funcionários do IPSM no atendimento a demanda de prevenção ao Coronavírus.</t>
+          <t>A aquisição de 40 (quarenta) galões de 5 litros de sabonete líquido para suprir a demanda do IPSM devido a crise de saúde pública instalado pelo Coronavírus</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=21&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=20&amp;ano=2020</t>
         </is>
       </c>
       <c r="F237">
@@ -28853,60 +29093,38 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação</t>
+          <t>Dispensa de Licitação - Por valor</t>
         </is>
       </c>
       <c r="J237">
-        <v>9246007</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162711</t>
-        </is>
-      </c>
-      <c r="L237">
-        <v>2120</v>
-      </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
-        </is>
-      </c>
-      <c r="N237" s="2">
-        <v>43944</v>
-      </c>
-      <c r="O237" s="2">
-        <v>43944</v>
-      </c>
-      <c r="Q237" s="2">
-        <v>44126</v>
+        <v>0</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>36.929.324/0001-56</t>
+          <t>21.559.804/0001-03</t>
         </is>
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t>FABER FIDELES COSTA 07475156621</t>
+          <t>GERBRA COMERCIO EIRELI - ME</t>
         </is>
       </c>
       <c r="T237" t="inlineStr">
         <is>
-          <t>2120.01.0003104/2020-85</t>
+          <t>2120.01.0002637/2020-84</t>
         </is>
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNXY-m8gPf-hQ0mo22dmh-_0U7p4QzvU92UzSIdqZfRMC</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcB6rkIRjUz8PjAVWeiitknebRdMANcKLG3H0Jtys8jx</t>
         </is>
       </c>
       <c r="V237">
-        <v>1718940</v>
+        <v>1692160</v>
       </c>
       <c r="W237" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 2 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 20 G; FILTRO: SEM FILTRO; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
+          <t>SABONETE LIQUIDO -  INDICACAO: HIGIENIZACAO DA PELE; BASE DO PRODUTO: PEROLADA; ASPECTO: VISCOSO; PH: FISIOLOGICO; COMPOSICAO: AGENTES HIDRATANTES E EMOLIENTES; FRAGRANCIA: FRAGRANCIA SUAVE HIPOALERGENICA; APRESENTACAO: EMBALAGEM 5 L;</t>
         </is>
       </c>
       <c r="X237">
@@ -28919,7 +29137,7 @@
       </c>
       <c r="Z237" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="AA237" t="inlineStr">
@@ -28928,43 +29146,43 @@
         </is>
       </c>
       <c r="AB237">
-        <v>84000</v>
+        <v>40</v>
       </c>
       <c r="AC237">
-        <v>2.2</v>
+        <v>40</v>
       </c>
       <c r="AD237">
-        <v>1.71</v>
+        <v>40</v>
       </c>
       <c r="AE237">
-        <v>184800</v>
+        <v>1600</v>
       </c>
       <c r="AF237">
-        <v>143640</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2121022 000023/2020</t>
+          <t>2121022 000021/2020</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/38852/0/0/0/0/16090/79300022/59640/835889/325676/2121022000023-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/62017/0/0/0/0/10733/65320034/191403/1718940/322704/2121022000021-2020</t>
         </is>
       </c>
       <c r="C238" s="2">
-        <v>43986</v>
+        <v>43938</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Compra de medicamentos de alto custo para atendimento das necessidades da beneficiária do SISAU - PMMG/CBMMG/IPSM Roseniria Martins Borges, matrícula 028.165.098&amp;#8203.</t>
+          <t>A aquisição de máscaras descartáveis para uso dos funcionários do IPSM no atendimento a demanda de prevenção ao Coronavírus.</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=23&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=21&amp;ano=2020</t>
         </is>
       </c>
       <c r="F238">
@@ -28982,38 +29200,60 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação - Por valor</t>
+          <t>Dispensa de Licitação</t>
         </is>
       </c>
       <c r="J238">
-        <v>0</v>
+        <v>9246007</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162711</t>
+        </is>
+      </c>
+      <c r="L238">
+        <v>2120</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
+        </is>
+      </c>
+      <c r="N238" s="2">
+        <v>43944</v>
+      </c>
+      <c r="O238" s="2">
+        <v>43944</v>
+      </c>
+      <c r="Q238" s="2">
+        <v>44126</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>24.939.626/0001-26</t>
+          <t>36.929.324/0001-56</t>
         </is>
       </c>
       <c r="S238" t="inlineStr">
         <is>
-          <t>BR ONLINE ELETRICA E CONSTRUCOES EIRELI - EPP</t>
+          <t>FABER FIDELES COSTA 07475156621</t>
         </is>
       </c>
       <c r="T238" t="inlineStr">
         <is>
-          <t>2120.01.0004743/2020-64</t>
+          <t>2120.01.0003104/2020-85</t>
         </is>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcUdyV8a25nm0QSZh2zXXS5x39zwLWeMeuOQand_JZQA</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNXY-m8gPf-hQ0mo22dmh-_0U7p4QzvU92UzSIdqZfRMC</t>
         </is>
       </c>
       <c r="V238">
-        <v>50245</v>
+        <v>1718940</v>
       </c>
       <c r="W238" t="inlineStr">
         <is>
-          <t>AGUA SANITARIA - TEOR: 2 PORCENTO DE CLORO ATIVO;</t>
+          <t>MASCARA DESCARTAVEL - IDENTIFICACAO: CIRURGICA; FORMATO: RETANGULAR COM PREGAS; CAMADAS: 2 CAMADAS; MATERIA-PRIMA: FIBRA SINTETICA; GRAMATURA: MINIMA 20 G; FILTRO: SEM FILTRO; TIPO FIXACAO: ELASTICO; AJUSTE NASAL: SIM; ESTERIL: NAO;</t>
         </is>
       </c>
       <c r="X238">
@@ -29026,7 +29266,7 @@
       </c>
       <c r="Z238" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA238" t="inlineStr">
@@ -29035,19 +29275,19 @@
         </is>
       </c>
       <c r="AB238">
-        <v>200</v>
+        <v>84000</v>
       </c>
       <c r="AC238">
-        <v>1.9131</v>
+        <v>2.2</v>
       </c>
       <c r="AD238">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="AE238">
-        <v>382.62</v>
+        <v>184800</v>
       </c>
       <c r="AF238">
-        <v>368</v>
+        <v>143640</v>
       </c>
     </row>
     <row r="239">
@@ -29116,11 +29356,11 @@
         </is>
       </c>
       <c r="V239">
-        <v>835889</v>
+        <v>50245</v>
       </c>
       <c r="W239" t="inlineStr">
         <is>
-          <t>DETERGENTE  USO DOMESTICO - APRESENTACAO: LIQUIDO SUPERCONCENTRADO, DILUICAO 1:200; FRAGRANCIA: NEUTRO;</t>
+          <t>AGUA SANITARIA - TEOR: 2 PORCENTO DE CLORO ATIVO;</t>
         </is>
       </c>
       <c r="X239">
@@ -29142,51 +29382,51 @@
         </is>
       </c>
       <c r="AB239">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AC239">
-        <v>24</v>
+        <v>1.9131</v>
       </c>
       <c r="AD239">
-        <v>32.87</v>
+        <v>1.84</v>
       </c>
       <c r="AE239">
-        <v>720</v>
+        <v>382.62</v>
       </c>
       <c r="AF239">
-        <v>986.1</v>
+        <v>368</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2261032 000112/2020</t>
+          <t>2121022 000023/2020</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-06-2020/1831097/0/0/38852/0/0/0/0/16090/79300022/59640/835889/325676/2121022000023-2020</t>
         </is>
       </c>
       <c r="C240" s="2">
-        <v>43920</v>
+        <v>43986</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>INSUMOS LABORATORIAIS - COVID-19</t>
+          <t>Compra de medicamentos de alto custo para atendimento das necessidades da beneficiária do SISAU - PMMG/CBMMG/IPSM Roseniria Martins Borges, matrícula 028.165.098&amp;#8203.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2121022&amp;numero=23&amp;ano=2020</t>
         </is>
       </c>
       <c r="F240">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INST.PREV.DOS SERV.MILITARES DO ESTADO M.GERAIS</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -29196,7 +29436,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Dispensa de Licitação</t>
+          <t>Dispensa de Licitação - Por valor</t>
         </is>
       </c>
       <c r="J240">
@@ -29204,43 +29444,43 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>06.003.551/0001-95</t>
+          <t>24.939.626/0001-26</t>
         </is>
       </c>
       <c r="S240" t="inlineStr">
         <is>
-          <t>QUALIVIDROS DISTRIBUIDORA LTDA</t>
+          <t>BR ONLINE ELETRICA E CONSTRUCOES EIRELI - EPP</t>
         </is>
       </c>
       <c r="T240" t="inlineStr">
         <is>
-          <t>2260.01.0002208/2020-32</t>
+          <t>2120.01.0004743/2020-64</t>
         </is>
       </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcUdyV8a25nm0QSZh2zXXS5x39zwLWeMeuOQand_JZQA</t>
         </is>
       </c>
       <c r="V240">
-        <v>82414</v>
+        <v>835889</v>
       </c>
       <c r="W240" t="inlineStr">
         <is>
-          <t>SORO FETAL BOVINO - APLICACAO: CULTIVO CELULAR; COMPONENTES (1): NIVEIS DE ENDOTOXINA &lt; OU = 10 EU/ML; COMPONENTES (2): NIVEIS DE HEMOGLOBINA &lt; OU = A 15 MG/DL; CARACTERISTICAS GERAIS: ISENTO DE MICOPLASMA;</t>
+          <t>DETERGENTE  USO DOMESTICO - APRESENTACAO: LIQUIDO SUPERCONCENTRADO, DILUICAO 1:200; FRAGRANCIA: NEUTRO;</t>
         </is>
       </c>
       <c r="X240">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y240" t="inlineStr">
         <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
+          <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES MILITARES DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z240" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
         </is>
       </c>
       <c r="AA240" t="inlineStr">
@@ -29249,19 +29489,19 @@
         </is>
       </c>
       <c r="AB240">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="AC240">
-        <v>0.6760000000000001</v>
+        <v>24</v>
       </c>
       <c r="AD240">
-        <v>0.6760000000000001</v>
+        <v>32.87</v>
       </c>
       <c r="AE240">
-        <v>6760</v>
+        <v>720</v>
       </c>
       <c r="AF240">
-        <v>6760</v>
+        <v>986.1</v>
       </c>
     </row>
     <row r="241">
@@ -29330,11 +29570,11 @@
         </is>
       </c>
       <c r="V241">
-        <v>1670891</v>
+        <v>82414</v>
       </c>
       <c r="W241" t="inlineStr">
         <is>
-          <t>LAMINA DE BISTURI DESCARTAVEL MATERIA-PRIMA: ACO INOXIDAVEL ESTERIL; NUMERO: 20; EMBALAGEM: INDIVIDUAL, ESTERIL E COM ABERTURA EM PETALA;</t>
+          <t>SORO FETAL BOVINO - APLICACAO: CULTIVO CELULAR; COMPONENTES (1): NIVEIS DE ENDOTOXINA &lt; OU = 10 EU/ML; COMPONENTES (2): NIVEIS DE HEMOGLOBINA &lt; OU = A 15 MG/DL; CARACTERISTICAS GERAIS: ISENTO DE MICOPLASMA;</t>
         </is>
       </c>
       <c r="X241">
@@ -29347,7 +29587,7 @@
       </c>
       <c r="Z241" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA241" t="inlineStr">
@@ -29356,19 +29596,19 @@
         </is>
       </c>
       <c r="AB241">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="AC241">
-        <v>34.9</v>
+        <v>0.6760000000000001</v>
       </c>
       <c r="AD241">
-        <v>34.9</v>
+        <v>0.6760000000000001</v>
       </c>
       <c r="AE241">
-        <v>698</v>
+        <v>6760</v>
       </c>
       <c r="AF241">
-        <v>698</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="242">
@@ -29418,12 +29658,12 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>11.909.227/0001-70</t>
+          <t>06.003.551/0001-95</t>
         </is>
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t>PROMEGA BIOTECNOLOGIA DO BRASIL LTDA.</t>
+          <t>QUALIVIDROS DISTRIBUIDORA LTDA</t>
         </is>
       </c>
       <c r="T242" t="inlineStr">
@@ -29437,11 +29677,11 @@
         </is>
       </c>
       <c r="V242">
-        <v>1697730</v>
+        <v>1670891</v>
       </c>
       <c r="W242" t="inlineStr">
         <is>
-          <t>KIT PARA RT-PCR - TIPO: ONE-STEP, METODO DE DETECCAO POR SONDA TIPO TAQMAN; IDENTIFICACAO: CONJUNTO DE REAGENTES LIQUIDOS INCOLORES; FINALIDADE: DETECCAO E QUANTIFICACAO RNA, PCR EM TEMPO REAL;</t>
+          <t>LAMINA DE BISTURI DESCARTAVEL MATERIA-PRIMA: ACO INOXIDAVEL ESTERIL; NUMERO: 20; EMBALAGEM: INDIVIDUAL, ESTERIL E COM ABERTURA EM PETALA;</t>
         </is>
       </c>
       <c r="X242">
@@ -29454,7 +29694,7 @@
       </c>
       <c r="Z242" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA242" t="inlineStr">
@@ -29463,19 +29703,19 @@
         </is>
       </c>
       <c r="AB242">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="AC242">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AD242">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AE242">
-        <v>248600</v>
+        <v>698</v>
       </c>
       <c r="AF242">
-        <v>248600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="243">
@@ -29525,12 +29765,12 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>13.545.241/0001-68</t>
+          <t>11.909.227/0001-70</t>
         </is>
       </c>
       <c r="S243" t="inlineStr">
         <is>
-          <t>SINTESE BIOTECNOLOGIA LTDA</t>
+          <t>PROMEGA BIOTECNOLOGIA DO BRASIL LTDA.</t>
         </is>
       </c>
       <c r="T243" t="inlineStr">
@@ -29544,11 +29784,11 @@
         </is>
       </c>
       <c r="V243">
-        <v>394890</v>
+        <v>1697730</v>
       </c>
       <c r="W243" t="inlineStr">
         <is>
-          <t>BASE DE OLIGONUCLEOTIDEOS - ASPECTO: PO LIOFILIZADO; APRESENTACAO: EN NMOL OU MICROMOL; FINALIDADE: AMPLIFICACAO REGIOES ESPECIFICAS MOLECULAS DE DNA;</t>
+          <t>KIT PARA RT-PCR - TIPO: ONE-STEP, METODO DE DETECCAO POR SONDA TIPO TAQMAN; IDENTIFICACAO: CONJUNTO DE REAGENTES LIQUIDOS INCOLORES; FINALIDADE: DETECCAO E QUANTIFICACAO RNA, PCR EM TEMPO REAL;</t>
         </is>
       </c>
       <c r="X243">
@@ -29570,19 +29810,19 @@
         </is>
       </c>
       <c r="AB243">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="AC243">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AD243">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AE243">
-        <v>3591</v>
+        <v>248600</v>
       </c>
       <c r="AF243">
-        <v>3591</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="244">
@@ -29651,11 +29891,11 @@
         </is>
       </c>
       <c r="V244">
-        <v>1368818</v>
+        <v>394890</v>
       </c>
       <c r="W244" t="inlineStr">
         <is>
-          <t>AGUA ULTRAPURA - IDENTIFICACAO: LIVRE DE DNASE E RNASE PARA PCR; FINALIDADE: AMPLIFICACAO DE DNA BACTERIANO DIAGNOSTICO; COMPATIBILIDADE: COM TERMOCICLADOR PARA PCR;</t>
+          <t>BASE DE OLIGONUCLEOTIDEOS - ASPECTO: PO LIOFILIZADO; APRESENTACAO: EN NMOL OU MICROMOL; FINALIDADE: AMPLIFICACAO REGIOES ESPECIFICAS MOLECULAS DE DNA;</t>
         </is>
       </c>
       <c r="X244">
@@ -29677,19 +29917,19 @@
         </is>
       </c>
       <c r="AB244">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="AC244">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AD244">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AE244">
-        <v>2936</v>
+        <v>3591</v>
       </c>
       <c r="AF244">
-        <v>2936</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="245">
@@ -29758,11 +29998,11 @@
         </is>
       </c>
       <c r="V245">
-        <v>1497391</v>
+        <v>1368818</v>
       </c>
       <c r="W245" t="inlineStr">
         <is>
-          <t>BASE DE OLIGONUCLEOTIDEOS - ASPECTO: PO LIOFILIZADO OU LIQUIDO; APRESENTACAO: NANOMOL, MICROMOL OU PICOMOL DA SEQUENCIA MARCADA; FINALIDADE: PCR EM TEMPO REAL; QUENCHER 3 LINHAS;</t>
+          <t>AGUA ULTRAPURA - IDENTIFICACAO: LIVRE DE DNASE E RNASE PARA PCR; FINALIDADE: AMPLIFICACAO DE DNA BACTERIANO DIAGNOSTICO; COMPATIBILIDADE: COM TERMOCICLADOR PARA PCR;</t>
         </is>
       </c>
       <c r="X245">
@@ -29784,19 +30024,19 @@
         </is>
       </c>
       <c r="AB245">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC245">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AD245">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AE245">
-        <v>51300</v>
+        <v>2936</v>
       </c>
       <c r="AF245">
-        <v>51300</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="246">
@@ -29846,12 +30086,12 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>21.268.634/0001-08</t>
+          <t>13.545.241/0001-68</t>
         </is>
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t>MULTIPLIER DISTRIBUIDORA EIRELI - EPP</t>
+          <t>SINTESE BIOTECNOLOGIA LTDA</t>
         </is>
       </c>
       <c r="T246" t="inlineStr">
@@ -29865,11 +30105,11 @@
         </is>
       </c>
       <c r="V246">
-        <v>1669613</v>
+        <v>1497391</v>
       </c>
       <c r="W246" t="inlineStr">
         <is>
-          <t>ALCOOL ETILICO (ETANOL) IDENTIFICACAO: ABSOLUTO P.A. - ACS; ASPECTO FISICO: LIQUIDO INCOLOR ANIDRO; CONCENTRACAO: 99,5%; NUMERO CAS: 64-17-5; FORMULA MOLECULAR: CH3CH2OH; PESO MOLECULAR: 46,07 G/MOL; APRESENTACAO: FRASCO 1 L;</t>
+          <t>BASE DE OLIGONUCLEOTIDEOS - ASPECTO: PO LIOFILIZADO OU LIQUIDO; APRESENTACAO: NANOMOL, MICROMOL OU PICOMOL DA SEQUENCIA MARCADA; FINALIDADE: PCR EM TEMPO REAL; QUENCHER 3 LINHAS;</t>
         </is>
       </c>
       <c r="X246">
@@ -29891,19 +30131,19 @@
         </is>
       </c>
       <c r="AB246">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC246">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AD246">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AE246">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
       <c r="AF246">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="247">
@@ -29953,12 +30193,12 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>63.067.904/0005-88</t>
+          <t>21.268.634/0001-08</t>
         </is>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>LIFE TECHNOLOGIES BRASIL COMERCIO E INDUSTRIA DE PRODUTOS PARA BIOTECNOLOGIA LTDA</t>
+          <t>MULTIPLIER DISTRIBUIDORA EIRELI - EPP</t>
         </is>
       </c>
       <c r="T247" t="inlineStr">
@@ -29972,11 +30212,11 @@
         </is>
       </c>
       <c r="V247">
-        <v>857025</v>
+        <v>1669613</v>
       </c>
       <c r="W247" t="inlineStr">
         <is>
-          <t>MEIO MEM EARLE - ASPECTO: PO; COMPOSICAO: COM SAIS DE EARLE E L-GLUTAMINA SEM BICABORNATO DE SODIO; SOLUBILIDADE: APROX.9,6G DE PO P/LITRO DE MEIO (PREPARA 1 LITRO); FINALIDADE: CULTIVO CELULAR;</t>
+          <t>ALCOOL ETILICO (ETANOL) IDENTIFICACAO: ABSOLUTO P.A. - ACS; ASPECTO FISICO: LIQUIDO INCOLOR ANIDRO; CONCENTRACAO: 99,5%; NUMERO CAS: 64-17-5; FORMULA MOLECULAR: CH3CH2OH; PESO MOLECULAR: 46,07 G/MOL; APRESENTACAO: FRASCO 1 L;</t>
         </is>
       </c>
       <c r="X247">
@@ -29998,19 +30238,19 @@
         </is>
       </c>
       <c r="AB247">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC247">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AD247">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AE247">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
       <c r="AF247">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="248">
@@ -30060,12 +30300,12 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>68.337.658/0001-27</t>
+          <t>63.067.904/0005-88</t>
         </is>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>SIGMA-ALDRICH BRASIL LTDA</t>
+          <t>LIFE TECHNOLOGIES BRASIL COMERCIO E INDUSTRIA DE PRODUTOS PARA BIOTECNOLOGIA LTDA</t>
         </is>
       </c>
       <c r="T248" t="inlineStr">
@@ -30079,11 +30319,11 @@
         </is>
       </c>
       <c r="V248">
-        <v>1151746</v>
+        <v>857025</v>
       </c>
       <c r="W248" t="inlineStr">
         <is>
-          <t>PENICILINA + ESTREPTOMICINA - APLICACAO: PARA CULTIVO CELULAR ETC; ASPECTO: LIQUIDO; APRESENTACAO: FRASCO COM VOLUME DE 100ML; COMPLEMENTO: FORMULACAO CONTENDO 10.000 U PENICILINA E 10.000 µG/ML ESTREPTOMICINA;</t>
+          <t>MEIO MEM EARLE - ASPECTO: PO; COMPOSICAO: COM SAIS DE EARLE E L-GLUTAMINA SEM BICABORNATO DE SODIO; SOLUBILIDADE: APROX.9,6G DE PO P/LITRO DE MEIO (PREPARA 1 LITRO); FINALIDADE: CULTIVO CELULAR;</t>
         </is>
       </c>
       <c r="X248">
@@ -30105,19 +30345,19 @@
         </is>
       </c>
       <c r="AB248">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AC248">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AD248">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AE248">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
       <c r="AF248">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="249">
@@ -30163,38 +30403,16 @@
         </is>
       </c>
       <c r="J249">
-        <v>9245762</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162595</t>
-        </is>
-      </c>
-      <c r="L249">
-        <v>2260</v>
-      </c>
-      <c r="M249" t="inlineStr">
-        <is>
-          <t>FUNDACAO EZEQUIEL DIAS</t>
-        </is>
-      </c>
-      <c r="N249" s="2">
-        <v>43936</v>
-      </c>
-      <c r="O249" s="2">
-        <v>43936</v>
-      </c>
-      <c r="Q249" s="2">
-        <v>44115</v>
+        <v>0</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>53.276.010/0001-10</t>
+          <t>68.337.658/0001-27</t>
         </is>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>HEXIS CIENTIFICA LTDA</t>
+          <t>SIGMA-ALDRICH BRASIL LTDA</t>
         </is>
       </c>
       <c r="T249" t="inlineStr">
@@ -30208,11 +30426,11 @@
         </is>
       </c>
       <c r="V249">
-        <v>781673</v>
+        <v>1151746</v>
       </c>
       <c r="W249" t="inlineStr">
         <is>
-          <t>TUBO PLASTICO PARA LABORATORIO - MATERIA-PRIMA: POLIPROPILENO, LIVRE DE PIROGENIO, RNASES E DNASES; MEDIDAS: -; VOLUME: 15ML, TAMPA ROSQUEAVEL;</t>
+          <t>PENICILINA + ESTREPTOMICINA - APLICACAO: PARA CULTIVO CELULAR ETC; ASPECTO: LIQUIDO; APRESENTACAO: FRASCO COM VOLUME DE 100ML; COMPLEMENTO: FORMULACAO CONTENDO 10.000 U PENICILINA E 10.000 µG/ML ESTREPTOMICINA;</t>
         </is>
       </c>
       <c r="X249">
@@ -30225,7 +30443,7 @@
       </c>
       <c r="Z249" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E ARTIGOS DE LABORATORIO, COMPONENTES E ACESSORIOS</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA249" t="inlineStr">
@@ -30234,19 +30452,19 @@
         </is>
       </c>
       <c r="AB249">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="AC249">
-        <v>0.9</v>
+        <v>117</v>
       </c>
       <c r="AD249">
-        <v>0.9</v>
+        <v>117</v>
       </c>
       <c r="AE249">
-        <v>27000</v>
+        <v>2340</v>
       </c>
       <c r="AF249">
-        <v>27000</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="250">
@@ -30292,11 +30510,11 @@
         </is>
       </c>
       <c r="J250">
-        <v>9245763</v>
+        <v>9245762</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162596</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162595</t>
         </is>
       </c>
       <c r="L250">
@@ -30318,12 +30536,12 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>02.661.790/0001-81</t>
+          <t>53.276.010/0001-10</t>
         </is>
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t>SARSTEDT LTDA</t>
+          <t>HEXIS CIENTIFICA LTDA</t>
         </is>
       </c>
       <c r="T250" t="inlineStr">
@@ -30337,11 +30555,11 @@
         </is>
       </c>
       <c r="V250">
-        <v>538957</v>
+        <v>781673</v>
       </c>
       <c r="W250" t="inlineStr">
         <is>
-          <t>TUBO CRIOGENICO - MATERIA-PRIMA: POLIPROPILENO, TEMPERATURA - 196 A + 121 ºC; TIPO: TAMPA ROSQUEAVEL, ANEL SILICONE, GRADUADO, C/BASE; CAPACIDADE: 2,0 ML;</t>
+          <t>TUBO PLASTICO PARA LABORATORIO - MATERIA-PRIMA: POLIPROPILENO, LIVRE DE PIROGENIO, RNASES E DNASES; MEDIDAS: -; VOLUME: 15ML, TAMPA ROSQUEAVEL;</t>
         </is>
       </c>
       <c r="X250">
@@ -30366,16 +30584,16 @@
         <v>30000</v>
       </c>
       <c r="AC250">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="AD250">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="AE250">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="AF250">
-        <v>16500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="251">
@@ -30466,11 +30684,11 @@
         </is>
       </c>
       <c r="V251">
-        <v>1651595</v>
+        <v>538957</v>
       </c>
       <c r="W251" t="inlineStr">
         <is>
-          <t>TUBO CRIOGENICO - MATERIA-PRIMA: POLIPROPILENO; TIPO: TAMPA DE ROSCA, ESTERIL, APIROGENICO, AUTOCLAVAVEL; CAPACIDADE: 5,0 ML / 5,7CM ALTURA X 1,5CM (BOCA);</t>
+          <t>TUBO CRIOGENICO - MATERIA-PRIMA: POLIPROPILENO, TEMPERATURA - 196 A + 121 ºC; TIPO: TAMPA ROSQUEAVEL, ANEL SILICONE, GRADUADO, C/BASE; CAPACIDADE: 2,0 ML;</t>
         </is>
       </c>
       <c r="X251">
@@ -30495,48 +30713,48 @@
         <v>30000</v>
       </c>
       <c r="AC251">
-        <v>1.08</v>
+        <v>0.55</v>
       </c>
       <c r="AD251">
-        <v>1.08</v>
+        <v>0.55</v>
       </c>
       <c r="AE251">
-        <v>32400</v>
+        <v>16500</v>
       </c>
       <c r="AF251">
-        <v>32400</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2301925 000001/2020</t>
+          <t>2261032 000112/2020</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/19962/0/0/0/0/7051/3010163/94368/1155/321506/2301925000001-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/16-04-2020/1831100/0/0/20981/0/0/0/0/15383/68101813/131385/394890/322101/2261032000112-2020</t>
         </is>
       </c>
       <c r="C252" s="2">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>REFORMA DA ALA ¿D¿ E AMPLIAÇÃO DA CAPACIDADE DE CARGA DA SUBESTAÇÃO DO HOSPITAL EDUARDO DE MENEZES, NO MUNICÍPIO DE BELO HORIZONTE ¿ UNIDADE INTEGRANTE DA FUNDAÇÃO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
+          <t>INSUMOS LABORATORIAIS - COVID-19</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=1&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2261032&amp;numero=112&amp;ano=2020</t>
         </is>
       </c>
       <c r="F252">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -30550,72 +30768,69 @@
         </is>
       </c>
       <c r="J252">
-        <v>9245674</v>
+        <v>9245763</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162508</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162596</t>
         </is>
       </c>
       <c r="L252">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="N252" s="2">
-        <v>43922</v>
+        <v>43936</v>
       </c>
       <c r="O252" s="2">
-        <v>43922</v>
-      </c>
-      <c r="P252" s="2">
-        <v>44105</v>
+        <v>43936</v>
       </c>
       <c r="Q252" s="2">
-        <v>44131</v>
+        <v>44115</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>03.367.118/0001-40</t>
+          <t>02.661.790/0001-81</t>
         </is>
       </c>
       <c r="S252" t="inlineStr">
         <is>
-          <t>CONSTRUTORA SINARCO LTDA</t>
+          <t>SARSTEDT LTDA</t>
         </is>
       </c>
       <c r="T252" t="inlineStr">
         <is>
-          <t>2300.01.0048942/2020-33</t>
+          <t>2260.01.0002208/2020-32</t>
         </is>
       </c>
       <c r="U252" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcRjPwXFitFhfS7KLPDdYgYJdPtKoxHVfo1reueoR29T</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNbarB29bkQvChNEKMA_ve_9LVgt62FKlK_lSEvXOBjUC</t>
         </is>
       </c>
       <c r="V252">
-        <v>1155</v>
+        <v>1651595</v>
       </c>
       <c r="W252" t="inlineStr">
         <is>
-          <t>ADAPTACOES E REFORMAS</t>
+          <t>TUBO CRIOGENICO - MATERIA-PRIMA: POLIPROPILENO; TIPO: TAMPA DE ROSCA, ESTERIL, APIROGENICO, AUTOCLAVAVEL; CAPACIDADE: 5,0 ML / 5,7CM ALTURA X 1,5CM (BOCA);</t>
         </is>
       </c>
       <c r="X252">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
+          <t>FUNDACAO EZEQUIEL DIAS</t>
         </is>
       </c>
       <c r="Z252" t="inlineStr">
         <is>
-          <t>OBRAS E SERVICOS DE ENGENHARIA CIVIL</t>
+          <t>EQUIPAMENTOS E ARTIGOS DE LABORATORIO, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA252" t="inlineStr">
@@ -30624,43 +30839,43 @@
         </is>
       </c>
       <c r="AB252">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC252">
-        <v>4359428.86</v>
+        <v>1.08</v>
       </c>
       <c r="AD252">
-        <v>4359428.86</v>
+        <v>1.08</v>
       </c>
       <c r="AE252">
-        <v>4359428.86</v>
+        <v>32400</v>
       </c>
       <c r="AF252">
-        <v>4359428.86</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2301925 000002/2020</t>
+          <t>2301925 000001/2020</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/16018/0/0/0/0/7051/3010163/94368/1155/322267/2301925000002-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/19962/0/0/0/0/7051/3010163/94368/1155/321506/2301925000001-2020</t>
         </is>
       </c>
       <c r="C253" s="2">
-        <v>43935</v>
+        <v>43921</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>EXECUÇÃO DOS SERVIÇOS DE ENGENHARIA, ABRANGENDO REPAROS GERAIS, COMPLEMENTAÇÃO DA INSTALAÇÃO DO SISTEMA DE CLIMATIZAÇÃO E EXAUSTÃO, INSTALAÇÃO DE CÂMARAS FRIAS DO SVO</t>
+          <t>REFORMA DA ALA ¿D¿ E AMPLIAÇÃO DA CAPACIDADE DE CARGA DA SUBESTAÇÃO DO HOSPITAL EDUARDO DE MENEZES, NO MUNICÍPIO DE BELO HORIZONTE ¿ UNIDADE INTEGRANTE DA FUNDAÇÃO HOSPITALAR DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=2&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=1&amp;ano=2020</t>
         </is>
       </c>
       <c r="F253">
@@ -30682,11 +30897,11 @@
         </is>
       </c>
       <c r="J253">
-        <v>9245950</v>
+        <v>9245674</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162645</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162508</t>
         </is>
       </c>
       <c r="L253">
@@ -30698,30 +30913,35 @@
         </is>
       </c>
       <c r="N253" s="2">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="O253" s="2">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="P253" s="2">
-        <v>44119</v>
+        <v>44105</v>
       </c>
       <c r="Q253" s="2">
-        <v>44119</v>
+        <v>44131</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>04.764.300/0001-06</t>
+          <t>03.367.118/0001-40</t>
         </is>
       </c>
       <c r="S253" t="inlineStr">
         <is>
-          <t>EFICIENCIA CONSTRUTORA LTDA</t>
+          <t>CONSTRUTORA SINARCO LTDA</t>
         </is>
       </c>
       <c r="T253" t="inlineStr">
         <is>
-          <t>2300.01.0053745/2020-41</t>
+          <t>2300.01.0048942/2020-33</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNcRjPwXFitFhfS7KLPDdYgYJdPtKoxHVfo1reueoR29T</t>
         </is>
       </c>
       <c r="V253">
@@ -30754,40 +30974,40 @@
         <v>0</v>
       </c>
       <c r="AC253">
-        <v>1041625.57</v>
+        <v>4359428.86</v>
       </c>
       <c r="AD253">
-        <v>1041625.57</v>
+        <v>4359428.86</v>
       </c>
       <c r="AE253">
-        <v>1041625.57</v>
+        <v>4359428.86</v>
       </c>
       <c r="AF253">
-        <v>1041625.57</v>
+        <v>4359428.86</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2301925 000003/2020</t>
+          <t>2301925 000002/2020</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/26247/0/0/0/0/7051/3010163/94368/1155/323729/2301925000003-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/16018/0/0/0/0/7051/3010163/94368/1155/322267/2301925000002-2020</t>
         </is>
       </c>
       <c r="C254" s="2">
-        <v>43963</v>
+        <v>43935</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA, EM CARÁTER EMERGENCIAL E POR DISPENSA DE LICITAÇÃO, PARA A REFORMA DO HOSPITAL JULIA KUBITSCHEK EM BELO HORIZONTE.</t>
+          <t>EXECUÇÃO DOS SERVIÇOS DE ENGENHARIA, ABRANGENDO REPAROS GERAIS, COMPLEMENTAÇÃO DA INSTALAÇÃO DO SISTEMA DE CLIMATIZAÇÃO E EXAUSTÃO, INSTALAÇÃO DE CÂMARAS FRIAS DO SVO</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=3&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=2&amp;ano=2020</t>
         </is>
       </c>
       <c r="F254">
@@ -30809,11 +31029,11 @@
         </is>
       </c>
       <c r="J254">
-        <v>9247198</v>
+        <v>9245950</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163055</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162645</t>
         </is>
       </c>
       <c r="L254">
@@ -30825,35 +31045,30 @@
         </is>
       </c>
       <c r="N254" s="2">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O254" s="2">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="P254" s="2">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="Q254" s="2">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>00.645.535/0001-10</t>
+          <t>04.764.300/0001-06</t>
         </is>
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t>2A ENGENHARIA E CONSTRUCOES LTDA</t>
+          <t>EFICIENCIA CONSTRUTORA LTDA</t>
         </is>
       </c>
       <c r="T254" t="inlineStr">
         <is>
-          <t>2300.01.0058319/2020-24</t>
-        </is>
-      </c>
-      <c r="U254" t="inlineStr">
-        <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZMC_X2vfK31SJ80Ne-80XwFRI_knf2x3dLuVrJDLlhh</t>
+          <t>2300.01.0053745/2020-41</t>
         </is>
       </c>
       <c r="V254">
@@ -30886,48 +31101,48 @@
         <v>0</v>
       </c>
       <c r="AC254">
-        <v>7116343.26</v>
+        <v>1041625.57</v>
       </c>
       <c r="AD254">
-        <v>7116343.26</v>
+        <v>1041625.57</v>
       </c>
       <c r="AE254">
-        <v>7116343.26</v>
+        <v>1041625.57</v>
       </c>
       <c r="AF254">
-        <v>7116343.26</v>
+        <v>1041625.57</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2311076 000134/2020</t>
+          <t>2301925 000003/2020</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/31-05-2020/1831084/0/0/26247/0/0/0/0/7051/3010163/94368/1155/323729/2301925000003-2020</t>
         </is>
       </c>
       <c r="C255" s="2">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>MATERIAIS MÉDICO HOSPITALARES</t>
+          <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA, EM CARÁTER EMERGENCIAL E POR DISPENSA DE LICITAÇÃO, PARA A REFORMA DO HOSPITAL JULIA KUBITSCHEK EM BELO HORIZONTE.</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2301925&amp;numero=3&amp;ano=2020</t>
         </is>
       </c>
       <c r="F255">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -30941,93 +31156,93 @@
         </is>
       </c>
       <c r="J255">
-        <v>9245982</v>
+        <v>9247198</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163055</t>
         </is>
       </c>
       <c r="L255">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM</t>
         </is>
       </c>
       <c r="N255" s="2">
-        <v>43943</v>
+        <v>43963</v>
       </c>
       <c r="O255" s="2">
-        <v>43939</v>
+        <v>43963</v>
       </c>
       <c r="P255" s="2">
-        <v>44304</v>
+        <v>44195</v>
       </c>
       <c r="Q255" s="2">
-        <v>44121</v>
+        <v>44195</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>05.075.964/0001-12</t>
+          <t>00.645.535/0001-10</t>
         </is>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
+          <t>2A ENGENHARIA E CONSTRUCOES LTDA</t>
         </is>
       </c>
       <c r="T255" t="inlineStr">
         <is>
-          <t>2310.01.0005838/2020-70</t>
+          <t>2300.01.0058319/2020-24</t>
         </is>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZMC_X2vfK31SJ80Ne-80XwFRI_knf2x3dLuVrJDLlhh</t>
         </is>
       </c>
       <c r="V255">
-        <v>18228</v>
+        <v>1155</v>
       </c>
       <c r="W255" t="inlineStr">
         <is>
-          <t>FILTRO ABSOLUTO - TIPO: HEPA 3, EFICIENCIA DE FILTRAGEM 99,7% D.O.P; CLASSE: PENETRACAO DE BACTERIAS: MEDIA MENOR QUE 0,00069%; MOLDURA: SEM MOLDURA; DIMENSOES: 48" X 11" X 24"; VAZAO: ELEMENTO FILTRANTE:FIBRA VIDRO C/AG.ANTIMICROBIANO; RESISTENCIA TERMICA: 100ºC; CONFIGURACAO: -;</t>
+          <t>ADAPTACOES E REFORMAS</t>
         </is>
       </c>
       <c r="X255">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y255" t="inlineStr">
         <is>
-          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+          <t>DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
         </is>
       </c>
       <c r="Z255" t="inlineStr">
         <is>
-          <t>INSTRUMENTOS E EQUIPAMENTOS ODONTOLOGICOS, COMPONENTES E ACESSORIOS</t>
+          <t>OBRAS E SERVICOS DE ENGENHARIA CIVIL</t>
         </is>
       </c>
       <c r="AA255" t="inlineStr">
         <is>
-          <t>Montes Claros</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="AB255">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC255">
-        <v>36</v>
+        <v>7116343.26</v>
       </c>
       <c r="AD255">
-        <v>36</v>
+        <v>7116343.26</v>
       </c>
       <c r="AE255">
-        <v>7200</v>
+        <v>7116343.26</v>
       </c>
       <c r="AF255">
-        <v>7200</v>
+        <v>7116343.26</v>
       </c>
     </row>
     <row r="256">
@@ -31121,11 +31336,11 @@
         </is>
       </c>
       <c r="V256">
-        <v>236268</v>
+        <v>18228</v>
       </c>
       <c r="W256" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: ADULTO;</t>
+          <t>FILTRO ABSOLUTO - TIPO: HEPA 3, EFICIENCIA DE FILTRAGEM 99,7% D.O.P; CLASSE: PENETRACAO DE BACTERIAS: MEDIA MENOR QUE 0,00069%; MOLDURA: SEM MOLDURA; DIMENSOES: 48" X 11" X 24"; VAZAO: ELEMENTO FILTRANTE:FIBRA VIDRO C/AG.ANTIMICROBIANO; RESISTENCIA TERMICA: 100ºC; CONFIGURACAO: -;</t>
         </is>
       </c>
       <c r="X256">
@@ -31138,7 +31353,7 @@
       </c>
       <c r="Z256" t="inlineStr">
         <is>
-          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
+          <t>INSTRUMENTOS E EQUIPAMENTOS ODONTOLOGICOS, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA256" t="inlineStr">
@@ -31147,19 +31362,19 @@
         </is>
       </c>
       <c r="AB256">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AC256">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD256">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE256">
-        <v>2250</v>
+        <v>7200</v>
       </c>
       <c r="AF256">
-        <v>2250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="257">
@@ -31253,11 +31468,11 @@
         </is>
       </c>
       <c r="V257">
-        <v>461920</v>
+        <v>236268</v>
       </c>
       <c r="W257" t="inlineStr">
         <is>
-          <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: ADULTO;</t>
         </is>
       </c>
       <c r="X257">
@@ -31279,19 +31494,19 @@
         </is>
       </c>
       <c r="AB257">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AC257">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AD257">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AE257">
-        <v>4800</v>
+        <v>2250</v>
       </c>
       <c r="AF257">
-        <v>4800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="258">
@@ -31385,11 +31600,11 @@
         </is>
       </c>
       <c r="V258">
-        <v>804495</v>
+        <v>461920</v>
       </c>
       <c r="W258" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: COM VIA DE IRRIGACAO;</t>
+          <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
         </is>
       </c>
       <c r="X258">
@@ -31411,19 +31626,19 @@
         </is>
       </c>
       <c r="AB258">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AC258">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD258">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE258">
-        <v>7650</v>
+        <v>4800</v>
       </c>
       <c r="AF258">
-        <v>7650</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="259">
@@ -31517,11 +31732,11 @@
         </is>
       </c>
       <c r="V259">
-        <v>1129139</v>
+        <v>804495</v>
       </c>
       <c r="W259" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: NEONATAL, CALIBRE 6 FRENCH;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: COM VIA DE IRRIGACAO;</t>
         </is>
       </c>
       <c r="X259">
@@ -31543,7 +31758,7 @@
         </is>
       </c>
       <c r="AB259">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AC259">
         <v>45</v>
@@ -31552,10 +31767,10 @@
         <v>45</v>
       </c>
       <c r="AE259">
-        <v>1350</v>
+        <v>7650</v>
       </c>
       <c r="AF259">
-        <v>1350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="260">
@@ -31649,11 +31864,11 @@
         </is>
       </c>
       <c r="V260">
-        <v>1152823</v>
+        <v>1129139</v>
       </c>
       <c r="W260" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: NEONATAL, CALIBRE 8 FRENCH;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: NEONATAL, CALIBRE 6 FRENCH;</t>
         </is>
       </c>
       <c r="X260">
@@ -31781,11 +31996,11 @@
         </is>
       </c>
       <c r="V261">
-        <v>1152831</v>
+        <v>1152823</v>
       </c>
       <c r="W261" t="inlineStr">
         <is>
-          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: PEDIATRICO, CALIBRE 10 FRENCH;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: NEONATAL, CALIBRE 8 FRENCH;</t>
         </is>
       </c>
       <c r="X261">
@@ -31825,25 +32040,25 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2311076 000200/2020</t>
+          <t>2311076 000134/2020</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/02-07-2020/1831059/0/0/13726/0/0/0/0/20815/21110140/217891/1755897/325967/2311076000200-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/30-04-2020/1831059/0/0/13609/0/0/0/0/8131/41300068/5218/18228/322585/2311076000134-2020</t>
         </is>
       </c>
       <c r="C262" s="2">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>MEDICAMENTO</t>
+          <t>MATERIAIS MÉDICO HOSPITALARES</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=200&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=134&amp;ano=2020</t>
         </is>
       </c>
       <c r="F262">
@@ -31865,11 +32080,11 @@
         </is>
       </c>
       <c r="J262">
-        <v>9251383</v>
+        <v>9245982</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163606</t>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
         </is>
       </c>
       <c r="L262">
@@ -31881,43 +32096,43 @@
         </is>
       </c>
       <c r="N262" s="2">
-        <v>44014</v>
+        <v>43943</v>
       </c>
       <c r="O262" s="2">
-        <v>44013</v>
+        <v>43939</v>
       </c>
       <c r="P262" s="2">
-        <v>44557</v>
+        <v>44304</v>
       </c>
       <c r="Q262" s="2">
-        <v>44192</v>
+        <v>44121</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>75.014.167/0001-00</t>
+          <t>05.075.964/0001-12</t>
         </is>
       </c>
       <c r="S262" t="inlineStr">
         <is>
-          <t>NUNESFARMA DISTRIBUIDORA DE PRODUTOS FARMACEUTICOS LTDA</t>
+          <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
         </is>
       </c>
       <c r="T262" t="inlineStr">
         <is>
-          <t>2310.01.0006565/2020-35</t>
+          <t>2310.01.0005838/2020-70</t>
         </is>
       </c>
       <c r="U262" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZ45mW9t_E3LIoTnYioO6kNk1Zk5f0ao3wEJQfu0IOIo</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNV03QmTiVf8HJrBhgdrdF810-6Ndp2jxC5JEqN8FAdGX</t>
         </is>
       </c>
       <c r="V262">
-        <v>1755897</v>
+        <v>1152831</v>
       </c>
       <c r="W262" t="inlineStr">
         <is>
-          <t>SULFATO DE ZINCO - PRINCIPIO ATIVO: SULFATO DE ZINCO; CONCENTRACAO/DOSAGEM: 20 MG; FORMA FARMACEUTICA: COMPRIMIDO MASTIGAVEL; APRESENTACAO: .; COMPONENTE: .;</t>
+          <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: PEDIATRICO, CALIBRE 10 FRENCH;</t>
         </is>
       </c>
       <c r="X262">
@@ -31930,7 +32145,7 @@
       </c>
       <c r="Z262" t="inlineStr">
         <is>
-          <t>MEDICAMENTOS ALOPATICOS</t>
+          <t>EQUIPAMENTO MEDICO-HOSPITALAR, COMPONENTES E ACESSORIOS</t>
         </is>
       </c>
       <c r="AA262" t="inlineStr">
@@ -31939,52 +32154,51 @@
         </is>
       </c>
       <c r="AB262">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AC262">
-        <v>0.95</v>
+        <v>45</v>
       </c>
       <c r="AD262">
-        <v>0.95</v>
+        <v>45</v>
       </c>
       <c r="AE262">
-        <v>285</v>
+        <v>1350</v>
       </c>
       <c r="AF262">
-        <v>285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2320310 000127/2020</t>
+          <t>2311076 000200/2020</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/02-07-2020/1831059/0/0/13726/0/0/0/0/20815/21110140/217891/1755897/325967/2311076000200-2020</t>
         </is>
       </c>
       <c r="C263" s="2">
-        <v>43944</v>
+        <v>43955</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Material de limpeza _x000D_
-SEI 2320.01.0004287/2020-78</t>
+          <t>MEDICAMENTO</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2311076&amp;numero=200&amp;ano=2020</t>
         </is>
       </c>
       <c r="F263">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -31998,68 +32212,93 @@
         </is>
       </c>
       <c r="J263">
-        <v>0</v>
+        <v>9251383</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163606</t>
+        </is>
+      </c>
+      <c r="L263">
+        <v>2310</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
+        </is>
+      </c>
+      <c r="N263" s="2">
+        <v>44014</v>
+      </c>
+      <c r="O263" s="2">
+        <v>44013</v>
+      </c>
+      <c r="P263" s="2">
+        <v>44557</v>
+      </c>
+      <c r="Q263" s="2">
+        <v>44192</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>04.158.618/0001-35</t>
+          <t>75.014.167/0001-00</t>
         </is>
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>LIMPEZA &amp; BRILHO LTDA -EPP</t>
+          <t>NUNESFARMA DISTRIBUIDORA DE PRODUTOS FARMACEUTICOS LTDA</t>
         </is>
       </c>
       <c r="T263" t="inlineStr">
         <is>
-          <t>2320.01.0004287/2020-78</t>
+          <t>2310.01.0006565/2020-35</t>
         </is>
       </c>
       <c r="U263" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNZ45mW9t_E3LIoTnYioO6kNk1Zk5f0ao3wEJQfu0IOIo</t>
         </is>
       </c>
       <c r="V263">
-        <v>1692143</v>
+        <v>1755897</v>
       </c>
       <c r="W263" t="inlineStr">
         <is>
-          <t>SABONETE LIQUIDO -  INDICACAO: HIGIENIZACAO DA PELE; BASE DO PRODUTO: PEROLADA; ASPECTO: VISCOSO; PH: FISIOLOGICO; COMPOSICAO: AGENTES HIDRATANTES E EMOLIENTES; FRAGRANCIA: FRAGRANCIA SUAVE HIPOALERGENICA; APRESENTACAO: REFIL 800 ML;</t>
+          <t>SULFATO DE ZINCO - PRINCIPIO ATIVO: SULFATO DE ZINCO; CONCENTRACAO/DOSAGEM: 20 MG; FORMA FARMACEUTICA: COMPRIMIDO MASTIGAVEL; APRESENTACAO: .; COMPONENTE: .;</t>
         </is>
       </c>
       <c r="X263">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y263" t="inlineStr">
         <is>
-          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+          <t>UNIVERSIDADE ESTADUAL DE MONTES CLAROS</t>
         </is>
       </c>
       <c r="Z263" t="inlineStr">
         <is>
-          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
+          <t>MEDICAMENTOS ALOPATICOS</t>
         </is>
       </c>
       <c r="AA263" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Montes Claros</t>
         </is>
       </c>
       <c r="AB263">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AC263">
-        <v>8.199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD263">
-        <v>8.199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AE263">
-        <v>24600</v>
+        <v>285</v>
       </c>
       <c r="AF263">
-        <v>24600</v>
+        <v>285</v>
       </c>
     </row>
     <row r="264">
@@ -32110,12 +32349,12 @@
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>08.195.271/0001-51</t>
+          <t>04.158.618/0001-35</t>
         </is>
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t>FOCOS COMERCIAL LTDA</t>
+          <t>LIMPEZA &amp; BRILHO LTDA -EPP</t>
         </is>
       </c>
       <c r="T264" t="inlineStr">
@@ -32129,11 +32368,11 @@
         </is>
       </c>
       <c r="V264">
-        <v>1143883</v>
+        <v>1692143</v>
       </c>
       <c r="W264" t="inlineStr">
         <is>
-          <t>PANO PARA LIMPEZA - MATERIA-PRIMA: NAO TECIDO; COMPOSICAO (1): 100 POR CENTO VISCOSE; COMPONENTE (2): LATEX SINTETICO; FRAGRANCIA: SEM FRAGANCIA; DIMENSOES: 30 X 29 CM;</t>
+          <t>SABONETE LIQUIDO -  INDICACAO: HIGIENIZACAO DA PELE; BASE DO PRODUTO: PEROLADA; ASPECTO: VISCOSO; PH: FISIOLOGICO; COMPOSICAO: AGENTES HIDRATANTES E EMOLIENTES; FRAGRANCIA: FRAGRANCIA SUAVE HIPOALERGENICA; APRESENTACAO: REFIL 800 ML;</t>
         </is>
       </c>
       <c r="X264">
@@ -32146,7 +32385,7 @@
       </c>
       <c r="Z264" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>ARTIGOS, UTENSILIOS PARA HIGIENE PESSOAL</t>
         </is>
       </c>
       <c r="AA264" t="inlineStr">
@@ -32155,19 +32394,19 @@
         </is>
       </c>
       <c r="AB264">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="AC264">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD264">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE264">
-        <v>120000</v>
+        <v>24600</v>
       </c>
       <c r="AF264">
-        <v>120000</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="265">
@@ -32218,12 +32457,12 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>24.291.891/0001-40</t>
+          <t>08.195.271/0001-51</t>
         </is>
       </c>
       <c r="S265" t="inlineStr">
         <is>
-          <t>DISTRIBUIR COMERCIO EIRELI - EPP</t>
+          <t>FOCOS COMERCIAL LTDA</t>
         </is>
       </c>
       <c r="T265" t="inlineStr">
@@ -32237,11 +32476,11 @@
         </is>
       </c>
       <c r="V265">
-        <v>1244515</v>
+        <v>1143883</v>
       </c>
       <c r="W265" t="inlineStr">
         <is>
-          <t>RODO - BASE: INJETADA EM ABS, COM BORRACHA DUPLA; DIMENSAO BASE: 45 CM; CABO: DE ALUMINIO FRISADO, DE 1,40 M;</t>
+          <t>PANO PARA LIMPEZA - MATERIA-PRIMA: NAO TECIDO; COMPOSICAO (1): 100 POR CENTO VISCOSE; COMPONENTE (2): LATEX SINTETICO; FRAGRANCIA: SEM FRAGANCIA; DIMENSOES: 30 X 29 CM;</t>
         </is>
       </c>
       <c r="X265">
@@ -32263,19 +32502,19 @@
         </is>
       </c>
       <c r="AB265">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC265">
-        <v>20.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD265">
-        <v>20.1</v>
+        <v>0.6</v>
       </c>
       <c r="AE265">
-        <v>1005</v>
+        <v>120000</v>
       </c>
       <c r="AF265">
-        <v>1005</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="266">
@@ -32326,12 +32565,12 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>36.447.719/0001-12</t>
+          <t>24.291.891/0001-40</t>
         </is>
       </c>
       <c r="S266" t="inlineStr">
         <is>
-          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
+          <t>DISTRIBUIR COMERCIO EIRELI - EPP</t>
         </is>
       </c>
       <c r="T266" t="inlineStr">
@@ -32345,11 +32584,11 @@
         </is>
       </c>
       <c r="V266">
-        <v>1244108</v>
+        <v>1244515</v>
       </c>
       <c r="W266" t="inlineStr">
         <is>
-          <t>DETERGENTE NEUTRO - IDENTIFICACAO: BIODEGRADAVEL PARA LIMPEZA GERAL; PH: 6,5 - 7,5; DENSIDADE: NAO APLICAVEL;</t>
+          <t>RODO - BASE: INJETADA EM ABS, COM BORRACHA DUPLA; DIMENSAO BASE: 45 CM; CABO: DE ALUMINIO FRISADO, DE 1,40 M;</t>
         </is>
       </c>
       <c r="X266">
@@ -32371,19 +32610,19 @@
         </is>
       </c>
       <c r="AB266">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC266">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AD266">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AE266">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
       <c r="AF266">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="267">
@@ -32453,11 +32692,11 @@
         </is>
       </c>
       <c r="V267">
-        <v>1244507</v>
+        <v>1244108</v>
       </c>
       <c r="W267" t="inlineStr">
         <is>
-          <t>RODO - BASE: INJETADA EM ABS, COM BORRACHA DUPLA; DIMENSAO BASE: 55CM APROXIMADAMENTE; CABO: DE ALUMINIO FRISADO DE 1,40CM;</t>
+          <t>DETERGENTE NEUTRO - IDENTIFICACAO: BIODEGRADAVEL PARA LIMPEZA GERAL; PH: 6,5 - 7,5; DENSIDADE: NAO APLICAVEL;</t>
         </is>
       </c>
       <c r="X267">
@@ -32479,19 +32718,19 @@
         </is>
       </c>
       <c r="AB267">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC267">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AD267">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AE267">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
       <c r="AF267">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="268">
@@ -32561,11 +32800,11 @@
         </is>
       </c>
       <c r="V268">
-        <v>1257587</v>
+        <v>1244507</v>
       </c>
       <c r="W268" t="inlineStr">
         <is>
-          <t>REFIL PARA LIMPEZA - IDENTIFICACAO: REFIL PARA LAMELO (PANO DE VARRICAO); MATERIA-PRIMA: TNT IMPREGNADO EM OLEO MINERAL NEUTRO; MEDIDAS: APROXIMADAS 17CM X 60CM;</t>
+          <t>RODO - BASE: INJETADA EM ABS, COM BORRACHA DUPLA; DIMENSAO BASE: 55CM APROXIMADAMENTE; CABO: DE ALUMINIO FRISADO DE 1,40CM;</t>
         </is>
       </c>
       <c r="X268">
@@ -32587,19 +32826,19 @@
         </is>
       </c>
       <c r="AB268">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC268">
-        <v>0.39</v>
+        <v>34.9</v>
       </c>
       <c r="AD268">
-        <v>0.39</v>
+        <v>34.9</v>
       </c>
       <c r="AE268">
-        <v>31200</v>
+        <v>1745</v>
       </c>
       <c r="AF268">
-        <v>31200</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="269">
@@ -32669,11 +32908,11 @@
         </is>
       </c>
       <c r="V269">
-        <v>1257625</v>
+        <v>1257587</v>
       </c>
       <c r="W269" t="inlineStr">
         <is>
-          <t>QUATERNARIO DE AMONIA - ASPECTO: LIQUIDO DE QUARTA GERACAO; CONCENTRACAO: CONCENTRADO E DILUICAO FINAL DE 1 X 240; UTILIZACAO: DESINFETANTE HOSPITALAR;</t>
+          <t>REFIL PARA LIMPEZA - IDENTIFICACAO: REFIL PARA LAMELO (PANO DE VARRICAO); MATERIA-PRIMA: TNT IMPREGNADO EM OLEO MINERAL NEUTRO; MEDIDAS: APROXIMADAS 17CM X 60CM;</t>
         </is>
       </c>
       <c r="X269">
@@ -32686,7 +32925,7 @@
       </c>
       <c r="Z269" t="inlineStr">
         <is>
-          <t>REAGENTES E PRODUTOS QUIMICOS</t>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
         </is>
       </c>
       <c r="AA269" t="inlineStr">
@@ -32695,19 +32934,19 @@
         </is>
       </c>
       <c r="AB269">
-        <v>90</v>
+        <v>80000</v>
       </c>
       <c r="AC269">
-        <v>351</v>
+        <v>0.39</v>
       </c>
       <c r="AD269">
-        <v>351</v>
+        <v>0.39</v>
       </c>
       <c r="AE269">
-        <v>31590</v>
+        <v>31200</v>
       </c>
       <c r="AF269">
-        <v>31590</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="270">
@@ -32777,11 +33016,11 @@
         </is>
       </c>
       <c r="V270">
-        <v>1258699</v>
+        <v>1257625</v>
       </c>
       <c r="W270" t="inlineStr">
         <is>
-          <t>ESPONJA SINTETICA PARA LIMPEZA - MATERIA-PRIMA: FIBRAS SINTETICAS E MINERAL ABRASIVO; TIPO: DUPLA FACE (VERMELHA E BRANCA); FORMATO: RETANGULAR (72MM X 135MM X 30MM);</t>
+          <t>QUATERNARIO DE AMONIA - ASPECTO: LIQUIDO DE QUARTA GERACAO; CONCENTRACAO: CONCENTRADO E DILUICAO FINAL DE 1 X 240; UTILIZACAO: DESINFETANTE HOSPITALAR;</t>
         </is>
       </c>
       <c r="X270">
@@ -32794,7 +33033,7 @@
       </c>
       <c r="Z270" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+          <t>REAGENTES E PRODUTOS QUIMICOS</t>
         </is>
       </c>
       <c r="AA270" t="inlineStr">
@@ -32803,19 +33042,19 @@
         </is>
       </c>
       <c r="AB270">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC270">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AD270">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AE270">
-        <v>2780</v>
+        <v>31590</v>
       </c>
       <c r="AF270">
-        <v>2780</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="271">
@@ -32885,11 +33124,11 @@
         </is>
       </c>
       <c r="V271">
-        <v>1259784</v>
+        <v>1258699</v>
       </c>
       <c r="W271" t="inlineStr">
         <is>
-          <t>ESPONJA SINTETICA PARA LIMPEZA - MATERIA-PRIMA: FIBRAS SINTETICAS E MATERIAL ABRASIVO; TIPO: DUPLA FACE(AMARELA E BRANCA); FORMATO: RETANGULAR - 103MM X 180MM X 30MM;</t>
+          <t>ESPONJA SINTETICA PARA LIMPEZA - MATERIA-PRIMA: FIBRAS SINTETICAS E MINERAL ABRASIVO; TIPO: DUPLA FACE (VERMELHA E BRANCA); FORMATO: RETANGULAR (72MM X 135MM X 30MM);</t>
         </is>
       </c>
       <c r="X271">
@@ -32911,19 +33150,19 @@
         </is>
       </c>
       <c r="AB271">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC271">
-        <v>0.6</v>
+        <v>1.39</v>
       </c>
       <c r="AD271">
-        <v>0.6</v>
+        <v>1.39</v>
       </c>
       <c r="AE271">
-        <v>1800</v>
+        <v>2780</v>
       </c>
       <c r="AF271">
-        <v>1800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="272">
@@ -32993,11 +33232,11 @@
         </is>
       </c>
       <c r="V272">
-        <v>1259792</v>
+        <v>1259784</v>
       </c>
       <c r="W272" t="inlineStr">
         <is>
-          <t>DETERGENTE - APRESENTACAO: LIQUIDO, BIODEGRADAVEL,SUPER CONCENTRADO; FRAGANCIA: NEUTRO A BASA DE SULFONATO DE SODIO;</t>
+          <t>ESPONJA SINTETICA PARA LIMPEZA - MATERIA-PRIMA: FIBRAS SINTETICAS E MATERIAL ABRASIVO; TIPO: DUPLA FACE(AMARELA E BRANCA); FORMATO: RETANGULAR - 103MM X 180MM X 30MM;</t>
         </is>
       </c>
       <c r="X272">
@@ -33019,19 +33258,19 @@
         </is>
       </c>
       <c r="AB272">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="AC272">
-        <v>15.35</v>
+        <v>0.6</v>
       </c>
       <c r="AD272">
-        <v>15.35</v>
+        <v>0.6</v>
       </c>
       <c r="AE272">
-        <v>1228</v>
+        <v>1800</v>
       </c>
       <c r="AF272">
-        <v>1228</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="273">
@@ -33101,11 +33340,11 @@
         </is>
       </c>
       <c r="V273">
-        <v>1260669</v>
+        <v>1259792</v>
       </c>
       <c r="W273" t="inlineStr">
         <is>
-          <t>FIBRA PARA LIMPEZA - FINALIDADE: PARA SUPERFICIES DELICADAS; MATERIA-PRIMA: NAO TECIDO A BASE DE FIBRAS SINTETICAS; DIMENSOES: 110 X 225MM E ESPESSURA DE APROX. 6,5 A 10,5MM; COR: AZUL;</t>
+          <t>DETERGENTE - APRESENTACAO: LIQUIDO, BIODEGRADAVEL,SUPER CONCENTRADO; FRAGANCIA: NEUTRO A BASA DE SULFONATO DE SODIO;</t>
         </is>
       </c>
       <c r="X273">
@@ -33127,19 +33366,19 @@
         </is>
       </c>
       <c r="AB273">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC273">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AD273">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AE273">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="AF273">
-        <v>1490</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="274">
@@ -33209,11 +33448,11 @@
         </is>
       </c>
       <c r="V274">
-        <v>1260677</v>
+        <v>1260669</v>
       </c>
       <c r="W274" t="inlineStr">
         <is>
-          <t>FIBRA PARA LIMPEZA - FINALIDADE: PARA SUPERFICIES DELICADAS; MATERIA-PRIMA: NAO TECIDO A BASE DE FIBRAS SINTETICAS; DIMENSOES: 110 X 225MM E ESPESSURA DE APROX. 6,5 A 10,5MM; COR: VERDE;</t>
+          <t>FIBRA PARA LIMPEZA - FINALIDADE: PARA SUPERFICIES DELICADAS; MATERIA-PRIMA: NAO TECIDO A BASE DE FIBRAS SINTETICAS; DIMENSOES: 110 X 225MM E ESPESSURA DE APROX. 6,5 A 10,5MM; COR: AZUL;</t>
         </is>
       </c>
       <c r="X274">
@@ -33235,19 +33474,19 @@
         </is>
       </c>
       <c r="AB274">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC274">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AD274">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE274">
-        <v>4770</v>
+        <v>1490</v>
       </c>
       <c r="AF274">
-        <v>4770</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="275">
@@ -33317,11 +33556,11 @@
         </is>
       </c>
       <c r="V275">
-        <v>1260731</v>
+        <v>1260677</v>
       </c>
       <c r="W275" t="inlineStr">
         <is>
-          <t>DESENCROSTANTE LIQUIDO - APLICACAO: LIMPADOR RAPIDA ACAO NA LIMPEZA E REMOCAO RESIDUOS; FINALIDADE: ESPUMA DE SABAO, RESIDUOS DE GORDURA EM BANHEIROS; TIPO: CONCENTRADO, BIODEGRADAVEL; COMPOSICAO: 1-OCTIL PIRROLIDONA, ACIDO HIDROACETICO ETC; ALCALINIDADE: NAO APLICAVEL; PH: IGUAL 1,00-2,00; DENSIDADE: RELATIVA IGUAL 1 AGUA=1;</t>
+          <t>FIBRA PARA LIMPEZA - FINALIDADE: PARA SUPERFICIES DELICADAS; MATERIA-PRIMA: NAO TECIDO A BASE DE FIBRAS SINTETICAS; DIMENSOES: 110 X 225MM E ESPESSURA DE APROX. 6,5 A 10,5MM; COR: VERDE;</t>
         </is>
       </c>
       <c r="X275">
@@ -33343,19 +33582,19 @@
         </is>
       </c>
       <c r="AB275">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC275">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AD275">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AE275">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
       <c r="AF275">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="276">
@@ -33425,11 +33664,11 @@
         </is>
       </c>
       <c r="V276">
-        <v>1687115</v>
+        <v>1260731</v>
       </c>
       <c r="W276" t="inlineStr">
         <is>
-          <t>VASSOURA -  TIPO DAS CERDAS: PIACAVA NATURAL; LARGURA BASE: NUMERO 5; MATERIAL BASE: MADEIRA REVESTIDA EM METAL; MATERIAL CABO: MADEIRA REVESTIDO PLASTICO; COMPRIMENTO CABO: 1,20 M;</t>
+          <t>DESENCROSTANTE LIQUIDO - APLICACAO: LIMPADOR RAPIDA ACAO NA LIMPEZA E REMOCAO RESIDUOS; FINALIDADE: ESPUMA DE SABAO, RESIDUOS DE GORDURA EM BANHEIROS; TIPO: CONCENTRADO, BIODEGRADAVEL; COMPOSICAO: 1-OCTIL PIRROLIDONA, ACIDO HIDROACETICO ETC; ALCALINIDADE: NAO APLICAVEL; PH: IGUAL 1,00-2,00; DENSIDADE: RELATIVA IGUAL 1 AGUA=1;</t>
         </is>
       </c>
       <c r="X276">
@@ -33454,16 +33693,16 @@
         <v>60</v>
       </c>
       <c r="AC276">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AD276">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AE276">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
       <c r="AF276">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
     </row>
     <row r="277">
@@ -33514,12 +33753,12 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>66.219.957/0001-31</t>
+          <t>36.447.719/0001-12</t>
         </is>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>AGUIMAR ANDRADE COMERCIO E ASSISTENCIA TECNICA EIRELI - EPP</t>
+          <t>PROF+ COMERCIO E DISTRIBUICAO DE PRODUTOS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="T277" t="inlineStr">
@@ -33533,11 +33772,11 @@
         </is>
       </c>
       <c r="V277">
-        <v>1257463</v>
+        <v>1687115</v>
       </c>
       <c r="W277" t="inlineStr">
         <is>
-          <t>REFIL PARA LIMPEZA - IDENTIFICACAO: REFIL PARA O SUPORTE DO SISTEMA DE LIMPEZA UMIDA; MATERIA-PRIMA: POLIESTER OU MICROFIBRA (COR AZUL); MEDIDAS: APROXIMADAS 45CM X 10CM;</t>
+          <t>VASSOURA -  TIPO DAS CERDAS: PIACAVA NATURAL; LARGURA BASE: NUMERO 5; MATERIAL BASE: MADEIRA REVESTIDA EM METAL; MATERIAL CABO: MADEIRA REVESTIDO PLASTICO; COMPRIMENTO CABO: 1,20 M;</t>
         </is>
       </c>
       <c r="X277">
@@ -33559,43 +33798,44 @@
         </is>
       </c>
       <c r="AB277">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AC277">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AD277">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AE277">
-        <v>6840</v>
+        <v>999</v>
       </c>
       <c r="AF277">
-        <v>6840</v>
+        <v>999</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2320310 000201/2020</t>
+          <t>2320310 000127/2020</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>http://www.transparencia.mg.gov.br/covid-19/compras-contratos/contratoscovid-detalharcompra/326183</t>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-03-2020/13-05-2020/1831016/0/0/19839/0/0/0/0/21741/85200085/175924/1692143/323219/2320310000127-2020</t>
         </is>
       </c>
       <c r="C278" s="2">
-        <v>44007</v>
+        <v>43944</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>aquisição de painéis de proteção de acrílico para instalação nas Recepções e Cadastros das unidades</t>
+          <t>Material de limpeza _x000D_
+SEI 2320.01.0004287/2020-78</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=201&amp;ano=2020</t>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=127&amp;ano=2020</t>
         </is>
       </c>
       <c r="F278">
@@ -33621,30 +33861,30 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>19.173.186/0001-09</t>
+          <t>66.219.957/0001-31</t>
         </is>
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t>ACRILDAM INDUSTRIA E COMERCIO ARTEFATOS DE ACRILICO LTDA -EPP</t>
+          <t>AGUIMAR ANDRADE COMERCIO E ASSISTENCIA TECNICA EIRELI - EPP</t>
         </is>
       </c>
       <c r="T278" t="inlineStr">
         <is>
-          <t>2320.01.0007282/2020-14</t>
+          <t>2320.01.0004287/2020-78</t>
         </is>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfEANceHYe9YALv-Lkm_pd1K4zyhaeV8RlXJ-jfusexf</t>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNdJH-sA_3hgPBGJ42wyKT1LxVuwm-WE3z2iJzf6SLR3I</t>
         </is>
       </c>
       <c r="V278">
-        <v>6297</v>
+        <v>1257463</v>
       </c>
       <c r="W278" t="inlineStr">
         <is>
-          <t>SERVICOS DE CONFECCAO DE PECAS E ACESSORIOS DE ACRILICO EM GERAL.</t>
+          <t>REFIL PARA LIMPEZA - IDENTIFICACAO: REFIL PARA O SUPORTE DO SISTEMA DE LIMPEZA UMIDA; MATERIA-PRIMA: POLIESTER OU MICROFIBRA (COR AZUL); MEDIDAS: APROXIMADAS 45CM X 10CM;</t>
         </is>
       </c>
       <c r="X278">
@@ -33657,28 +33897,242 @@
       </c>
       <c r="Z278" t="inlineStr">
         <is>
+          <t>EQUIPAMENTOS E MATERIAIS PARA CONSERVACAO E LIMPEZA</t>
+        </is>
+      </c>
+      <c r="AA278" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+      <c r="AB278">
+        <v>200</v>
+      </c>
+      <c r="AC278">
+        <v>34.2</v>
+      </c>
+      <c r="AD278">
+        <v>34.2</v>
+      </c>
+      <c r="AE278">
+        <v>6840</v>
+      </c>
+      <c r="AF278">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2320310 000201/2020</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/covid-19/compras-contratos/contratoscovid-detalharcompra/326183</t>
+        </is>
+      </c>
+      <c r="C279" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>aquisição de painéis de proteção de acrílico para instalação nas Recepções e Cadastros das unidades</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=201&amp;ano=2020</t>
+        </is>
+      </c>
+      <c r="F279">
+        <v>2320</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>19.173.186/0001-09</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>ACRILDAM INDUSTRIA E COMERCIO ARTEFATOS DE ACRILICO LTDA -EPP</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>2320.01.0007282/2020-14</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNfEANceHYe9YALv-Lkm_pd1K4zyhaeV8RlXJ-jfusexf</t>
+        </is>
+      </c>
+      <c r="V279">
+        <v>6297</v>
+      </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>SERVICOS DE CONFECCAO DE PECAS E ACESSORIOS DE ACRILICO EM GERAL.</t>
+        </is>
+      </c>
+      <c r="X279">
+        <v>2321</v>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="Z279" t="inlineStr">
+        <is>
           <t>SERVICOS DE CONFECCAO DE ARTEFATOS DE ACRILICO</t>
         </is>
       </c>
-      <c r="AA278" t="inlineStr">
+      <c r="AA279" t="inlineStr">
         <is>
           <t>MINAS GERAIS</t>
         </is>
       </c>
-      <c r="AB278">
+      <c r="AB279">
         <v>0</v>
       </c>
-      <c r="AC278">
+      <c r="AC279">
         <v>9972</v>
       </c>
-      <c r="AD278">
+      <c r="AD279">
         <v>8496</v>
       </c>
-      <c r="AE278">
+      <c r="AE279">
         <v>9972</v>
       </c>
-      <c r="AF278">
+      <c r="AF279">
         <v>8496</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2320310 000207/2020</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>http://www.transparencia.mg.gov.br/compras-e-patrimonio/compras-e-contratos/comprasecontratos-procedimento/3/2020/01-01-2020/16-07-2020/1831016/0/0/17532/0/0/0/0/19680/42400112/140259/1408623/326938/2320310000207-2020</t>
+        </is>
+      </c>
+      <c r="C280" s="2">
+        <v>44012</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>SEI 6246/2020-50 - Avental de proteção em PVC</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>https://www1.compras.mg.gov.br/processocompra/processo/consultaProcessoCompra.html?metodo=pesquisar&amp;codigoUnidadeCompra=2320310&amp;numero=207&amp;ano=2020</t>
+        </is>
+      </c>
+      <c r="F280">
+        <v>2320</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MG</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Dispensa de Licitação</t>
+        </is>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>20.235.404/0001-71</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>DCB DISTRIBUIDORA CIRURGICA BRASILEIRA LTDA</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>2320.01.0006246/2020-50</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>https://www.sei.mg.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?IC2o8Z7ACQH4LdQ4jJLJzjPBiLtP6l2FsQacllhUf-duzEubalut9yvd8-CzYYNLu7pd-wiM0k633-D6khhQNefpg6_xYCs_I1MvJkTlDvjKHcyq3H27yagU3-55WLVE</t>
+        </is>
+      </c>
+      <c r="V280">
+        <v>1408623</v>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>AVENTAL DE SEGURANCA - MATERIA-PRIMA: PVC; REVESTIMENTO: PVC EM AMBAS AS FACES; TAMANHO: 120CM(COMP.)X 80CM(LARG.); MODELO: FRONTAL E DE MANGAS LONGAS;</t>
+        </is>
+      </c>
+      <c r="X280">
+        <v>2321</v>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>FUNDACAO CENTRO DE HEMATOLOGIA E HEMOTERAPIA DE MINAS GERAIS</t>
+        </is>
+      </c>
+      <c r="Z280" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTOS,COMPONENTES E ACESSORIOS PARA PROTECAO INDIVIDUAL - EPI</t>
+        </is>
+      </c>
+      <c r="AA280" t="inlineStr">
+        <is>
+          <t>Contagem</t>
+        </is>
+      </c>
+      <c r="AB280">
+        <v>2000</v>
+      </c>
+      <c r="AC280">
+        <v>18.69</v>
+      </c>
+      <c r="AD280">
+        <v>14.95</v>
+      </c>
+      <c r="AE280">
+        <v>37380</v>
+      </c>
+      <c r="AF280">
+        <v>29900</v>
       </c>
     </row>
   </sheetData>
